--- a/G18_ゲームフロー.xlsx
+++ b/G18_ゲームフロー.xlsx
@@ -5,15 +5,19 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\雄太\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\雄太\Documents\CaseStudy\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8880" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8880" firstSheet="1" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="タイトルフロー" sheetId="4" r:id="rId1"/>
+    <sheet name="タイトルフロー必要リソース" sheetId="5" r:id="rId2"/>
+    <sheet name="ゲームシーンフロー" sheetId="1" r:id="rId3"/>
+    <sheet name="ゲームシーン必要リソース" sheetId="2" r:id="rId4"/>
+    <sheet name="リザルトフロー" sheetId="3" r:id="rId5"/>
+    <sheet name="リザルトフロー必要リソース" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -25,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="56">
   <si>
     <t>表示物</t>
     <rPh sb="0" eb="2">
@@ -58,10 +62,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>100x100</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>内容</t>
     <rPh sb="0" eb="2">
       <t>ナイヨウ</t>
@@ -354,6 +354,470 @@
     </rPh>
     <rPh sb="19" eb="21">
       <t>バアイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>タイトル</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>BG</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>画面サイズ</t>
+    <rPh sb="0" eb="2">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>画面上部固定。</t>
+    <rPh sb="0" eb="2">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ジョウブ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>コテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>無し。</t>
+    <rPh sb="0" eb="1">
+      <t>ナ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>プログラム</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>デザイン</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>タイトル名のテクスチャです。</t>
+    <rPh sb="4" eb="5">
+      <t>メイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>文字ごとの分割はありません。＋α縁取りと文字を別々に書く。色のみグラデーションの画像を作っておく。文字の背景に使うアニメーション用のテクスチャーを書く。</t>
+    <rPh sb="0" eb="2">
+      <t>モジ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ブンカツ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>フチド</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>モジ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>ベツベツ</t>
+    </rPh>
+    <rPh sb="26" eb="27">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="29" eb="30">
+      <t>イロ</t>
+    </rPh>
+    <rPh sb="40" eb="42">
+      <t>ガゾウ</t>
+    </rPh>
+    <rPh sb="43" eb="44">
+      <t>ツク</t>
+    </rPh>
+    <rPh sb="49" eb="51">
+      <t>モジ</t>
+    </rPh>
+    <rPh sb="52" eb="54">
+      <t>ハイケイ</t>
+    </rPh>
+    <rPh sb="55" eb="56">
+      <t>ツカ</t>
+    </rPh>
+    <rPh sb="64" eb="65">
+      <t>ヨウ</t>
+    </rPh>
+    <rPh sb="73" eb="74">
+      <t>カ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>配置する。＋α文字を文字の背景用のテクスチャを波立たせる（横）。色のみの画像のUVアニメーションで文字内部の色変換（MRT）。</t>
+    <rPh sb="0" eb="2">
+      <t>ハイチ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>モジ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>モジ</t>
+    </rPh>
+    <rPh sb="13" eb="16">
+      <t>ハイケイヨウ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>ナミダ</t>
+    </rPh>
+    <rPh sb="29" eb="30">
+      <t>ヨコ</t>
+    </rPh>
+    <rPh sb="32" eb="33">
+      <t>イロ</t>
+    </rPh>
+    <rPh sb="36" eb="38">
+      <t>ガゾウ</t>
+    </rPh>
+    <rPh sb="49" eb="51">
+      <t>モジ</t>
+    </rPh>
+    <rPh sb="51" eb="53">
+      <t>ナイブ</t>
+    </rPh>
+    <rPh sb="54" eb="55">
+      <t>イロ</t>
+    </rPh>
+    <rPh sb="55" eb="57">
+      <t>ヘンカン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>背景の画像です。</t>
+    <rPh sb="0" eb="2">
+      <t>ハイケイ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ガゾウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>配置する。＋α波立たせる（横）。色のみの画像のUVアニメーションで色変換（MRT）。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>一枚ペラでOK。上下左右がつながるように工夫してください。＋α複数枚を組み合わせて世界観を表現（検討中）。そのほかステージを想像させるようなオブジェクトの制作。</t>
+    <rPh sb="0" eb="2">
+      <t>イチマイ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ジョウゲ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>サユウ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>クフウ</t>
+    </rPh>
+    <rPh sb="41" eb="44">
+      <t>セカイカン</t>
+    </rPh>
+    <rPh sb="45" eb="47">
+      <t>ヒョウゲン</t>
+    </rPh>
+    <rPh sb="62" eb="64">
+      <t>ソウゾウ</t>
+    </rPh>
+    <rPh sb="77" eb="79">
+      <t>セイサク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>PUSH　BUTTON</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>プレイヤーにボタンを押して！と提示するボタン。</t>
+    <rPh sb="10" eb="11">
+      <t>オ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>テイジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>画面下部固定。タイトル表示から0.9sec経ってから表示。</t>
+    <rPh sb="0" eb="2">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>シタ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ブ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>コテイ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>タ</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>一枚ペラでOK。</t>
+    <rPh sb="0" eb="2">
+      <t>イチマイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>点滅させてください。＋αプレイヤーがボタンを押したら、高速点滅</t>
+    <rPh sb="0" eb="2">
+      <t>テンメツ</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>オ</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>コウソク</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>テンメツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>フォントにお任せ。なるべく大きく！縦が200以上。</t>
+    <rPh sb="6" eb="7">
+      <t>マカ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>オオ</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>タテ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>イジョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>フォントにお任せ。なるべく大きく！縦が200以上。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>メニュー画面背景</t>
+    <rPh sb="4" eb="6">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ハイケイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>400x400</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>メニュー画面を見やすくするための画像。</t>
+    <rPh sb="4" eb="6">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ミ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ガゾウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>表示するだけ。</t>
+    <rPh sb="0" eb="2">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>プランナーでもできるか</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>○</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>×</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>△</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>げーむ、おぷしょん、あそびかた</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>フォントにお任せ。なるべく大きく。縦200以上。</t>
+    <rPh sb="6" eb="7">
+      <t>マカ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>オオ</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>タテ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>イジョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>無し。プレイヤーがボタンを押したら表示(中央)。</t>
+    <rPh sb="0" eb="1">
+      <t>ナ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>オ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>チュウオウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>無し。メニュー画面の背景の中に表示。上から、げーむ、おぷしょん、あそびかた。</t>
+    <rPh sb="0" eb="1">
+      <t>ナ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ハイケイ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>ナカ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>ウエ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>プレイヤーにメニューを選択させるもの。</t>
+    <rPh sb="11" eb="13">
+      <t>センタク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>げーむ、おぷしょん、あそびかたの三種類。</t>
+    <rPh sb="16" eb="19">
+      <t>サンシュルイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>カーソル</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>100x100</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>大きさ（横x縦）</t>
+    <rPh sb="0" eb="1">
+      <t>オオ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ヨコ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>タテ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>プレイヤーが選択したところを表示。</t>
+    <rPh sb="6" eb="8">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>プレイヤーが選択したところを分からせるためのもの。</t>
+    <rPh sb="6" eb="8">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>ワ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>プレイヤーの操作により移動。＋α決定ボタンを押したら高速点滅。移動の際に慣性をつける。</t>
+    <rPh sb="6" eb="8">
+      <t>ソウサ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>イドウ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ケッテイ</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>オ</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>コウソク</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>テンメツ</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>イドウ</t>
+    </rPh>
+    <rPh sb="34" eb="35">
+      <t>サイ</t>
+    </rPh>
+    <rPh sb="36" eb="38">
+      <t>カンセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>特になし。プログラマーさんが作る！</t>
+    <rPh sb="0" eb="1">
+      <t>トク</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>ツク</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -387,7 +851,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="12">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -512,42 +976,59 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thick">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -561,26 +1042,62 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2824,8 +3341,963 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView topLeftCell="A39" zoomScale="81" zoomScaleNormal="81" workbookViewId="0">
-      <selection activeCell="V47" sqref="V47"/>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B1:X32"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="B5" workbookViewId="0">
+      <selection activeCell="K34" sqref="K34"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="2:24" ht="13.8" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="2:24" ht="13.8" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="4"/>
+      <c r="D2" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" s="5"/>
+      <c r="F2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="G2" s="5"/>
+      <c r="H2" s="5"/>
+      <c r="I2" s="4"/>
+      <c r="J2" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K2" s="5"/>
+      <c r="L2" s="5"/>
+      <c r="M2" s="4"/>
+      <c r="N2" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="O2" s="5"/>
+      <c r="P2" s="5"/>
+      <c r="Q2" s="4"/>
+      <c r="R2" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="S2" s="5"/>
+      <c r="T2" s="5"/>
+      <c r="U2" s="4"/>
+      <c r="V2" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="W2" s="23"/>
+      <c r="X2" s="23"/>
+    </row>
+    <row r="3" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="B3" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" s="7"/>
+      <c r="D3" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="E3" s="15"/>
+      <c r="F3" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="G3" s="11"/>
+      <c r="H3" s="11"/>
+      <c r="I3" s="12"/>
+      <c r="J3" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="K3" s="14"/>
+      <c r="L3" s="14"/>
+      <c r="M3" s="15"/>
+      <c r="N3" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="O3" s="14"/>
+      <c r="P3" s="14"/>
+      <c r="Q3" s="15"/>
+      <c r="R3" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="S3" s="14"/>
+      <c r="T3" s="14"/>
+      <c r="U3" s="15"/>
+      <c r="V3" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="W3" s="21"/>
+      <c r="X3" s="21"/>
+    </row>
+    <row r="4" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="B4" s="8"/>
+      <c r="C4" s="9"/>
+      <c r="D4" s="10"/>
+      <c r="E4" s="12"/>
+      <c r="F4" s="10"/>
+      <c r="G4" s="11"/>
+      <c r="H4" s="11"/>
+      <c r="I4" s="12"/>
+      <c r="J4" s="10"/>
+      <c r="K4" s="11"/>
+      <c r="L4" s="11"/>
+      <c r="M4" s="12"/>
+      <c r="N4" s="10"/>
+      <c r="O4" s="11"/>
+      <c r="P4" s="11"/>
+      <c r="Q4" s="12"/>
+      <c r="R4" s="10"/>
+      <c r="S4" s="11"/>
+      <c r="T4" s="11"/>
+      <c r="U4" s="12"/>
+      <c r="V4" s="8"/>
+      <c r="W4" s="21"/>
+      <c r="X4" s="21"/>
+    </row>
+    <row r="5" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="B5" s="8"/>
+      <c r="C5" s="9"/>
+      <c r="D5" s="10"/>
+      <c r="E5" s="12"/>
+      <c r="F5" s="10"/>
+      <c r="G5" s="11"/>
+      <c r="H5" s="11"/>
+      <c r="I5" s="12"/>
+      <c r="J5" s="10"/>
+      <c r="K5" s="11"/>
+      <c r="L5" s="11"/>
+      <c r="M5" s="12"/>
+      <c r="N5" s="10"/>
+      <c r="O5" s="11"/>
+      <c r="P5" s="11"/>
+      <c r="Q5" s="12"/>
+      <c r="R5" s="10"/>
+      <c r="S5" s="11"/>
+      <c r="T5" s="11"/>
+      <c r="U5" s="12"/>
+      <c r="V5" s="8"/>
+      <c r="W5" s="21"/>
+      <c r="X5" s="21"/>
+    </row>
+    <row r="6" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="B6" s="8"/>
+      <c r="C6" s="9"/>
+      <c r="D6" s="10"/>
+      <c r="E6" s="12"/>
+      <c r="F6" s="10"/>
+      <c r="G6" s="11"/>
+      <c r="H6" s="11"/>
+      <c r="I6" s="12"/>
+      <c r="J6" s="10"/>
+      <c r="K6" s="11"/>
+      <c r="L6" s="11"/>
+      <c r="M6" s="12"/>
+      <c r="N6" s="10"/>
+      <c r="O6" s="11"/>
+      <c r="P6" s="11"/>
+      <c r="Q6" s="12"/>
+      <c r="R6" s="10"/>
+      <c r="S6" s="11"/>
+      <c r="T6" s="11"/>
+      <c r="U6" s="12"/>
+      <c r="V6" s="8"/>
+      <c r="W6" s="21"/>
+      <c r="X6" s="21"/>
+    </row>
+    <row r="7" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="B7" s="8"/>
+      <c r="C7" s="9"/>
+      <c r="D7" s="10"/>
+      <c r="E7" s="12"/>
+      <c r="F7" s="10"/>
+      <c r="G7" s="11"/>
+      <c r="H7" s="11"/>
+      <c r="I7" s="12"/>
+      <c r="J7" s="10"/>
+      <c r="K7" s="11"/>
+      <c r="L7" s="11"/>
+      <c r="M7" s="12"/>
+      <c r="N7" s="10"/>
+      <c r="O7" s="11"/>
+      <c r="P7" s="11"/>
+      <c r="Q7" s="12"/>
+      <c r="R7" s="10"/>
+      <c r="S7" s="11"/>
+      <c r="T7" s="11"/>
+      <c r="U7" s="12"/>
+      <c r="V7" s="8"/>
+      <c r="W7" s="21"/>
+      <c r="X7" s="21"/>
+    </row>
+    <row r="8" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="B8" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8" s="12"/>
+      <c r="D8" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="E8" s="9"/>
+      <c r="F8" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="G8" s="11"/>
+      <c r="H8" s="11"/>
+      <c r="I8" s="12"/>
+      <c r="J8" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="K8" s="11"/>
+      <c r="L8" s="11"/>
+      <c r="M8" s="11"/>
+      <c r="N8" s="24" t="s">
+        <v>26</v>
+      </c>
+      <c r="O8" s="11"/>
+      <c r="P8" s="11"/>
+      <c r="Q8" s="25"/>
+      <c r="R8" s="24" t="s">
+        <v>27</v>
+      </c>
+      <c r="S8" s="11"/>
+      <c r="T8" s="11"/>
+      <c r="U8" s="25"/>
+      <c r="V8" s="26" t="s">
+        <v>41</v>
+      </c>
+      <c r="W8" s="21"/>
+      <c r="X8" s="21"/>
+    </row>
+    <row r="9" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="B9" s="10"/>
+      <c r="C9" s="12"/>
+      <c r="D9" s="8"/>
+      <c r="E9" s="9"/>
+      <c r="F9" s="10"/>
+      <c r="G9" s="11"/>
+      <c r="H9" s="11"/>
+      <c r="I9" s="12"/>
+      <c r="J9" s="10"/>
+      <c r="K9" s="11"/>
+      <c r="L9" s="11"/>
+      <c r="M9" s="11"/>
+      <c r="N9" s="24"/>
+      <c r="O9" s="11"/>
+      <c r="P9" s="11"/>
+      <c r="Q9" s="25"/>
+      <c r="R9" s="24"/>
+      <c r="S9" s="11"/>
+      <c r="T9" s="11"/>
+      <c r="U9" s="25"/>
+      <c r="V9" s="26"/>
+      <c r="W9" s="21"/>
+      <c r="X9" s="21"/>
+    </row>
+    <row r="10" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="B10" s="10"/>
+      <c r="C10" s="12"/>
+      <c r="D10" s="8"/>
+      <c r="E10" s="9"/>
+      <c r="F10" s="10"/>
+      <c r="G10" s="11"/>
+      <c r="H10" s="11"/>
+      <c r="I10" s="12"/>
+      <c r="J10" s="10"/>
+      <c r="K10" s="11"/>
+      <c r="L10" s="11"/>
+      <c r="M10" s="11"/>
+      <c r="N10" s="24"/>
+      <c r="O10" s="11"/>
+      <c r="P10" s="11"/>
+      <c r="Q10" s="25"/>
+      <c r="R10" s="24"/>
+      <c r="S10" s="11"/>
+      <c r="T10" s="11"/>
+      <c r="U10" s="25"/>
+      <c r="V10" s="26"/>
+      <c r="W10" s="21"/>
+      <c r="X10" s="21"/>
+    </row>
+    <row r="11" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="B11" s="10"/>
+      <c r="C11" s="12"/>
+      <c r="D11" s="8"/>
+      <c r="E11" s="9"/>
+      <c r="F11" s="10"/>
+      <c r="G11" s="11"/>
+      <c r="H11" s="11"/>
+      <c r="I11" s="12"/>
+      <c r="J11" s="10"/>
+      <c r="K11" s="11"/>
+      <c r="L11" s="11"/>
+      <c r="M11" s="11"/>
+      <c r="N11" s="24"/>
+      <c r="O11" s="11"/>
+      <c r="P11" s="11"/>
+      <c r="Q11" s="25"/>
+      <c r="R11" s="24"/>
+      <c r="S11" s="11"/>
+      <c r="T11" s="11"/>
+      <c r="U11" s="25"/>
+      <c r="V11" s="26"/>
+      <c r="W11" s="21"/>
+      <c r="X11" s="21"/>
+    </row>
+    <row r="12" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="B12" s="10"/>
+      <c r="C12" s="12"/>
+      <c r="D12" s="8"/>
+      <c r="E12" s="9"/>
+      <c r="F12" s="10"/>
+      <c r="G12" s="11"/>
+      <c r="H12" s="11"/>
+      <c r="I12" s="12"/>
+      <c r="J12" s="10"/>
+      <c r="K12" s="11"/>
+      <c r="L12" s="11"/>
+      <c r="M12" s="11"/>
+      <c r="N12" s="24"/>
+      <c r="O12" s="11"/>
+      <c r="P12" s="11"/>
+      <c r="Q12" s="25"/>
+      <c r="R12" s="24"/>
+      <c r="S12" s="11"/>
+      <c r="T12" s="11"/>
+      <c r="U12" s="25"/>
+      <c r="V12" s="26"/>
+      <c r="W12" s="21"/>
+      <c r="X12" s="21"/>
+    </row>
+    <row r="13" spans="2:24" ht="13.2" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B13" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="C13" s="12"/>
+      <c r="D13" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="E13" s="12"/>
+      <c r="F13" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="G13" s="11"/>
+      <c r="H13" s="11"/>
+      <c r="I13" s="12"/>
+      <c r="J13" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="K13" s="11"/>
+      <c r="L13" s="11"/>
+      <c r="M13" s="12"/>
+      <c r="N13" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="O13" s="11"/>
+      <c r="P13" s="11"/>
+      <c r="Q13" s="12"/>
+      <c r="R13" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="S13" s="23"/>
+      <c r="T13" s="23"/>
+      <c r="U13" s="9"/>
+      <c r="V13" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="W13" s="21"/>
+      <c r="X13" s="21"/>
+    </row>
+    <row r="14" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="B14" s="10"/>
+      <c r="C14" s="12"/>
+      <c r="D14" s="10"/>
+      <c r="E14" s="12"/>
+      <c r="F14" s="10"/>
+      <c r="G14" s="11"/>
+      <c r="H14" s="11"/>
+      <c r="I14" s="12"/>
+      <c r="J14" s="10"/>
+      <c r="K14" s="11"/>
+      <c r="L14" s="11"/>
+      <c r="M14" s="12"/>
+      <c r="N14" s="10"/>
+      <c r="O14" s="11"/>
+      <c r="P14" s="11"/>
+      <c r="Q14" s="12"/>
+      <c r="R14" s="8"/>
+      <c r="S14" s="23"/>
+      <c r="T14" s="23"/>
+      <c r="U14" s="9"/>
+      <c r="V14" s="8"/>
+      <c r="W14" s="21"/>
+      <c r="X14" s="21"/>
+    </row>
+    <row r="15" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="B15" s="10"/>
+      <c r="C15" s="12"/>
+      <c r="D15" s="10"/>
+      <c r="E15" s="12"/>
+      <c r="F15" s="10"/>
+      <c r="G15" s="11"/>
+      <c r="H15" s="11"/>
+      <c r="I15" s="12"/>
+      <c r="J15" s="10"/>
+      <c r="K15" s="11"/>
+      <c r="L15" s="11"/>
+      <c r="M15" s="12"/>
+      <c r="N15" s="10"/>
+      <c r="O15" s="11"/>
+      <c r="P15" s="11"/>
+      <c r="Q15" s="12"/>
+      <c r="R15" s="8"/>
+      <c r="S15" s="23"/>
+      <c r="T15" s="23"/>
+      <c r="U15" s="9"/>
+      <c r="V15" s="8"/>
+      <c r="W15" s="21"/>
+      <c r="X15" s="21"/>
+    </row>
+    <row r="16" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="B16" s="10"/>
+      <c r="C16" s="12"/>
+      <c r="D16" s="10"/>
+      <c r="E16" s="12"/>
+      <c r="F16" s="10"/>
+      <c r="G16" s="11"/>
+      <c r="H16" s="11"/>
+      <c r="I16" s="12"/>
+      <c r="J16" s="10"/>
+      <c r="K16" s="11"/>
+      <c r="L16" s="11"/>
+      <c r="M16" s="12"/>
+      <c r="N16" s="10"/>
+      <c r="O16" s="11"/>
+      <c r="P16" s="11"/>
+      <c r="Q16" s="12"/>
+      <c r="R16" s="8"/>
+      <c r="S16" s="23"/>
+      <c r="T16" s="23"/>
+      <c r="U16" s="9"/>
+      <c r="V16" s="8"/>
+      <c r="W16" s="21"/>
+      <c r="X16" s="21"/>
+    </row>
+    <row r="17" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="B17" s="10"/>
+      <c r="C17" s="12"/>
+      <c r="D17" s="10"/>
+      <c r="E17" s="12"/>
+      <c r="F17" s="10"/>
+      <c r="G17" s="11"/>
+      <c r="H17" s="11"/>
+      <c r="I17" s="12"/>
+      <c r="J17" s="10"/>
+      <c r="K17" s="11"/>
+      <c r="L17" s="11"/>
+      <c r="M17" s="12"/>
+      <c r="N17" s="10"/>
+      <c r="O17" s="11"/>
+      <c r="P17" s="11"/>
+      <c r="Q17" s="12"/>
+      <c r="R17" s="8"/>
+      <c r="S17" s="23"/>
+      <c r="T17" s="23"/>
+      <c r="U17" s="9"/>
+      <c r="V17" s="8"/>
+      <c r="W17" s="21"/>
+      <c r="X17" s="21"/>
+    </row>
+    <row r="18" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="B18" s="27" t="s">
+        <v>35</v>
+      </c>
+      <c r="C18" s="27"/>
+      <c r="D18" s="28" t="s">
+        <v>36</v>
+      </c>
+      <c r="E18" s="28"/>
+      <c r="F18" s="27" t="s">
+        <v>45</v>
+      </c>
+      <c r="G18" s="27"/>
+      <c r="H18" s="27"/>
+      <c r="I18" s="27"/>
+      <c r="J18" s="27" t="s">
+        <v>37</v>
+      </c>
+      <c r="K18" s="27"/>
+      <c r="L18" s="27"/>
+      <c r="M18" s="27"/>
+      <c r="N18" s="27" t="s">
+        <v>38</v>
+      </c>
+      <c r="O18" s="27"/>
+      <c r="P18" s="27"/>
+      <c r="Q18" s="27"/>
+      <c r="R18" s="28" t="s">
+        <v>31</v>
+      </c>
+      <c r="S18" s="28"/>
+      <c r="T18" s="28"/>
+      <c r="U18" s="28"/>
+      <c r="V18" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="W18" s="21"/>
+      <c r="X18" s="21"/>
+    </row>
+    <row r="19" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="B19" s="27"/>
+      <c r="C19" s="27"/>
+      <c r="D19" s="28"/>
+      <c r="E19" s="28"/>
+      <c r="F19" s="27"/>
+      <c r="G19" s="27"/>
+      <c r="H19" s="27"/>
+      <c r="I19" s="27"/>
+      <c r="J19" s="27"/>
+      <c r="K19" s="27"/>
+      <c r="L19" s="27"/>
+      <c r="M19" s="27"/>
+      <c r="N19" s="27"/>
+      <c r="O19" s="27"/>
+      <c r="P19" s="27"/>
+      <c r="Q19" s="27"/>
+      <c r="R19" s="28"/>
+      <c r="S19" s="28"/>
+      <c r="T19" s="28"/>
+      <c r="U19" s="28"/>
+      <c r="V19" s="8"/>
+      <c r="W19" s="21"/>
+      <c r="X19" s="21"/>
+    </row>
+    <row r="20" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="B20" s="27"/>
+      <c r="C20" s="27"/>
+      <c r="D20" s="28"/>
+      <c r="E20" s="28"/>
+      <c r="F20" s="27"/>
+      <c r="G20" s="27"/>
+      <c r="H20" s="27"/>
+      <c r="I20" s="27"/>
+      <c r="J20" s="27"/>
+      <c r="K20" s="27"/>
+      <c r="L20" s="27"/>
+      <c r="M20" s="27"/>
+      <c r="N20" s="27"/>
+      <c r="O20" s="27"/>
+      <c r="P20" s="27"/>
+      <c r="Q20" s="27"/>
+      <c r="R20" s="28"/>
+      <c r="S20" s="28"/>
+      <c r="T20" s="28"/>
+      <c r="U20" s="28"/>
+      <c r="V20" s="8"/>
+      <c r="W20" s="21"/>
+      <c r="X20" s="21"/>
+    </row>
+    <row r="21" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="B21" s="27"/>
+      <c r="C21" s="27"/>
+      <c r="D21" s="28"/>
+      <c r="E21" s="28"/>
+      <c r="F21" s="27"/>
+      <c r="G21" s="27"/>
+      <c r="H21" s="27"/>
+      <c r="I21" s="27"/>
+      <c r="J21" s="27"/>
+      <c r="K21" s="27"/>
+      <c r="L21" s="27"/>
+      <c r="M21" s="27"/>
+      <c r="N21" s="27"/>
+      <c r="O21" s="27"/>
+      <c r="P21" s="27"/>
+      <c r="Q21" s="27"/>
+      <c r="R21" s="28"/>
+      <c r="S21" s="28"/>
+      <c r="T21" s="28"/>
+      <c r="U21" s="28"/>
+      <c r="V21" s="8"/>
+      <c r="W21" s="21"/>
+      <c r="X21" s="21"/>
+    </row>
+    <row r="22" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="B22" s="27"/>
+      <c r="C22" s="27"/>
+      <c r="D22" s="28"/>
+      <c r="E22" s="28"/>
+      <c r="F22" s="27"/>
+      <c r="G22" s="27"/>
+      <c r="H22" s="27"/>
+      <c r="I22" s="27"/>
+      <c r="J22" s="27"/>
+      <c r="K22" s="27"/>
+      <c r="L22" s="27"/>
+      <c r="M22" s="27"/>
+      <c r="N22" s="27"/>
+      <c r="O22" s="27"/>
+      <c r="P22" s="27"/>
+      <c r="Q22" s="27"/>
+      <c r="R22" s="28"/>
+      <c r="S22" s="28"/>
+      <c r="T22" s="28"/>
+      <c r="U22" s="28"/>
+      <c r="V22" s="8"/>
+      <c r="W22" s="21"/>
+      <c r="X22" s="21"/>
+    </row>
+    <row r="23" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="B23" s="27" t="s">
+        <v>43</v>
+      </c>
+      <c r="C23" s="27"/>
+      <c r="D23" s="27" t="s">
+        <v>44</v>
+      </c>
+      <c r="E23" s="27"/>
+      <c r="F23" s="27" t="s">
+        <v>46</v>
+      </c>
+      <c r="G23" s="27"/>
+      <c r="H23" s="27"/>
+      <c r="I23" s="27"/>
+      <c r="J23" s="28" t="s">
+        <v>47</v>
+      </c>
+      <c r="K23" s="28"/>
+      <c r="L23" s="28"/>
+      <c r="M23" s="28"/>
+      <c r="N23" s="28" t="s">
+        <v>38</v>
+      </c>
+      <c r="O23" s="28"/>
+      <c r="P23" s="28"/>
+      <c r="Q23" s="28"/>
+      <c r="R23" s="27" t="s">
+        <v>48</v>
+      </c>
+      <c r="S23" s="27"/>
+      <c r="T23" s="27"/>
+      <c r="U23" s="27"/>
+      <c r="V23" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="W23" s="21"/>
+      <c r="X23" s="21"/>
+    </row>
+    <row r="24" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="B24" s="27"/>
+      <c r="C24" s="27"/>
+      <c r="D24" s="27"/>
+      <c r="E24" s="27"/>
+      <c r="F24" s="27"/>
+      <c r="G24" s="27"/>
+      <c r="H24" s="27"/>
+      <c r="I24" s="27"/>
+      <c r="J24" s="28"/>
+      <c r="K24" s="28"/>
+      <c r="L24" s="28"/>
+      <c r="M24" s="28"/>
+      <c r="N24" s="28"/>
+      <c r="O24" s="28"/>
+      <c r="P24" s="28"/>
+      <c r="Q24" s="28"/>
+      <c r="R24" s="27"/>
+      <c r="S24" s="27"/>
+      <c r="T24" s="27"/>
+      <c r="U24" s="27"/>
+      <c r="V24" s="8"/>
+      <c r="W24" s="21"/>
+      <c r="X24" s="21"/>
+    </row>
+    <row r="25" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="B25" s="27"/>
+      <c r="C25" s="27"/>
+      <c r="D25" s="27"/>
+      <c r="E25" s="27"/>
+      <c r="F25" s="27"/>
+      <c r="G25" s="27"/>
+      <c r="H25" s="27"/>
+      <c r="I25" s="27"/>
+      <c r="J25" s="28"/>
+      <c r="K25" s="28"/>
+      <c r="L25" s="28"/>
+      <c r="M25" s="28"/>
+      <c r="N25" s="28"/>
+      <c r="O25" s="28"/>
+      <c r="P25" s="28"/>
+      <c r="Q25" s="28"/>
+      <c r="R25" s="27"/>
+      <c r="S25" s="27"/>
+      <c r="T25" s="27"/>
+      <c r="U25" s="27"/>
+      <c r="V25" s="8"/>
+      <c r="W25" s="21"/>
+      <c r="X25" s="21"/>
+    </row>
+    <row r="26" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="B26" s="27"/>
+      <c r="C26" s="27"/>
+      <c r="D26" s="27"/>
+      <c r="E26" s="27"/>
+      <c r="F26" s="27"/>
+      <c r="G26" s="27"/>
+      <c r="H26" s="27"/>
+      <c r="I26" s="27"/>
+      <c r="J26" s="28"/>
+      <c r="K26" s="28"/>
+      <c r="L26" s="28"/>
+      <c r="M26" s="28"/>
+      <c r="N26" s="28"/>
+      <c r="O26" s="28"/>
+      <c r="P26" s="28"/>
+      <c r="Q26" s="28"/>
+      <c r="R26" s="27"/>
+      <c r="S26" s="27"/>
+      <c r="T26" s="27"/>
+      <c r="U26" s="27"/>
+      <c r="V26" s="8"/>
+      <c r="W26" s="21"/>
+      <c r="X26" s="21"/>
+    </row>
+    <row r="27" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="B27" s="27"/>
+      <c r="C27" s="27"/>
+      <c r="D27" s="27"/>
+      <c r="E27" s="27"/>
+      <c r="F27" s="27"/>
+      <c r="G27" s="27"/>
+      <c r="H27" s="27"/>
+      <c r="I27" s="27"/>
+      <c r="J27" s="28"/>
+      <c r="K27" s="28"/>
+      <c r="L27" s="28"/>
+      <c r="M27" s="28"/>
+      <c r="N27" s="28"/>
+      <c r="O27" s="28"/>
+      <c r="P27" s="28"/>
+      <c r="Q27" s="28"/>
+      <c r="R27" s="27"/>
+      <c r="S27" s="27"/>
+      <c r="T27" s="27"/>
+      <c r="U27" s="27"/>
+      <c r="V27" s="8"/>
+      <c r="W27" s="21"/>
+      <c r="X27" s="21"/>
+    </row>
+    <row r="28" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="B28" s="21" t="s">
+        <v>49</v>
+      </c>
+      <c r="C28" s="21"/>
+      <c r="D28" s="21" t="s">
+        <v>36</v>
+      </c>
+      <c r="E28" s="21"/>
+      <c r="F28" s="21" t="s">
+        <v>52</v>
+      </c>
+      <c r="G28" s="21"/>
+      <c r="H28" s="21"/>
+      <c r="I28" s="21"/>
+      <c r="J28" s="22" t="s">
+        <v>53</v>
+      </c>
+      <c r="K28" s="22"/>
+      <c r="L28" s="22"/>
+      <c r="M28" s="22"/>
+      <c r="N28" s="22" t="s">
+        <v>54</v>
+      </c>
+      <c r="O28" s="22"/>
+      <c r="P28" s="22"/>
+      <c r="Q28" s="22"/>
+      <c r="R28" s="21" t="s">
+        <v>55</v>
+      </c>
+      <c r="S28" s="21"/>
+      <c r="T28" s="21"/>
+      <c r="U28" s="21"/>
+      <c r="V28" s="21" t="s">
+        <v>40</v>
+      </c>
+      <c r="W28" s="21"/>
+      <c r="X28" s="21"/>
+    </row>
+    <row r="29" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="B29" s="21"/>
+      <c r="C29" s="21"/>
+      <c r="D29" s="21"/>
+      <c r="E29" s="21"/>
+      <c r="F29" s="21"/>
+      <c r="G29" s="21"/>
+      <c r="H29" s="21"/>
+      <c r="I29" s="21"/>
+      <c r="J29" s="22"/>
+      <c r="K29" s="22"/>
+      <c r="L29" s="22"/>
+      <c r="M29" s="22"/>
+      <c r="N29" s="22"/>
+      <c r="O29" s="22"/>
+      <c r="P29" s="22"/>
+      <c r="Q29" s="22"/>
+      <c r="R29" s="21"/>
+      <c r="S29" s="21"/>
+      <c r="T29" s="21"/>
+      <c r="U29" s="21"/>
+      <c r="V29" s="21"/>
+      <c r="W29" s="21"/>
+      <c r="X29" s="21"/>
+    </row>
+    <row r="30" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="B30" s="21"/>
+      <c r="C30" s="21"/>
+      <c r="D30" s="21"/>
+      <c r="E30" s="21"/>
+      <c r="F30" s="21"/>
+      <c r="G30" s="21"/>
+      <c r="H30" s="21"/>
+      <c r="I30" s="21"/>
+      <c r="J30" s="22"/>
+      <c r="K30" s="22"/>
+      <c r="L30" s="22"/>
+      <c r="M30" s="22"/>
+      <c r="N30" s="22"/>
+      <c r="O30" s="22"/>
+      <c r="P30" s="22"/>
+      <c r="Q30" s="22"/>
+      <c r="R30" s="21"/>
+      <c r="S30" s="21"/>
+      <c r="T30" s="21"/>
+      <c r="U30" s="21"/>
+      <c r="V30" s="21"/>
+      <c r="W30" s="21"/>
+      <c r="X30" s="21"/>
+    </row>
+    <row r="31" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="B31" s="21"/>
+      <c r="C31" s="21"/>
+      <c r="D31" s="21"/>
+      <c r="E31" s="21"/>
+      <c r="F31" s="21"/>
+      <c r="G31" s="21"/>
+      <c r="H31" s="21"/>
+      <c r="I31" s="21"/>
+      <c r="J31" s="22"/>
+      <c r="K31" s="22"/>
+      <c r="L31" s="22"/>
+      <c r="M31" s="22"/>
+      <c r="N31" s="22"/>
+      <c r="O31" s="22"/>
+      <c r="P31" s="22"/>
+      <c r="Q31" s="22"/>
+      <c r="R31" s="21"/>
+      <c r="S31" s="21"/>
+      <c r="T31" s="21"/>
+      <c r="U31" s="21"/>
+      <c r="V31" s="21"/>
+      <c r="W31" s="21"/>
+      <c r="X31" s="21"/>
+    </row>
+    <row r="32" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="B32" s="21"/>
+      <c r="C32" s="21"/>
+      <c r="D32" s="21"/>
+      <c r="E32" s="21"/>
+      <c r="F32" s="21"/>
+      <c r="G32" s="21"/>
+      <c r="H32" s="21"/>
+      <c r="I32" s="21"/>
+      <c r="J32" s="22"/>
+      <c r="K32" s="22"/>
+      <c r="L32" s="22"/>
+      <c r="M32" s="22"/>
+      <c r="N32" s="22"/>
+      <c r="O32" s="22"/>
+      <c r="P32" s="22"/>
+      <c r="Q32" s="22"/>
+      <c r="R32" s="21"/>
+      <c r="S32" s="21"/>
+      <c r="T32" s="21"/>
+      <c r="U32" s="21"/>
+      <c r="V32" s="21"/>
+      <c r="W32" s="21"/>
+      <c r="X32" s="21"/>
+    </row>
+  </sheetData>
+  <mergeCells count="49">
+    <mergeCell ref="R28:U32"/>
+    <mergeCell ref="V28:X32"/>
+    <mergeCell ref="B28:C32"/>
+    <mergeCell ref="D28:E32"/>
+    <mergeCell ref="F28:I32"/>
+    <mergeCell ref="J28:M32"/>
+    <mergeCell ref="N28:Q32"/>
+    <mergeCell ref="R23:U27"/>
+    <mergeCell ref="V2:X2"/>
+    <mergeCell ref="V3:X7"/>
+    <mergeCell ref="V8:X12"/>
+    <mergeCell ref="V13:X17"/>
+    <mergeCell ref="V18:X22"/>
+    <mergeCell ref="V23:X27"/>
+    <mergeCell ref="B23:C27"/>
+    <mergeCell ref="D23:E27"/>
+    <mergeCell ref="F23:I27"/>
+    <mergeCell ref="J23:M27"/>
+    <mergeCell ref="N23:Q27"/>
+    <mergeCell ref="B13:C17"/>
+    <mergeCell ref="D13:E17"/>
+    <mergeCell ref="F13:I17"/>
+    <mergeCell ref="J13:M17"/>
+    <mergeCell ref="N13:Q17"/>
+    <mergeCell ref="R13:U17"/>
+    <mergeCell ref="B18:C22"/>
+    <mergeCell ref="D18:E22"/>
+    <mergeCell ref="F18:I22"/>
+    <mergeCell ref="J18:M22"/>
+    <mergeCell ref="N18:Q22"/>
+    <mergeCell ref="R18:U22"/>
+    <mergeCell ref="N2:Q2"/>
+    <mergeCell ref="R2:U2"/>
+    <mergeCell ref="N3:Q7"/>
+    <mergeCell ref="R3:U7"/>
+    <mergeCell ref="N8:Q12"/>
+    <mergeCell ref="R8:U12"/>
+    <mergeCell ref="B8:C12"/>
+    <mergeCell ref="D8:E12"/>
+    <mergeCell ref="F8:I12"/>
+    <mergeCell ref="J8:M12"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="F2:I2"/>
+    <mergeCell ref="J2:M2"/>
+    <mergeCell ref="B3:C7"/>
+    <mergeCell ref="D3:E7"/>
+    <mergeCell ref="F3:I7"/>
+    <mergeCell ref="J3:M7"/>
+  </mergeCells>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView topLeftCell="A40" zoomScale="81" zoomScaleNormal="81" workbookViewId="0">
+      <selection activeCell="W40" sqref="W40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
@@ -2839,315 +4311,315 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:N20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q8" sqref="Q8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D2" sqref="D2:E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="2:14" ht="13.8" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:14" ht="13.8" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="3"/>
-      <c r="D2" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="E2" s="2"/>
-      <c r="F2" s="1" t="s">
+      <c r="C2" s="4"/>
+      <c r="D2" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="E2" s="5"/>
+      <c r="F2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2"/>
-      <c r="I2" s="3"/>
-      <c r="J2" s="1" t="s">
+      <c r="G2" s="5"/>
+      <c r="H2" s="5"/>
+      <c r="I2" s="4"/>
+      <c r="J2" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K2" s="5"/>
+      <c r="L2" s="5"/>
+      <c r="M2" s="4"/>
+    </row>
+    <row r="3" spans="2:14" ht="13.2" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B3" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="7"/>
+      <c r="D3" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="E3" s="7"/>
+      <c r="F3" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="G3" s="11"/>
+      <c r="H3" s="11"/>
+      <c r="I3" s="12"/>
+      <c r="J3" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="K2" s="2"/>
-      <c r="L2" s="2"/>
-      <c r="M2" s="3"/>
-    </row>
-    <row r="3" spans="2:14" ht="13.2" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="C3" s="11"/>
-      <c r="D3" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="E3" s="11"/>
-      <c r="F3" s="16" t="s">
+      <c r="K3" s="14"/>
+      <c r="L3" s="14"/>
+      <c r="M3" s="15"/>
+    </row>
+    <row r="4" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B4" s="8"/>
+      <c r="C4" s="9"/>
+      <c r="D4" s="8"/>
+      <c r="E4" s="9"/>
+      <c r="F4" s="10"/>
+      <c r="G4" s="11"/>
+      <c r="H4" s="11"/>
+      <c r="I4" s="12"/>
+      <c r="J4" s="10"/>
+      <c r="K4" s="11"/>
+      <c r="L4" s="11"/>
+      <c r="M4" s="12"/>
+    </row>
+    <row r="5" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B5" s="8"/>
+      <c r="C5" s="9"/>
+      <c r="D5" s="8"/>
+      <c r="E5" s="9"/>
+      <c r="F5" s="10"/>
+      <c r="G5" s="11"/>
+      <c r="H5" s="11"/>
+      <c r="I5" s="12"/>
+      <c r="J5" s="10"/>
+      <c r="K5" s="11"/>
+      <c r="L5" s="11"/>
+      <c r="M5" s="12"/>
+    </row>
+    <row r="6" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B6" s="8"/>
+      <c r="C6" s="9"/>
+      <c r="D6" s="8"/>
+      <c r="E6" s="9"/>
+      <c r="F6" s="10"/>
+      <c r="G6" s="11"/>
+      <c r="H6" s="11"/>
+      <c r="I6" s="12"/>
+      <c r="J6" s="10"/>
+      <c r="K6" s="11"/>
+      <c r="L6" s="11"/>
+      <c r="M6" s="12"/>
+    </row>
+    <row r="7" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B7" s="8"/>
+      <c r="C7" s="9"/>
+      <c r="D7" s="8"/>
+      <c r="E7" s="9"/>
+      <c r="F7" s="10"/>
+      <c r="G7" s="11"/>
+      <c r="H7" s="11"/>
+      <c r="I7" s="12"/>
+      <c r="J7" s="10"/>
+      <c r="K7" s="11"/>
+      <c r="L7" s="11"/>
+      <c r="M7" s="12"/>
+      <c r="N7" s="2"/>
+    </row>
+    <row r="8" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B8" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="G3" s="19"/>
-      <c r="H3" s="19"/>
-      <c r="I3" s="17"/>
-      <c r="J3" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="K3" s="18"/>
-      <c r="L3" s="18"/>
-      <c r="M3" s="15"/>
-    </row>
-    <row r="4" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B4" s="12"/>
-      <c r="C4" s="13"/>
-      <c r="D4" s="12"/>
-      <c r="E4" s="13"/>
-      <c r="F4" s="16"/>
-      <c r="G4" s="19"/>
-      <c r="H4" s="19"/>
-      <c r="I4" s="17"/>
-      <c r="J4" s="16"/>
-      <c r="K4" s="19"/>
-      <c r="L4" s="19"/>
-      <c r="M4" s="17"/>
-    </row>
-    <row r="5" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B5" s="12"/>
-      <c r="C5" s="13"/>
-      <c r="D5" s="12"/>
-      <c r="E5" s="13"/>
-      <c r="F5" s="16"/>
-      <c r="G5" s="19"/>
-      <c r="H5" s="19"/>
-      <c r="I5" s="17"/>
-      <c r="J5" s="16"/>
-      <c r="K5" s="19"/>
-      <c r="L5" s="19"/>
-      <c r="M5" s="17"/>
-    </row>
-    <row r="6" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B6" s="12"/>
-      <c r="C6" s="13"/>
-      <c r="D6" s="12"/>
-      <c r="E6" s="13"/>
-      <c r="F6" s="16"/>
-      <c r="G6" s="19"/>
-      <c r="H6" s="19"/>
-      <c r="I6" s="17"/>
-      <c r="J6" s="16"/>
-      <c r="K6" s="19"/>
-      <c r="L6" s="19"/>
-      <c r="M6" s="17"/>
-    </row>
-    <row r="7" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B7" s="12"/>
-      <c r="C7" s="13"/>
-      <c r="D7" s="12"/>
-      <c r="E7" s="13"/>
-      <c r="F7" s="16"/>
-      <c r="G7" s="19"/>
-      <c r="H7" s="19"/>
-      <c r="I7" s="17"/>
-      <c r="J7" s="16"/>
-      <c r="K7" s="19"/>
-      <c r="L7" s="19"/>
-      <c r="M7" s="17"/>
-      <c r="N7" s="20"/>
-    </row>
-    <row r="8" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B8" s="16" t="s">
+      <c r="C8" s="12"/>
+      <c r="D8" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="E8" s="9"/>
+      <c r="F8" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="G8" s="11"/>
+      <c r="H8" s="11"/>
+      <c r="I8" s="12"/>
+      <c r="J8" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="C8" s="17"/>
-      <c r="D8" s="12" t="s">
+      <c r="K8" s="11"/>
+      <c r="L8" s="11"/>
+      <c r="M8" s="12"/>
+    </row>
+    <row r="9" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B9" s="10"/>
+      <c r="C9" s="12"/>
+      <c r="D9" s="8"/>
+      <c r="E9" s="9"/>
+      <c r="F9" s="10"/>
+      <c r="G9" s="11"/>
+      <c r="H9" s="11"/>
+      <c r="I9" s="12"/>
+      <c r="J9" s="10"/>
+      <c r="K9" s="11"/>
+      <c r="L9" s="11"/>
+      <c r="M9" s="12"/>
+    </row>
+    <row r="10" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B10" s="10"/>
+      <c r="C10" s="12"/>
+      <c r="D10" s="8"/>
+      <c r="E10" s="9"/>
+      <c r="F10" s="10"/>
+      <c r="G10" s="11"/>
+      <c r="H10" s="11"/>
+      <c r="I10" s="12"/>
+      <c r="J10" s="10"/>
+      <c r="K10" s="11"/>
+      <c r="L10" s="11"/>
+      <c r="M10" s="12"/>
+    </row>
+    <row r="11" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B11" s="10"/>
+      <c r="C11" s="12"/>
+      <c r="D11" s="8"/>
+      <c r="E11" s="9"/>
+      <c r="F11" s="10"/>
+      <c r="G11" s="11"/>
+      <c r="H11" s="11"/>
+      <c r="I11" s="12"/>
+      <c r="J11" s="10"/>
+      <c r="K11" s="11"/>
+      <c r="L11" s="11"/>
+      <c r="M11" s="12"/>
+    </row>
+    <row r="12" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B12" s="10"/>
+      <c r="C12" s="12"/>
+      <c r="D12" s="8"/>
+      <c r="E12" s="9"/>
+      <c r="F12" s="10"/>
+      <c r="G12" s="11"/>
+      <c r="H12" s="11"/>
+      <c r="I12" s="12"/>
+      <c r="J12" s="10"/>
+      <c r="K12" s="11"/>
+      <c r="L12" s="11"/>
+      <c r="M12" s="12"/>
+    </row>
+    <row r="13" spans="2:14" ht="13.2" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B13" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="C13" s="12"/>
+      <c r="D13" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="E8" s="13"/>
-      <c r="F8" s="16" t="s">
+      <c r="E13" s="9"/>
+      <c r="F13" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="G8" s="19"/>
-      <c r="H8" s="19"/>
-      <c r="I8" s="17"/>
-      <c r="J8" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="K8" s="19"/>
-      <c r="L8" s="19"/>
-      <c r="M8" s="17"/>
-    </row>
-    <row r="9" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B9" s="16"/>
-      <c r="C9" s="17"/>
-      <c r="D9" s="12"/>
-      <c r="E9" s="13"/>
-      <c r="F9" s="16"/>
-      <c r="G9" s="19"/>
-      <c r="H9" s="19"/>
-      <c r="I9" s="17"/>
-      <c r="J9" s="16"/>
-      <c r="K9" s="19"/>
-      <c r="L9" s="19"/>
-      <c r="M9" s="17"/>
-    </row>
-    <row r="10" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B10" s="16"/>
-      <c r="C10" s="17"/>
-      <c r="D10" s="12"/>
-      <c r="E10" s="13"/>
-      <c r="F10" s="16"/>
-      <c r="G10" s="19"/>
-      <c r="H10" s="19"/>
-      <c r="I10" s="17"/>
-      <c r="J10" s="16"/>
-      <c r="K10" s="19"/>
-      <c r="L10" s="19"/>
-      <c r="M10" s="17"/>
-    </row>
-    <row r="11" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B11" s="16"/>
-      <c r="C11" s="17"/>
-      <c r="D11" s="12"/>
-      <c r="E11" s="13"/>
-      <c r="F11" s="16"/>
-      <c r="G11" s="19"/>
-      <c r="H11" s="19"/>
-      <c r="I11" s="17"/>
-      <c r="J11" s="16"/>
-      <c r="K11" s="19"/>
-      <c r="L11" s="19"/>
-      <c r="M11" s="17"/>
-    </row>
-    <row r="12" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B12" s="16"/>
-      <c r="C12" s="17"/>
-      <c r="D12" s="12"/>
-      <c r="E12" s="13"/>
-      <c r="F12" s="16"/>
-      <c r="G12" s="19"/>
-      <c r="H12" s="19"/>
-      <c r="I12" s="17"/>
-      <c r="J12" s="16"/>
-      <c r="K12" s="19"/>
-      <c r="L12" s="19"/>
-      <c r="M12" s="17"/>
-    </row>
-    <row r="13" spans="2:14" ht="13.2" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B13" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="C13" s="17"/>
-      <c r="D13" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="E13" s="13"/>
-      <c r="F13" s="16" t="s">
+      <c r="G13" s="11"/>
+      <c r="H13" s="11"/>
+      <c r="I13" s="12"/>
+      <c r="J13" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="G13" s="19"/>
-      <c r="H13" s="19"/>
-      <c r="I13" s="17"/>
-      <c r="J13" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="K13" s="19"/>
-      <c r="L13" s="19"/>
-      <c r="M13" s="17"/>
+      <c r="K13" s="11"/>
+      <c r="L13" s="11"/>
+      <c r="M13" s="12"/>
     </row>
     <row r="14" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B14" s="16"/>
-      <c r="C14" s="17"/>
-      <c r="D14" s="12"/>
-      <c r="E14" s="13"/>
-      <c r="F14" s="16"/>
-      <c r="G14" s="19"/>
-      <c r="H14" s="19"/>
-      <c r="I14" s="17"/>
-      <c r="J14" s="16"/>
-      <c r="K14" s="19"/>
-      <c r="L14" s="19"/>
-      <c r="M14" s="17"/>
+      <c r="B14" s="10"/>
+      <c r="C14" s="12"/>
+      <c r="D14" s="8"/>
+      <c r="E14" s="9"/>
+      <c r="F14" s="10"/>
+      <c r="G14" s="11"/>
+      <c r="H14" s="11"/>
+      <c r="I14" s="12"/>
+      <c r="J14" s="10"/>
+      <c r="K14" s="11"/>
+      <c r="L14" s="11"/>
+      <c r="M14" s="12"/>
     </row>
     <row r="15" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B15" s="16"/>
-      <c r="C15" s="17"/>
-      <c r="D15" s="12"/>
-      <c r="E15" s="13"/>
-      <c r="F15" s="16"/>
-      <c r="G15" s="19"/>
-      <c r="H15" s="19"/>
-      <c r="I15" s="17"/>
-      <c r="J15" s="16"/>
-      <c r="K15" s="19"/>
-      <c r="L15" s="19"/>
-      <c r="M15" s="17"/>
+      <c r="B15" s="10"/>
+      <c r="C15" s="12"/>
+      <c r="D15" s="8"/>
+      <c r="E15" s="9"/>
+      <c r="F15" s="10"/>
+      <c r="G15" s="11"/>
+      <c r="H15" s="11"/>
+      <c r="I15" s="12"/>
+      <c r="J15" s="10"/>
+      <c r="K15" s="11"/>
+      <c r="L15" s="11"/>
+      <c r="M15" s="12"/>
     </row>
     <row r="16" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B16" s="16"/>
-      <c r="C16" s="17"/>
-      <c r="D16" s="12"/>
-      <c r="E16" s="13"/>
-      <c r="F16" s="16"/>
-      <c r="G16" s="19"/>
-      <c r="H16" s="19"/>
-      <c r="I16" s="17"/>
-      <c r="J16" s="16"/>
-      <c r="K16" s="19"/>
-      <c r="L16" s="19"/>
-      <c r="M16" s="17"/>
+      <c r="B16" s="10"/>
+      <c r="C16" s="12"/>
+      <c r="D16" s="8"/>
+      <c r="E16" s="9"/>
+      <c r="F16" s="10"/>
+      <c r="G16" s="11"/>
+      <c r="H16" s="11"/>
+      <c r="I16" s="12"/>
+      <c r="J16" s="10"/>
+      <c r="K16" s="11"/>
+      <c r="L16" s="11"/>
+      <c r="M16" s="12"/>
     </row>
     <row r="17" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B17" s="16"/>
-      <c r="C17" s="17"/>
-      <c r="D17" s="12"/>
-      <c r="E17" s="13"/>
-      <c r="F17" s="16"/>
-      <c r="G17" s="19"/>
-      <c r="H17" s="19"/>
-      <c r="I17" s="17"/>
-      <c r="J17" s="16"/>
-      <c r="K17" s="19"/>
-      <c r="L17" s="19"/>
-      <c r="M17" s="17"/>
-    </row>
-    <row r="18" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B17" s="10"/>
+      <c r="C17" s="12"/>
+      <c r="D17" s="8"/>
+      <c r="E17" s="9"/>
+      <c r="F17" s="10"/>
+      <c r="G17" s="11"/>
+      <c r="H17" s="11"/>
+      <c r="I17" s="12"/>
+      <c r="J17" s="10"/>
+      <c r="K17" s="11"/>
+      <c r="L17" s="11"/>
+      <c r="M17" s="12"/>
+    </row>
+    <row r="18" spans="2:13" ht="13.8" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B18" s="16"/>
       <c r="C18" s="17"/>
-      <c r="D18" s="12"/>
-      <c r="E18" s="13"/>
+      <c r="D18" s="18"/>
+      <c r="E18" s="19"/>
       <c r="F18" s="16"/>
-      <c r="G18" s="19"/>
-      <c r="H18" s="19"/>
+      <c r="G18" s="20"/>
+      <c r="H18" s="20"/>
       <c r="I18" s="17"/>
       <c r="J18" s="16"/>
-      <c r="K18" s="19"/>
-      <c r="L18" s="19"/>
+      <c r="K18" s="20"/>
+      <c r="L18" s="20"/>
       <c r="M18" s="17"/>
     </row>
     <row r="19" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B19" s="4"/>
-      <c r="C19" s="5"/>
-      <c r="D19" s="4"/>
-      <c r="E19" s="8"/>
-      <c r="F19" s="4"/>
-      <c r="G19" s="8"/>
-      <c r="H19" s="8"/>
-      <c r="I19" s="5"/>
-      <c r="J19" s="4"/>
-      <c r="K19" s="8"/>
-      <c r="L19" s="8"/>
-      <c r="M19" s="5"/>
-    </row>
-    <row r="20" spans="2:13" ht="13.8" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="6"/>
-      <c r="C20" s="7"/>
-      <c r="D20" s="6"/>
-      <c r="E20" s="9"/>
-      <c r="F20" s="6"/>
-      <c r="G20" s="9"/>
-      <c r="H20" s="9"/>
-      <c r="I20" s="7"/>
-      <c r="J20" s="6"/>
-      <c r="K20" s="9"/>
-      <c r="L20" s="9"/>
-      <c r="M20" s="7"/>
+      <c r="B19" s="1"/>
+      <c r="C19" s="1"/>
+      <c r="D19" s="1"/>
+      <c r="E19" s="1"/>
+      <c r="F19" s="1"/>
+      <c r="G19" s="1"/>
+      <c r="H19" s="1"/>
+      <c r="I19" s="1"/>
+      <c r="J19" s="1"/>
+      <c r="K19" s="1"/>
+      <c r="L19" s="1"/>
+      <c r="M19" s="1"/>
+    </row>
+    <row r="20" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B20" s="1"/>
+      <c r="C20" s="1"/>
+      <c r="D20" s="1"/>
+      <c r="E20" s="1"/>
+      <c r="F20" s="1"/>
+      <c r="G20" s="1"/>
+      <c r="H20" s="1"/>
+      <c r="I20" s="1"/>
+      <c r="J20" s="1"/>
+      <c r="K20" s="1"/>
+      <c r="L20" s="1"/>
+      <c r="M20" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="16">
@@ -3171,4 +4643,300 @@
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H22" sqref="H22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B1:M18"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I25" sqref="I25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="2:13" ht="13.8" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="2:13" ht="13.8" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="4"/>
+      <c r="D2" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" s="5"/>
+      <c r="F2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="G2" s="5"/>
+      <c r="H2" s="5"/>
+      <c r="I2" s="4"/>
+      <c r="J2" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K2" s="5"/>
+      <c r="L2" s="5"/>
+      <c r="M2" s="4"/>
+    </row>
+    <row r="3" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B3" s="6"/>
+      <c r="C3" s="7"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="7"/>
+      <c r="F3" s="10"/>
+      <c r="G3" s="11"/>
+      <c r="H3" s="11"/>
+      <c r="I3" s="12"/>
+      <c r="J3" s="13"/>
+      <c r="K3" s="14"/>
+      <c r="L3" s="14"/>
+      <c r="M3" s="15"/>
+    </row>
+    <row r="4" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B4" s="8"/>
+      <c r="C4" s="9"/>
+      <c r="D4" s="8"/>
+      <c r="E4" s="9"/>
+      <c r="F4" s="10"/>
+      <c r="G4" s="11"/>
+      <c r="H4" s="11"/>
+      <c r="I4" s="12"/>
+      <c r="J4" s="10"/>
+      <c r="K4" s="11"/>
+      <c r="L4" s="11"/>
+      <c r="M4" s="12"/>
+    </row>
+    <row r="5" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B5" s="8"/>
+      <c r="C5" s="9"/>
+      <c r="D5" s="8"/>
+      <c r="E5" s="9"/>
+      <c r="F5" s="10"/>
+      <c r="G5" s="11"/>
+      <c r="H5" s="11"/>
+      <c r="I5" s="12"/>
+      <c r="J5" s="10"/>
+      <c r="K5" s="11"/>
+      <c r="L5" s="11"/>
+      <c r="M5" s="12"/>
+    </row>
+    <row r="6" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B6" s="8"/>
+      <c r="C6" s="9"/>
+      <c r="D6" s="8"/>
+      <c r="E6" s="9"/>
+      <c r="F6" s="10"/>
+      <c r="G6" s="11"/>
+      <c r="H6" s="11"/>
+      <c r="I6" s="12"/>
+      <c r="J6" s="10"/>
+      <c r="K6" s="11"/>
+      <c r="L6" s="11"/>
+      <c r="M6" s="12"/>
+    </row>
+    <row r="7" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B7" s="8"/>
+      <c r="C7" s="9"/>
+      <c r="D7" s="8"/>
+      <c r="E7" s="9"/>
+      <c r="F7" s="10"/>
+      <c r="G7" s="11"/>
+      <c r="H7" s="11"/>
+      <c r="I7" s="12"/>
+      <c r="J7" s="10"/>
+      <c r="K7" s="11"/>
+      <c r="L7" s="11"/>
+      <c r="M7" s="12"/>
+    </row>
+    <row r="8" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B8" s="10"/>
+      <c r="C8" s="12"/>
+      <c r="D8" s="8"/>
+      <c r="E8" s="9"/>
+      <c r="F8" s="10"/>
+      <c r="G8" s="11"/>
+      <c r="H8" s="11"/>
+      <c r="I8" s="12"/>
+      <c r="J8" s="10"/>
+      <c r="K8" s="11"/>
+      <c r="L8" s="11"/>
+      <c r="M8" s="12"/>
+    </row>
+    <row r="9" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B9" s="10"/>
+      <c r="C9" s="12"/>
+      <c r="D9" s="8"/>
+      <c r="E9" s="9"/>
+      <c r="F9" s="10"/>
+      <c r="G9" s="11"/>
+      <c r="H9" s="11"/>
+      <c r="I9" s="12"/>
+      <c r="J9" s="10"/>
+      <c r="K9" s="11"/>
+      <c r="L9" s="11"/>
+      <c r="M9" s="12"/>
+    </row>
+    <row r="10" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B10" s="10"/>
+      <c r="C10" s="12"/>
+      <c r="D10" s="8"/>
+      <c r="E10" s="9"/>
+      <c r="F10" s="10"/>
+      <c r="G10" s="11"/>
+      <c r="H10" s="11"/>
+      <c r="I10" s="12"/>
+      <c r="J10" s="10"/>
+      <c r="K10" s="11"/>
+      <c r="L10" s="11"/>
+      <c r="M10" s="12"/>
+    </row>
+    <row r="11" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B11" s="10"/>
+      <c r="C11" s="12"/>
+      <c r="D11" s="8"/>
+      <c r="E11" s="9"/>
+      <c r="F11" s="10"/>
+      <c r="G11" s="11"/>
+      <c r="H11" s="11"/>
+      <c r="I11" s="12"/>
+      <c r="J11" s="10"/>
+      <c r="K11" s="11"/>
+      <c r="L11" s="11"/>
+      <c r="M11" s="12"/>
+    </row>
+    <row r="12" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B12" s="10"/>
+      <c r="C12" s="12"/>
+      <c r="D12" s="8"/>
+      <c r="E12" s="9"/>
+      <c r="F12" s="10"/>
+      <c r="G12" s="11"/>
+      <c r="H12" s="11"/>
+      <c r="I12" s="12"/>
+      <c r="J12" s="10"/>
+      <c r="K12" s="11"/>
+      <c r="L12" s="11"/>
+      <c r="M12" s="12"/>
+    </row>
+    <row r="13" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B13" s="10"/>
+      <c r="C13" s="12"/>
+      <c r="D13" s="8"/>
+      <c r="E13" s="9"/>
+      <c r="F13" s="10"/>
+      <c r="G13" s="11"/>
+      <c r="H13" s="11"/>
+      <c r="I13" s="12"/>
+      <c r="J13" s="10"/>
+      <c r="K13" s="11"/>
+      <c r="L13" s="11"/>
+      <c r="M13" s="12"/>
+    </row>
+    <row r="14" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B14" s="10"/>
+      <c r="C14" s="12"/>
+      <c r="D14" s="8"/>
+      <c r="E14" s="9"/>
+      <c r="F14" s="10"/>
+      <c r="G14" s="11"/>
+      <c r="H14" s="11"/>
+      <c r="I14" s="12"/>
+      <c r="J14" s="10"/>
+      <c r="K14" s="11"/>
+      <c r="L14" s="11"/>
+      <c r="M14" s="12"/>
+    </row>
+    <row r="15" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B15" s="10"/>
+      <c r="C15" s="12"/>
+      <c r="D15" s="8"/>
+      <c r="E15" s="9"/>
+      <c r="F15" s="10"/>
+      <c r="G15" s="11"/>
+      <c r="H15" s="11"/>
+      <c r="I15" s="12"/>
+      <c r="J15" s="10"/>
+      <c r="K15" s="11"/>
+      <c r="L15" s="11"/>
+      <c r="M15" s="12"/>
+    </row>
+    <row r="16" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B16" s="10"/>
+      <c r="C16" s="12"/>
+      <c r="D16" s="8"/>
+      <c r="E16" s="9"/>
+      <c r="F16" s="10"/>
+      <c r="G16" s="11"/>
+      <c r="H16" s="11"/>
+      <c r="I16" s="12"/>
+      <c r="J16" s="10"/>
+      <c r="K16" s="11"/>
+      <c r="L16" s="11"/>
+      <c r="M16" s="12"/>
+    </row>
+    <row r="17" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B17" s="10"/>
+      <c r="C17" s="12"/>
+      <c r="D17" s="8"/>
+      <c r="E17" s="9"/>
+      <c r="F17" s="10"/>
+      <c r="G17" s="11"/>
+      <c r="H17" s="11"/>
+      <c r="I17" s="12"/>
+      <c r="J17" s="10"/>
+      <c r="K17" s="11"/>
+      <c r="L17" s="11"/>
+      <c r="M17" s="12"/>
+    </row>
+    <row r="18" spans="2:13" ht="13.8" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B18" s="16"/>
+      <c r="C18" s="17"/>
+      <c r="D18" s="18"/>
+      <c r="E18" s="19"/>
+      <c r="F18" s="16"/>
+      <c r="G18" s="20"/>
+      <c r="H18" s="20"/>
+      <c r="I18" s="17"/>
+      <c r="J18" s="16"/>
+      <c r="K18" s="20"/>
+      <c r="L18" s="20"/>
+      <c r="M18" s="17"/>
+    </row>
+  </sheetData>
+  <mergeCells count="16">
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="F2:I2"/>
+    <mergeCell ref="J2:M2"/>
+    <mergeCell ref="B3:C7"/>
+    <mergeCell ref="D3:E7"/>
+    <mergeCell ref="F3:I7"/>
+    <mergeCell ref="J3:M7"/>
+    <mergeCell ref="B8:C12"/>
+    <mergeCell ref="D8:E12"/>
+    <mergeCell ref="F8:I12"/>
+    <mergeCell ref="J8:M12"/>
+    <mergeCell ref="B13:C18"/>
+    <mergeCell ref="D13:E18"/>
+    <mergeCell ref="F13:I18"/>
+    <mergeCell ref="J13:M18"/>
+  </mergeCells>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/G18_ゲームフロー.xlsx
+++ b/G18_ゲームフロー.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8880" firstSheet="1" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8880" firstSheet="1" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="タイトルフロー" sheetId="4" r:id="rId1"/>
@@ -17,7 +17,7 @@
     <sheet name="ゲームシーンフロー" sheetId="1" r:id="rId3"/>
     <sheet name="ゲームシーン必要リソース" sheetId="2" r:id="rId4"/>
     <sheet name="リザルトフロー" sheetId="3" r:id="rId5"/>
-    <sheet name="リザルトフロー必要リソース" sheetId="6" r:id="rId6"/>
+    <sheet name="リザルトフロー必要リソース" sheetId="7" r:id="rId6"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="84">
   <si>
     <t>表示物</t>
     <rPh sb="0" eb="2">
@@ -373,19 +373,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>画面上部固定。</t>
-    <rPh sb="0" eb="2">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>ジョウブ</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>コテイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>無し。</t>
     <rPh sb="0" eb="1">
       <t>ナ</t>
@@ -818,6 +805,332 @@
     </rPh>
     <rPh sb="14" eb="15">
       <t>ツク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>勝者アニメーション</t>
+    <rPh sb="0" eb="2">
+      <t>ショウシャ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>なるべく大きく！ゲーム参照</t>
+    <rPh sb="4" eb="5">
+      <t>オオ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>サンショウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>画面中央固定。</t>
+    <rPh sb="0" eb="2">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>チュウオウ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>コテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>無限ループです。</t>
+    <rPh sb="0" eb="2">
+      <t>ムゲン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>200x200</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>画面中央部固定。</t>
+    <rPh sb="0" eb="2">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>チュウオウ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ブ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>コテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>獲得した宝物の画像。</t>
+    <rPh sb="0" eb="2">
+      <t>カクトク</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>タカラモノ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ガゾウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>配置する。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ゲーム中に表示したものと同じものを表示。</t>
+    <rPh sb="3" eb="4">
+      <t>チュウ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>オナ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>敗者アニメーション</t>
+    <rPh sb="0" eb="2">
+      <t>ハイシャ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>なるべく大きく！ゲーム参照</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>擬似３Dでの勝者よりも奥。</t>
+    <rPh sb="0" eb="2">
+      <t>ギジ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ショウシャ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>オク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>負けたプレイヤーの悔しがっているアニメーション。</t>
+    <rPh sb="0" eb="1">
+      <t>マ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>クヤ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>勝利したプレイヤーの嬉しいアニメーション。</t>
+    <rPh sb="0" eb="2">
+      <t>ショウリ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>ウレ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>配置する。UVアニメーション。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>配置する。UVアニメーション。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>縦200以上</t>
+    <rPh sb="0" eb="1">
+      <t>タテ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>イジョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>勝利プレイヤーの結果表示上部に配置。</t>
+    <rPh sb="0" eb="2">
+      <t>ショウリ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ケッカ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ジョウブ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ハイチ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>勝利プレイヤーの識別表示</t>
+    <rPh sb="0" eb="2">
+      <t>ショウリ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>シキベツ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>WIN,LOSE（文字）</t>
+    <rPh sb="9" eb="11">
+      <t>モジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>一枚ペラでOK。＋α縁取りとレイヤーを分ける。</t>
+    <rPh sb="0" eb="2">
+      <t>イチマイ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>フチド</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>ワ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>表示するだけ。＋αメッシュ表示で波、UVアニメーション。</t>
+    <rPh sb="0" eb="2">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>ナミ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>スコア表示</t>
+    <rPh sb="3" eb="5">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>画面外上部から落下。指定位置で停止</t>
+    <rPh sb="0" eb="2">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ソト</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ジョウブ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ラッカ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>シテイ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>イチ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>テイシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>宝物（仮）</t>
+    <rPh sb="0" eb="2">
+      <t>タカラモノ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>カリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>固定</t>
+    <rPh sb="0" eb="2">
+      <t>コテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>リザルト画面の背景です。電気信号を流す予定。電気信号はプログラマーが書くので不要。</t>
+    <rPh sb="4" eb="6">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ハイケイ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>デンキ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>シンゴウ</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>ナガ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>ヨテイ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>デンキ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>シンゴウ</t>
+    </rPh>
+    <rPh sb="34" eb="35">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="38" eb="40">
+      <t>フヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>配置のみ。電気信号は頑張って！</t>
+    <rPh sb="0" eb="2">
+      <t>ハイチ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>デンキ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>シンゴウ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ガンバ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>電子回路のようなもの。</t>
+    <rPh sb="0" eb="2">
+      <t>デンシ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>カイロ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -977,24 +1290,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thick">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thick">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
       <left style="medium">
         <color auto="1"/>
       </left>
@@ -1005,13 +1300,39 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1021,35 +1342,35 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1060,7 +1381,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1072,32 +1402,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3352,927 +3664,889 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:X32"/>
+  <dimension ref="B2:X32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B5" workbookViewId="0">
-      <selection activeCell="K34" sqref="K34"/>
+    <sheetView zoomScale="69" zoomScaleNormal="69" workbookViewId="0">
+      <selection activeCell="F8" sqref="F8:I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="2:24" ht="13.8" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:24" ht="13.8" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="4"/>
-      <c r="D2" s="5" t="s">
+      <c r="C2" s="23"/>
+      <c r="D2" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="5"/>
-      <c r="F2" s="3" t="s">
+      <c r="E2" s="23"/>
+      <c r="F2" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="G2" s="5"/>
-      <c r="H2" s="5"/>
-      <c r="I2" s="4"/>
-      <c r="J2" s="3" t="s">
+      <c r="G2" s="23"/>
+      <c r="H2" s="23"/>
+      <c r="I2" s="23"/>
+      <c r="J2" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="K2" s="5"/>
-      <c r="L2" s="5"/>
-      <c r="M2" s="4"/>
-      <c r="N2" s="3" t="s">
+      <c r="K2" s="23"/>
+      <c r="L2" s="23"/>
+      <c r="M2" s="23"/>
+      <c r="N2" s="23" t="s">
+        <v>19</v>
+      </c>
+      <c r="O2" s="23"/>
+      <c r="P2" s="23"/>
+      <c r="Q2" s="23"/>
+      <c r="R2" s="23" t="s">
         <v>20</v>
       </c>
-      <c r="O2" s="5"/>
-      <c r="P2" s="5"/>
-      <c r="Q2" s="4"/>
-      <c r="R2" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="S2" s="5"/>
-      <c r="T2" s="5"/>
-      <c r="U2" s="4"/>
-      <c r="V2" s="8" t="s">
-        <v>39</v>
+      <c r="S2" s="23"/>
+      <c r="T2" s="23"/>
+      <c r="U2" s="23"/>
+      <c r="V2" s="23" t="s">
+        <v>38</v>
       </c>
       <c r="W2" s="23"/>
       <c r="X2" s="23"/>
     </row>
     <row r="3" spans="2:24" x14ac:dyDescent="0.2">
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="7"/>
-      <c r="D3" s="13" t="s">
+      <c r="C3" s="24"/>
+      <c r="D3" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="E3" s="25"/>
+      <c r="F3" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="G3" s="3"/>
+      <c r="H3" s="3"/>
+      <c r="I3" s="3"/>
+      <c r="J3" s="25" t="s">
+        <v>21</v>
+      </c>
+      <c r="K3" s="25"/>
+      <c r="L3" s="25"/>
+      <c r="M3" s="25"/>
+      <c r="N3" s="25" t="s">
+        <v>23</v>
+      </c>
+      <c r="O3" s="25"/>
+      <c r="P3" s="25"/>
+      <c r="Q3" s="25"/>
+      <c r="R3" s="25" t="s">
+        <v>22</v>
+      </c>
+      <c r="S3" s="25"/>
+      <c r="T3" s="25"/>
+      <c r="U3" s="25"/>
+      <c r="V3" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="W3" s="5"/>
+      <c r="X3" s="5"/>
+    </row>
+    <row r="4" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="B4" s="5"/>
+      <c r="C4" s="5"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
+      <c r="G4" s="3"/>
+      <c r="H4" s="3"/>
+      <c r="I4" s="3"/>
+      <c r="J4" s="3"/>
+      <c r="K4" s="3"/>
+      <c r="L4" s="3"/>
+      <c r="M4" s="3"/>
+      <c r="N4" s="3"/>
+      <c r="O4" s="3"/>
+      <c r="P4" s="3"/>
+      <c r="Q4" s="3"/>
+      <c r="R4" s="3"/>
+      <c r="S4" s="3"/>
+      <c r="T4" s="3"/>
+      <c r="U4" s="3"/>
+      <c r="V4" s="5"/>
+      <c r="W4" s="5"/>
+      <c r="X4" s="5"/>
+    </row>
+    <row r="5" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="B5" s="5"/>
+      <c r="C5" s="5"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
+      <c r="G5" s="3"/>
+      <c r="H5" s="3"/>
+      <c r="I5" s="3"/>
+      <c r="J5" s="3"/>
+      <c r="K5" s="3"/>
+      <c r="L5" s="3"/>
+      <c r="M5" s="3"/>
+      <c r="N5" s="3"/>
+      <c r="O5" s="3"/>
+      <c r="P5" s="3"/>
+      <c r="Q5" s="3"/>
+      <c r="R5" s="3"/>
+      <c r="S5" s="3"/>
+      <c r="T5" s="3"/>
+      <c r="U5" s="3"/>
+      <c r="V5" s="5"/>
+      <c r="W5" s="5"/>
+      <c r="X5" s="5"/>
+    </row>
+    <row r="6" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="B6" s="5"/>
+      <c r="C6" s="5"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
+      <c r="G6" s="3"/>
+      <c r="H6" s="3"/>
+      <c r="I6" s="3"/>
+      <c r="J6" s="3"/>
+      <c r="K6" s="3"/>
+      <c r="L6" s="3"/>
+      <c r="M6" s="3"/>
+      <c r="N6" s="3"/>
+      <c r="O6" s="3"/>
+      <c r="P6" s="3"/>
+      <c r="Q6" s="3"/>
+      <c r="R6" s="3"/>
+      <c r="S6" s="3"/>
+      <c r="T6" s="3"/>
+      <c r="U6" s="3"/>
+      <c r="V6" s="5"/>
+      <c r="W6" s="5"/>
+      <c r="X6" s="5"/>
+    </row>
+    <row r="7" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="B7" s="5"/>
+      <c r="C7" s="5"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
+      <c r="G7" s="3"/>
+      <c r="H7" s="3"/>
+      <c r="I7" s="3"/>
+      <c r="J7" s="3"/>
+      <c r="K7" s="3"/>
+      <c r="L7" s="3"/>
+      <c r="M7" s="3"/>
+      <c r="N7" s="3"/>
+      <c r="O7" s="3"/>
+      <c r="P7" s="3"/>
+      <c r="Q7" s="3"/>
+      <c r="R7" s="3"/>
+      <c r="S7" s="3"/>
+      <c r="T7" s="3"/>
+      <c r="U7" s="3"/>
+      <c r="V7" s="5"/>
+      <c r="W7" s="5"/>
+      <c r="X7" s="5"/>
+    </row>
+    <row r="8" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="B8" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8" s="3"/>
+      <c r="D8" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E8" s="5"/>
+      <c r="F8" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G8" s="3"/>
+      <c r="H8" s="3"/>
+      <c r="I8" s="3"/>
+      <c r="J8" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="K8" s="3"/>
+      <c r="L8" s="3"/>
+      <c r="M8" s="3"/>
+      <c r="N8" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="O8" s="3"/>
+      <c r="P8" s="3"/>
+      <c r="Q8" s="3"/>
+      <c r="R8" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="S8" s="3"/>
+      <c r="T8" s="3"/>
+      <c r="U8" s="3"/>
+      <c r="V8" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="W8" s="5"/>
+      <c r="X8" s="5"/>
+    </row>
+    <row r="9" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="B9" s="3"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="3"/>
+      <c r="H9" s="3"/>
+      <c r="I9" s="3"/>
+      <c r="J9" s="3"/>
+      <c r="K9" s="3"/>
+      <c r="L9" s="3"/>
+      <c r="M9" s="3"/>
+      <c r="N9" s="3"/>
+      <c r="O9" s="3"/>
+      <c r="P9" s="3"/>
+      <c r="Q9" s="3"/>
+      <c r="R9" s="3"/>
+      <c r="S9" s="3"/>
+      <c r="T9" s="3"/>
+      <c r="U9" s="3"/>
+      <c r="V9" s="5"/>
+      <c r="W9" s="5"/>
+      <c r="X9" s="5"/>
+    </row>
+    <row r="10" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="B10" s="3"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="5"/>
+      <c r="E10" s="5"/>
+      <c r="F10" s="3"/>
+      <c r="G10" s="3"/>
+      <c r="H10" s="3"/>
+      <c r="I10" s="3"/>
+      <c r="J10" s="3"/>
+      <c r="K10" s="3"/>
+      <c r="L10" s="3"/>
+      <c r="M10" s="3"/>
+      <c r="N10" s="3"/>
+      <c r="O10" s="3"/>
+      <c r="P10" s="3"/>
+      <c r="Q10" s="3"/>
+      <c r="R10" s="3"/>
+      <c r="S10" s="3"/>
+      <c r="T10" s="3"/>
+      <c r="U10" s="3"/>
+      <c r="V10" s="5"/>
+      <c r="W10" s="5"/>
+      <c r="X10" s="5"/>
+    </row>
+    <row r="11" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="B11" s="3"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="5"/>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3"/>
+      <c r="H11" s="3"/>
+      <c r="I11" s="3"/>
+      <c r="J11" s="3"/>
+      <c r="K11" s="3"/>
+      <c r="L11" s="3"/>
+      <c r="M11" s="3"/>
+      <c r="N11" s="3"/>
+      <c r="O11" s="3"/>
+      <c r="P11" s="3"/>
+      <c r="Q11" s="3"/>
+      <c r="R11" s="3"/>
+      <c r="S11" s="3"/>
+      <c r="T11" s="3"/>
+      <c r="U11" s="3"/>
+      <c r="V11" s="5"/>
+      <c r="W11" s="5"/>
+      <c r="X11" s="5"/>
+    </row>
+    <row r="12" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="B12" s="3"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="5"/>
+      <c r="E12" s="5"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3"/>
+      <c r="H12" s="3"/>
+      <c r="I12" s="3"/>
+      <c r="J12" s="3"/>
+      <c r="K12" s="3"/>
+      <c r="L12" s="3"/>
+      <c r="M12" s="3"/>
+      <c r="N12" s="3"/>
+      <c r="O12" s="3"/>
+      <c r="P12" s="3"/>
+      <c r="Q12" s="3"/>
+      <c r="R12" s="3"/>
+      <c r="S12" s="3"/>
+      <c r="T12" s="3"/>
+      <c r="U12" s="3"/>
+      <c r="V12" s="5"/>
+      <c r="W12" s="5"/>
+      <c r="X12" s="5"/>
+    </row>
+    <row r="13" spans="2:24" ht="13.2" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B13" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="G13" s="3"/>
+      <c r="H13" s="3"/>
+      <c r="I13" s="3"/>
+      <c r="J13" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="K13" s="3"/>
+      <c r="L13" s="3"/>
+      <c r="M13" s="3"/>
+      <c r="N13" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="O13" s="3"/>
+      <c r="P13" s="3"/>
+      <c r="Q13" s="3"/>
+      <c r="R13" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="S13" s="5"/>
+      <c r="T13" s="5"/>
+      <c r="U13" s="5"/>
+      <c r="V13" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="W13" s="5"/>
+      <c r="X13" s="5"/>
+    </row>
+    <row r="14" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="B14" s="3"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3"/>
+      <c r="H14" s="3"/>
+      <c r="I14" s="3"/>
+      <c r="J14" s="3"/>
+      <c r="K14" s="3"/>
+      <c r="L14" s="3"/>
+      <c r="M14" s="3"/>
+      <c r="N14" s="3"/>
+      <c r="O14" s="3"/>
+      <c r="P14" s="3"/>
+      <c r="Q14" s="3"/>
+      <c r="R14" s="5"/>
+      <c r="S14" s="5"/>
+      <c r="T14" s="5"/>
+      <c r="U14" s="5"/>
+      <c r="V14" s="5"/>
+      <c r="W14" s="5"/>
+      <c r="X14" s="5"/>
+    </row>
+    <row r="15" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="B15" s="3"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3"/>
+      <c r="G15" s="3"/>
+      <c r="H15" s="3"/>
+      <c r="I15" s="3"/>
+      <c r="J15" s="3"/>
+      <c r="K15" s="3"/>
+      <c r="L15" s="3"/>
+      <c r="M15" s="3"/>
+      <c r="N15" s="3"/>
+      <c r="O15" s="3"/>
+      <c r="P15" s="3"/>
+      <c r="Q15" s="3"/>
+      <c r="R15" s="5"/>
+      <c r="S15" s="5"/>
+      <c r="T15" s="5"/>
+      <c r="U15" s="5"/>
+      <c r="V15" s="5"/>
+      <c r="W15" s="5"/>
+      <c r="X15" s="5"/>
+    </row>
+    <row r="16" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="B16" s="3"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="3"/>
+      <c r="G16" s="3"/>
+      <c r="H16" s="3"/>
+      <c r="I16" s="3"/>
+      <c r="J16" s="3"/>
+      <c r="K16" s="3"/>
+      <c r="L16" s="3"/>
+      <c r="M16" s="3"/>
+      <c r="N16" s="3"/>
+      <c r="O16" s="3"/>
+      <c r="P16" s="3"/>
+      <c r="Q16" s="3"/>
+      <c r="R16" s="5"/>
+      <c r="S16" s="5"/>
+      <c r="T16" s="5"/>
+      <c r="U16" s="5"/>
+      <c r="V16" s="5"/>
+      <c r="W16" s="5"/>
+      <c r="X16" s="5"/>
+    </row>
+    <row r="17" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="B17" s="3"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="3"/>
+      <c r="G17" s="3"/>
+      <c r="H17" s="3"/>
+      <c r="I17" s="3"/>
+      <c r="J17" s="3"/>
+      <c r="K17" s="3"/>
+      <c r="L17" s="3"/>
+      <c r="M17" s="3"/>
+      <c r="N17" s="3"/>
+      <c r="O17" s="3"/>
+      <c r="P17" s="3"/>
+      <c r="Q17" s="3"/>
+      <c r="R17" s="5"/>
+      <c r="S17" s="5"/>
+      <c r="T17" s="5"/>
+      <c r="U17" s="5"/>
+      <c r="V17" s="5"/>
+      <c r="W17" s="5"/>
+      <c r="X17" s="5"/>
+    </row>
+    <row r="18" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="B18" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="E3" s="15"/>
-      <c r="F3" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="G3" s="11"/>
-      <c r="H3" s="11"/>
-      <c r="I3" s="12"/>
-      <c r="J3" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="K3" s="14"/>
-      <c r="L3" s="14"/>
-      <c r="M3" s="15"/>
-      <c r="N3" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="O3" s="14"/>
-      <c r="P3" s="14"/>
-      <c r="Q3" s="15"/>
-      <c r="R3" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="S3" s="14"/>
-      <c r="T3" s="14"/>
-      <c r="U3" s="15"/>
-      <c r="V3" s="8" t="s">
+      <c r="C18" s="3"/>
+      <c r="D18" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="E18" s="5"/>
+      <c r="F18" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="G18" s="3"/>
+      <c r="H18" s="3"/>
+      <c r="I18" s="3"/>
+      <c r="J18" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="K18" s="3"/>
+      <c r="L18" s="3"/>
+      <c r="M18" s="3"/>
+      <c r="N18" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="O18" s="3"/>
+      <c r="P18" s="3"/>
+      <c r="Q18" s="3"/>
+      <c r="R18" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="S18" s="5"/>
+      <c r="T18" s="5"/>
+      <c r="U18" s="5"/>
+      <c r="V18" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="W18" s="5"/>
+      <c r="X18" s="5"/>
+    </row>
+    <row r="19" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="B19" s="3"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="5"/>
+      <c r="E19" s="5"/>
+      <c r="F19" s="3"/>
+      <c r="G19" s="3"/>
+      <c r="H19" s="3"/>
+      <c r="I19" s="3"/>
+      <c r="J19" s="3"/>
+      <c r="K19" s="3"/>
+      <c r="L19" s="3"/>
+      <c r="M19" s="3"/>
+      <c r="N19" s="3"/>
+      <c r="O19" s="3"/>
+      <c r="P19" s="3"/>
+      <c r="Q19" s="3"/>
+      <c r="R19" s="5"/>
+      <c r="S19" s="5"/>
+      <c r="T19" s="5"/>
+      <c r="U19" s="5"/>
+      <c r="V19" s="5"/>
+      <c r="W19" s="5"/>
+      <c r="X19" s="5"/>
+    </row>
+    <row r="20" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="B20" s="3"/>
+      <c r="C20" s="3"/>
+      <c r="D20" s="5"/>
+      <c r="E20" s="5"/>
+      <c r="F20" s="3"/>
+      <c r="G20" s="3"/>
+      <c r="H20" s="3"/>
+      <c r="I20" s="3"/>
+      <c r="J20" s="3"/>
+      <c r="K20" s="3"/>
+      <c r="L20" s="3"/>
+      <c r="M20" s="3"/>
+      <c r="N20" s="3"/>
+      <c r="O20" s="3"/>
+      <c r="P20" s="3"/>
+      <c r="Q20" s="3"/>
+      <c r="R20" s="5"/>
+      <c r="S20" s="5"/>
+      <c r="T20" s="5"/>
+      <c r="U20" s="5"/>
+      <c r="V20" s="5"/>
+      <c r="W20" s="5"/>
+      <c r="X20" s="5"/>
+    </row>
+    <row r="21" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="B21" s="3"/>
+      <c r="C21" s="3"/>
+      <c r="D21" s="5"/>
+      <c r="E21" s="5"/>
+      <c r="F21" s="3"/>
+      <c r="G21" s="3"/>
+      <c r="H21" s="3"/>
+      <c r="I21" s="3"/>
+      <c r="J21" s="3"/>
+      <c r="K21" s="3"/>
+      <c r="L21" s="3"/>
+      <c r="M21" s="3"/>
+      <c r="N21" s="3"/>
+      <c r="O21" s="3"/>
+      <c r="P21" s="3"/>
+      <c r="Q21" s="3"/>
+      <c r="R21" s="5"/>
+      <c r="S21" s="5"/>
+      <c r="T21" s="5"/>
+      <c r="U21" s="5"/>
+      <c r="V21" s="5"/>
+      <c r="W21" s="5"/>
+      <c r="X21" s="5"/>
+    </row>
+    <row r="22" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="B22" s="3"/>
+      <c r="C22" s="3"/>
+      <c r="D22" s="5"/>
+      <c r="E22" s="5"/>
+      <c r="F22" s="3"/>
+      <c r="G22" s="3"/>
+      <c r="H22" s="3"/>
+      <c r="I22" s="3"/>
+      <c r="J22" s="3"/>
+      <c r="K22" s="3"/>
+      <c r="L22" s="3"/>
+      <c r="M22" s="3"/>
+      <c r="N22" s="3"/>
+      <c r="O22" s="3"/>
+      <c r="P22" s="3"/>
+      <c r="Q22" s="3"/>
+      <c r="R22" s="5"/>
+      <c r="S22" s="5"/>
+      <c r="T22" s="5"/>
+      <c r="U22" s="5"/>
+      <c r="V22" s="5"/>
+      <c r="W22" s="5"/>
+      <c r="X22" s="5"/>
+    </row>
+    <row r="23" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="B23" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="W3" s="21"/>
-      <c r="X3" s="21"/>
-    </row>
-    <row r="4" spans="2:24" x14ac:dyDescent="0.2">
-      <c r="B4" s="8"/>
-      <c r="C4" s="9"/>
-      <c r="D4" s="10"/>
-      <c r="E4" s="12"/>
-      <c r="F4" s="10"/>
-      <c r="G4" s="11"/>
-      <c r="H4" s="11"/>
-      <c r="I4" s="12"/>
-      <c r="J4" s="10"/>
-      <c r="K4" s="11"/>
-      <c r="L4" s="11"/>
-      <c r="M4" s="12"/>
-      <c r="N4" s="10"/>
-      <c r="O4" s="11"/>
-      <c r="P4" s="11"/>
-      <c r="Q4" s="12"/>
-      <c r="R4" s="10"/>
-      <c r="S4" s="11"/>
-      <c r="T4" s="11"/>
-      <c r="U4" s="12"/>
-      <c r="V4" s="8"/>
-      <c r="W4" s="21"/>
-      <c r="X4" s="21"/>
-    </row>
-    <row r="5" spans="2:24" x14ac:dyDescent="0.2">
-      <c r="B5" s="8"/>
-      <c r="C5" s="9"/>
-      <c r="D5" s="10"/>
-      <c r="E5" s="12"/>
-      <c r="F5" s="10"/>
-      <c r="G5" s="11"/>
-      <c r="H5" s="11"/>
-      <c r="I5" s="12"/>
-      <c r="J5" s="10"/>
-      <c r="K5" s="11"/>
-      <c r="L5" s="11"/>
-      <c r="M5" s="12"/>
-      <c r="N5" s="10"/>
-      <c r="O5" s="11"/>
-      <c r="P5" s="11"/>
-      <c r="Q5" s="12"/>
-      <c r="R5" s="10"/>
-      <c r="S5" s="11"/>
-      <c r="T5" s="11"/>
-      <c r="U5" s="12"/>
-      <c r="V5" s="8"/>
-      <c r="W5" s="21"/>
-      <c r="X5" s="21"/>
-    </row>
-    <row r="6" spans="2:24" x14ac:dyDescent="0.2">
-      <c r="B6" s="8"/>
-      <c r="C6" s="9"/>
-      <c r="D6" s="10"/>
-      <c r="E6" s="12"/>
-      <c r="F6" s="10"/>
-      <c r="G6" s="11"/>
-      <c r="H6" s="11"/>
-      <c r="I6" s="12"/>
-      <c r="J6" s="10"/>
-      <c r="K6" s="11"/>
-      <c r="L6" s="11"/>
-      <c r="M6" s="12"/>
-      <c r="N6" s="10"/>
-      <c r="O6" s="11"/>
-      <c r="P6" s="11"/>
-      <c r="Q6" s="12"/>
-      <c r="R6" s="10"/>
-      <c r="S6" s="11"/>
-      <c r="T6" s="11"/>
-      <c r="U6" s="12"/>
-      <c r="V6" s="8"/>
-      <c r="W6" s="21"/>
-      <c r="X6" s="21"/>
-    </row>
-    <row r="7" spans="2:24" x14ac:dyDescent="0.2">
-      <c r="B7" s="8"/>
-      <c r="C7" s="9"/>
-      <c r="D7" s="10"/>
-      <c r="E7" s="12"/>
-      <c r="F7" s="10"/>
-      <c r="G7" s="11"/>
-      <c r="H7" s="11"/>
-      <c r="I7" s="12"/>
-      <c r="J7" s="10"/>
-      <c r="K7" s="11"/>
-      <c r="L7" s="11"/>
-      <c r="M7" s="12"/>
-      <c r="N7" s="10"/>
-      <c r="O7" s="11"/>
-      <c r="P7" s="11"/>
-      <c r="Q7" s="12"/>
-      <c r="R7" s="10"/>
-      <c r="S7" s="11"/>
-      <c r="T7" s="11"/>
-      <c r="U7" s="12"/>
-      <c r="V7" s="8"/>
-      <c r="W7" s="21"/>
-      <c r="X7" s="21"/>
-    </row>
-    <row r="8" spans="2:24" x14ac:dyDescent="0.2">
-      <c r="B8" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="C8" s="12"/>
-      <c r="D8" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="E8" s="9"/>
-      <c r="F8" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="G8" s="11"/>
-      <c r="H8" s="11"/>
-      <c r="I8" s="12"/>
-      <c r="J8" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="K8" s="11"/>
-      <c r="L8" s="11"/>
-      <c r="M8" s="11"/>
-      <c r="N8" s="24" t="s">
-        <v>26</v>
-      </c>
-      <c r="O8" s="11"/>
-      <c r="P8" s="11"/>
-      <c r="Q8" s="25"/>
-      <c r="R8" s="24" t="s">
-        <v>27</v>
-      </c>
-      <c r="S8" s="11"/>
-      <c r="T8" s="11"/>
-      <c r="U8" s="25"/>
-      <c r="V8" s="26" t="s">
+      <c r="C23" s="3"/>
+      <c r="D23" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="E23" s="3"/>
+      <c r="F23" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="G23" s="3"/>
+      <c r="H23" s="3"/>
+      <c r="I23" s="3"/>
+      <c r="J23" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="K23" s="5"/>
+      <c r="L23" s="5"/>
+      <c r="M23" s="5"/>
+      <c r="N23" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="O23" s="5"/>
+      <c r="P23" s="5"/>
+      <c r="Q23" s="5"/>
+      <c r="R23" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="S23" s="3"/>
+      <c r="T23" s="3"/>
+      <c r="U23" s="3"/>
+      <c r="V23" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="W8" s="21"/>
-      <c r="X8" s="21"/>
-    </row>
-    <row r="9" spans="2:24" x14ac:dyDescent="0.2">
-      <c r="B9" s="10"/>
-      <c r="C9" s="12"/>
-      <c r="D9" s="8"/>
-      <c r="E9" s="9"/>
-      <c r="F9" s="10"/>
-      <c r="G9" s="11"/>
-      <c r="H9" s="11"/>
-      <c r="I9" s="12"/>
-      <c r="J9" s="10"/>
-      <c r="K9" s="11"/>
-      <c r="L9" s="11"/>
-      <c r="M9" s="11"/>
-      <c r="N9" s="24"/>
-      <c r="O9" s="11"/>
-      <c r="P9" s="11"/>
-      <c r="Q9" s="25"/>
-      <c r="R9" s="24"/>
-      <c r="S9" s="11"/>
-      <c r="T9" s="11"/>
-      <c r="U9" s="25"/>
-      <c r="V9" s="26"/>
-      <c r="W9" s="21"/>
-      <c r="X9" s="21"/>
-    </row>
-    <row r="10" spans="2:24" x14ac:dyDescent="0.2">
-      <c r="B10" s="10"/>
-      <c r="C10" s="12"/>
-      <c r="D10" s="8"/>
-      <c r="E10" s="9"/>
-      <c r="F10" s="10"/>
-      <c r="G10" s="11"/>
-      <c r="H10" s="11"/>
-      <c r="I10" s="12"/>
-      <c r="J10" s="10"/>
-      <c r="K10" s="11"/>
-      <c r="L10" s="11"/>
-      <c r="M10" s="11"/>
-      <c r="N10" s="24"/>
-      <c r="O10" s="11"/>
-      <c r="P10" s="11"/>
-      <c r="Q10" s="25"/>
-      <c r="R10" s="24"/>
-      <c r="S10" s="11"/>
-      <c r="T10" s="11"/>
-      <c r="U10" s="25"/>
-      <c r="V10" s="26"/>
-      <c r="W10" s="21"/>
-      <c r="X10" s="21"/>
-    </row>
-    <row r="11" spans="2:24" x14ac:dyDescent="0.2">
-      <c r="B11" s="10"/>
-      <c r="C11" s="12"/>
-      <c r="D11" s="8"/>
-      <c r="E11" s="9"/>
-      <c r="F11" s="10"/>
-      <c r="G11" s="11"/>
-      <c r="H11" s="11"/>
-      <c r="I11" s="12"/>
-      <c r="J11" s="10"/>
-      <c r="K11" s="11"/>
-      <c r="L11" s="11"/>
-      <c r="M11" s="11"/>
-      <c r="N11" s="24"/>
-      <c r="O11" s="11"/>
-      <c r="P11" s="11"/>
-      <c r="Q11" s="25"/>
-      <c r="R11" s="24"/>
-      <c r="S11" s="11"/>
-      <c r="T11" s="11"/>
-      <c r="U11" s="25"/>
-      <c r="V11" s="26"/>
-      <c r="W11" s="21"/>
-      <c r="X11" s="21"/>
-    </row>
-    <row r="12" spans="2:24" x14ac:dyDescent="0.2">
-      <c r="B12" s="10"/>
-      <c r="C12" s="12"/>
-      <c r="D12" s="8"/>
-      <c r="E12" s="9"/>
-      <c r="F12" s="10"/>
-      <c r="G12" s="11"/>
-      <c r="H12" s="11"/>
-      <c r="I12" s="12"/>
-      <c r="J12" s="10"/>
-      <c r="K12" s="11"/>
-      <c r="L12" s="11"/>
-      <c r="M12" s="11"/>
-      <c r="N12" s="24"/>
-      <c r="O12" s="11"/>
-      <c r="P12" s="11"/>
-      <c r="Q12" s="25"/>
-      <c r="R12" s="24"/>
-      <c r="S12" s="11"/>
-      <c r="T12" s="11"/>
-      <c r="U12" s="25"/>
-      <c r="V12" s="26"/>
-      <c r="W12" s="21"/>
-      <c r="X12" s="21"/>
-    </row>
-    <row r="13" spans="2:24" ht="13.2" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B13" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="C13" s="12"/>
-      <c r="D13" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="E13" s="12"/>
-      <c r="F13" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="G13" s="11"/>
-      <c r="H13" s="11"/>
-      <c r="I13" s="12"/>
-      <c r="J13" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="K13" s="11"/>
-      <c r="L13" s="11"/>
-      <c r="M13" s="12"/>
-      <c r="N13" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="O13" s="11"/>
-      <c r="P13" s="11"/>
-      <c r="Q13" s="12"/>
-      <c r="R13" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="S13" s="23"/>
-      <c r="T13" s="23"/>
-      <c r="U13" s="9"/>
-      <c r="V13" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="W13" s="21"/>
-      <c r="X13" s="21"/>
-    </row>
-    <row r="14" spans="2:24" x14ac:dyDescent="0.2">
-      <c r="B14" s="10"/>
-      <c r="C14" s="12"/>
-      <c r="D14" s="10"/>
-      <c r="E14" s="12"/>
-      <c r="F14" s="10"/>
-      <c r="G14" s="11"/>
-      <c r="H14" s="11"/>
-      <c r="I14" s="12"/>
-      <c r="J14" s="10"/>
-      <c r="K14" s="11"/>
-      <c r="L14" s="11"/>
-      <c r="M14" s="12"/>
-      <c r="N14" s="10"/>
-      <c r="O14" s="11"/>
-      <c r="P14" s="11"/>
-      <c r="Q14" s="12"/>
-      <c r="R14" s="8"/>
-      <c r="S14" s="23"/>
-      <c r="T14" s="23"/>
-      <c r="U14" s="9"/>
-      <c r="V14" s="8"/>
-      <c r="W14" s="21"/>
-      <c r="X14" s="21"/>
-    </row>
-    <row r="15" spans="2:24" x14ac:dyDescent="0.2">
-      <c r="B15" s="10"/>
-      <c r="C15" s="12"/>
-      <c r="D15" s="10"/>
-      <c r="E15" s="12"/>
-      <c r="F15" s="10"/>
-      <c r="G15" s="11"/>
-      <c r="H15" s="11"/>
-      <c r="I15" s="12"/>
-      <c r="J15" s="10"/>
-      <c r="K15" s="11"/>
-      <c r="L15" s="11"/>
-      <c r="M15" s="12"/>
-      <c r="N15" s="10"/>
-      <c r="O15" s="11"/>
-      <c r="P15" s="11"/>
-      <c r="Q15" s="12"/>
-      <c r="R15" s="8"/>
-      <c r="S15" s="23"/>
-      <c r="T15" s="23"/>
-      <c r="U15" s="9"/>
-      <c r="V15" s="8"/>
-      <c r="W15" s="21"/>
-      <c r="X15" s="21"/>
-    </row>
-    <row r="16" spans="2:24" x14ac:dyDescent="0.2">
-      <c r="B16" s="10"/>
-      <c r="C16" s="12"/>
-      <c r="D16" s="10"/>
-      <c r="E16" s="12"/>
-      <c r="F16" s="10"/>
-      <c r="G16" s="11"/>
-      <c r="H16" s="11"/>
-      <c r="I16" s="12"/>
-      <c r="J16" s="10"/>
-      <c r="K16" s="11"/>
-      <c r="L16" s="11"/>
-      <c r="M16" s="12"/>
-      <c r="N16" s="10"/>
-      <c r="O16" s="11"/>
-      <c r="P16" s="11"/>
-      <c r="Q16" s="12"/>
-      <c r="R16" s="8"/>
-      <c r="S16" s="23"/>
-      <c r="T16" s="23"/>
-      <c r="U16" s="9"/>
-      <c r="V16" s="8"/>
-      <c r="W16" s="21"/>
-      <c r="X16" s="21"/>
-    </row>
-    <row r="17" spans="2:24" x14ac:dyDescent="0.2">
-      <c r="B17" s="10"/>
-      <c r="C17" s="12"/>
-      <c r="D17" s="10"/>
-      <c r="E17" s="12"/>
-      <c r="F17" s="10"/>
-      <c r="G17" s="11"/>
-      <c r="H17" s="11"/>
-      <c r="I17" s="12"/>
-      <c r="J17" s="10"/>
-      <c r="K17" s="11"/>
-      <c r="L17" s="11"/>
-      <c r="M17" s="12"/>
-      <c r="N17" s="10"/>
-      <c r="O17" s="11"/>
-      <c r="P17" s="11"/>
-      <c r="Q17" s="12"/>
-      <c r="R17" s="8"/>
-      <c r="S17" s="23"/>
-      <c r="T17" s="23"/>
-      <c r="U17" s="9"/>
-      <c r="V17" s="8"/>
-      <c r="W17" s="21"/>
-      <c r="X17" s="21"/>
-    </row>
-    <row r="18" spans="2:24" x14ac:dyDescent="0.2">
-      <c r="B18" s="27" t="s">
+      <c r="W23" s="5"/>
+      <c r="X23" s="5"/>
+    </row>
+    <row r="24" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="B24" s="3"/>
+      <c r="C24" s="3"/>
+      <c r="D24" s="3"/>
+      <c r="E24" s="3"/>
+      <c r="F24" s="3"/>
+      <c r="G24" s="3"/>
+      <c r="H24" s="3"/>
+      <c r="I24" s="3"/>
+      <c r="J24" s="5"/>
+      <c r="K24" s="5"/>
+      <c r="L24" s="5"/>
+      <c r="M24" s="5"/>
+      <c r="N24" s="5"/>
+      <c r="O24" s="5"/>
+      <c r="P24" s="5"/>
+      <c r="Q24" s="5"/>
+      <c r="R24" s="3"/>
+      <c r="S24" s="3"/>
+      <c r="T24" s="3"/>
+      <c r="U24" s="3"/>
+      <c r="V24" s="5"/>
+      <c r="W24" s="5"/>
+      <c r="X24" s="5"/>
+    </row>
+    <row r="25" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="B25" s="3"/>
+      <c r="C25" s="3"/>
+      <c r="D25" s="3"/>
+      <c r="E25" s="3"/>
+      <c r="F25" s="3"/>
+      <c r="G25" s="3"/>
+      <c r="H25" s="3"/>
+      <c r="I25" s="3"/>
+      <c r="J25" s="5"/>
+      <c r="K25" s="5"/>
+      <c r="L25" s="5"/>
+      <c r="M25" s="5"/>
+      <c r="N25" s="5"/>
+      <c r="O25" s="5"/>
+      <c r="P25" s="5"/>
+      <c r="Q25" s="5"/>
+      <c r="R25" s="3"/>
+      <c r="S25" s="3"/>
+      <c r="T25" s="3"/>
+      <c r="U25" s="3"/>
+      <c r="V25" s="5"/>
+      <c r="W25" s="5"/>
+      <c r="X25" s="5"/>
+    </row>
+    <row r="26" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="B26" s="3"/>
+      <c r="C26" s="3"/>
+      <c r="D26" s="3"/>
+      <c r="E26" s="3"/>
+      <c r="F26" s="3"/>
+      <c r="G26" s="3"/>
+      <c r="H26" s="3"/>
+      <c r="I26" s="3"/>
+      <c r="J26" s="5"/>
+      <c r="K26" s="5"/>
+      <c r="L26" s="5"/>
+      <c r="M26" s="5"/>
+      <c r="N26" s="5"/>
+      <c r="O26" s="5"/>
+      <c r="P26" s="5"/>
+      <c r="Q26" s="5"/>
+      <c r="R26" s="3"/>
+      <c r="S26" s="3"/>
+      <c r="T26" s="3"/>
+      <c r="U26" s="3"/>
+      <c r="V26" s="5"/>
+      <c r="W26" s="5"/>
+      <c r="X26" s="5"/>
+    </row>
+    <row r="27" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="B27" s="3"/>
+      <c r="C27" s="3"/>
+      <c r="D27" s="3"/>
+      <c r="E27" s="3"/>
+      <c r="F27" s="3"/>
+      <c r="G27" s="3"/>
+      <c r="H27" s="3"/>
+      <c r="I27" s="3"/>
+      <c r="J27" s="5"/>
+      <c r="K27" s="5"/>
+      <c r="L27" s="5"/>
+      <c r="M27" s="5"/>
+      <c r="N27" s="5"/>
+      <c r="O27" s="5"/>
+      <c r="P27" s="5"/>
+      <c r="Q27" s="5"/>
+      <c r="R27" s="3"/>
+      <c r="S27" s="3"/>
+      <c r="T27" s="3"/>
+      <c r="U27" s="3"/>
+      <c r="V27" s="5"/>
+      <c r="W27" s="5"/>
+      <c r="X27" s="5"/>
+    </row>
+    <row r="28" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="B28" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="C28" s="5"/>
+      <c r="D28" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="C18" s="27"/>
-      <c r="D18" s="28" t="s">
-        <v>36</v>
-      </c>
-      <c r="E18" s="28"/>
-      <c r="F18" s="27" t="s">
-        <v>45</v>
-      </c>
-      <c r="G18" s="27"/>
-      <c r="H18" s="27"/>
-      <c r="I18" s="27"/>
-      <c r="J18" s="27" t="s">
-        <v>37</v>
-      </c>
-      <c r="K18" s="27"/>
-      <c r="L18" s="27"/>
-      <c r="M18" s="27"/>
-      <c r="N18" s="27" t="s">
-        <v>38</v>
-      </c>
-      <c r="O18" s="27"/>
-      <c r="P18" s="27"/>
-      <c r="Q18" s="27"/>
-      <c r="R18" s="28" t="s">
-        <v>31</v>
-      </c>
-      <c r="S18" s="28"/>
-      <c r="T18" s="28"/>
-      <c r="U18" s="28"/>
-      <c r="V18" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="W18" s="21"/>
-      <c r="X18" s="21"/>
-    </row>
-    <row r="19" spans="2:24" x14ac:dyDescent="0.2">
-      <c r="B19" s="27"/>
-      <c r="C19" s="27"/>
-      <c r="D19" s="28"/>
-      <c r="E19" s="28"/>
-      <c r="F19" s="27"/>
-      <c r="G19" s="27"/>
-      <c r="H19" s="27"/>
-      <c r="I19" s="27"/>
-      <c r="J19" s="27"/>
-      <c r="K19" s="27"/>
-      <c r="L19" s="27"/>
-      <c r="M19" s="27"/>
-      <c r="N19" s="27"/>
-      <c r="O19" s="27"/>
-      <c r="P19" s="27"/>
-      <c r="Q19" s="27"/>
-      <c r="R19" s="28"/>
-      <c r="S19" s="28"/>
-      <c r="T19" s="28"/>
-      <c r="U19" s="28"/>
-      <c r="V19" s="8"/>
-      <c r="W19" s="21"/>
-      <c r="X19" s="21"/>
-    </row>
-    <row r="20" spans="2:24" x14ac:dyDescent="0.2">
-      <c r="B20" s="27"/>
-      <c r="C20" s="27"/>
-      <c r="D20" s="28"/>
-      <c r="E20" s="28"/>
-      <c r="F20" s="27"/>
-      <c r="G20" s="27"/>
-      <c r="H20" s="27"/>
-      <c r="I20" s="27"/>
-      <c r="J20" s="27"/>
-      <c r="K20" s="27"/>
-      <c r="L20" s="27"/>
-      <c r="M20" s="27"/>
-      <c r="N20" s="27"/>
-      <c r="O20" s="27"/>
-      <c r="P20" s="27"/>
-      <c r="Q20" s="27"/>
-      <c r="R20" s="28"/>
-      <c r="S20" s="28"/>
-      <c r="T20" s="28"/>
-      <c r="U20" s="28"/>
-      <c r="V20" s="8"/>
-      <c r="W20" s="21"/>
-      <c r="X20" s="21"/>
-    </row>
-    <row r="21" spans="2:24" x14ac:dyDescent="0.2">
-      <c r="B21" s="27"/>
-      <c r="C21" s="27"/>
-      <c r="D21" s="28"/>
-      <c r="E21" s="28"/>
-      <c r="F21" s="27"/>
-      <c r="G21" s="27"/>
-      <c r="H21" s="27"/>
-      <c r="I21" s="27"/>
-      <c r="J21" s="27"/>
-      <c r="K21" s="27"/>
-      <c r="L21" s="27"/>
-      <c r="M21" s="27"/>
-      <c r="N21" s="27"/>
-      <c r="O21" s="27"/>
-      <c r="P21" s="27"/>
-      <c r="Q21" s="27"/>
-      <c r="R21" s="28"/>
-      <c r="S21" s="28"/>
-      <c r="T21" s="28"/>
-      <c r="U21" s="28"/>
-      <c r="V21" s="8"/>
-      <c r="W21" s="21"/>
-      <c r="X21" s="21"/>
-    </row>
-    <row r="22" spans="2:24" x14ac:dyDescent="0.2">
-      <c r="B22" s="27"/>
-      <c r="C22" s="27"/>
-      <c r="D22" s="28"/>
-      <c r="E22" s="28"/>
-      <c r="F22" s="27"/>
-      <c r="G22" s="27"/>
-      <c r="H22" s="27"/>
-      <c r="I22" s="27"/>
-      <c r="J22" s="27"/>
-      <c r="K22" s="27"/>
-      <c r="L22" s="27"/>
-      <c r="M22" s="27"/>
-      <c r="N22" s="27"/>
-      <c r="O22" s="27"/>
-      <c r="P22" s="27"/>
-      <c r="Q22" s="27"/>
-      <c r="R22" s="28"/>
-      <c r="S22" s="28"/>
-      <c r="T22" s="28"/>
-      <c r="U22" s="28"/>
-      <c r="V22" s="8"/>
-      <c r="W22" s="21"/>
-      <c r="X22" s="21"/>
-    </row>
-    <row r="23" spans="2:24" x14ac:dyDescent="0.2">
-      <c r="B23" s="27" t="s">
-        <v>43</v>
-      </c>
-      <c r="C23" s="27"/>
-      <c r="D23" s="27" t="s">
-        <v>44</v>
-      </c>
-      <c r="E23" s="27"/>
-      <c r="F23" s="27" t="s">
-        <v>46</v>
-      </c>
-      <c r="G23" s="27"/>
-      <c r="H23" s="27"/>
-      <c r="I23" s="27"/>
-      <c r="J23" s="28" t="s">
-        <v>47</v>
-      </c>
-      <c r="K23" s="28"/>
-      <c r="L23" s="28"/>
-      <c r="M23" s="28"/>
-      <c r="N23" s="28" t="s">
-        <v>38</v>
-      </c>
-      <c r="O23" s="28"/>
-      <c r="P23" s="28"/>
-      <c r="Q23" s="28"/>
-      <c r="R23" s="27" t="s">
-        <v>48</v>
-      </c>
-      <c r="S23" s="27"/>
-      <c r="T23" s="27"/>
-      <c r="U23" s="27"/>
-      <c r="V23" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="W23" s="21"/>
-      <c r="X23" s="21"/>
-    </row>
-    <row r="24" spans="2:24" x14ac:dyDescent="0.2">
-      <c r="B24" s="27"/>
-      <c r="C24" s="27"/>
-      <c r="D24" s="27"/>
-      <c r="E24" s="27"/>
-      <c r="F24" s="27"/>
-      <c r="G24" s="27"/>
-      <c r="H24" s="27"/>
-      <c r="I24" s="27"/>
-      <c r="J24" s="28"/>
-      <c r="K24" s="28"/>
-      <c r="L24" s="28"/>
-      <c r="M24" s="28"/>
-      <c r="N24" s="28"/>
-      <c r="O24" s="28"/>
-      <c r="P24" s="28"/>
-      <c r="Q24" s="28"/>
-      <c r="R24" s="27"/>
-      <c r="S24" s="27"/>
-      <c r="T24" s="27"/>
-      <c r="U24" s="27"/>
-      <c r="V24" s="8"/>
-      <c r="W24" s="21"/>
-      <c r="X24" s="21"/>
-    </row>
-    <row r="25" spans="2:24" x14ac:dyDescent="0.2">
-      <c r="B25" s="27"/>
-      <c r="C25" s="27"/>
-      <c r="D25" s="27"/>
-      <c r="E25" s="27"/>
-      <c r="F25" s="27"/>
-      <c r="G25" s="27"/>
-      <c r="H25" s="27"/>
-      <c r="I25" s="27"/>
-      <c r="J25" s="28"/>
-      <c r="K25" s="28"/>
-      <c r="L25" s="28"/>
-      <c r="M25" s="28"/>
-      <c r="N25" s="28"/>
-      <c r="O25" s="28"/>
-      <c r="P25" s="28"/>
-      <c r="Q25" s="28"/>
-      <c r="R25" s="27"/>
-      <c r="S25" s="27"/>
-      <c r="T25" s="27"/>
-      <c r="U25" s="27"/>
-      <c r="V25" s="8"/>
-      <c r="W25" s="21"/>
-      <c r="X25" s="21"/>
-    </row>
-    <row r="26" spans="2:24" x14ac:dyDescent="0.2">
-      <c r="B26" s="27"/>
-      <c r="C26" s="27"/>
-      <c r="D26" s="27"/>
-      <c r="E26" s="27"/>
-      <c r="F26" s="27"/>
-      <c r="G26" s="27"/>
-      <c r="H26" s="27"/>
-      <c r="I26" s="27"/>
-      <c r="J26" s="28"/>
-      <c r="K26" s="28"/>
-      <c r="L26" s="28"/>
-      <c r="M26" s="28"/>
-      <c r="N26" s="28"/>
-      <c r="O26" s="28"/>
-      <c r="P26" s="28"/>
-      <c r="Q26" s="28"/>
-      <c r="R26" s="27"/>
-      <c r="S26" s="27"/>
-      <c r="T26" s="27"/>
-      <c r="U26" s="27"/>
-      <c r="V26" s="8"/>
-      <c r="W26" s="21"/>
-      <c r="X26" s="21"/>
-    </row>
-    <row r="27" spans="2:24" x14ac:dyDescent="0.2">
-      <c r="B27" s="27"/>
-      <c r="C27" s="27"/>
-      <c r="D27" s="27"/>
-      <c r="E27" s="27"/>
-      <c r="F27" s="27"/>
-      <c r="G27" s="27"/>
-      <c r="H27" s="27"/>
-      <c r="I27" s="27"/>
-      <c r="J27" s="28"/>
-      <c r="K27" s="28"/>
-      <c r="L27" s="28"/>
-      <c r="M27" s="28"/>
-      <c r="N27" s="28"/>
-      <c r="O27" s="28"/>
-      <c r="P27" s="28"/>
-      <c r="Q27" s="28"/>
-      <c r="R27" s="27"/>
-      <c r="S27" s="27"/>
-      <c r="T27" s="27"/>
-      <c r="U27" s="27"/>
-      <c r="V27" s="8"/>
-      <c r="W27" s="21"/>
-      <c r="X27" s="21"/>
-    </row>
-    <row r="28" spans="2:24" x14ac:dyDescent="0.2">
-      <c r="B28" s="21" t="s">
-        <v>49</v>
-      </c>
-      <c r="C28" s="21"/>
-      <c r="D28" s="21" t="s">
-        <v>36</v>
-      </c>
-      <c r="E28" s="21"/>
-      <c r="F28" s="21" t="s">
+      <c r="E28" s="5"/>
+      <c r="F28" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="G28" s="5"/>
+      <c r="H28" s="5"/>
+      <c r="I28" s="5"/>
+      <c r="J28" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="G28" s="21"/>
-      <c r="H28" s="21"/>
-      <c r="I28" s="21"/>
-      <c r="J28" s="22" t="s">
+      <c r="K28" s="3"/>
+      <c r="L28" s="3"/>
+      <c r="M28" s="3"/>
+      <c r="N28" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="K28" s="22"/>
-      <c r="L28" s="22"/>
-      <c r="M28" s="22"/>
-      <c r="N28" s="22" t="s">
+      <c r="O28" s="3"/>
+      <c r="P28" s="3"/>
+      <c r="Q28" s="3"/>
+      <c r="R28" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="O28" s="22"/>
-      <c r="P28" s="22"/>
-      <c r="Q28" s="22"/>
-      <c r="R28" s="21" t="s">
-        <v>55</v>
-      </c>
-      <c r="S28" s="21"/>
-      <c r="T28" s="21"/>
-      <c r="U28" s="21"/>
-      <c r="V28" s="21" t="s">
-        <v>40</v>
-      </c>
-      <c r="W28" s="21"/>
-      <c r="X28" s="21"/>
+      <c r="S28" s="5"/>
+      <c r="T28" s="5"/>
+      <c r="U28" s="5"/>
+      <c r="V28" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="W28" s="5"/>
+      <c r="X28" s="5"/>
     </row>
     <row r="29" spans="2:24" x14ac:dyDescent="0.2">
-      <c r="B29" s="21"/>
-      <c r="C29" s="21"/>
-      <c r="D29" s="21"/>
-      <c r="E29" s="21"/>
-      <c r="F29" s="21"/>
-      <c r="G29" s="21"/>
-      <c r="H29" s="21"/>
-      <c r="I29" s="21"/>
-      <c r="J29" s="22"/>
-      <c r="K29" s="22"/>
-      <c r="L29" s="22"/>
-      <c r="M29" s="22"/>
-      <c r="N29" s="22"/>
-      <c r="O29" s="22"/>
-      <c r="P29" s="22"/>
-      <c r="Q29" s="22"/>
-      <c r="R29" s="21"/>
-      <c r="S29" s="21"/>
-      <c r="T29" s="21"/>
-      <c r="U29" s="21"/>
-      <c r="V29" s="21"/>
-      <c r="W29" s="21"/>
-      <c r="X29" s="21"/>
+      <c r="B29" s="5"/>
+      <c r="C29" s="5"/>
+      <c r="D29" s="5"/>
+      <c r="E29" s="5"/>
+      <c r="F29" s="5"/>
+      <c r="G29" s="5"/>
+      <c r="H29" s="5"/>
+      <c r="I29" s="5"/>
+      <c r="J29" s="3"/>
+      <c r="K29" s="3"/>
+      <c r="L29" s="3"/>
+      <c r="M29" s="3"/>
+      <c r="N29" s="3"/>
+      <c r="O29" s="3"/>
+      <c r="P29" s="3"/>
+      <c r="Q29" s="3"/>
+      <c r="R29" s="5"/>
+      <c r="S29" s="5"/>
+      <c r="T29" s="5"/>
+      <c r="U29" s="5"/>
+      <c r="V29" s="5"/>
+      <c r="W29" s="5"/>
+      <c r="X29" s="5"/>
     </row>
     <row r="30" spans="2:24" x14ac:dyDescent="0.2">
-      <c r="B30" s="21"/>
-      <c r="C30" s="21"/>
-      <c r="D30" s="21"/>
-      <c r="E30" s="21"/>
-      <c r="F30" s="21"/>
-      <c r="G30" s="21"/>
-      <c r="H30" s="21"/>
-      <c r="I30" s="21"/>
-      <c r="J30" s="22"/>
-      <c r="K30" s="22"/>
-      <c r="L30" s="22"/>
-      <c r="M30" s="22"/>
-      <c r="N30" s="22"/>
-      <c r="O30" s="22"/>
-      <c r="P30" s="22"/>
-      <c r="Q30" s="22"/>
-      <c r="R30" s="21"/>
-      <c r="S30" s="21"/>
-      <c r="T30" s="21"/>
-      <c r="U30" s="21"/>
-      <c r="V30" s="21"/>
-      <c r="W30" s="21"/>
-      <c r="X30" s="21"/>
+      <c r="B30" s="5"/>
+      <c r="C30" s="5"/>
+      <c r="D30" s="5"/>
+      <c r="E30" s="5"/>
+      <c r="F30" s="5"/>
+      <c r="G30" s="5"/>
+      <c r="H30" s="5"/>
+      <c r="I30" s="5"/>
+      <c r="J30" s="3"/>
+      <c r="K30" s="3"/>
+      <c r="L30" s="3"/>
+      <c r="M30" s="3"/>
+      <c r="N30" s="3"/>
+      <c r="O30" s="3"/>
+      <c r="P30" s="3"/>
+      <c r="Q30" s="3"/>
+      <c r="R30" s="5"/>
+      <c r="S30" s="5"/>
+      <c r="T30" s="5"/>
+      <c r="U30" s="5"/>
+      <c r="V30" s="5"/>
+      <c r="W30" s="5"/>
+      <c r="X30" s="5"/>
     </row>
     <row r="31" spans="2:24" x14ac:dyDescent="0.2">
-      <c r="B31" s="21"/>
-      <c r="C31" s="21"/>
-      <c r="D31" s="21"/>
-      <c r="E31" s="21"/>
-      <c r="F31" s="21"/>
-      <c r="G31" s="21"/>
-      <c r="H31" s="21"/>
-      <c r="I31" s="21"/>
-      <c r="J31" s="22"/>
-      <c r="K31" s="22"/>
-      <c r="L31" s="22"/>
-      <c r="M31" s="22"/>
-      <c r="N31" s="22"/>
-      <c r="O31" s="22"/>
-      <c r="P31" s="22"/>
-      <c r="Q31" s="22"/>
-      <c r="R31" s="21"/>
-      <c r="S31" s="21"/>
-      <c r="T31" s="21"/>
-      <c r="U31" s="21"/>
-      <c r="V31" s="21"/>
-      <c r="W31" s="21"/>
-      <c r="X31" s="21"/>
+      <c r="B31" s="5"/>
+      <c r="C31" s="5"/>
+      <c r="D31" s="5"/>
+      <c r="E31" s="5"/>
+      <c r="F31" s="5"/>
+      <c r="G31" s="5"/>
+      <c r="H31" s="5"/>
+      <c r="I31" s="5"/>
+      <c r="J31" s="3"/>
+      <c r="K31" s="3"/>
+      <c r="L31" s="3"/>
+      <c r="M31" s="3"/>
+      <c r="N31" s="3"/>
+      <c r="O31" s="3"/>
+      <c r="P31" s="3"/>
+      <c r="Q31" s="3"/>
+      <c r="R31" s="5"/>
+      <c r="S31" s="5"/>
+      <c r="T31" s="5"/>
+      <c r="U31" s="5"/>
+      <c r="V31" s="5"/>
+      <c r="W31" s="5"/>
+      <c r="X31" s="5"/>
     </row>
     <row r="32" spans="2:24" x14ac:dyDescent="0.2">
-      <c r="B32" s="21"/>
-      <c r="C32" s="21"/>
-      <c r="D32" s="21"/>
-      <c r="E32" s="21"/>
-      <c r="F32" s="21"/>
-      <c r="G32" s="21"/>
-      <c r="H32" s="21"/>
-      <c r="I32" s="21"/>
-      <c r="J32" s="22"/>
-      <c r="K32" s="22"/>
-      <c r="L32" s="22"/>
-      <c r="M32" s="22"/>
-      <c r="N32" s="22"/>
-      <c r="O32" s="22"/>
-      <c r="P32" s="22"/>
-      <c r="Q32" s="22"/>
-      <c r="R32" s="21"/>
-      <c r="S32" s="21"/>
-      <c r="T32" s="21"/>
-      <c r="U32" s="21"/>
-      <c r="V32" s="21"/>
-      <c r="W32" s="21"/>
-      <c r="X32" s="21"/>
+      <c r="B32" s="5"/>
+      <c r="C32" s="5"/>
+      <c r="D32" s="5"/>
+      <c r="E32" s="5"/>
+      <c r="F32" s="5"/>
+      <c r="G32" s="5"/>
+      <c r="H32" s="5"/>
+      <c r="I32" s="5"/>
+      <c r="J32" s="3"/>
+      <c r="K32" s="3"/>
+      <c r="L32" s="3"/>
+      <c r="M32" s="3"/>
+      <c r="N32" s="3"/>
+      <c r="O32" s="3"/>
+      <c r="P32" s="3"/>
+      <c r="Q32" s="3"/>
+      <c r="R32" s="5"/>
+      <c r="S32" s="5"/>
+      <c r="T32" s="5"/>
+      <c r="U32" s="5"/>
+      <c r="V32" s="5"/>
+      <c r="W32" s="5"/>
+      <c r="X32" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="49">
-    <mergeCell ref="R28:U32"/>
-    <mergeCell ref="V28:X32"/>
-    <mergeCell ref="B28:C32"/>
-    <mergeCell ref="D28:E32"/>
-    <mergeCell ref="F28:I32"/>
-    <mergeCell ref="J28:M32"/>
-    <mergeCell ref="N28:Q32"/>
-    <mergeCell ref="R23:U27"/>
-    <mergeCell ref="V2:X2"/>
-    <mergeCell ref="V3:X7"/>
-    <mergeCell ref="V8:X12"/>
-    <mergeCell ref="V13:X17"/>
-    <mergeCell ref="V18:X22"/>
-    <mergeCell ref="V23:X27"/>
-    <mergeCell ref="B23:C27"/>
-    <mergeCell ref="D23:E27"/>
-    <mergeCell ref="F23:I27"/>
-    <mergeCell ref="J23:M27"/>
-    <mergeCell ref="N23:Q27"/>
-    <mergeCell ref="B13:C17"/>
-    <mergeCell ref="D13:E17"/>
-    <mergeCell ref="F13:I17"/>
-    <mergeCell ref="J13:M17"/>
-    <mergeCell ref="N13:Q17"/>
-    <mergeCell ref="R13:U17"/>
-    <mergeCell ref="B18:C22"/>
-    <mergeCell ref="D18:E22"/>
-    <mergeCell ref="F18:I22"/>
-    <mergeCell ref="J18:M22"/>
-    <mergeCell ref="N18:Q22"/>
-    <mergeCell ref="R18:U22"/>
-    <mergeCell ref="N2:Q2"/>
-    <mergeCell ref="R2:U2"/>
-    <mergeCell ref="N3:Q7"/>
-    <mergeCell ref="R3:U7"/>
-    <mergeCell ref="N8:Q12"/>
-    <mergeCell ref="R8:U12"/>
     <mergeCell ref="B8:C12"/>
     <mergeCell ref="D8:E12"/>
     <mergeCell ref="F8:I12"/>
@@ -4285,6 +4559,43 @@
     <mergeCell ref="D3:E7"/>
     <mergeCell ref="F3:I7"/>
     <mergeCell ref="J3:M7"/>
+    <mergeCell ref="N2:Q2"/>
+    <mergeCell ref="R2:U2"/>
+    <mergeCell ref="N3:Q7"/>
+    <mergeCell ref="R3:U7"/>
+    <mergeCell ref="N8:Q12"/>
+    <mergeCell ref="R8:U12"/>
+    <mergeCell ref="B18:C22"/>
+    <mergeCell ref="D18:E22"/>
+    <mergeCell ref="F18:I22"/>
+    <mergeCell ref="J18:M22"/>
+    <mergeCell ref="N18:Q22"/>
+    <mergeCell ref="B13:C17"/>
+    <mergeCell ref="D13:E17"/>
+    <mergeCell ref="F13:I17"/>
+    <mergeCell ref="J13:M17"/>
+    <mergeCell ref="N13:Q17"/>
+    <mergeCell ref="B23:C27"/>
+    <mergeCell ref="D23:E27"/>
+    <mergeCell ref="F23:I27"/>
+    <mergeCell ref="J23:M27"/>
+    <mergeCell ref="N23:Q27"/>
+    <mergeCell ref="R23:U27"/>
+    <mergeCell ref="V2:X2"/>
+    <mergeCell ref="V3:X7"/>
+    <mergeCell ref="V8:X12"/>
+    <mergeCell ref="V13:X17"/>
+    <mergeCell ref="V18:X22"/>
+    <mergeCell ref="V23:X27"/>
+    <mergeCell ref="R13:U17"/>
+    <mergeCell ref="R18:U22"/>
+    <mergeCell ref="R28:U32"/>
+    <mergeCell ref="V28:X32"/>
+    <mergeCell ref="B28:C32"/>
+    <mergeCell ref="D28:E32"/>
+    <mergeCell ref="F28:I32"/>
+    <mergeCell ref="J28:M32"/>
+    <mergeCell ref="N28:Q32"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4323,42 +4634,42 @@
   <sheetData>
     <row r="1" spans="2:14" ht="13.8" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:14" ht="13.8" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="4"/>
-      <c r="D2" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="E2" s="5"/>
-      <c r="F2" s="3" t="s">
+      <c r="C2" s="12"/>
+      <c r="D2" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="E2" s="11"/>
+      <c r="F2" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="G2" s="5"/>
-      <c r="H2" s="5"/>
-      <c r="I2" s="4"/>
-      <c r="J2" s="3" t="s">
+      <c r="G2" s="11"/>
+      <c r="H2" s="11"/>
+      <c r="I2" s="12"/>
+      <c r="J2" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="K2" s="5"/>
-      <c r="L2" s="5"/>
-      <c r="M2" s="4"/>
+      <c r="K2" s="11"/>
+      <c r="L2" s="11"/>
+      <c r="M2" s="12"/>
     </row>
     <row r="3" spans="2:14" ht="13.2" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="7"/>
-      <c r="D3" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="E3" s="7"/>
-      <c r="F3" s="10" t="s">
+      <c r="C3" s="17"/>
+      <c r="D3" s="16" t="s">
+        <v>49</v>
+      </c>
+      <c r="E3" s="17"/>
+      <c r="F3" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="G3" s="11"/>
-      <c r="H3" s="11"/>
-      <c r="I3" s="12"/>
+      <c r="G3" s="8"/>
+      <c r="H3" s="8"/>
+      <c r="I3" s="7"/>
       <c r="J3" s="13" t="s">
         <v>5</v>
       </c>
@@ -4367,231 +4678,231 @@
       <c r="M3" s="15"/>
     </row>
     <row r="4" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B4" s="8"/>
+      <c r="B4" s="4"/>
       <c r="C4" s="9"/>
-      <c r="D4" s="8"/>
+      <c r="D4" s="4"/>
       <c r="E4" s="9"/>
-      <c r="F4" s="10"/>
-      <c r="G4" s="11"/>
-      <c r="H4" s="11"/>
-      <c r="I4" s="12"/>
-      <c r="J4" s="10"/>
-      <c r="K4" s="11"/>
-      <c r="L4" s="11"/>
-      <c r="M4" s="12"/>
+      <c r="F4" s="6"/>
+      <c r="G4" s="8"/>
+      <c r="H4" s="8"/>
+      <c r="I4" s="7"/>
+      <c r="J4" s="6"/>
+      <c r="K4" s="8"/>
+      <c r="L4" s="8"/>
+      <c r="M4" s="7"/>
     </row>
     <row r="5" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B5" s="8"/>
+      <c r="B5" s="4"/>
       <c r="C5" s="9"/>
-      <c r="D5" s="8"/>
+      <c r="D5" s="4"/>
       <c r="E5" s="9"/>
-      <c r="F5" s="10"/>
-      <c r="G5" s="11"/>
-      <c r="H5" s="11"/>
-      <c r="I5" s="12"/>
-      <c r="J5" s="10"/>
-      <c r="K5" s="11"/>
-      <c r="L5" s="11"/>
-      <c r="M5" s="12"/>
+      <c r="F5" s="6"/>
+      <c r="G5" s="8"/>
+      <c r="H5" s="8"/>
+      <c r="I5" s="7"/>
+      <c r="J5" s="6"/>
+      <c r="K5" s="8"/>
+      <c r="L5" s="8"/>
+      <c r="M5" s="7"/>
     </row>
     <row r="6" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B6" s="8"/>
+      <c r="B6" s="4"/>
       <c r="C6" s="9"/>
-      <c r="D6" s="8"/>
+      <c r="D6" s="4"/>
       <c r="E6" s="9"/>
-      <c r="F6" s="10"/>
-      <c r="G6" s="11"/>
-      <c r="H6" s="11"/>
-      <c r="I6" s="12"/>
-      <c r="J6" s="10"/>
-      <c r="K6" s="11"/>
-      <c r="L6" s="11"/>
-      <c r="M6" s="12"/>
+      <c r="F6" s="6"/>
+      <c r="G6" s="8"/>
+      <c r="H6" s="8"/>
+      <c r="I6" s="7"/>
+      <c r="J6" s="6"/>
+      <c r="K6" s="8"/>
+      <c r="L6" s="8"/>
+      <c r="M6" s="7"/>
     </row>
     <row r="7" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B7" s="8"/>
+      <c r="B7" s="4"/>
       <c r="C7" s="9"/>
-      <c r="D7" s="8"/>
+      <c r="D7" s="4"/>
       <c r="E7" s="9"/>
-      <c r="F7" s="10"/>
-      <c r="G7" s="11"/>
-      <c r="H7" s="11"/>
-      <c r="I7" s="12"/>
-      <c r="J7" s="10"/>
-      <c r="K7" s="11"/>
-      <c r="L7" s="11"/>
-      <c r="M7" s="12"/>
+      <c r="F7" s="6"/>
+      <c r="G7" s="8"/>
+      <c r="H7" s="8"/>
+      <c r="I7" s="7"/>
+      <c r="J7" s="6"/>
+      <c r="K7" s="8"/>
+      <c r="L7" s="8"/>
+      <c r="M7" s="7"/>
       <c r="N7" s="2"/>
     </row>
     <row r="8" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B8" s="10" t="s">
+      <c r="B8" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C8" s="12"/>
-      <c r="D8" s="8" t="s">
+      <c r="C8" s="7"/>
+      <c r="D8" s="4" t="s">
         <v>10</v>
       </c>
       <c r="E8" s="9"/>
-      <c r="F8" s="10" t="s">
+      <c r="F8" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="G8" s="11"/>
-      <c r="H8" s="11"/>
-      <c r="I8" s="12"/>
-      <c r="J8" s="10" t="s">
+      <c r="G8" s="8"/>
+      <c r="H8" s="8"/>
+      <c r="I8" s="7"/>
+      <c r="J8" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="K8" s="11"/>
-      <c r="L8" s="11"/>
-      <c r="M8" s="12"/>
+      <c r="K8" s="8"/>
+      <c r="L8" s="8"/>
+      <c r="M8" s="7"/>
     </row>
     <row r="9" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B9" s="10"/>
-      <c r="C9" s="12"/>
-      <c r="D9" s="8"/>
+      <c r="B9" s="6"/>
+      <c r="C9" s="7"/>
+      <c r="D9" s="4"/>
       <c r="E9" s="9"/>
-      <c r="F9" s="10"/>
-      <c r="G9" s="11"/>
-      <c r="H9" s="11"/>
-      <c r="I9" s="12"/>
-      <c r="J9" s="10"/>
-      <c r="K9" s="11"/>
-      <c r="L9" s="11"/>
-      <c r="M9" s="12"/>
+      <c r="F9" s="6"/>
+      <c r="G9" s="8"/>
+      <c r="H9" s="8"/>
+      <c r="I9" s="7"/>
+      <c r="J9" s="6"/>
+      <c r="K9" s="8"/>
+      <c r="L9" s="8"/>
+      <c r="M9" s="7"/>
     </row>
     <row r="10" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B10" s="10"/>
-      <c r="C10" s="12"/>
-      <c r="D10" s="8"/>
+      <c r="B10" s="6"/>
+      <c r="C10" s="7"/>
+      <c r="D10" s="4"/>
       <c r="E10" s="9"/>
-      <c r="F10" s="10"/>
-      <c r="G10" s="11"/>
-      <c r="H10" s="11"/>
-      <c r="I10" s="12"/>
-      <c r="J10" s="10"/>
-      <c r="K10" s="11"/>
-      <c r="L10" s="11"/>
-      <c r="M10" s="12"/>
+      <c r="F10" s="6"/>
+      <c r="G10" s="8"/>
+      <c r="H10" s="8"/>
+      <c r="I10" s="7"/>
+      <c r="J10" s="6"/>
+      <c r="K10" s="8"/>
+      <c r="L10" s="8"/>
+      <c r="M10" s="7"/>
     </row>
     <row r="11" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B11" s="10"/>
-      <c r="C11" s="12"/>
-      <c r="D11" s="8"/>
+      <c r="B11" s="6"/>
+      <c r="C11" s="7"/>
+      <c r="D11" s="4"/>
       <c r="E11" s="9"/>
-      <c r="F11" s="10"/>
-      <c r="G11" s="11"/>
-      <c r="H11" s="11"/>
-      <c r="I11" s="12"/>
-      <c r="J11" s="10"/>
-      <c r="K11" s="11"/>
-      <c r="L11" s="11"/>
-      <c r="M11" s="12"/>
+      <c r="F11" s="6"/>
+      <c r="G11" s="8"/>
+      <c r="H11" s="8"/>
+      <c r="I11" s="7"/>
+      <c r="J11" s="6"/>
+      <c r="K11" s="8"/>
+      <c r="L11" s="8"/>
+      <c r="M11" s="7"/>
     </row>
     <row r="12" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B12" s="10"/>
-      <c r="C12" s="12"/>
-      <c r="D12" s="8"/>
+      <c r="B12" s="6"/>
+      <c r="C12" s="7"/>
+      <c r="D12" s="4"/>
       <c r="E12" s="9"/>
-      <c r="F12" s="10"/>
-      <c r="G12" s="11"/>
-      <c r="H12" s="11"/>
-      <c r="I12" s="12"/>
-      <c r="J12" s="10"/>
-      <c r="K12" s="11"/>
-      <c r="L12" s="11"/>
-      <c r="M12" s="12"/>
+      <c r="F12" s="6"/>
+      <c r="G12" s="8"/>
+      <c r="H12" s="8"/>
+      <c r="I12" s="7"/>
+      <c r="J12" s="6"/>
+      <c r="K12" s="8"/>
+      <c r="L12" s="8"/>
+      <c r="M12" s="7"/>
     </row>
     <row r="13" spans="2:14" ht="13.2" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B13" s="10" t="s">
+      <c r="B13" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C13" s="12"/>
-      <c r="D13" s="8" t="s">
+      <c r="C13" s="7"/>
+      <c r="D13" s="4" t="s">
         <v>11</v>
       </c>
       <c r="E13" s="9"/>
-      <c r="F13" s="10" t="s">
+      <c r="F13" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="G13" s="11"/>
-      <c r="H13" s="11"/>
-      <c r="I13" s="12"/>
-      <c r="J13" s="10" t="s">
+      <c r="G13" s="8"/>
+      <c r="H13" s="8"/>
+      <c r="I13" s="7"/>
+      <c r="J13" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="K13" s="11"/>
-      <c r="L13" s="11"/>
-      <c r="M13" s="12"/>
+      <c r="K13" s="8"/>
+      <c r="L13" s="8"/>
+      <c r="M13" s="7"/>
     </row>
     <row r="14" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B14" s="10"/>
-      <c r="C14" s="12"/>
-      <c r="D14" s="8"/>
+      <c r="B14" s="6"/>
+      <c r="C14" s="7"/>
+      <c r="D14" s="4"/>
       <c r="E14" s="9"/>
-      <c r="F14" s="10"/>
-      <c r="G14" s="11"/>
-      <c r="H14" s="11"/>
-      <c r="I14" s="12"/>
-      <c r="J14" s="10"/>
-      <c r="K14" s="11"/>
-      <c r="L14" s="11"/>
-      <c r="M14" s="12"/>
+      <c r="F14" s="6"/>
+      <c r="G14" s="8"/>
+      <c r="H14" s="8"/>
+      <c r="I14" s="7"/>
+      <c r="J14" s="6"/>
+      <c r="K14" s="8"/>
+      <c r="L14" s="8"/>
+      <c r="M14" s="7"/>
     </row>
     <row r="15" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B15" s="10"/>
-      <c r="C15" s="12"/>
-      <c r="D15" s="8"/>
+      <c r="B15" s="6"/>
+      <c r="C15" s="7"/>
+      <c r="D15" s="4"/>
       <c r="E15" s="9"/>
-      <c r="F15" s="10"/>
-      <c r="G15" s="11"/>
-      <c r="H15" s="11"/>
-      <c r="I15" s="12"/>
-      <c r="J15" s="10"/>
-      <c r="K15" s="11"/>
-      <c r="L15" s="11"/>
-      <c r="M15" s="12"/>
+      <c r="F15" s="6"/>
+      <c r="G15" s="8"/>
+      <c r="H15" s="8"/>
+      <c r="I15" s="7"/>
+      <c r="J15" s="6"/>
+      <c r="K15" s="8"/>
+      <c r="L15" s="8"/>
+      <c r="M15" s="7"/>
     </row>
     <row r="16" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B16" s="10"/>
-      <c r="C16" s="12"/>
-      <c r="D16" s="8"/>
+      <c r="B16" s="6"/>
+      <c r="C16" s="7"/>
+      <c r="D16" s="4"/>
       <c r="E16" s="9"/>
-      <c r="F16" s="10"/>
-      <c r="G16" s="11"/>
-      <c r="H16" s="11"/>
-      <c r="I16" s="12"/>
-      <c r="J16" s="10"/>
-      <c r="K16" s="11"/>
-      <c r="L16" s="11"/>
-      <c r="M16" s="12"/>
+      <c r="F16" s="6"/>
+      <c r="G16" s="8"/>
+      <c r="H16" s="8"/>
+      <c r="I16" s="7"/>
+      <c r="J16" s="6"/>
+      <c r="K16" s="8"/>
+      <c r="L16" s="8"/>
+      <c r="M16" s="7"/>
     </row>
     <row r="17" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B17" s="10"/>
-      <c r="C17" s="12"/>
-      <c r="D17" s="8"/>
+      <c r="B17" s="6"/>
+      <c r="C17" s="7"/>
+      <c r="D17" s="4"/>
       <c r="E17" s="9"/>
-      <c r="F17" s="10"/>
-      <c r="G17" s="11"/>
-      <c r="H17" s="11"/>
-      <c r="I17" s="12"/>
-      <c r="J17" s="10"/>
-      <c r="K17" s="11"/>
-      <c r="L17" s="11"/>
-      <c r="M17" s="12"/>
+      <c r="F17" s="6"/>
+      <c r="G17" s="8"/>
+      <c r="H17" s="8"/>
+      <c r="I17" s="7"/>
+      <c r="J17" s="6"/>
+      <c r="K17" s="8"/>
+      <c r="L17" s="8"/>
+      <c r="M17" s="7"/>
     </row>
     <row r="18" spans="2:13" ht="13.8" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="16"/>
-      <c r="C18" s="17"/>
-      <c r="D18" s="18"/>
-      <c r="E18" s="19"/>
-      <c r="F18" s="16"/>
-      <c r="G18" s="20"/>
-      <c r="H18" s="20"/>
-      <c r="I18" s="17"/>
-      <c r="J18" s="16"/>
-      <c r="K18" s="20"/>
-      <c r="L18" s="20"/>
-      <c r="M18" s="17"/>
+      <c r="B18" s="18"/>
+      <c r="C18" s="20"/>
+      <c r="D18" s="21"/>
+      <c r="E18" s="22"/>
+      <c r="F18" s="18"/>
+      <c r="G18" s="19"/>
+      <c r="H18" s="19"/>
+      <c r="I18" s="20"/>
+      <c r="J18" s="18"/>
+      <c r="K18" s="19"/>
+      <c r="L18" s="19"/>
+      <c r="M18" s="20"/>
     </row>
     <row r="19" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B19" s="1"/>
@@ -4623,6 +4934,14 @@
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="F3:I7"/>
+    <mergeCell ref="B3:C7"/>
+    <mergeCell ref="D3:E7"/>
+    <mergeCell ref="J2:M2"/>
+    <mergeCell ref="J3:M7"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="F2:I2"/>
     <mergeCell ref="J13:M18"/>
     <mergeCell ref="B8:C12"/>
     <mergeCell ref="D8:E12"/>
@@ -4631,14 +4950,6 @@
     <mergeCell ref="B13:C18"/>
     <mergeCell ref="D13:E18"/>
     <mergeCell ref="F13:I18"/>
-    <mergeCell ref="F3:I7"/>
-    <mergeCell ref="B3:C7"/>
-    <mergeCell ref="D3:E7"/>
-    <mergeCell ref="J2:M2"/>
-    <mergeCell ref="J3:M7"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="F2:I2"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4662,279 +4973,938 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:M18"/>
+  <dimension ref="B2:X32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I25" sqref="I25"/>
+    <sheetView tabSelected="1" zoomScale="92" zoomScaleNormal="92" workbookViewId="0">
+      <selection activeCell="Y25" sqref="Y25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="2:13" ht="13.8" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="2" spans="2:13" ht="13.8" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="3" t="s">
+    <row r="2" spans="2:24" ht="13.8" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="4"/>
-      <c r="D2" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="E2" s="5"/>
-      <c r="F2" s="3" t="s">
+      <c r="C2" s="23"/>
+      <c r="D2" s="23" t="s">
+        <v>50</v>
+      </c>
+      <c r="E2" s="23"/>
+      <c r="F2" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="G2" s="5"/>
-      <c r="H2" s="5"/>
-      <c r="I2" s="4"/>
-      <c r="J2" s="3" t="s">
+      <c r="G2" s="23"/>
+      <c r="H2" s="23"/>
+      <c r="I2" s="23"/>
+      <c r="J2" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="K2" s="5"/>
-      <c r="L2" s="5"/>
-      <c r="M2" s="4"/>
-    </row>
-    <row r="3" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B3" s="6"/>
-      <c r="C3" s="7"/>
-      <c r="D3" s="6"/>
-      <c r="E3" s="7"/>
-      <c r="F3" s="10"/>
-      <c r="G3" s="11"/>
-      <c r="H3" s="11"/>
-      <c r="I3" s="12"/>
-      <c r="J3" s="13"/>
-      <c r="K3" s="14"/>
-      <c r="L3" s="14"/>
-      <c r="M3" s="15"/>
-    </row>
-    <row r="4" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B4" s="8"/>
-      <c r="C4" s="9"/>
-      <c r="D4" s="8"/>
-      <c r="E4" s="9"/>
-      <c r="F4" s="10"/>
-      <c r="G4" s="11"/>
-      <c r="H4" s="11"/>
-      <c r="I4" s="12"/>
-      <c r="J4" s="10"/>
-      <c r="K4" s="11"/>
-      <c r="L4" s="11"/>
-      <c r="M4" s="12"/>
-    </row>
-    <row r="5" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B5" s="8"/>
-      <c r="C5" s="9"/>
-      <c r="D5" s="8"/>
-      <c r="E5" s="9"/>
-      <c r="F5" s="10"/>
-      <c r="G5" s="11"/>
-      <c r="H5" s="11"/>
-      <c r="I5" s="12"/>
-      <c r="J5" s="10"/>
-      <c r="K5" s="11"/>
-      <c r="L5" s="11"/>
-      <c r="M5" s="12"/>
-    </row>
-    <row r="6" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B6" s="8"/>
-      <c r="C6" s="9"/>
-      <c r="D6" s="8"/>
-      <c r="E6" s="9"/>
-      <c r="F6" s="10"/>
-      <c r="G6" s="11"/>
-      <c r="H6" s="11"/>
-      <c r="I6" s="12"/>
-      <c r="J6" s="10"/>
-      <c r="K6" s="11"/>
-      <c r="L6" s="11"/>
-      <c r="M6" s="12"/>
-    </row>
-    <row r="7" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B7" s="8"/>
-      <c r="C7" s="9"/>
-      <c r="D7" s="8"/>
-      <c r="E7" s="9"/>
-      <c r="F7" s="10"/>
-      <c r="G7" s="11"/>
-      <c r="H7" s="11"/>
-      <c r="I7" s="12"/>
-      <c r="J7" s="10"/>
-      <c r="K7" s="11"/>
-      <c r="L7" s="11"/>
-      <c r="M7" s="12"/>
-    </row>
-    <row r="8" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B8" s="10"/>
-      <c r="C8" s="12"/>
-      <c r="D8" s="8"/>
-      <c r="E8" s="9"/>
-      <c r="F8" s="10"/>
-      <c r="G8" s="11"/>
-      <c r="H8" s="11"/>
-      <c r="I8" s="12"/>
-      <c r="J8" s="10"/>
-      <c r="K8" s="11"/>
-      <c r="L8" s="11"/>
-      <c r="M8" s="12"/>
-    </row>
-    <row r="9" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B9" s="10"/>
-      <c r="C9" s="12"/>
-      <c r="D9" s="8"/>
-      <c r="E9" s="9"/>
-      <c r="F9" s="10"/>
-      <c r="G9" s="11"/>
-      <c r="H9" s="11"/>
-      <c r="I9" s="12"/>
-      <c r="J9" s="10"/>
-      <c r="K9" s="11"/>
-      <c r="L9" s="11"/>
-      <c r="M9" s="12"/>
-    </row>
-    <row r="10" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B10" s="10"/>
-      <c r="C10" s="12"/>
-      <c r="D10" s="8"/>
-      <c r="E10" s="9"/>
-      <c r="F10" s="10"/>
-      <c r="G10" s="11"/>
-      <c r="H10" s="11"/>
-      <c r="I10" s="12"/>
-      <c r="J10" s="10"/>
-      <c r="K10" s="11"/>
-      <c r="L10" s="11"/>
-      <c r="M10" s="12"/>
-    </row>
-    <row r="11" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B11" s="10"/>
-      <c r="C11" s="12"/>
-      <c r="D11" s="8"/>
-      <c r="E11" s="9"/>
-      <c r="F11" s="10"/>
-      <c r="G11" s="11"/>
-      <c r="H11" s="11"/>
-      <c r="I11" s="12"/>
-      <c r="J11" s="10"/>
-      <c r="K11" s="11"/>
-      <c r="L11" s="11"/>
-      <c r="M11" s="12"/>
-    </row>
-    <row r="12" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B12" s="10"/>
-      <c r="C12" s="12"/>
-      <c r="D12" s="8"/>
-      <c r="E12" s="9"/>
-      <c r="F12" s="10"/>
-      <c r="G12" s="11"/>
-      <c r="H12" s="11"/>
-      <c r="I12" s="12"/>
-      <c r="J12" s="10"/>
-      <c r="K12" s="11"/>
-      <c r="L12" s="11"/>
-      <c r="M12" s="12"/>
-    </row>
-    <row r="13" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B13" s="10"/>
-      <c r="C13" s="12"/>
-      <c r="D13" s="8"/>
-      <c r="E13" s="9"/>
-      <c r="F13" s="10"/>
-      <c r="G13" s="11"/>
-      <c r="H13" s="11"/>
-      <c r="I13" s="12"/>
-      <c r="J13" s="10"/>
-      <c r="K13" s="11"/>
-      <c r="L13" s="11"/>
-      <c r="M13" s="12"/>
-    </row>
-    <row r="14" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B14" s="10"/>
-      <c r="C14" s="12"/>
-      <c r="D14" s="8"/>
-      <c r="E14" s="9"/>
-      <c r="F14" s="10"/>
-      <c r="G14" s="11"/>
-      <c r="H14" s="11"/>
-      <c r="I14" s="12"/>
-      <c r="J14" s="10"/>
-      <c r="K14" s="11"/>
-      <c r="L14" s="11"/>
-      <c r="M14" s="12"/>
-    </row>
-    <row r="15" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B15" s="10"/>
-      <c r="C15" s="12"/>
-      <c r="D15" s="8"/>
-      <c r="E15" s="9"/>
-      <c r="F15" s="10"/>
-      <c r="G15" s="11"/>
-      <c r="H15" s="11"/>
-      <c r="I15" s="12"/>
-      <c r="J15" s="10"/>
-      <c r="K15" s="11"/>
-      <c r="L15" s="11"/>
-      <c r="M15" s="12"/>
-    </row>
-    <row r="16" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B16" s="10"/>
-      <c r="C16" s="12"/>
-      <c r="D16" s="8"/>
-      <c r="E16" s="9"/>
-      <c r="F16" s="10"/>
-      <c r="G16" s="11"/>
-      <c r="H16" s="11"/>
-      <c r="I16" s="12"/>
-      <c r="J16" s="10"/>
-      <c r="K16" s="11"/>
-      <c r="L16" s="11"/>
-      <c r="M16" s="12"/>
-    </row>
-    <row r="17" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B17" s="10"/>
-      <c r="C17" s="12"/>
-      <c r="D17" s="8"/>
-      <c r="E17" s="9"/>
-      <c r="F17" s="10"/>
-      <c r="G17" s="11"/>
-      <c r="H17" s="11"/>
-      <c r="I17" s="12"/>
-      <c r="J17" s="10"/>
-      <c r="K17" s="11"/>
-      <c r="L17" s="11"/>
-      <c r="M17" s="12"/>
-    </row>
-    <row r="18" spans="2:13" ht="13.8" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="16"/>
-      <c r="C18" s="17"/>
-      <c r="D18" s="18"/>
-      <c r="E18" s="19"/>
-      <c r="F18" s="16"/>
-      <c r="G18" s="20"/>
-      <c r="H18" s="20"/>
-      <c r="I18" s="17"/>
-      <c r="J18" s="16"/>
-      <c r="K18" s="20"/>
-      <c r="L18" s="20"/>
-      <c r="M18" s="17"/>
+      <c r="K2" s="23"/>
+      <c r="L2" s="23"/>
+      <c r="M2" s="23"/>
+      <c r="N2" s="23" t="s">
+        <v>19</v>
+      </c>
+      <c r="O2" s="23"/>
+      <c r="P2" s="23"/>
+      <c r="Q2" s="23"/>
+      <c r="R2" s="23" t="s">
+        <v>20</v>
+      </c>
+      <c r="S2" s="23"/>
+      <c r="T2" s="23"/>
+      <c r="U2" s="23"/>
+      <c r="V2" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="W2" s="23"/>
+      <c r="X2" s="23"/>
+    </row>
+    <row r="3" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="B3" s="24" t="s">
+        <v>55</v>
+      </c>
+      <c r="C3" s="24"/>
+      <c r="D3" s="25" t="s">
+        <v>56</v>
+      </c>
+      <c r="E3" s="25"/>
+      <c r="F3" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="G3" s="3"/>
+      <c r="H3" s="3"/>
+      <c r="I3" s="3"/>
+      <c r="J3" s="25" t="s">
+        <v>68</v>
+      </c>
+      <c r="K3" s="25"/>
+      <c r="L3" s="25"/>
+      <c r="M3" s="25"/>
+      <c r="N3" s="25" t="s">
+        <v>70</v>
+      </c>
+      <c r="O3" s="25"/>
+      <c r="P3" s="25"/>
+      <c r="Q3" s="25"/>
+      <c r="R3" s="25" t="s">
+        <v>58</v>
+      </c>
+      <c r="S3" s="25"/>
+      <c r="T3" s="25"/>
+      <c r="U3" s="25"/>
+      <c r="V3" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="W3" s="5"/>
+      <c r="X3" s="5"/>
+    </row>
+    <row r="4" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="B4" s="5"/>
+      <c r="C4" s="5"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
+      <c r="G4" s="3"/>
+      <c r="H4" s="3"/>
+      <c r="I4" s="3"/>
+      <c r="J4" s="3"/>
+      <c r="K4" s="3"/>
+      <c r="L4" s="3"/>
+      <c r="M4" s="3"/>
+      <c r="N4" s="3"/>
+      <c r="O4" s="3"/>
+      <c r="P4" s="3"/>
+      <c r="Q4" s="3"/>
+      <c r="R4" s="3"/>
+      <c r="S4" s="3"/>
+      <c r="T4" s="3"/>
+      <c r="U4" s="3"/>
+      <c r="V4" s="5"/>
+      <c r="W4" s="5"/>
+      <c r="X4" s="5"/>
+    </row>
+    <row r="5" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="B5" s="5"/>
+      <c r="C5" s="5"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
+      <c r="G5" s="3"/>
+      <c r="H5" s="3"/>
+      <c r="I5" s="3"/>
+      <c r="J5" s="3"/>
+      <c r="K5" s="3"/>
+      <c r="L5" s="3"/>
+      <c r="M5" s="3"/>
+      <c r="N5" s="3"/>
+      <c r="O5" s="3"/>
+      <c r="P5" s="3"/>
+      <c r="Q5" s="3"/>
+      <c r="R5" s="3"/>
+      <c r="S5" s="3"/>
+      <c r="T5" s="3"/>
+      <c r="U5" s="3"/>
+      <c r="V5" s="5"/>
+      <c r="W5" s="5"/>
+      <c r="X5" s="5"/>
+    </row>
+    <row r="6" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="B6" s="5"/>
+      <c r="C6" s="5"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
+      <c r="G6" s="3"/>
+      <c r="H6" s="3"/>
+      <c r="I6" s="3"/>
+      <c r="J6" s="3"/>
+      <c r="K6" s="3"/>
+      <c r="L6" s="3"/>
+      <c r="M6" s="3"/>
+      <c r="N6" s="3"/>
+      <c r="O6" s="3"/>
+      <c r="P6" s="3"/>
+      <c r="Q6" s="3"/>
+      <c r="R6" s="3"/>
+      <c r="S6" s="3"/>
+      <c r="T6" s="3"/>
+      <c r="U6" s="3"/>
+      <c r="V6" s="5"/>
+      <c r="W6" s="5"/>
+      <c r="X6" s="5"/>
+    </row>
+    <row r="7" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="B7" s="5"/>
+      <c r="C7" s="5"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
+      <c r="G7" s="3"/>
+      <c r="H7" s="3"/>
+      <c r="I7" s="3"/>
+      <c r="J7" s="3"/>
+      <c r="K7" s="3"/>
+      <c r="L7" s="3"/>
+      <c r="M7" s="3"/>
+      <c r="N7" s="3"/>
+      <c r="O7" s="3"/>
+      <c r="P7" s="3"/>
+      <c r="Q7" s="3"/>
+      <c r="R7" s="3"/>
+      <c r="S7" s="3"/>
+      <c r="T7" s="3"/>
+      <c r="U7" s="3"/>
+      <c r="V7" s="5"/>
+      <c r="W7" s="5"/>
+      <c r="X7" s="5"/>
+    </row>
+    <row r="8" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="B8" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="C8" s="3"/>
+      <c r="D8" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="E8" s="5"/>
+      <c r="F8" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="G8" s="3"/>
+      <c r="H8" s="3"/>
+      <c r="I8" s="3"/>
+      <c r="J8" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="K8" s="3"/>
+      <c r="L8" s="3"/>
+      <c r="M8" s="3"/>
+      <c r="N8" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="O8" s="3"/>
+      <c r="P8" s="3"/>
+      <c r="Q8" s="3"/>
+      <c r="R8" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="S8" s="3"/>
+      <c r="T8" s="3"/>
+      <c r="U8" s="3"/>
+      <c r="V8" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="W8" s="5"/>
+      <c r="X8" s="5"/>
+    </row>
+    <row r="9" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="B9" s="3"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="3"/>
+      <c r="H9" s="3"/>
+      <c r="I9" s="3"/>
+      <c r="J9" s="3"/>
+      <c r="K9" s="3"/>
+      <c r="L9" s="3"/>
+      <c r="M9" s="3"/>
+      <c r="N9" s="3"/>
+      <c r="O9" s="3"/>
+      <c r="P9" s="3"/>
+      <c r="Q9" s="3"/>
+      <c r="R9" s="3"/>
+      <c r="S9" s="3"/>
+      <c r="T9" s="3"/>
+      <c r="U9" s="3"/>
+      <c r="V9" s="5"/>
+      <c r="W9" s="5"/>
+      <c r="X9" s="5"/>
+    </row>
+    <row r="10" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="B10" s="3"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="5"/>
+      <c r="E10" s="5"/>
+      <c r="F10" s="3"/>
+      <c r="G10" s="3"/>
+      <c r="H10" s="3"/>
+      <c r="I10" s="3"/>
+      <c r="J10" s="3"/>
+      <c r="K10" s="3"/>
+      <c r="L10" s="3"/>
+      <c r="M10" s="3"/>
+      <c r="N10" s="3"/>
+      <c r="O10" s="3"/>
+      <c r="P10" s="3"/>
+      <c r="Q10" s="3"/>
+      <c r="R10" s="3"/>
+      <c r="S10" s="3"/>
+      <c r="T10" s="3"/>
+      <c r="U10" s="3"/>
+      <c r="V10" s="5"/>
+      <c r="W10" s="5"/>
+      <c r="X10" s="5"/>
+    </row>
+    <row r="11" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="B11" s="3"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="5"/>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3"/>
+      <c r="H11" s="3"/>
+      <c r="I11" s="3"/>
+      <c r="J11" s="3"/>
+      <c r="K11" s="3"/>
+      <c r="L11" s="3"/>
+      <c r="M11" s="3"/>
+      <c r="N11" s="3"/>
+      <c r="O11" s="3"/>
+      <c r="P11" s="3"/>
+      <c r="Q11" s="3"/>
+      <c r="R11" s="3"/>
+      <c r="S11" s="3"/>
+      <c r="T11" s="3"/>
+      <c r="U11" s="3"/>
+      <c r="V11" s="5"/>
+      <c r="W11" s="5"/>
+      <c r="X11" s="5"/>
+    </row>
+    <row r="12" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="B12" s="3"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="5"/>
+      <c r="E12" s="5"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3"/>
+      <c r="H12" s="3"/>
+      <c r="I12" s="3"/>
+      <c r="J12" s="3"/>
+      <c r="K12" s="3"/>
+      <c r="L12" s="3"/>
+      <c r="M12" s="3"/>
+      <c r="N12" s="3"/>
+      <c r="O12" s="3"/>
+      <c r="P12" s="3"/>
+      <c r="Q12" s="3"/>
+      <c r="R12" s="3"/>
+      <c r="S12" s="3"/>
+      <c r="T12" s="3"/>
+      <c r="U12" s="3"/>
+      <c r="V12" s="5"/>
+      <c r="W12" s="5"/>
+      <c r="X12" s="5"/>
+    </row>
+    <row r="13" spans="2:24" ht="13.2" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B13" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="G13" s="3"/>
+      <c r="H13" s="3"/>
+      <c r="I13" s="3"/>
+      <c r="J13" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="K13" s="3"/>
+      <c r="L13" s="3"/>
+      <c r="M13" s="3"/>
+      <c r="N13" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="O13" s="3"/>
+      <c r="P13" s="3"/>
+      <c r="Q13" s="3"/>
+      <c r="R13" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="S13" s="5"/>
+      <c r="T13" s="5"/>
+      <c r="U13" s="5"/>
+      <c r="V13" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="W13" s="5"/>
+      <c r="X13" s="5"/>
+    </row>
+    <row r="14" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="B14" s="3"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3"/>
+      <c r="H14" s="3"/>
+      <c r="I14" s="3"/>
+      <c r="J14" s="3"/>
+      <c r="K14" s="3"/>
+      <c r="L14" s="3"/>
+      <c r="M14" s="3"/>
+      <c r="N14" s="3"/>
+      <c r="O14" s="3"/>
+      <c r="P14" s="3"/>
+      <c r="Q14" s="3"/>
+      <c r="R14" s="5"/>
+      <c r="S14" s="5"/>
+      <c r="T14" s="5"/>
+      <c r="U14" s="5"/>
+      <c r="V14" s="5"/>
+      <c r="W14" s="5"/>
+      <c r="X14" s="5"/>
+    </row>
+    <row r="15" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="B15" s="3"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3"/>
+      <c r="G15" s="3"/>
+      <c r="H15" s="3"/>
+      <c r="I15" s="3"/>
+      <c r="J15" s="3"/>
+      <c r="K15" s="3"/>
+      <c r="L15" s="3"/>
+      <c r="M15" s="3"/>
+      <c r="N15" s="3"/>
+      <c r="O15" s="3"/>
+      <c r="P15" s="3"/>
+      <c r="Q15" s="3"/>
+      <c r="R15" s="5"/>
+      <c r="S15" s="5"/>
+      <c r="T15" s="5"/>
+      <c r="U15" s="5"/>
+      <c r="V15" s="5"/>
+      <c r="W15" s="5"/>
+      <c r="X15" s="5"/>
+    </row>
+    <row r="16" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="B16" s="3"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="3"/>
+      <c r="G16" s="3"/>
+      <c r="H16" s="3"/>
+      <c r="I16" s="3"/>
+      <c r="J16" s="3"/>
+      <c r="K16" s="3"/>
+      <c r="L16" s="3"/>
+      <c r="M16" s="3"/>
+      <c r="N16" s="3"/>
+      <c r="O16" s="3"/>
+      <c r="P16" s="3"/>
+      <c r="Q16" s="3"/>
+      <c r="R16" s="5"/>
+      <c r="S16" s="5"/>
+      <c r="T16" s="5"/>
+      <c r="U16" s="5"/>
+      <c r="V16" s="5"/>
+      <c r="W16" s="5"/>
+      <c r="X16" s="5"/>
+    </row>
+    <row r="17" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="B17" s="3"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="3"/>
+      <c r="G17" s="3"/>
+      <c r="H17" s="3"/>
+      <c r="I17" s="3"/>
+      <c r="J17" s="3"/>
+      <c r="K17" s="3"/>
+      <c r="L17" s="3"/>
+      <c r="M17" s="3"/>
+      <c r="N17" s="3"/>
+      <c r="O17" s="3"/>
+      <c r="P17" s="3"/>
+      <c r="Q17" s="3"/>
+      <c r="R17" s="5"/>
+      <c r="S17" s="5"/>
+      <c r="T17" s="5"/>
+      <c r="U17" s="5"/>
+      <c r="V17" s="5"/>
+      <c r="W17" s="5"/>
+      <c r="X17" s="5"/>
+    </row>
+    <row r="18" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="B18" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="C18" s="3"/>
+      <c r="D18" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="E18" s="5"/>
+      <c r="F18" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="G18" s="3"/>
+      <c r="H18" s="3"/>
+      <c r="I18" s="3"/>
+      <c r="J18" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="K18" s="3"/>
+      <c r="L18" s="3"/>
+      <c r="M18" s="3"/>
+      <c r="N18" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="O18" s="3"/>
+      <c r="P18" s="3"/>
+      <c r="Q18" s="3"/>
+      <c r="R18" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="S18" s="3"/>
+      <c r="T18" s="3"/>
+      <c r="U18" s="3"/>
+      <c r="V18" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="W18" s="5"/>
+      <c r="X18" s="5"/>
+    </row>
+    <row r="19" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="B19" s="3"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="5"/>
+      <c r="E19" s="5"/>
+      <c r="F19" s="3"/>
+      <c r="G19" s="3"/>
+      <c r="H19" s="3"/>
+      <c r="I19" s="3"/>
+      <c r="J19" s="3"/>
+      <c r="K19" s="3"/>
+      <c r="L19" s="3"/>
+      <c r="M19" s="3"/>
+      <c r="N19" s="3"/>
+      <c r="O19" s="3"/>
+      <c r="P19" s="3"/>
+      <c r="Q19" s="3"/>
+      <c r="R19" s="3"/>
+      <c r="S19" s="3"/>
+      <c r="T19" s="3"/>
+      <c r="U19" s="3"/>
+      <c r="V19" s="5"/>
+      <c r="W19" s="5"/>
+      <c r="X19" s="5"/>
+    </row>
+    <row r="20" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="B20" s="3"/>
+      <c r="C20" s="3"/>
+      <c r="D20" s="5"/>
+      <c r="E20" s="5"/>
+      <c r="F20" s="3"/>
+      <c r="G20" s="3"/>
+      <c r="H20" s="3"/>
+      <c r="I20" s="3"/>
+      <c r="J20" s="3"/>
+      <c r="K20" s="3"/>
+      <c r="L20" s="3"/>
+      <c r="M20" s="3"/>
+      <c r="N20" s="3"/>
+      <c r="O20" s="3"/>
+      <c r="P20" s="3"/>
+      <c r="Q20" s="3"/>
+      <c r="R20" s="3"/>
+      <c r="S20" s="3"/>
+      <c r="T20" s="3"/>
+      <c r="U20" s="3"/>
+      <c r="V20" s="5"/>
+      <c r="W20" s="5"/>
+      <c r="X20" s="5"/>
+    </row>
+    <row r="21" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="B21" s="3"/>
+      <c r="C21" s="3"/>
+      <c r="D21" s="5"/>
+      <c r="E21" s="5"/>
+      <c r="F21" s="3"/>
+      <c r="G21" s="3"/>
+      <c r="H21" s="3"/>
+      <c r="I21" s="3"/>
+      <c r="J21" s="3"/>
+      <c r="K21" s="3"/>
+      <c r="L21" s="3"/>
+      <c r="M21" s="3"/>
+      <c r="N21" s="3"/>
+      <c r="O21" s="3"/>
+      <c r="P21" s="3"/>
+      <c r="Q21" s="3"/>
+      <c r="R21" s="3"/>
+      <c r="S21" s="3"/>
+      <c r="T21" s="3"/>
+      <c r="U21" s="3"/>
+      <c r="V21" s="5"/>
+      <c r="W21" s="5"/>
+      <c r="X21" s="5"/>
+    </row>
+    <row r="22" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="B22" s="3"/>
+      <c r="C22" s="3"/>
+      <c r="D22" s="5"/>
+      <c r="E22" s="5"/>
+      <c r="F22" s="3"/>
+      <c r="G22" s="3"/>
+      <c r="H22" s="3"/>
+      <c r="I22" s="3"/>
+      <c r="J22" s="3"/>
+      <c r="K22" s="3"/>
+      <c r="L22" s="3"/>
+      <c r="M22" s="3"/>
+      <c r="N22" s="3"/>
+      <c r="O22" s="3"/>
+      <c r="P22" s="3"/>
+      <c r="Q22" s="3"/>
+      <c r="R22" s="3"/>
+      <c r="S22" s="3"/>
+      <c r="T22" s="3"/>
+      <c r="U22" s="3"/>
+      <c r="V22" s="5"/>
+      <c r="W22" s="5"/>
+      <c r="X22" s="5"/>
+    </row>
+    <row r="23" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="B23" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="C23" s="3"/>
+      <c r="D23" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="E23" s="3"/>
+      <c r="F23" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="G23" s="3"/>
+      <c r="H23" s="3"/>
+      <c r="I23" s="3"/>
+      <c r="J23" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="K23" s="5"/>
+      <c r="L23" s="5"/>
+      <c r="M23" s="5"/>
+      <c r="N23" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="O23" s="5"/>
+      <c r="P23" s="5"/>
+      <c r="Q23" s="5"/>
+      <c r="R23" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="S23" s="3"/>
+      <c r="T23" s="3"/>
+      <c r="U23" s="3"/>
+      <c r="V23" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="W23" s="5"/>
+      <c r="X23" s="5"/>
+    </row>
+    <row r="24" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="B24" s="3"/>
+      <c r="C24" s="3"/>
+      <c r="D24" s="3"/>
+      <c r="E24" s="3"/>
+      <c r="F24" s="3"/>
+      <c r="G24" s="3"/>
+      <c r="H24" s="3"/>
+      <c r="I24" s="3"/>
+      <c r="J24" s="5"/>
+      <c r="K24" s="5"/>
+      <c r="L24" s="5"/>
+      <c r="M24" s="5"/>
+      <c r="N24" s="5"/>
+      <c r="O24" s="5"/>
+      <c r="P24" s="5"/>
+      <c r="Q24" s="5"/>
+      <c r="R24" s="3"/>
+      <c r="S24" s="3"/>
+      <c r="T24" s="3"/>
+      <c r="U24" s="3"/>
+      <c r="V24" s="5"/>
+      <c r="W24" s="5"/>
+      <c r="X24" s="5"/>
+    </row>
+    <row r="25" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="B25" s="3"/>
+      <c r="C25" s="3"/>
+      <c r="D25" s="3"/>
+      <c r="E25" s="3"/>
+      <c r="F25" s="3"/>
+      <c r="G25" s="3"/>
+      <c r="H25" s="3"/>
+      <c r="I25" s="3"/>
+      <c r="J25" s="5"/>
+      <c r="K25" s="5"/>
+      <c r="L25" s="5"/>
+      <c r="M25" s="5"/>
+      <c r="N25" s="5"/>
+      <c r="O25" s="5"/>
+      <c r="P25" s="5"/>
+      <c r="Q25" s="5"/>
+      <c r="R25" s="3"/>
+      <c r="S25" s="3"/>
+      <c r="T25" s="3"/>
+      <c r="U25" s="3"/>
+      <c r="V25" s="5"/>
+      <c r="W25" s="5"/>
+      <c r="X25" s="5"/>
+    </row>
+    <row r="26" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="B26" s="3"/>
+      <c r="C26" s="3"/>
+      <c r="D26" s="3"/>
+      <c r="E26" s="3"/>
+      <c r="F26" s="3"/>
+      <c r="G26" s="3"/>
+      <c r="H26" s="3"/>
+      <c r="I26" s="3"/>
+      <c r="J26" s="5"/>
+      <c r="K26" s="5"/>
+      <c r="L26" s="5"/>
+      <c r="M26" s="5"/>
+      <c r="N26" s="5"/>
+      <c r="O26" s="5"/>
+      <c r="P26" s="5"/>
+      <c r="Q26" s="5"/>
+      <c r="R26" s="3"/>
+      <c r="S26" s="3"/>
+      <c r="T26" s="3"/>
+      <c r="U26" s="3"/>
+      <c r="V26" s="5"/>
+      <c r="W26" s="5"/>
+      <c r="X26" s="5"/>
+    </row>
+    <row r="27" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="B27" s="3"/>
+      <c r="C27" s="3"/>
+      <c r="D27" s="3"/>
+      <c r="E27" s="3"/>
+      <c r="F27" s="3"/>
+      <c r="G27" s="3"/>
+      <c r="H27" s="3"/>
+      <c r="I27" s="3"/>
+      <c r="J27" s="5"/>
+      <c r="K27" s="5"/>
+      <c r="L27" s="5"/>
+      <c r="M27" s="5"/>
+      <c r="N27" s="5"/>
+      <c r="O27" s="5"/>
+      <c r="P27" s="5"/>
+      <c r="Q27" s="5"/>
+      <c r="R27" s="3"/>
+      <c r="S27" s="3"/>
+      <c r="T27" s="3"/>
+      <c r="U27" s="3"/>
+      <c r="V27" s="5"/>
+      <c r="W27" s="5"/>
+      <c r="X27" s="5"/>
+    </row>
+    <row r="28" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="B28" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C28" s="5"/>
+      <c r="D28" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E28" s="5"/>
+      <c r="F28" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="G28" s="5"/>
+      <c r="H28" s="5"/>
+      <c r="I28" s="5"/>
+      <c r="J28" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="K28" s="3"/>
+      <c r="L28" s="3"/>
+      <c r="M28" s="3"/>
+      <c r="N28" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="O28" s="3"/>
+      <c r="P28" s="3"/>
+      <c r="Q28" s="3"/>
+      <c r="R28" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="S28" s="5"/>
+      <c r="T28" s="5"/>
+      <c r="U28" s="5"/>
+      <c r="V28" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="W28" s="5"/>
+      <c r="X28" s="5"/>
+    </row>
+    <row r="29" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="B29" s="5"/>
+      <c r="C29" s="5"/>
+      <c r="D29" s="5"/>
+      <c r="E29" s="5"/>
+      <c r="F29" s="5"/>
+      <c r="G29" s="5"/>
+      <c r="H29" s="5"/>
+      <c r="I29" s="5"/>
+      <c r="J29" s="3"/>
+      <c r="K29" s="3"/>
+      <c r="L29" s="3"/>
+      <c r="M29" s="3"/>
+      <c r="N29" s="3"/>
+      <c r="O29" s="3"/>
+      <c r="P29" s="3"/>
+      <c r="Q29" s="3"/>
+      <c r="R29" s="5"/>
+      <c r="S29" s="5"/>
+      <c r="T29" s="5"/>
+      <c r="U29" s="5"/>
+      <c r="V29" s="5"/>
+      <c r="W29" s="5"/>
+      <c r="X29" s="5"/>
+    </row>
+    <row r="30" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="B30" s="5"/>
+      <c r="C30" s="5"/>
+      <c r="D30" s="5"/>
+      <c r="E30" s="5"/>
+      <c r="F30" s="5"/>
+      <c r="G30" s="5"/>
+      <c r="H30" s="5"/>
+      <c r="I30" s="5"/>
+      <c r="J30" s="3"/>
+      <c r="K30" s="3"/>
+      <c r="L30" s="3"/>
+      <c r="M30" s="3"/>
+      <c r="N30" s="3"/>
+      <c r="O30" s="3"/>
+      <c r="P30" s="3"/>
+      <c r="Q30" s="3"/>
+      <c r="R30" s="5"/>
+      <c r="S30" s="5"/>
+      <c r="T30" s="5"/>
+      <c r="U30" s="5"/>
+      <c r="V30" s="5"/>
+      <c r="W30" s="5"/>
+      <c r="X30" s="5"/>
+    </row>
+    <row r="31" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="B31" s="5"/>
+      <c r="C31" s="5"/>
+      <c r="D31" s="5"/>
+      <c r="E31" s="5"/>
+      <c r="F31" s="5"/>
+      <c r="G31" s="5"/>
+      <c r="H31" s="5"/>
+      <c r="I31" s="5"/>
+      <c r="J31" s="3"/>
+      <c r="K31" s="3"/>
+      <c r="L31" s="3"/>
+      <c r="M31" s="3"/>
+      <c r="N31" s="3"/>
+      <c r="O31" s="3"/>
+      <c r="P31" s="3"/>
+      <c r="Q31" s="3"/>
+      <c r="R31" s="5"/>
+      <c r="S31" s="5"/>
+      <c r="T31" s="5"/>
+      <c r="U31" s="5"/>
+      <c r="V31" s="5"/>
+      <c r="W31" s="5"/>
+      <c r="X31" s="5"/>
+    </row>
+    <row r="32" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="B32" s="5"/>
+      <c r="C32" s="5"/>
+      <c r="D32" s="5"/>
+      <c r="E32" s="5"/>
+      <c r="F32" s="5"/>
+      <c r="G32" s="5"/>
+      <c r="H32" s="5"/>
+      <c r="I32" s="5"/>
+      <c r="J32" s="3"/>
+      <c r="K32" s="3"/>
+      <c r="L32" s="3"/>
+      <c r="M32" s="3"/>
+      <c r="N32" s="3"/>
+      <c r="O32" s="3"/>
+      <c r="P32" s="3"/>
+      <c r="Q32" s="3"/>
+      <c r="R32" s="5"/>
+      <c r="S32" s="5"/>
+      <c r="T32" s="5"/>
+      <c r="U32" s="5"/>
+      <c r="V32" s="5"/>
+      <c r="W32" s="5"/>
+      <c r="X32" s="5"/>
     </row>
   </sheetData>
-  <mergeCells count="16">
+  <mergeCells count="49">
+    <mergeCell ref="V28:X32"/>
+    <mergeCell ref="B28:C32"/>
+    <mergeCell ref="D28:E32"/>
+    <mergeCell ref="F28:I32"/>
+    <mergeCell ref="J28:M32"/>
+    <mergeCell ref="N28:Q32"/>
+    <mergeCell ref="R28:U32"/>
+    <mergeCell ref="V18:X22"/>
+    <mergeCell ref="B23:C27"/>
+    <mergeCell ref="D23:E27"/>
+    <mergeCell ref="F23:I27"/>
+    <mergeCell ref="J23:M27"/>
+    <mergeCell ref="N23:Q27"/>
+    <mergeCell ref="R23:U27"/>
+    <mergeCell ref="V23:X27"/>
+    <mergeCell ref="B18:C22"/>
+    <mergeCell ref="D18:E22"/>
+    <mergeCell ref="F18:I22"/>
+    <mergeCell ref="J18:M22"/>
+    <mergeCell ref="N18:Q22"/>
+    <mergeCell ref="R18:U22"/>
+    <mergeCell ref="V8:X12"/>
+    <mergeCell ref="B13:C17"/>
+    <mergeCell ref="D13:E17"/>
+    <mergeCell ref="F13:I17"/>
+    <mergeCell ref="J13:M17"/>
+    <mergeCell ref="N13:Q17"/>
+    <mergeCell ref="R13:U17"/>
+    <mergeCell ref="V13:X17"/>
+    <mergeCell ref="B8:C12"/>
+    <mergeCell ref="D8:E12"/>
+    <mergeCell ref="F8:I12"/>
+    <mergeCell ref="J8:M12"/>
+    <mergeCell ref="N8:Q12"/>
+    <mergeCell ref="R8:U12"/>
+    <mergeCell ref="V2:X2"/>
+    <mergeCell ref="B3:C7"/>
+    <mergeCell ref="D3:E7"/>
+    <mergeCell ref="F3:I7"/>
+    <mergeCell ref="J3:M7"/>
+    <mergeCell ref="N3:Q7"/>
+    <mergeCell ref="R3:U7"/>
+    <mergeCell ref="V3:X7"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="D2:E2"/>
     <mergeCell ref="F2:I2"/>
     <mergeCell ref="J2:M2"/>
-    <mergeCell ref="B3:C7"/>
-    <mergeCell ref="D3:E7"/>
-    <mergeCell ref="F3:I7"/>
-    <mergeCell ref="J3:M7"/>
-    <mergeCell ref="B8:C12"/>
-    <mergeCell ref="D8:E12"/>
-    <mergeCell ref="F8:I12"/>
-    <mergeCell ref="J8:M12"/>
-    <mergeCell ref="B13:C18"/>
-    <mergeCell ref="D13:E18"/>
-    <mergeCell ref="F13:I18"/>
-    <mergeCell ref="J13:M18"/>
+    <mergeCell ref="N2:Q2"/>
+    <mergeCell ref="R2:U2"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/G18_ゲームフロー.xlsx
+++ b/G18_ゲームフロー.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8880" firstSheet="1" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8880"/>
   </bookViews>
   <sheets>
     <sheet name="タイトルフロー" sheetId="4" r:id="rId1"/>
@@ -1345,20 +1345,35 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1381,12 +1396,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1401,15 +1410,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1429,6 +1429,55 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>601980</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>220980</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="図 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="601980" y="167640"/>
+          <a:ext cx="7543800" cy="10058400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -3385,6 +3434,55 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:oneCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>601980</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>144780</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>220980</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>144780</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="図 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="601980" y="144780"/>
+          <a:ext cx="7543800" cy="10058400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -3653,12 +3751,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="P10" sqref="P10"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -3673,86 +3774,86 @@
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="2" spans="2:24" ht="13.8" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="23" t="s">
+      <c r="B2" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="23"/>
-      <c r="D2" s="23" t="s">
+      <c r="C2" s="5"/>
+      <c r="D2" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="23"/>
-      <c r="F2" s="23" t="s">
+      <c r="E2" s="5"/>
+      <c r="F2" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="G2" s="23"/>
-      <c r="H2" s="23"/>
-      <c r="I2" s="23"/>
-      <c r="J2" s="23" t="s">
+      <c r="G2" s="5"/>
+      <c r="H2" s="5"/>
+      <c r="I2" s="5"/>
+      <c r="J2" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="K2" s="23"/>
-      <c r="L2" s="23"/>
-      <c r="M2" s="23"/>
-      <c r="N2" s="23" t="s">
+      <c r="K2" s="5"/>
+      <c r="L2" s="5"/>
+      <c r="M2" s="5"/>
+      <c r="N2" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="O2" s="23"/>
-      <c r="P2" s="23"/>
-      <c r="Q2" s="23"/>
-      <c r="R2" s="23" t="s">
+      <c r="O2" s="5"/>
+      <c r="P2" s="5"/>
+      <c r="Q2" s="5"/>
+      <c r="R2" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="S2" s="23"/>
-      <c r="T2" s="23"/>
-      <c r="U2" s="23"/>
-      <c r="V2" s="23" t="s">
+      <c r="S2" s="5"/>
+      <c r="T2" s="5"/>
+      <c r="U2" s="5"/>
+      <c r="V2" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="W2" s="23"/>
-      <c r="X2" s="23"/>
+      <c r="W2" s="5"/>
+      <c r="X2" s="5"/>
     </row>
     <row r="3" spans="2:24" x14ac:dyDescent="0.2">
-      <c r="B3" s="24" t="s">
+      <c r="B3" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="24"/>
-      <c r="D3" s="25" t="s">
+      <c r="C3" s="6"/>
+      <c r="D3" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="E3" s="25"/>
+      <c r="E3" s="7"/>
       <c r="F3" s="3" t="s">
         <v>78</v>
       </c>
       <c r="G3" s="3"/>
       <c r="H3" s="3"/>
       <c r="I3" s="3"/>
-      <c r="J3" s="25" t="s">
+      <c r="J3" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="K3" s="25"/>
-      <c r="L3" s="25"/>
-      <c r="M3" s="25"/>
-      <c r="N3" s="25" t="s">
+      <c r="K3" s="7"/>
+      <c r="L3" s="7"/>
+      <c r="M3" s="7"/>
+      <c r="N3" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="O3" s="25"/>
-      <c r="P3" s="25"/>
-      <c r="Q3" s="25"/>
-      <c r="R3" s="25" t="s">
+      <c r="O3" s="7"/>
+      <c r="P3" s="7"/>
+      <c r="Q3" s="7"/>
+      <c r="R3" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="S3" s="25"/>
-      <c r="T3" s="25"/>
-      <c r="U3" s="25"/>
-      <c r="V3" s="5" t="s">
+      <c r="S3" s="7"/>
+      <c r="T3" s="7"/>
+      <c r="U3" s="7"/>
+      <c r="V3" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="W3" s="5"/>
-      <c r="X3" s="5"/>
+      <c r="W3" s="4"/>
+      <c r="X3" s="4"/>
     </row>
     <row r="4" spans="2:24" x14ac:dyDescent="0.2">
-      <c r="B4" s="5"/>
-      <c r="C4" s="5"/>
+      <c r="B4" s="4"/>
+      <c r="C4" s="4"/>
       <c r="D4" s="3"/>
       <c r="E4" s="3"/>
       <c r="F4" s="3"/>
@@ -3771,13 +3872,13 @@
       <c r="S4" s="3"/>
       <c r="T4" s="3"/>
       <c r="U4" s="3"/>
-      <c r="V4" s="5"/>
-      <c r="W4" s="5"/>
-      <c r="X4" s="5"/>
+      <c r="V4" s="4"/>
+      <c r="W4" s="4"/>
+      <c r="X4" s="4"/>
     </row>
     <row r="5" spans="2:24" x14ac:dyDescent="0.2">
-      <c r="B5" s="5"/>
-      <c r="C5" s="5"/>
+      <c r="B5" s="4"/>
+      <c r="C5" s="4"/>
       <c r="D5" s="3"/>
       <c r="E5" s="3"/>
       <c r="F5" s="3"/>
@@ -3796,13 +3897,13 @@
       <c r="S5" s="3"/>
       <c r="T5" s="3"/>
       <c r="U5" s="3"/>
-      <c r="V5" s="5"/>
-      <c r="W5" s="5"/>
-      <c r="X5" s="5"/>
+      <c r="V5" s="4"/>
+      <c r="W5" s="4"/>
+      <c r="X5" s="4"/>
     </row>
     <row r="6" spans="2:24" x14ac:dyDescent="0.2">
-      <c r="B6" s="5"/>
-      <c r="C6" s="5"/>
+      <c r="B6" s="4"/>
+      <c r="C6" s="4"/>
       <c r="D6" s="3"/>
       <c r="E6" s="3"/>
       <c r="F6" s="3"/>
@@ -3821,13 +3922,13 @@
       <c r="S6" s="3"/>
       <c r="T6" s="3"/>
       <c r="U6" s="3"/>
-      <c r="V6" s="5"/>
-      <c r="W6" s="5"/>
-      <c r="X6" s="5"/>
+      <c r="V6" s="4"/>
+      <c r="W6" s="4"/>
+      <c r="X6" s="4"/>
     </row>
     <row r="7" spans="2:24" x14ac:dyDescent="0.2">
-      <c r="B7" s="5"/>
-      <c r="C7" s="5"/>
+      <c r="B7" s="4"/>
+      <c r="C7" s="4"/>
       <c r="D7" s="3"/>
       <c r="E7" s="3"/>
       <c r="F7" s="3"/>
@@ -3846,19 +3947,19 @@
       <c r="S7" s="3"/>
       <c r="T7" s="3"/>
       <c r="U7" s="3"/>
-      <c r="V7" s="5"/>
-      <c r="W7" s="5"/>
-      <c r="X7" s="5"/>
+      <c r="V7" s="4"/>
+      <c r="W7" s="4"/>
+      <c r="X7" s="4"/>
     </row>
     <row r="8" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B8" s="3" t="s">
         <v>16</v>
       </c>
       <c r="C8" s="3"/>
-      <c r="D8" s="5" t="s">
+      <c r="D8" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="E8" s="5"/>
+      <c r="E8" s="4"/>
       <c r="F8" s="3" t="s">
         <v>18</v>
       </c>
@@ -3883,17 +3984,17 @@
       <c r="S8" s="3"/>
       <c r="T8" s="3"/>
       <c r="U8" s="3"/>
-      <c r="V8" s="5" t="s">
+      <c r="V8" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="W8" s="5"/>
-      <c r="X8" s="5"/>
+      <c r="W8" s="4"/>
+      <c r="X8" s="4"/>
     </row>
     <row r="9" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
-      <c r="D9" s="5"/>
-      <c r="E9" s="5"/>
+      <c r="D9" s="4"/>
+      <c r="E9" s="4"/>
       <c r="F9" s="3"/>
       <c r="G9" s="3"/>
       <c r="H9" s="3"/>
@@ -3910,15 +4011,15 @@
       <c r="S9" s="3"/>
       <c r="T9" s="3"/>
       <c r="U9" s="3"/>
-      <c r="V9" s="5"/>
-      <c r="W9" s="5"/>
-      <c r="X9" s="5"/>
+      <c r="V9" s="4"/>
+      <c r="W9" s="4"/>
+      <c r="X9" s="4"/>
     </row>
     <row r="10" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
-      <c r="D10" s="5"/>
-      <c r="E10" s="5"/>
+      <c r="D10" s="4"/>
+      <c r="E10" s="4"/>
       <c r="F10" s="3"/>
       <c r="G10" s="3"/>
       <c r="H10" s="3"/>
@@ -3935,15 +4036,15 @@
       <c r="S10" s="3"/>
       <c r="T10" s="3"/>
       <c r="U10" s="3"/>
-      <c r="V10" s="5"/>
-      <c r="W10" s="5"/>
-      <c r="X10" s="5"/>
+      <c r="V10" s="4"/>
+      <c r="W10" s="4"/>
+      <c r="X10" s="4"/>
     </row>
     <row r="11" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
-      <c r="D11" s="5"/>
-      <c r="E11" s="5"/>
+      <c r="D11" s="4"/>
+      <c r="E11" s="4"/>
       <c r="F11" s="3"/>
       <c r="G11" s="3"/>
       <c r="H11" s="3"/>
@@ -3960,15 +4061,15 @@
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
-      <c r="V11" s="5"/>
-      <c r="W11" s="5"/>
-      <c r="X11" s="5"/>
+      <c r="V11" s="4"/>
+      <c r="W11" s="4"/>
+      <c r="X11" s="4"/>
     </row>
     <row r="12" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
-      <c r="D12" s="5"/>
-      <c r="E12" s="5"/>
+      <c r="D12" s="4"/>
+      <c r="E12" s="4"/>
       <c r="F12" s="3"/>
       <c r="G12" s="3"/>
       <c r="H12" s="3"/>
@@ -3985,9 +4086,9 @@
       <c r="S12" s="3"/>
       <c r="T12" s="3"/>
       <c r="U12" s="3"/>
-      <c r="V12" s="5"/>
-      <c r="W12" s="5"/>
-      <c r="X12" s="5"/>
+      <c r="V12" s="4"/>
+      <c r="W12" s="4"/>
+      <c r="X12" s="4"/>
     </row>
     <row r="13" spans="2:24" ht="13.2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B13" s="3" t="s">
@@ -4016,17 +4117,17 @@
       <c r="O13" s="3"/>
       <c r="P13" s="3"/>
       <c r="Q13" s="3"/>
-      <c r="R13" s="5" t="s">
+      <c r="R13" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="S13" s="5"/>
-      <c r="T13" s="5"/>
-      <c r="U13" s="5"/>
-      <c r="V13" s="5" t="s">
+      <c r="S13" s="4"/>
+      <c r="T13" s="4"/>
+      <c r="U13" s="4"/>
+      <c r="V13" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="W13" s="5"/>
-      <c r="X13" s="5"/>
+      <c r="W13" s="4"/>
+      <c r="X13" s="4"/>
     </row>
     <row r="14" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B14" s="3"/>
@@ -4045,13 +4146,13 @@
       <c r="O14" s="3"/>
       <c r="P14" s="3"/>
       <c r="Q14" s="3"/>
-      <c r="R14" s="5"/>
-      <c r="S14" s="5"/>
-      <c r="T14" s="5"/>
-      <c r="U14" s="5"/>
-      <c r="V14" s="5"/>
-      <c r="W14" s="5"/>
-      <c r="X14" s="5"/>
+      <c r="R14" s="4"/>
+      <c r="S14" s="4"/>
+      <c r="T14" s="4"/>
+      <c r="U14" s="4"/>
+      <c r="V14" s="4"/>
+      <c r="W14" s="4"/>
+      <c r="X14" s="4"/>
     </row>
     <row r="15" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B15" s="3"/>
@@ -4070,13 +4171,13 @@
       <c r="O15" s="3"/>
       <c r="P15" s="3"/>
       <c r="Q15" s="3"/>
-      <c r="R15" s="5"/>
-      <c r="S15" s="5"/>
-      <c r="T15" s="5"/>
-      <c r="U15" s="5"/>
-      <c r="V15" s="5"/>
-      <c r="W15" s="5"/>
-      <c r="X15" s="5"/>
+      <c r="R15" s="4"/>
+      <c r="S15" s="4"/>
+      <c r="T15" s="4"/>
+      <c r="U15" s="4"/>
+      <c r="V15" s="4"/>
+      <c r="W15" s="4"/>
+      <c r="X15" s="4"/>
     </row>
     <row r="16" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B16" s="3"/>
@@ -4095,13 +4196,13 @@
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
-      <c r="R16" s="5"/>
-      <c r="S16" s="5"/>
-      <c r="T16" s="5"/>
-      <c r="U16" s="5"/>
-      <c r="V16" s="5"/>
-      <c r="W16" s="5"/>
-      <c r="X16" s="5"/>
+      <c r="R16" s="4"/>
+      <c r="S16" s="4"/>
+      <c r="T16" s="4"/>
+      <c r="U16" s="4"/>
+      <c r="V16" s="4"/>
+      <c r="W16" s="4"/>
+      <c r="X16" s="4"/>
     </row>
     <row r="17" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B17" s="3"/>
@@ -4120,23 +4221,23 @@
       <c r="O17" s="3"/>
       <c r="P17" s="3"/>
       <c r="Q17" s="3"/>
-      <c r="R17" s="5"/>
-      <c r="S17" s="5"/>
-      <c r="T17" s="5"/>
-      <c r="U17" s="5"/>
-      <c r="V17" s="5"/>
-      <c r="W17" s="5"/>
-      <c r="X17" s="5"/>
+      <c r="R17" s="4"/>
+      <c r="S17" s="4"/>
+      <c r="T17" s="4"/>
+      <c r="U17" s="4"/>
+      <c r="V17" s="4"/>
+      <c r="W17" s="4"/>
+      <c r="X17" s="4"/>
     </row>
     <row r="18" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B18" s="3" t="s">
         <v>34</v>
       </c>
       <c r="C18" s="3"/>
-      <c r="D18" s="5" t="s">
+      <c r="D18" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="E18" s="5"/>
+      <c r="E18" s="4"/>
       <c r="F18" s="3" t="s">
         <v>44</v>
       </c>
@@ -4155,23 +4256,23 @@
       <c r="O18" s="3"/>
       <c r="P18" s="3"/>
       <c r="Q18" s="3"/>
-      <c r="R18" s="5" t="s">
+      <c r="R18" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="S18" s="5"/>
-      <c r="T18" s="5"/>
-      <c r="U18" s="5"/>
-      <c r="V18" s="5" t="s">
+      <c r="S18" s="4"/>
+      <c r="T18" s="4"/>
+      <c r="U18" s="4"/>
+      <c r="V18" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="W18" s="5"/>
-      <c r="X18" s="5"/>
+      <c r="W18" s="4"/>
+      <c r="X18" s="4"/>
     </row>
     <row r="19" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
-      <c r="D19" s="5"/>
-      <c r="E19" s="5"/>
+      <c r="D19" s="4"/>
+      <c r="E19" s="4"/>
       <c r="F19" s="3"/>
       <c r="G19" s="3"/>
       <c r="H19" s="3"/>
@@ -4184,19 +4285,19 @@
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
-      <c r="R19" s="5"/>
-      <c r="S19" s="5"/>
-      <c r="T19" s="5"/>
-      <c r="U19" s="5"/>
-      <c r="V19" s="5"/>
-      <c r="W19" s="5"/>
-      <c r="X19" s="5"/>
+      <c r="R19" s="4"/>
+      <c r="S19" s="4"/>
+      <c r="T19" s="4"/>
+      <c r="U19" s="4"/>
+      <c r="V19" s="4"/>
+      <c r="W19" s="4"/>
+      <c r="X19" s="4"/>
     </row>
     <row r="20" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B20" s="3"/>
       <c r="C20" s="3"/>
-      <c r="D20" s="5"/>
-      <c r="E20" s="5"/>
+      <c r="D20" s="4"/>
+      <c r="E20" s="4"/>
       <c r="F20" s="3"/>
       <c r="G20" s="3"/>
       <c r="H20" s="3"/>
@@ -4209,19 +4310,19 @@
       <c r="O20" s="3"/>
       <c r="P20" s="3"/>
       <c r="Q20" s="3"/>
-      <c r="R20" s="5"/>
-      <c r="S20" s="5"/>
-      <c r="T20" s="5"/>
-      <c r="U20" s="5"/>
-      <c r="V20" s="5"/>
-      <c r="W20" s="5"/>
-      <c r="X20" s="5"/>
+      <c r="R20" s="4"/>
+      <c r="S20" s="4"/>
+      <c r="T20" s="4"/>
+      <c r="U20" s="4"/>
+      <c r="V20" s="4"/>
+      <c r="W20" s="4"/>
+      <c r="X20" s="4"/>
     </row>
     <row r="21" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
-      <c r="D21" s="5"/>
-      <c r="E21" s="5"/>
+      <c r="D21" s="4"/>
+      <c r="E21" s="4"/>
       <c r="F21" s="3"/>
       <c r="G21" s="3"/>
       <c r="H21" s="3"/>
@@ -4234,19 +4335,19 @@
       <c r="O21" s="3"/>
       <c r="P21" s="3"/>
       <c r="Q21" s="3"/>
-      <c r="R21" s="5"/>
-      <c r="S21" s="5"/>
-      <c r="T21" s="5"/>
-      <c r="U21" s="5"/>
-      <c r="V21" s="5"/>
-      <c r="W21" s="5"/>
-      <c r="X21" s="5"/>
+      <c r="R21" s="4"/>
+      <c r="S21" s="4"/>
+      <c r="T21" s="4"/>
+      <c r="U21" s="4"/>
+      <c r="V21" s="4"/>
+      <c r="W21" s="4"/>
+      <c r="X21" s="4"/>
     </row>
     <row r="22" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
-      <c r="D22" s="5"/>
-      <c r="E22" s="5"/>
+      <c r="D22" s="4"/>
+      <c r="E22" s="4"/>
       <c r="F22" s="3"/>
       <c r="G22" s="3"/>
       <c r="H22" s="3"/>
@@ -4259,13 +4360,13 @@
       <c r="O22" s="3"/>
       <c r="P22" s="3"/>
       <c r="Q22" s="3"/>
-      <c r="R22" s="5"/>
-      <c r="S22" s="5"/>
-      <c r="T22" s="5"/>
-      <c r="U22" s="5"/>
-      <c r="V22" s="5"/>
-      <c r="W22" s="5"/>
-      <c r="X22" s="5"/>
+      <c r="R22" s="4"/>
+      <c r="S22" s="4"/>
+      <c r="T22" s="4"/>
+      <c r="U22" s="4"/>
+      <c r="V22" s="4"/>
+      <c r="W22" s="4"/>
+      <c r="X22" s="4"/>
     </row>
     <row r="23" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B23" s="3" t="s">
@@ -4282,29 +4383,29 @@
       <c r="G23" s="3"/>
       <c r="H23" s="3"/>
       <c r="I23" s="3"/>
-      <c r="J23" s="5" t="s">
+      <c r="J23" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="K23" s="5"/>
-      <c r="L23" s="5"/>
-      <c r="M23" s="5"/>
-      <c r="N23" s="5" t="s">
+      <c r="K23" s="4"/>
+      <c r="L23" s="4"/>
+      <c r="M23" s="4"/>
+      <c r="N23" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="O23" s="5"/>
-      <c r="P23" s="5"/>
-      <c r="Q23" s="5"/>
+      <c r="O23" s="4"/>
+      <c r="P23" s="4"/>
+      <c r="Q23" s="4"/>
       <c r="R23" s="3" t="s">
         <v>47</v>
       </c>
       <c r="S23" s="3"/>
       <c r="T23" s="3"/>
       <c r="U23" s="3"/>
-      <c r="V23" s="5" t="s">
+      <c r="V23" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="W23" s="5"/>
-      <c r="X23" s="5"/>
+      <c r="W23" s="4"/>
+      <c r="X23" s="4"/>
     </row>
     <row r="24" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B24" s="3"/>
@@ -4315,21 +4416,21 @@
       <c r="G24" s="3"/>
       <c r="H24" s="3"/>
       <c r="I24" s="3"/>
-      <c r="J24" s="5"/>
-      <c r="K24" s="5"/>
-      <c r="L24" s="5"/>
-      <c r="M24" s="5"/>
-      <c r="N24" s="5"/>
-      <c r="O24" s="5"/>
-      <c r="P24" s="5"/>
-      <c r="Q24" s="5"/>
+      <c r="J24" s="4"/>
+      <c r="K24" s="4"/>
+      <c r="L24" s="4"/>
+      <c r="M24" s="4"/>
+      <c r="N24" s="4"/>
+      <c r="O24" s="4"/>
+      <c r="P24" s="4"/>
+      <c r="Q24" s="4"/>
       <c r="R24" s="3"/>
       <c r="S24" s="3"/>
       <c r="T24" s="3"/>
       <c r="U24" s="3"/>
-      <c r="V24" s="5"/>
-      <c r="W24" s="5"/>
-      <c r="X24" s="5"/>
+      <c r="V24" s="4"/>
+      <c r="W24" s="4"/>
+      <c r="X24" s="4"/>
     </row>
     <row r="25" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B25" s="3"/>
@@ -4340,21 +4441,21 @@
       <c r="G25" s="3"/>
       <c r="H25" s="3"/>
       <c r="I25" s="3"/>
-      <c r="J25" s="5"/>
-      <c r="K25" s="5"/>
-      <c r="L25" s="5"/>
-      <c r="M25" s="5"/>
-      <c r="N25" s="5"/>
-      <c r="O25" s="5"/>
-      <c r="P25" s="5"/>
-      <c r="Q25" s="5"/>
+      <c r="J25" s="4"/>
+      <c r="K25" s="4"/>
+      <c r="L25" s="4"/>
+      <c r="M25" s="4"/>
+      <c r="N25" s="4"/>
+      <c r="O25" s="4"/>
+      <c r="P25" s="4"/>
+      <c r="Q25" s="4"/>
       <c r="R25" s="3"/>
       <c r="S25" s="3"/>
       <c r="T25" s="3"/>
       <c r="U25" s="3"/>
-      <c r="V25" s="5"/>
-      <c r="W25" s="5"/>
-      <c r="X25" s="5"/>
+      <c r="V25" s="4"/>
+      <c r="W25" s="4"/>
+      <c r="X25" s="4"/>
     </row>
     <row r="26" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B26" s="3"/>
@@ -4365,21 +4466,21 @@
       <c r="G26" s="3"/>
       <c r="H26" s="3"/>
       <c r="I26" s="3"/>
-      <c r="J26" s="5"/>
-      <c r="K26" s="5"/>
-      <c r="L26" s="5"/>
-      <c r="M26" s="5"/>
-      <c r="N26" s="5"/>
-      <c r="O26" s="5"/>
-      <c r="P26" s="5"/>
-      <c r="Q26" s="5"/>
+      <c r="J26" s="4"/>
+      <c r="K26" s="4"/>
+      <c r="L26" s="4"/>
+      <c r="M26" s="4"/>
+      <c r="N26" s="4"/>
+      <c r="O26" s="4"/>
+      <c r="P26" s="4"/>
+      <c r="Q26" s="4"/>
       <c r="R26" s="3"/>
       <c r="S26" s="3"/>
       <c r="T26" s="3"/>
       <c r="U26" s="3"/>
-      <c r="V26" s="5"/>
-      <c r="W26" s="5"/>
-      <c r="X26" s="5"/>
+      <c r="V26" s="4"/>
+      <c r="W26" s="4"/>
+      <c r="X26" s="4"/>
     </row>
     <row r="27" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B27" s="3"/>
@@ -4390,37 +4491,37 @@
       <c r="G27" s="3"/>
       <c r="H27" s="3"/>
       <c r="I27" s="3"/>
-      <c r="J27" s="5"/>
-      <c r="K27" s="5"/>
-      <c r="L27" s="5"/>
-      <c r="M27" s="5"/>
-      <c r="N27" s="5"/>
-      <c r="O27" s="5"/>
-      <c r="P27" s="5"/>
-      <c r="Q27" s="5"/>
+      <c r="J27" s="4"/>
+      <c r="K27" s="4"/>
+      <c r="L27" s="4"/>
+      <c r="M27" s="4"/>
+      <c r="N27" s="4"/>
+      <c r="O27" s="4"/>
+      <c r="P27" s="4"/>
+      <c r="Q27" s="4"/>
       <c r="R27" s="3"/>
       <c r="S27" s="3"/>
       <c r="T27" s="3"/>
       <c r="U27" s="3"/>
-      <c r="V27" s="5"/>
-      <c r="W27" s="5"/>
-      <c r="X27" s="5"/>
+      <c r="V27" s="4"/>
+      <c r="W27" s="4"/>
+      <c r="X27" s="4"/>
     </row>
     <row r="28" spans="2:24" x14ac:dyDescent="0.2">
-      <c r="B28" s="5" t="s">
+      <c r="B28" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="C28" s="5"/>
-      <c r="D28" s="5" t="s">
+      <c r="C28" s="4"/>
+      <c r="D28" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="E28" s="5"/>
-      <c r="F28" s="5" t="s">
+      <c r="E28" s="4"/>
+      <c r="F28" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="G28" s="5"/>
-      <c r="H28" s="5"/>
-      <c r="I28" s="5"/>
+      <c r="G28" s="4"/>
+      <c r="H28" s="4"/>
+      <c r="I28" s="4"/>
       <c r="J28" s="3" t="s">
         <v>52</v>
       </c>
@@ -4433,27 +4534,27 @@
       <c r="O28" s="3"/>
       <c r="P28" s="3"/>
       <c r="Q28" s="3"/>
-      <c r="R28" s="5" t="s">
+      <c r="R28" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="S28" s="5"/>
-      <c r="T28" s="5"/>
-      <c r="U28" s="5"/>
-      <c r="V28" s="5" t="s">
+      <c r="S28" s="4"/>
+      <c r="T28" s="4"/>
+      <c r="U28" s="4"/>
+      <c r="V28" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="W28" s="5"/>
-      <c r="X28" s="5"/>
+      <c r="W28" s="4"/>
+      <c r="X28" s="4"/>
     </row>
     <row r="29" spans="2:24" x14ac:dyDescent="0.2">
-      <c r="B29" s="5"/>
-      <c r="C29" s="5"/>
-      <c r="D29" s="5"/>
-      <c r="E29" s="5"/>
-      <c r="F29" s="5"/>
-      <c r="G29" s="5"/>
-      <c r="H29" s="5"/>
-      <c r="I29" s="5"/>
+      <c r="B29" s="4"/>
+      <c r="C29" s="4"/>
+      <c r="D29" s="4"/>
+      <c r="E29" s="4"/>
+      <c r="F29" s="4"/>
+      <c r="G29" s="4"/>
+      <c r="H29" s="4"/>
+      <c r="I29" s="4"/>
       <c r="J29" s="3"/>
       <c r="K29" s="3"/>
       <c r="L29" s="3"/>
@@ -4462,23 +4563,23 @@
       <c r="O29" s="3"/>
       <c r="P29" s="3"/>
       <c r="Q29" s="3"/>
-      <c r="R29" s="5"/>
-      <c r="S29" s="5"/>
-      <c r="T29" s="5"/>
-      <c r="U29" s="5"/>
-      <c r="V29" s="5"/>
-      <c r="W29" s="5"/>
-      <c r="X29" s="5"/>
+      <c r="R29" s="4"/>
+      <c r="S29" s="4"/>
+      <c r="T29" s="4"/>
+      <c r="U29" s="4"/>
+      <c r="V29" s="4"/>
+      <c r="W29" s="4"/>
+      <c r="X29" s="4"/>
     </row>
     <row r="30" spans="2:24" x14ac:dyDescent="0.2">
-      <c r="B30" s="5"/>
-      <c r="C30" s="5"/>
-      <c r="D30" s="5"/>
-      <c r="E30" s="5"/>
-      <c r="F30" s="5"/>
-      <c r="G30" s="5"/>
-      <c r="H30" s="5"/>
-      <c r="I30" s="5"/>
+      <c r="B30" s="4"/>
+      <c r="C30" s="4"/>
+      <c r="D30" s="4"/>
+      <c r="E30" s="4"/>
+      <c r="F30" s="4"/>
+      <c r="G30" s="4"/>
+      <c r="H30" s="4"/>
+      <c r="I30" s="4"/>
       <c r="J30" s="3"/>
       <c r="K30" s="3"/>
       <c r="L30" s="3"/>
@@ -4487,23 +4588,23 @@
       <c r="O30" s="3"/>
       <c r="P30" s="3"/>
       <c r="Q30" s="3"/>
-      <c r="R30" s="5"/>
-      <c r="S30" s="5"/>
-      <c r="T30" s="5"/>
-      <c r="U30" s="5"/>
-      <c r="V30" s="5"/>
-      <c r="W30" s="5"/>
-      <c r="X30" s="5"/>
+      <c r="R30" s="4"/>
+      <c r="S30" s="4"/>
+      <c r="T30" s="4"/>
+      <c r="U30" s="4"/>
+      <c r="V30" s="4"/>
+      <c r="W30" s="4"/>
+      <c r="X30" s="4"/>
     </row>
     <row r="31" spans="2:24" x14ac:dyDescent="0.2">
-      <c r="B31" s="5"/>
-      <c r="C31" s="5"/>
-      <c r="D31" s="5"/>
-      <c r="E31" s="5"/>
-      <c r="F31" s="5"/>
-      <c r="G31" s="5"/>
-      <c r="H31" s="5"/>
-      <c r="I31" s="5"/>
+      <c r="B31" s="4"/>
+      <c r="C31" s="4"/>
+      <c r="D31" s="4"/>
+      <c r="E31" s="4"/>
+      <c r="F31" s="4"/>
+      <c r="G31" s="4"/>
+      <c r="H31" s="4"/>
+      <c r="I31" s="4"/>
       <c r="J31" s="3"/>
       <c r="K31" s="3"/>
       <c r="L31" s="3"/>
@@ -4512,23 +4613,23 @@
       <c r="O31" s="3"/>
       <c r="P31" s="3"/>
       <c r="Q31" s="3"/>
-      <c r="R31" s="5"/>
-      <c r="S31" s="5"/>
-      <c r="T31" s="5"/>
-      <c r="U31" s="5"/>
-      <c r="V31" s="5"/>
-      <c r="W31" s="5"/>
-      <c r="X31" s="5"/>
+      <c r="R31" s="4"/>
+      <c r="S31" s="4"/>
+      <c r="T31" s="4"/>
+      <c r="U31" s="4"/>
+      <c r="V31" s="4"/>
+      <c r="W31" s="4"/>
+      <c r="X31" s="4"/>
     </row>
     <row r="32" spans="2:24" x14ac:dyDescent="0.2">
-      <c r="B32" s="5"/>
-      <c r="C32" s="5"/>
-      <c r="D32" s="5"/>
-      <c r="E32" s="5"/>
-      <c r="F32" s="5"/>
-      <c r="G32" s="5"/>
-      <c r="H32" s="5"/>
-      <c r="I32" s="5"/>
+      <c r="B32" s="4"/>
+      <c r="C32" s="4"/>
+      <c r="D32" s="4"/>
+      <c r="E32" s="4"/>
+      <c r="F32" s="4"/>
+      <c r="G32" s="4"/>
+      <c r="H32" s="4"/>
+      <c r="I32" s="4"/>
       <c r="J32" s="3"/>
       <c r="K32" s="3"/>
       <c r="L32" s="3"/>
@@ -4537,16 +4638,53 @@
       <c r="O32" s="3"/>
       <c r="P32" s="3"/>
       <c r="Q32" s="3"/>
-      <c r="R32" s="5"/>
-      <c r="S32" s="5"/>
-      <c r="T32" s="5"/>
-      <c r="U32" s="5"/>
-      <c r="V32" s="5"/>
-      <c r="W32" s="5"/>
-      <c r="X32" s="5"/>
+      <c r="R32" s="4"/>
+      <c r="S32" s="4"/>
+      <c r="T32" s="4"/>
+      <c r="U32" s="4"/>
+      <c r="V32" s="4"/>
+      <c r="W32" s="4"/>
+      <c r="X32" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="49">
+    <mergeCell ref="R28:U32"/>
+    <mergeCell ref="V28:X32"/>
+    <mergeCell ref="B28:C32"/>
+    <mergeCell ref="D28:E32"/>
+    <mergeCell ref="F28:I32"/>
+    <mergeCell ref="J28:M32"/>
+    <mergeCell ref="N28:Q32"/>
+    <mergeCell ref="R23:U27"/>
+    <mergeCell ref="V2:X2"/>
+    <mergeCell ref="V3:X7"/>
+    <mergeCell ref="V8:X12"/>
+    <mergeCell ref="V13:X17"/>
+    <mergeCell ref="V18:X22"/>
+    <mergeCell ref="V23:X27"/>
+    <mergeCell ref="R13:U17"/>
+    <mergeCell ref="R18:U22"/>
+    <mergeCell ref="B23:C27"/>
+    <mergeCell ref="D23:E27"/>
+    <mergeCell ref="F23:I27"/>
+    <mergeCell ref="J23:M27"/>
+    <mergeCell ref="N23:Q27"/>
+    <mergeCell ref="B13:C17"/>
+    <mergeCell ref="D13:E17"/>
+    <mergeCell ref="F13:I17"/>
+    <mergeCell ref="J13:M17"/>
+    <mergeCell ref="N13:Q17"/>
+    <mergeCell ref="B18:C22"/>
+    <mergeCell ref="D18:E22"/>
+    <mergeCell ref="F18:I22"/>
+    <mergeCell ref="J18:M22"/>
+    <mergeCell ref="N18:Q22"/>
+    <mergeCell ref="N2:Q2"/>
+    <mergeCell ref="R2:U2"/>
+    <mergeCell ref="N3:Q7"/>
+    <mergeCell ref="R3:U7"/>
+    <mergeCell ref="N8:Q12"/>
+    <mergeCell ref="R8:U12"/>
     <mergeCell ref="B8:C12"/>
     <mergeCell ref="D8:E12"/>
     <mergeCell ref="F8:I12"/>
@@ -4559,43 +4697,6 @@
     <mergeCell ref="D3:E7"/>
     <mergeCell ref="F3:I7"/>
     <mergeCell ref="J3:M7"/>
-    <mergeCell ref="N2:Q2"/>
-    <mergeCell ref="R2:U2"/>
-    <mergeCell ref="N3:Q7"/>
-    <mergeCell ref="R3:U7"/>
-    <mergeCell ref="N8:Q12"/>
-    <mergeCell ref="R8:U12"/>
-    <mergeCell ref="B18:C22"/>
-    <mergeCell ref="D18:E22"/>
-    <mergeCell ref="F18:I22"/>
-    <mergeCell ref="J18:M22"/>
-    <mergeCell ref="N18:Q22"/>
-    <mergeCell ref="B13:C17"/>
-    <mergeCell ref="D13:E17"/>
-    <mergeCell ref="F13:I17"/>
-    <mergeCell ref="J13:M17"/>
-    <mergeCell ref="N13:Q17"/>
-    <mergeCell ref="B23:C27"/>
-    <mergeCell ref="D23:E27"/>
-    <mergeCell ref="F23:I27"/>
-    <mergeCell ref="J23:M27"/>
-    <mergeCell ref="N23:Q27"/>
-    <mergeCell ref="R23:U27"/>
-    <mergeCell ref="V2:X2"/>
-    <mergeCell ref="V3:X7"/>
-    <mergeCell ref="V8:X12"/>
-    <mergeCell ref="V13:X17"/>
-    <mergeCell ref="V18:X22"/>
-    <mergeCell ref="V23:X27"/>
-    <mergeCell ref="R13:U17"/>
-    <mergeCell ref="R18:U22"/>
-    <mergeCell ref="R28:U32"/>
-    <mergeCell ref="V28:X32"/>
-    <mergeCell ref="B28:C32"/>
-    <mergeCell ref="D28:E32"/>
-    <mergeCell ref="F28:I32"/>
-    <mergeCell ref="J28:M32"/>
-    <mergeCell ref="N28:Q32"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4634,275 +4735,275 @@
   <sheetData>
     <row r="1" spans="2:14" ht="13.8" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:14" ht="13.8" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="10" t="s">
+      <c r="B2" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="12"/>
-      <c r="D2" s="11" t="s">
+      <c r="C2" s="17"/>
+      <c r="D2" s="16" t="s">
         <v>50</v>
       </c>
-      <c r="E2" s="11"/>
-      <c r="F2" s="10" t="s">
+      <c r="E2" s="16"/>
+      <c r="F2" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="G2" s="11"/>
-      <c r="H2" s="11"/>
-      <c r="I2" s="12"/>
-      <c r="J2" s="10" t="s">
+      <c r="G2" s="16"/>
+      <c r="H2" s="16"/>
+      <c r="I2" s="17"/>
+      <c r="J2" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="K2" s="11"/>
-      <c r="L2" s="11"/>
-      <c r="M2" s="12"/>
+      <c r="K2" s="16"/>
+      <c r="L2" s="16"/>
+      <c r="M2" s="17"/>
     </row>
     <row r="3" spans="2:14" ht="13.2" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="16" t="s">
+      <c r="B3" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="17"/>
-      <c r="D3" s="16" t="s">
+      <c r="C3" s="12"/>
+      <c r="D3" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="E3" s="17"/>
-      <c r="F3" s="6" t="s">
+      <c r="E3" s="12"/>
+      <c r="F3" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="G3" s="8"/>
-      <c r="H3" s="8"/>
-      <c r="I3" s="7"/>
-      <c r="J3" s="13" t="s">
+      <c r="G3" s="9"/>
+      <c r="H3" s="9"/>
+      <c r="I3" s="10"/>
+      <c r="J3" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="K3" s="14"/>
-      <c r="L3" s="14"/>
-      <c r="M3" s="15"/>
+      <c r="K3" s="19"/>
+      <c r="L3" s="19"/>
+      <c r="M3" s="20"/>
     </row>
     <row r="4" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B4" s="4"/>
-      <c r="C4" s="9"/>
-      <c r="D4" s="4"/>
-      <c r="E4" s="9"/>
-      <c r="F4" s="6"/>
-      <c r="G4" s="8"/>
-      <c r="H4" s="8"/>
-      <c r="I4" s="7"/>
-      <c r="J4" s="6"/>
-      <c r="K4" s="8"/>
-      <c r="L4" s="8"/>
-      <c r="M4" s="7"/>
+      <c r="B4" s="13"/>
+      <c r="C4" s="14"/>
+      <c r="D4" s="13"/>
+      <c r="E4" s="14"/>
+      <c r="F4" s="8"/>
+      <c r="G4" s="9"/>
+      <c r="H4" s="9"/>
+      <c r="I4" s="10"/>
+      <c r="J4" s="8"/>
+      <c r="K4" s="9"/>
+      <c r="L4" s="9"/>
+      <c r="M4" s="10"/>
     </row>
     <row r="5" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B5" s="4"/>
-      <c r="C5" s="9"/>
-      <c r="D5" s="4"/>
-      <c r="E5" s="9"/>
-      <c r="F5" s="6"/>
-      <c r="G5" s="8"/>
-      <c r="H5" s="8"/>
-      <c r="I5" s="7"/>
-      <c r="J5" s="6"/>
-      <c r="K5" s="8"/>
-      <c r="L5" s="8"/>
-      <c r="M5" s="7"/>
+      <c r="B5" s="13"/>
+      <c r="C5" s="14"/>
+      <c r="D5" s="13"/>
+      <c r="E5" s="14"/>
+      <c r="F5" s="8"/>
+      <c r="G5" s="9"/>
+      <c r="H5" s="9"/>
+      <c r="I5" s="10"/>
+      <c r="J5" s="8"/>
+      <c r="K5" s="9"/>
+      <c r="L5" s="9"/>
+      <c r="M5" s="10"/>
     </row>
     <row r="6" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B6" s="4"/>
-      <c r="C6" s="9"/>
-      <c r="D6" s="4"/>
-      <c r="E6" s="9"/>
-      <c r="F6" s="6"/>
-      <c r="G6" s="8"/>
-      <c r="H6" s="8"/>
-      <c r="I6" s="7"/>
-      <c r="J6" s="6"/>
-      <c r="K6" s="8"/>
-      <c r="L6" s="8"/>
-      <c r="M6" s="7"/>
+      <c r="B6" s="13"/>
+      <c r="C6" s="14"/>
+      <c r="D6" s="13"/>
+      <c r="E6" s="14"/>
+      <c r="F6" s="8"/>
+      <c r="G6" s="9"/>
+      <c r="H6" s="9"/>
+      <c r="I6" s="10"/>
+      <c r="J6" s="8"/>
+      <c r="K6" s="9"/>
+      <c r="L6" s="9"/>
+      <c r="M6" s="10"/>
     </row>
     <row r="7" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B7" s="4"/>
-      <c r="C7" s="9"/>
-      <c r="D7" s="4"/>
-      <c r="E7" s="9"/>
-      <c r="F7" s="6"/>
-      <c r="G7" s="8"/>
-      <c r="H7" s="8"/>
-      <c r="I7" s="7"/>
-      <c r="J7" s="6"/>
-      <c r="K7" s="8"/>
-      <c r="L7" s="8"/>
-      <c r="M7" s="7"/>
+      <c r="B7" s="13"/>
+      <c r="C7" s="14"/>
+      <c r="D7" s="13"/>
+      <c r="E7" s="14"/>
+      <c r="F7" s="8"/>
+      <c r="G7" s="9"/>
+      <c r="H7" s="9"/>
+      <c r="I7" s="10"/>
+      <c r="J7" s="8"/>
+      <c r="K7" s="9"/>
+      <c r="L7" s="9"/>
+      <c r="M7" s="10"/>
       <c r="N7" s="2"/>
     </row>
     <row r="8" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B8" s="6" t="s">
+      <c r="B8" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="C8" s="7"/>
-      <c r="D8" s="4" t="s">
+      <c r="C8" s="10"/>
+      <c r="D8" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="E8" s="9"/>
-      <c r="F8" s="6" t="s">
+      <c r="E8" s="14"/>
+      <c r="F8" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="G8" s="8"/>
-      <c r="H8" s="8"/>
-      <c r="I8" s="7"/>
-      <c r="J8" s="6" t="s">
+      <c r="G8" s="9"/>
+      <c r="H8" s="9"/>
+      <c r="I8" s="10"/>
+      <c r="J8" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="K8" s="8"/>
-      <c r="L8" s="8"/>
-      <c r="M8" s="7"/>
+      <c r="K8" s="9"/>
+      <c r="L8" s="9"/>
+      <c r="M8" s="10"/>
     </row>
     <row r="9" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B9" s="6"/>
-      <c r="C9" s="7"/>
-      <c r="D9" s="4"/>
-      <c r="E9" s="9"/>
-      <c r="F9" s="6"/>
-      <c r="G9" s="8"/>
-      <c r="H9" s="8"/>
-      <c r="I9" s="7"/>
-      <c r="J9" s="6"/>
-      <c r="K9" s="8"/>
-      <c r="L9" s="8"/>
-      <c r="M9" s="7"/>
+      <c r="B9" s="8"/>
+      <c r="C9" s="10"/>
+      <c r="D9" s="13"/>
+      <c r="E9" s="14"/>
+      <c r="F9" s="8"/>
+      <c r="G9" s="9"/>
+      <c r="H9" s="9"/>
+      <c r="I9" s="10"/>
+      <c r="J9" s="8"/>
+      <c r="K9" s="9"/>
+      <c r="L9" s="9"/>
+      <c r="M9" s="10"/>
     </row>
     <row r="10" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B10" s="6"/>
-      <c r="C10" s="7"/>
-      <c r="D10" s="4"/>
-      <c r="E10" s="9"/>
-      <c r="F10" s="6"/>
-      <c r="G10" s="8"/>
-      <c r="H10" s="8"/>
-      <c r="I10" s="7"/>
-      <c r="J10" s="6"/>
-      <c r="K10" s="8"/>
-      <c r="L10" s="8"/>
-      <c r="M10" s="7"/>
+      <c r="B10" s="8"/>
+      <c r="C10" s="10"/>
+      <c r="D10" s="13"/>
+      <c r="E10" s="14"/>
+      <c r="F10" s="8"/>
+      <c r="G10" s="9"/>
+      <c r="H10" s="9"/>
+      <c r="I10" s="10"/>
+      <c r="J10" s="8"/>
+      <c r="K10" s="9"/>
+      <c r="L10" s="9"/>
+      <c r="M10" s="10"/>
     </row>
     <row r="11" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B11" s="6"/>
-      <c r="C11" s="7"/>
-      <c r="D11" s="4"/>
-      <c r="E11" s="9"/>
-      <c r="F11" s="6"/>
-      <c r="G11" s="8"/>
-      <c r="H11" s="8"/>
-      <c r="I11" s="7"/>
-      <c r="J11" s="6"/>
-      <c r="K11" s="8"/>
-      <c r="L11" s="8"/>
-      <c r="M11" s="7"/>
+      <c r="B11" s="8"/>
+      <c r="C11" s="10"/>
+      <c r="D11" s="13"/>
+      <c r="E11" s="14"/>
+      <c r="F11" s="8"/>
+      <c r="G11" s="9"/>
+      <c r="H11" s="9"/>
+      <c r="I11" s="10"/>
+      <c r="J11" s="8"/>
+      <c r="K11" s="9"/>
+      <c r="L11" s="9"/>
+      <c r="M11" s="10"/>
     </row>
     <row r="12" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B12" s="6"/>
-      <c r="C12" s="7"/>
-      <c r="D12" s="4"/>
-      <c r="E12" s="9"/>
-      <c r="F12" s="6"/>
-      <c r="G12" s="8"/>
-      <c r="H12" s="8"/>
-      <c r="I12" s="7"/>
-      <c r="J12" s="6"/>
-      <c r="K12" s="8"/>
-      <c r="L12" s="8"/>
-      <c r="M12" s="7"/>
+      <c r="B12" s="8"/>
+      <c r="C12" s="10"/>
+      <c r="D12" s="13"/>
+      <c r="E12" s="14"/>
+      <c r="F12" s="8"/>
+      <c r="G12" s="9"/>
+      <c r="H12" s="9"/>
+      <c r="I12" s="10"/>
+      <c r="J12" s="8"/>
+      <c r="K12" s="9"/>
+      <c r="L12" s="9"/>
+      <c r="M12" s="10"/>
     </row>
     <row r="13" spans="2:14" ht="13.2" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B13" s="6" t="s">
+      <c r="B13" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="C13" s="7"/>
-      <c r="D13" s="4" t="s">
+      <c r="C13" s="10"/>
+      <c r="D13" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="E13" s="9"/>
-      <c r="F13" s="6" t="s">
+      <c r="E13" s="14"/>
+      <c r="F13" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="G13" s="8"/>
-      <c r="H13" s="8"/>
-      <c r="I13" s="7"/>
-      <c r="J13" s="6" t="s">
+      <c r="G13" s="9"/>
+      <c r="H13" s="9"/>
+      <c r="I13" s="10"/>
+      <c r="J13" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="K13" s="8"/>
-      <c r="L13" s="8"/>
-      <c r="M13" s="7"/>
+      <c r="K13" s="9"/>
+      <c r="L13" s="9"/>
+      <c r="M13" s="10"/>
     </row>
     <row r="14" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B14" s="6"/>
-      <c r="C14" s="7"/>
-      <c r="D14" s="4"/>
-      <c r="E14" s="9"/>
-      <c r="F14" s="6"/>
-      <c r="G14" s="8"/>
-      <c r="H14" s="8"/>
-      <c r="I14" s="7"/>
-      <c r="J14" s="6"/>
-      <c r="K14" s="8"/>
-      <c r="L14" s="8"/>
-      <c r="M14" s="7"/>
+      <c r="B14" s="8"/>
+      <c r="C14" s="10"/>
+      <c r="D14" s="13"/>
+      <c r="E14" s="14"/>
+      <c r="F14" s="8"/>
+      <c r="G14" s="9"/>
+      <c r="H14" s="9"/>
+      <c r="I14" s="10"/>
+      <c r="J14" s="8"/>
+      <c r="K14" s="9"/>
+      <c r="L14" s="9"/>
+      <c r="M14" s="10"/>
     </row>
     <row r="15" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B15" s="6"/>
-      <c r="C15" s="7"/>
-      <c r="D15" s="4"/>
-      <c r="E15" s="9"/>
-      <c r="F15" s="6"/>
-      <c r="G15" s="8"/>
-      <c r="H15" s="8"/>
-      <c r="I15" s="7"/>
-      <c r="J15" s="6"/>
-      <c r="K15" s="8"/>
-      <c r="L15" s="8"/>
-      <c r="M15" s="7"/>
+      <c r="B15" s="8"/>
+      <c r="C15" s="10"/>
+      <c r="D15" s="13"/>
+      <c r="E15" s="14"/>
+      <c r="F15" s="8"/>
+      <c r="G15" s="9"/>
+      <c r="H15" s="9"/>
+      <c r="I15" s="10"/>
+      <c r="J15" s="8"/>
+      <c r="K15" s="9"/>
+      <c r="L15" s="9"/>
+      <c r="M15" s="10"/>
     </row>
     <row r="16" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B16" s="6"/>
-      <c r="C16" s="7"/>
-      <c r="D16" s="4"/>
-      <c r="E16" s="9"/>
-      <c r="F16" s="6"/>
-      <c r="G16" s="8"/>
-      <c r="H16" s="8"/>
-      <c r="I16" s="7"/>
-      <c r="J16" s="6"/>
-      <c r="K16" s="8"/>
-      <c r="L16" s="8"/>
-      <c r="M16" s="7"/>
+      <c r="B16" s="8"/>
+      <c r="C16" s="10"/>
+      <c r="D16" s="13"/>
+      <c r="E16" s="14"/>
+      <c r="F16" s="8"/>
+      <c r="G16" s="9"/>
+      <c r="H16" s="9"/>
+      <c r="I16" s="10"/>
+      <c r="J16" s="8"/>
+      <c r="K16" s="9"/>
+      <c r="L16" s="9"/>
+      <c r="M16" s="10"/>
     </row>
     <row r="17" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B17" s="6"/>
-      <c r="C17" s="7"/>
-      <c r="D17" s="4"/>
-      <c r="E17" s="9"/>
-      <c r="F17" s="6"/>
-      <c r="G17" s="8"/>
-      <c r="H17" s="8"/>
-      <c r="I17" s="7"/>
-      <c r="J17" s="6"/>
-      <c r="K17" s="8"/>
-      <c r="L17" s="8"/>
-      <c r="M17" s="7"/>
+      <c r="B17" s="8"/>
+      <c r="C17" s="10"/>
+      <c r="D17" s="13"/>
+      <c r="E17" s="14"/>
+      <c r="F17" s="8"/>
+      <c r="G17" s="9"/>
+      <c r="H17" s="9"/>
+      <c r="I17" s="10"/>
+      <c r="J17" s="8"/>
+      <c r="K17" s="9"/>
+      <c r="L17" s="9"/>
+      <c r="M17" s="10"/>
     </row>
     <row r="18" spans="2:13" ht="13.8" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="18"/>
-      <c r="C18" s="20"/>
-      <c r="D18" s="21"/>
-      <c r="E18" s="22"/>
-      <c r="F18" s="18"/>
-      <c r="G18" s="19"/>
-      <c r="H18" s="19"/>
-      <c r="I18" s="20"/>
-      <c r="J18" s="18"/>
-      <c r="K18" s="19"/>
-      <c r="L18" s="19"/>
-      <c r="M18" s="20"/>
+      <c r="B18" s="21"/>
+      <c r="C18" s="23"/>
+      <c r="D18" s="24"/>
+      <c r="E18" s="25"/>
+      <c r="F18" s="21"/>
+      <c r="G18" s="22"/>
+      <c r="H18" s="22"/>
+      <c r="I18" s="23"/>
+      <c r="J18" s="21"/>
+      <c r="K18" s="22"/>
+      <c r="L18" s="22"/>
+      <c r="M18" s="23"/>
     </row>
     <row r="19" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B19" s="1"/>
@@ -4934,6 +5035,14 @@
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="J13:M18"/>
+    <mergeCell ref="B8:C12"/>
+    <mergeCell ref="D8:E12"/>
+    <mergeCell ref="F8:I12"/>
+    <mergeCell ref="J8:M12"/>
+    <mergeCell ref="B13:C18"/>
+    <mergeCell ref="D13:E18"/>
+    <mergeCell ref="F13:I18"/>
     <mergeCell ref="F3:I7"/>
     <mergeCell ref="B3:C7"/>
     <mergeCell ref="D3:E7"/>
@@ -4942,14 +5051,6 @@
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="D2:E2"/>
     <mergeCell ref="F2:I2"/>
-    <mergeCell ref="J13:M18"/>
-    <mergeCell ref="B8:C12"/>
-    <mergeCell ref="D8:E12"/>
-    <mergeCell ref="F8:I12"/>
-    <mergeCell ref="J8:M12"/>
-    <mergeCell ref="B13:C18"/>
-    <mergeCell ref="D13:E18"/>
-    <mergeCell ref="F13:I18"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4961,13 +5062,14 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H22" sqref="H22"/>
+      <selection activeCell="O17" sqref="O17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -4975,93 +5077,93 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:X32"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="92" zoomScaleNormal="92" workbookViewId="0">
+    <sheetView zoomScale="92" zoomScaleNormal="92" workbookViewId="0">
       <selection activeCell="Y25" sqref="Y25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="2" spans="2:24" ht="13.8" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="23" t="s">
+      <c r="B2" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="23"/>
-      <c r="D2" s="23" t="s">
+      <c r="C2" s="5"/>
+      <c r="D2" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="E2" s="23"/>
-      <c r="F2" s="23" t="s">
+      <c r="E2" s="5"/>
+      <c r="F2" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="G2" s="23"/>
-      <c r="H2" s="23"/>
-      <c r="I2" s="23"/>
-      <c r="J2" s="23" t="s">
+      <c r="G2" s="5"/>
+      <c r="H2" s="5"/>
+      <c r="I2" s="5"/>
+      <c r="J2" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="K2" s="23"/>
-      <c r="L2" s="23"/>
-      <c r="M2" s="23"/>
-      <c r="N2" s="23" t="s">
+      <c r="K2" s="5"/>
+      <c r="L2" s="5"/>
+      <c r="M2" s="5"/>
+      <c r="N2" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="O2" s="23"/>
-      <c r="P2" s="23"/>
-      <c r="Q2" s="23"/>
-      <c r="R2" s="23" t="s">
+      <c r="O2" s="5"/>
+      <c r="P2" s="5"/>
+      <c r="Q2" s="5"/>
+      <c r="R2" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="S2" s="23"/>
-      <c r="T2" s="23"/>
-      <c r="U2" s="23"/>
-      <c r="V2" s="23" t="s">
+      <c r="S2" s="5"/>
+      <c r="T2" s="5"/>
+      <c r="U2" s="5"/>
+      <c r="V2" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="W2" s="23"/>
-      <c r="X2" s="23"/>
+      <c r="W2" s="5"/>
+      <c r="X2" s="5"/>
     </row>
     <row r="3" spans="2:24" x14ac:dyDescent="0.2">
-      <c r="B3" s="24" t="s">
+      <c r="B3" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="C3" s="24"/>
-      <c r="D3" s="25" t="s">
+      <c r="C3" s="6"/>
+      <c r="D3" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="E3" s="25"/>
+      <c r="E3" s="7"/>
       <c r="F3" s="3" t="s">
         <v>57</v>
       </c>
       <c r="G3" s="3"/>
       <c r="H3" s="3"/>
       <c r="I3" s="3"/>
-      <c r="J3" s="25" t="s">
+      <c r="J3" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="K3" s="25"/>
-      <c r="L3" s="25"/>
-      <c r="M3" s="25"/>
-      <c r="N3" s="25" t="s">
+      <c r="K3" s="7"/>
+      <c r="L3" s="7"/>
+      <c r="M3" s="7"/>
+      <c r="N3" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="O3" s="25"/>
-      <c r="P3" s="25"/>
-      <c r="Q3" s="25"/>
-      <c r="R3" s="25" t="s">
+      <c r="O3" s="7"/>
+      <c r="P3" s="7"/>
+      <c r="Q3" s="7"/>
+      <c r="R3" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="S3" s="25"/>
-      <c r="T3" s="25"/>
-      <c r="U3" s="25"/>
-      <c r="V3" s="5" t="s">
+      <c r="S3" s="7"/>
+      <c r="T3" s="7"/>
+      <c r="U3" s="7"/>
+      <c r="V3" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="W3" s="5"/>
-      <c r="X3" s="5"/>
+      <c r="W3" s="4"/>
+      <c r="X3" s="4"/>
     </row>
     <row r="4" spans="2:24" x14ac:dyDescent="0.2">
-      <c r="B4" s="5"/>
-      <c r="C4" s="5"/>
+      <c r="B4" s="4"/>
+      <c r="C4" s="4"/>
       <c r="D4" s="3"/>
       <c r="E4" s="3"/>
       <c r="F4" s="3"/>
@@ -5080,13 +5182,13 @@
       <c r="S4" s="3"/>
       <c r="T4" s="3"/>
       <c r="U4" s="3"/>
-      <c r="V4" s="5"/>
-      <c r="W4" s="5"/>
-      <c r="X4" s="5"/>
+      <c r="V4" s="4"/>
+      <c r="W4" s="4"/>
+      <c r="X4" s="4"/>
     </row>
     <row r="5" spans="2:24" x14ac:dyDescent="0.2">
-      <c r="B5" s="5"/>
-      <c r="C5" s="5"/>
+      <c r="B5" s="4"/>
+      <c r="C5" s="4"/>
       <c r="D5" s="3"/>
       <c r="E5" s="3"/>
       <c r="F5" s="3"/>
@@ -5105,13 +5207,13 @@
       <c r="S5" s="3"/>
       <c r="T5" s="3"/>
       <c r="U5" s="3"/>
-      <c r="V5" s="5"/>
-      <c r="W5" s="5"/>
-      <c r="X5" s="5"/>
+      <c r="V5" s="4"/>
+      <c r="W5" s="4"/>
+      <c r="X5" s="4"/>
     </row>
     <row r="6" spans="2:24" x14ac:dyDescent="0.2">
-      <c r="B6" s="5"/>
-      <c r="C6" s="5"/>
+      <c r="B6" s="4"/>
+      <c r="C6" s="4"/>
       <c r="D6" s="3"/>
       <c r="E6" s="3"/>
       <c r="F6" s="3"/>
@@ -5130,13 +5232,13 @@
       <c r="S6" s="3"/>
       <c r="T6" s="3"/>
       <c r="U6" s="3"/>
-      <c r="V6" s="5"/>
-      <c r="W6" s="5"/>
-      <c r="X6" s="5"/>
+      <c r="V6" s="4"/>
+      <c r="W6" s="4"/>
+      <c r="X6" s="4"/>
     </row>
     <row r="7" spans="2:24" x14ac:dyDescent="0.2">
-      <c r="B7" s="5"/>
-      <c r="C7" s="5"/>
+      <c r="B7" s="4"/>
+      <c r="C7" s="4"/>
       <c r="D7" s="3"/>
       <c r="E7" s="3"/>
       <c r="F7" s="3"/>
@@ -5155,19 +5257,19 @@
       <c r="S7" s="3"/>
       <c r="T7" s="3"/>
       <c r="U7" s="3"/>
-      <c r="V7" s="5"/>
-      <c r="W7" s="5"/>
-      <c r="X7" s="5"/>
+      <c r="V7" s="4"/>
+      <c r="W7" s="4"/>
+      <c r="X7" s="4"/>
     </row>
     <row r="8" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B8" s="3" t="s">
         <v>79</v>
       </c>
       <c r="C8" s="3"/>
-      <c r="D8" s="5" t="s">
+      <c r="D8" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="E8" s="5"/>
+      <c r="E8" s="4"/>
       <c r="F8" s="3" t="s">
         <v>60</v>
       </c>
@@ -5192,17 +5294,17 @@
       <c r="S8" s="3"/>
       <c r="T8" s="3"/>
       <c r="U8" s="3"/>
-      <c r="V8" s="5" t="s">
+      <c r="V8" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="W8" s="5"/>
-      <c r="X8" s="5"/>
+      <c r="W8" s="4"/>
+      <c r="X8" s="4"/>
     </row>
     <row r="9" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
-      <c r="D9" s="5"/>
-      <c r="E9" s="5"/>
+      <c r="D9" s="4"/>
+      <c r="E9" s="4"/>
       <c r="F9" s="3"/>
       <c r="G9" s="3"/>
       <c r="H9" s="3"/>
@@ -5219,15 +5321,15 @@
       <c r="S9" s="3"/>
       <c r="T9" s="3"/>
       <c r="U9" s="3"/>
-      <c r="V9" s="5"/>
-      <c r="W9" s="5"/>
-      <c r="X9" s="5"/>
+      <c r="V9" s="4"/>
+      <c r="W9" s="4"/>
+      <c r="X9" s="4"/>
     </row>
     <row r="10" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
-      <c r="D10" s="5"/>
-      <c r="E10" s="5"/>
+      <c r="D10" s="4"/>
+      <c r="E10" s="4"/>
       <c r="F10" s="3"/>
       <c r="G10" s="3"/>
       <c r="H10" s="3"/>
@@ -5244,15 +5346,15 @@
       <c r="S10" s="3"/>
       <c r="T10" s="3"/>
       <c r="U10" s="3"/>
-      <c r="V10" s="5"/>
-      <c r="W10" s="5"/>
-      <c r="X10" s="5"/>
+      <c r="V10" s="4"/>
+      <c r="W10" s="4"/>
+      <c r="X10" s="4"/>
     </row>
     <row r="11" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
-      <c r="D11" s="5"/>
-      <c r="E11" s="5"/>
+      <c r="D11" s="4"/>
+      <c r="E11" s="4"/>
       <c r="F11" s="3"/>
       <c r="G11" s="3"/>
       <c r="H11" s="3"/>
@@ -5269,15 +5371,15 @@
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
-      <c r="V11" s="5"/>
-      <c r="W11" s="5"/>
-      <c r="X11" s="5"/>
+      <c r="V11" s="4"/>
+      <c r="W11" s="4"/>
+      <c r="X11" s="4"/>
     </row>
     <row r="12" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
-      <c r="D12" s="5"/>
-      <c r="E12" s="5"/>
+      <c r="D12" s="4"/>
+      <c r="E12" s="4"/>
       <c r="F12" s="3"/>
       <c r="G12" s="3"/>
       <c r="H12" s="3"/>
@@ -5294,9 +5396,9 @@
       <c r="S12" s="3"/>
       <c r="T12" s="3"/>
       <c r="U12" s="3"/>
-      <c r="V12" s="5"/>
-      <c r="W12" s="5"/>
-      <c r="X12" s="5"/>
+      <c r="V12" s="4"/>
+      <c r="W12" s="4"/>
+      <c r="X12" s="4"/>
     </row>
     <row r="13" spans="2:24" ht="13.2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B13" s="3" t="s">
@@ -5325,17 +5427,17 @@
       <c r="O13" s="3"/>
       <c r="P13" s="3"/>
       <c r="Q13" s="3"/>
-      <c r="R13" s="5" t="s">
+      <c r="R13" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="S13" s="5"/>
-      <c r="T13" s="5"/>
-      <c r="U13" s="5"/>
-      <c r="V13" s="5" t="s">
+      <c r="S13" s="4"/>
+      <c r="T13" s="4"/>
+      <c r="U13" s="4"/>
+      <c r="V13" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="W13" s="5"/>
-      <c r="X13" s="5"/>
+      <c r="W13" s="4"/>
+      <c r="X13" s="4"/>
     </row>
     <row r="14" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B14" s="3"/>
@@ -5354,13 +5456,13 @@
       <c r="O14" s="3"/>
       <c r="P14" s="3"/>
       <c r="Q14" s="3"/>
-      <c r="R14" s="5"/>
-      <c r="S14" s="5"/>
-      <c r="T14" s="5"/>
-      <c r="U14" s="5"/>
-      <c r="V14" s="5"/>
-      <c r="W14" s="5"/>
-      <c r="X14" s="5"/>
+      <c r="R14" s="4"/>
+      <c r="S14" s="4"/>
+      <c r="T14" s="4"/>
+      <c r="U14" s="4"/>
+      <c r="V14" s="4"/>
+      <c r="W14" s="4"/>
+      <c r="X14" s="4"/>
     </row>
     <row r="15" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B15" s="3"/>
@@ -5379,13 +5481,13 @@
       <c r="O15" s="3"/>
       <c r="P15" s="3"/>
       <c r="Q15" s="3"/>
-      <c r="R15" s="5"/>
-      <c r="S15" s="5"/>
-      <c r="T15" s="5"/>
-      <c r="U15" s="5"/>
-      <c r="V15" s="5"/>
-      <c r="W15" s="5"/>
-      <c r="X15" s="5"/>
+      <c r="R15" s="4"/>
+      <c r="S15" s="4"/>
+      <c r="T15" s="4"/>
+      <c r="U15" s="4"/>
+      <c r="V15" s="4"/>
+      <c r="W15" s="4"/>
+      <c r="X15" s="4"/>
     </row>
     <row r="16" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B16" s="3"/>
@@ -5404,13 +5506,13 @@
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
-      <c r="R16" s="5"/>
-      <c r="S16" s="5"/>
-      <c r="T16" s="5"/>
-      <c r="U16" s="5"/>
-      <c r="V16" s="5"/>
-      <c r="W16" s="5"/>
-      <c r="X16" s="5"/>
+      <c r="R16" s="4"/>
+      <c r="S16" s="4"/>
+      <c r="T16" s="4"/>
+      <c r="U16" s="4"/>
+      <c r="V16" s="4"/>
+      <c r="W16" s="4"/>
+      <c r="X16" s="4"/>
     </row>
     <row r="17" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B17" s="3"/>
@@ -5429,23 +5531,23 @@
       <c r="O17" s="3"/>
       <c r="P17" s="3"/>
       <c r="Q17" s="3"/>
-      <c r="R17" s="5"/>
-      <c r="S17" s="5"/>
-      <c r="T17" s="5"/>
-      <c r="U17" s="5"/>
-      <c r="V17" s="5"/>
-      <c r="W17" s="5"/>
-      <c r="X17" s="5"/>
+      <c r="R17" s="4"/>
+      <c r="S17" s="4"/>
+      <c r="T17" s="4"/>
+      <c r="U17" s="4"/>
+      <c r="V17" s="4"/>
+      <c r="W17" s="4"/>
+      <c r="X17" s="4"/>
     </row>
     <row r="18" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B18" s="3" t="s">
         <v>74</v>
       </c>
       <c r="C18" s="3"/>
-      <c r="D18" s="5" t="s">
+      <c r="D18" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="E18" s="5"/>
+      <c r="E18" s="4"/>
       <c r="F18" s="3" t="s">
         <v>72</v>
       </c>
@@ -5470,17 +5572,17 @@
       <c r="S18" s="3"/>
       <c r="T18" s="3"/>
       <c r="U18" s="3"/>
-      <c r="V18" s="5" t="s">
+      <c r="V18" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="W18" s="5"/>
-      <c r="X18" s="5"/>
+      <c r="W18" s="4"/>
+      <c r="X18" s="4"/>
     </row>
     <row r="19" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
-      <c r="D19" s="5"/>
-      <c r="E19" s="5"/>
+      <c r="D19" s="4"/>
+      <c r="E19" s="4"/>
       <c r="F19" s="3"/>
       <c r="G19" s="3"/>
       <c r="H19" s="3"/>
@@ -5497,15 +5599,15 @@
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
-      <c r="V19" s="5"/>
-      <c r="W19" s="5"/>
-      <c r="X19" s="5"/>
+      <c r="V19" s="4"/>
+      <c r="W19" s="4"/>
+      <c r="X19" s="4"/>
     </row>
     <row r="20" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B20" s="3"/>
       <c r="C20" s="3"/>
-      <c r="D20" s="5"/>
-      <c r="E20" s="5"/>
+      <c r="D20" s="4"/>
+      <c r="E20" s="4"/>
       <c r="F20" s="3"/>
       <c r="G20" s="3"/>
       <c r="H20" s="3"/>
@@ -5522,15 +5624,15 @@
       <c r="S20" s="3"/>
       <c r="T20" s="3"/>
       <c r="U20" s="3"/>
-      <c r="V20" s="5"/>
-      <c r="W20" s="5"/>
-      <c r="X20" s="5"/>
+      <c r="V20" s="4"/>
+      <c r="W20" s="4"/>
+      <c r="X20" s="4"/>
     </row>
     <row r="21" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
-      <c r="D21" s="5"/>
-      <c r="E21" s="5"/>
+      <c r="D21" s="4"/>
+      <c r="E21" s="4"/>
       <c r="F21" s="3"/>
       <c r="G21" s="3"/>
       <c r="H21" s="3"/>
@@ -5547,15 +5649,15 @@
       <c r="S21" s="3"/>
       <c r="T21" s="3"/>
       <c r="U21" s="3"/>
-      <c r="V21" s="5"/>
-      <c r="W21" s="5"/>
-      <c r="X21" s="5"/>
+      <c r="V21" s="4"/>
+      <c r="W21" s="4"/>
+      <c r="X21" s="4"/>
     </row>
     <row r="22" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
-      <c r="D22" s="5"/>
-      <c r="E22" s="5"/>
+      <c r="D22" s="4"/>
+      <c r="E22" s="4"/>
       <c r="F22" s="3"/>
       <c r="G22" s="3"/>
       <c r="H22" s="3"/>
@@ -5572,9 +5674,9 @@
       <c r="S22" s="3"/>
       <c r="T22" s="3"/>
       <c r="U22" s="3"/>
-      <c r="V22" s="5"/>
-      <c r="W22" s="5"/>
-      <c r="X22" s="5"/>
+      <c r="V22" s="4"/>
+      <c r="W22" s="4"/>
+      <c r="X22" s="4"/>
     </row>
     <row r="23" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B23" s="3" t="s">
@@ -5591,29 +5693,29 @@
       <c r="G23" s="3"/>
       <c r="H23" s="3"/>
       <c r="I23" s="3"/>
-      <c r="J23" s="5" t="s">
+      <c r="J23" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="K23" s="5"/>
-      <c r="L23" s="5"/>
-      <c r="M23" s="5"/>
-      <c r="N23" s="5" t="s">
+      <c r="K23" s="4"/>
+      <c r="L23" s="4"/>
+      <c r="M23" s="4"/>
+      <c r="N23" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="O23" s="5"/>
-      <c r="P23" s="5"/>
-      <c r="Q23" s="5"/>
+      <c r="O23" s="4"/>
+      <c r="P23" s="4"/>
+      <c r="Q23" s="4"/>
       <c r="R23" s="3" t="s">
         <v>47</v>
       </c>
       <c r="S23" s="3"/>
       <c r="T23" s="3"/>
       <c r="U23" s="3"/>
-      <c r="V23" s="5" t="s">
+      <c r="V23" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="W23" s="5"/>
-      <c r="X23" s="5"/>
+      <c r="W23" s="4"/>
+      <c r="X23" s="4"/>
     </row>
     <row r="24" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B24" s="3"/>
@@ -5624,21 +5726,21 @@
       <c r="G24" s="3"/>
       <c r="H24" s="3"/>
       <c r="I24" s="3"/>
-      <c r="J24" s="5"/>
-      <c r="K24" s="5"/>
-      <c r="L24" s="5"/>
-      <c r="M24" s="5"/>
-      <c r="N24" s="5"/>
-      <c r="O24" s="5"/>
-      <c r="P24" s="5"/>
-      <c r="Q24" s="5"/>
+      <c r="J24" s="4"/>
+      <c r="K24" s="4"/>
+      <c r="L24" s="4"/>
+      <c r="M24" s="4"/>
+      <c r="N24" s="4"/>
+      <c r="O24" s="4"/>
+      <c r="P24" s="4"/>
+      <c r="Q24" s="4"/>
       <c r="R24" s="3"/>
       <c r="S24" s="3"/>
       <c r="T24" s="3"/>
       <c r="U24" s="3"/>
-      <c r="V24" s="5"/>
-      <c r="W24" s="5"/>
-      <c r="X24" s="5"/>
+      <c r="V24" s="4"/>
+      <c r="W24" s="4"/>
+      <c r="X24" s="4"/>
     </row>
     <row r="25" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B25" s="3"/>
@@ -5649,21 +5751,21 @@
       <c r="G25" s="3"/>
       <c r="H25" s="3"/>
       <c r="I25" s="3"/>
-      <c r="J25" s="5"/>
-      <c r="K25" s="5"/>
-      <c r="L25" s="5"/>
-      <c r="M25" s="5"/>
-      <c r="N25" s="5"/>
-      <c r="O25" s="5"/>
-      <c r="P25" s="5"/>
-      <c r="Q25" s="5"/>
+      <c r="J25" s="4"/>
+      <c r="K25" s="4"/>
+      <c r="L25" s="4"/>
+      <c r="M25" s="4"/>
+      <c r="N25" s="4"/>
+      <c r="O25" s="4"/>
+      <c r="P25" s="4"/>
+      <c r="Q25" s="4"/>
       <c r="R25" s="3"/>
       <c r="S25" s="3"/>
       <c r="T25" s="3"/>
       <c r="U25" s="3"/>
-      <c r="V25" s="5"/>
-      <c r="W25" s="5"/>
-      <c r="X25" s="5"/>
+      <c r="V25" s="4"/>
+      <c r="W25" s="4"/>
+      <c r="X25" s="4"/>
     </row>
     <row r="26" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B26" s="3"/>
@@ -5674,21 +5776,21 @@
       <c r="G26" s="3"/>
       <c r="H26" s="3"/>
       <c r="I26" s="3"/>
-      <c r="J26" s="5"/>
-      <c r="K26" s="5"/>
-      <c r="L26" s="5"/>
-      <c r="M26" s="5"/>
-      <c r="N26" s="5"/>
-      <c r="O26" s="5"/>
-      <c r="P26" s="5"/>
-      <c r="Q26" s="5"/>
+      <c r="J26" s="4"/>
+      <c r="K26" s="4"/>
+      <c r="L26" s="4"/>
+      <c r="M26" s="4"/>
+      <c r="N26" s="4"/>
+      <c r="O26" s="4"/>
+      <c r="P26" s="4"/>
+      <c r="Q26" s="4"/>
       <c r="R26" s="3"/>
       <c r="S26" s="3"/>
       <c r="T26" s="3"/>
       <c r="U26" s="3"/>
-      <c r="V26" s="5"/>
-      <c r="W26" s="5"/>
-      <c r="X26" s="5"/>
+      <c r="V26" s="4"/>
+      <c r="W26" s="4"/>
+      <c r="X26" s="4"/>
     </row>
     <row r="27" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B27" s="3"/>
@@ -5699,37 +5801,37 @@
       <c r="G27" s="3"/>
       <c r="H27" s="3"/>
       <c r="I27" s="3"/>
-      <c r="J27" s="5"/>
-      <c r="K27" s="5"/>
-      <c r="L27" s="5"/>
-      <c r="M27" s="5"/>
-      <c r="N27" s="5"/>
-      <c r="O27" s="5"/>
-      <c r="P27" s="5"/>
-      <c r="Q27" s="5"/>
+      <c r="J27" s="4"/>
+      <c r="K27" s="4"/>
+      <c r="L27" s="4"/>
+      <c r="M27" s="4"/>
+      <c r="N27" s="4"/>
+      <c r="O27" s="4"/>
+      <c r="P27" s="4"/>
+      <c r="Q27" s="4"/>
       <c r="R27" s="3"/>
       <c r="S27" s="3"/>
       <c r="T27" s="3"/>
       <c r="U27" s="3"/>
-      <c r="V27" s="5"/>
-      <c r="W27" s="5"/>
-      <c r="X27" s="5"/>
+      <c r="V27" s="4"/>
+      <c r="W27" s="4"/>
+      <c r="X27" s="4"/>
     </row>
     <row r="28" spans="2:24" x14ac:dyDescent="0.2">
-      <c r="B28" s="5" t="s">
+      <c r="B28" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="C28" s="5"/>
-      <c r="D28" s="5" t="s">
+      <c r="C28" s="4"/>
+      <c r="D28" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="E28" s="5"/>
-      <c r="F28" s="5" t="s">
+      <c r="E28" s="4"/>
+      <c r="F28" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="G28" s="5"/>
-      <c r="H28" s="5"/>
-      <c r="I28" s="5"/>
+      <c r="G28" s="4"/>
+      <c r="H28" s="4"/>
+      <c r="I28" s="4"/>
       <c r="J28" s="3" t="s">
         <v>81</v>
       </c>
@@ -5742,27 +5844,27 @@
       <c r="O28" s="3"/>
       <c r="P28" s="3"/>
       <c r="Q28" s="3"/>
-      <c r="R28" s="5" t="s">
+      <c r="R28" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="S28" s="5"/>
-      <c r="T28" s="5"/>
-      <c r="U28" s="5"/>
-      <c r="V28" s="5" t="s">
+      <c r="S28" s="4"/>
+      <c r="T28" s="4"/>
+      <c r="U28" s="4"/>
+      <c r="V28" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="W28" s="5"/>
-      <c r="X28" s="5"/>
+      <c r="W28" s="4"/>
+      <c r="X28" s="4"/>
     </row>
     <row r="29" spans="2:24" x14ac:dyDescent="0.2">
-      <c r="B29" s="5"/>
-      <c r="C29" s="5"/>
-      <c r="D29" s="5"/>
-      <c r="E29" s="5"/>
-      <c r="F29" s="5"/>
-      <c r="G29" s="5"/>
-      <c r="H29" s="5"/>
-      <c r="I29" s="5"/>
+      <c r="B29" s="4"/>
+      <c r="C29" s="4"/>
+      <c r="D29" s="4"/>
+      <c r="E29" s="4"/>
+      <c r="F29" s="4"/>
+      <c r="G29" s="4"/>
+      <c r="H29" s="4"/>
+      <c r="I29" s="4"/>
       <c r="J29" s="3"/>
       <c r="K29" s="3"/>
       <c r="L29" s="3"/>
@@ -5771,23 +5873,23 @@
       <c r="O29" s="3"/>
       <c r="P29" s="3"/>
       <c r="Q29" s="3"/>
-      <c r="R29" s="5"/>
-      <c r="S29" s="5"/>
-      <c r="T29" s="5"/>
-      <c r="U29" s="5"/>
-      <c r="V29" s="5"/>
-      <c r="W29" s="5"/>
-      <c r="X29" s="5"/>
+      <c r="R29" s="4"/>
+      <c r="S29" s="4"/>
+      <c r="T29" s="4"/>
+      <c r="U29" s="4"/>
+      <c r="V29" s="4"/>
+      <c r="W29" s="4"/>
+      <c r="X29" s="4"/>
     </row>
     <row r="30" spans="2:24" x14ac:dyDescent="0.2">
-      <c r="B30" s="5"/>
-      <c r="C30" s="5"/>
-      <c r="D30" s="5"/>
-      <c r="E30" s="5"/>
-      <c r="F30" s="5"/>
-      <c r="G30" s="5"/>
-      <c r="H30" s="5"/>
-      <c r="I30" s="5"/>
+      <c r="B30" s="4"/>
+      <c r="C30" s="4"/>
+      <c r="D30" s="4"/>
+      <c r="E30" s="4"/>
+      <c r="F30" s="4"/>
+      <c r="G30" s="4"/>
+      <c r="H30" s="4"/>
+      <c r="I30" s="4"/>
       <c r="J30" s="3"/>
       <c r="K30" s="3"/>
       <c r="L30" s="3"/>
@@ -5796,23 +5898,23 @@
       <c r="O30" s="3"/>
       <c r="P30" s="3"/>
       <c r="Q30" s="3"/>
-      <c r="R30" s="5"/>
-      <c r="S30" s="5"/>
-      <c r="T30" s="5"/>
-      <c r="U30" s="5"/>
-      <c r="V30" s="5"/>
-      <c r="W30" s="5"/>
-      <c r="X30" s="5"/>
+      <c r="R30" s="4"/>
+      <c r="S30" s="4"/>
+      <c r="T30" s="4"/>
+      <c r="U30" s="4"/>
+      <c r="V30" s="4"/>
+      <c r="W30" s="4"/>
+      <c r="X30" s="4"/>
     </row>
     <row r="31" spans="2:24" x14ac:dyDescent="0.2">
-      <c r="B31" s="5"/>
-      <c r="C31" s="5"/>
-      <c r="D31" s="5"/>
-      <c r="E31" s="5"/>
-      <c r="F31" s="5"/>
-      <c r="G31" s="5"/>
-      <c r="H31" s="5"/>
-      <c r="I31" s="5"/>
+      <c r="B31" s="4"/>
+      <c r="C31" s="4"/>
+      <c r="D31" s="4"/>
+      <c r="E31" s="4"/>
+      <c r="F31" s="4"/>
+      <c r="G31" s="4"/>
+      <c r="H31" s="4"/>
+      <c r="I31" s="4"/>
       <c r="J31" s="3"/>
       <c r="K31" s="3"/>
       <c r="L31" s="3"/>
@@ -5821,23 +5923,23 @@
       <c r="O31" s="3"/>
       <c r="P31" s="3"/>
       <c r="Q31" s="3"/>
-      <c r="R31" s="5"/>
-      <c r="S31" s="5"/>
-      <c r="T31" s="5"/>
-      <c r="U31" s="5"/>
-      <c r="V31" s="5"/>
-      <c r="W31" s="5"/>
-      <c r="X31" s="5"/>
+      <c r="R31" s="4"/>
+      <c r="S31" s="4"/>
+      <c r="T31" s="4"/>
+      <c r="U31" s="4"/>
+      <c r="V31" s="4"/>
+      <c r="W31" s="4"/>
+      <c r="X31" s="4"/>
     </row>
     <row r="32" spans="2:24" x14ac:dyDescent="0.2">
-      <c r="B32" s="5"/>
-      <c r="C32" s="5"/>
-      <c r="D32" s="5"/>
-      <c r="E32" s="5"/>
-      <c r="F32" s="5"/>
-      <c r="G32" s="5"/>
-      <c r="H32" s="5"/>
-      <c r="I32" s="5"/>
+      <c r="B32" s="4"/>
+      <c r="C32" s="4"/>
+      <c r="D32" s="4"/>
+      <c r="E32" s="4"/>
+      <c r="F32" s="4"/>
+      <c r="G32" s="4"/>
+      <c r="H32" s="4"/>
+      <c r="I32" s="4"/>
       <c r="J32" s="3"/>
       <c r="K32" s="3"/>
       <c r="L32" s="3"/>
@@ -5846,23 +5948,44 @@
       <c r="O32" s="3"/>
       <c r="P32" s="3"/>
       <c r="Q32" s="3"/>
-      <c r="R32" s="5"/>
-      <c r="S32" s="5"/>
-      <c r="T32" s="5"/>
-      <c r="U32" s="5"/>
-      <c r="V32" s="5"/>
-      <c r="W32" s="5"/>
-      <c r="X32" s="5"/>
+      <c r="R32" s="4"/>
+      <c r="S32" s="4"/>
+      <c r="T32" s="4"/>
+      <c r="U32" s="4"/>
+      <c r="V32" s="4"/>
+      <c r="W32" s="4"/>
+      <c r="X32" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="49">
-    <mergeCell ref="V28:X32"/>
-    <mergeCell ref="B28:C32"/>
-    <mergeCell ref="D28:E32"/>
-    <mergeCell ref="F28:I32"/>
-    <mergeCell ref="J28:M32"/>
-    <mergeCell ref="N28:Q32"/>
-    <mergeCell ref="R28:U32"/>
+    <mergeCell ref="V2:X2"/>
+    <mergeCell ref="B3:C7"/>
+    <mergeCell ref="D3:E7"/>
+    <mergeCell ref="F3:I7"/>
+    <mergeCell ref="J3:M7"/>
+    <mergeCell ref="N3:Q7"/>
+    <mergeCell ref="R3:U7"/>
+    <mergeCell ref="V3:X7"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="F2:I2"/>
+    <mergeCell ref="J2:M2"/>
+    <mergeCell ref="N2:Q2"/>
+    <mergeCell ref="R2:U2"/>
+    <mergeCell ref="V8:X12"/>
+    <mergeCell ref="B13:C17"/>
+    <mergeCell ref="D13:E17"/>
+    <mergeCell ref="F13:I17"/>
+    <mergeCell ref="J13:M17"/>
+    <mergeCell ref="N13:Q17"/>
+    <mergeCell ref="R13:U17"/>
+    <mergeCell ref="V13:X17"/>
+    <mergeCell ref="B8:C12"/>
+    <mergeCell ref="D8:E12"/>
+    <mergeCell ref="F8:I12"/>
+    <mergeCell ref="J8:M12"/>
+    <mergeCell ref="N8:Q12"/>
+    <mergeCell ref="R8:U12"/>
     <mergeCell ref="V18:X22"/>
     <mergeCell ref="B23:C27"/>
     <mergeCell ref="D23:E27"/>
@@ -5877,34 +6000,13 @@
     <mergeCell ref="J18:M22"/>
     <mergeCell ref="N18:Q22"/>
     <mergeCell ref="R18:U22"/>
-    <mergeCell ref="V8:X12"/>
-    <mergeCell ref="B13:C17"/>
-    <mergeCell ref="D13:E17"/>
-    <mergeCell ref="F13:I17"/>
-    <mergeCell ref="J13:M17"/>
-    <mergeCell ref="N13:Q17"/>
-    <mergeCell ref="R13:U17"/>
-    <mergeCell ref="V13:X17"/>
-    <mergeCell ref="B8:C12"/>
-    <mergeCell ref="D8:E12"/>
-    <mergeCell ref="F8:I12"/>
-    <mergeCell ref="J8:M12"/>
-    <mergeCell ref="N8:Q12"/>
-    <mergeCell ref="R8:U12"/>
-    <mergeCell ref="V2:X2"/>
-    <mergeCell ref="B3:C7"/>
-    <mergeCell ref="D3:E7"/>
-    <mergeCell ref="F3:I7"/>
-    <mergeCell ref="J3:M7"/>
-    <mergeCell ref="N3:Q7"/>
-    <mergeCell ref="R3:U7"/>
-    <mergeCell ref="V3:X7"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="F2:I2"/>
-    <mergeCell ref="J2:M2"/>
-    <mergeCell ref="N2:Q2"/>
-    <mergeCell ref="R2:U2"/>
+    <mergeCell ref="V28:X32"/>
+    <mergeCell ref="B28:C32"/>
+    <mergeCell ref="D28:E32"/>
+    <mergeCell ref="F28:I32"/>
+    <mergeCell ref="J28:M32"/>
+    <mergeCell ref="N28:Q32"/>
+    <mergeCell ref="R28:U32"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/G18_ゲームフロー.xlsx
+++ b/G18_ゲームフロー.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8880"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8880" firstSheet="1" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="タイトルフロー" sheetId="4" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="95">
   <si>
     <t>表示物</t>
     <rPh sb="0" eb="2">
@@ -373,13 +373,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>無し。</t>
-    <rPh sb="0" eb="1">
-      <t>ナ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>プログラム</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -569,22 +562,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>点滅させてください。＋αプレイヤーがボタンを押したら、高速点滅</t>
-    <rPh sb="0" eb="2">
-      <t>テンメツ</t>
-    </rPh>
-    <rPh sb="22" eb="23">
-      <t>オ</t>
-    </rPh>
-    <rPh sb="27" eb="29">
-      <t>コウソク</t>
-    </rPh>
-    <rPh sb="29" eb="31">
-      <t>テンメツ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>フォントにお任せ。なるべく大きく！縦が200以上。</t>
     <rPh sb="6" eb="7">
       <t>マカ</t>
@@ -675,44 +652,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>無し。プレイヤーがボタンを押したら表示(中央)。</t>
-    <rPh sb="0" eb="1">
-      <t>ナ</t>
-    </rPh>
-    <rPh sb="13" eb="14">
-      <t>オ</t>
-    </rPh>
-    <rPh sb="17" eb="19">
-      <t>ヒョウジ</t>
-    </rPh>
-    <rPh sb="20" eb="22">
-      <t>チュウオウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>無し。メニュー画面の背景の中に表示。上から、げーむ、おぷしょん、あそびかた。</t>
-    <rPh sb="0" eb="1">
-      <t>ナ</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="10" eb="12">
-      <t>ハイケイ</t>
-    </rPh>
-    <rPh sb="13" eb="14">
-      <t>ナカ</t>
-    </rPh>
-    <rPh sb="15" eb="17">
-      <t>ヒョウジ</t>
-    </rPh>
-    <rPh sb="18" eb="19">
-      <t>ウエ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>プレイヤーにメニューを選択させるもの。</t>
     <rPh sb="11" eb="13">
       <t>センタク</t>
@@ -720,13 +659,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>げーむ、おぷしょん、あそびかたの三種類。</t>
-    <rPh sb="16" eb="19">
-      <t>サンシュルイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>カーソル</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -748,16 +680,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>プレイヤーが選択したところを表示。</t>
-    <rPh sb="6" eb="8">
-      <t>センタク</t>
-    </rPh>
-    <rPh sb="14" eb="16">
-      <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>プレイヤーが選択したところを分からせるためのもの。</t>
     <rPh sb="6" eb="8">
       <t>センタク</t>
@@ -768,37 +690,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>プレイヤーの操作により移動。＋α決定ボタンを押したら高速点滅。移動の際に慣性をつける。</t>
-    <rPh sb="6" eb="8">
-      <t>ソウサ</t>
-    </rPh>
-    <rPh sb="11" eb="13">
-      <t>イドウ</t>
-    </rPh>
-    <rPh sb="16" eb="18">
-      <t>ケッテイ</t>
-    </rPh>
-    <rPh sb="22" eb="23">
-      <t>オ</t>
-    </rPh>
-    <rPh sb="26" eb="28">
-      <t>コウソク</t>
-    </rPh>
-    <rPh sb="28" eb="30">
-      <t>テンメツ</t>
-    </rPh>
-    <rPh sb="31" eb="33">
-      <t>イドウ</t>
-    </rPh>
-    <rPh sb="34" eb="35">
-      <t>サイ</t>
-    </rPh>
-    <rPh sb="36" eb="38">
-      <t>カンセイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>特になし。プログラマーさんが作る！</t>
     <rPh sb="0" eb="1">
       <t>トク</t>
@@ -826,19 +717,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>画面中央固定。</t>
-    <rPh sb="0" eb="2">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>チュウオウ</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>コテイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>無限ループです。</t>
     <rPh sb="0" eb="2">
       <t>ムゲン</t>
@@ -850,22 +728,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>画面中央部固定。</t>
-    <rPh sb="0" eb="2">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>チュウオウ</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>ブ</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>コテイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>獲得した宝物の画像。</t>
     <rPh sb="0" eb="2">
       <t>カクトク</t>
@@ -883,22 +745,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>ゲーム中に表示したものと同じものを表示。</t>
-    <rPh sb="3" eb="4">
-      <t>チュウ</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>ヒョウジ</t>
-    </rPh>
-    <rPh sb="12" eb="13">
-      <t>オナ</t>
-    </rPh>
-    <rPh sb="17" eb="19">
-      <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>敗者アニメーション</t>
     <rPh sb="0" eb="2">
       <t>ハイシャ</t>
@@ -910,19 +756,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>擬似３Dでの勝者よりも奥。</t>
-    <rPh sb="0" eb="2">
-      <t>ギジ</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>ショウシャ</t>
-    </rPh>
-    <rPh sb="11" eb="12">
-      <t>オク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>負けたプレイヤーの悔しがっているアニメーション。</t>
     <rPh sb="0" eb="1">
       <t>マ</t>
@@ -993,13 +826,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>WIN,LOSE（文字）</t>
-    <rPh sb="9" eb="11">
-      <t>モジ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>一枚ペラでOK。＋α縁取りとレイヤーを分ける。</t>
     <rPh sb="0" eb="2">
       <t>イチマイ</t>
@@ -1026,38 +852,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>スコア表示</t>
-    <rPh sb="3" eb="5">
-      <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>画面外上部から落下。指定位置で停止</t>
-    <rPh sb="0" eb="2">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>ソト</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>ジョウブ</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>ラッカ</t>
-    </rPh>
-    <rPh sb="10" eb="12">
-      <t>シテイ</t>
-    </rPh>
-    <rPh sb="12" eb="14">
-      <t>イチ</t>
-    </rPh>
-    <rPh sb="15" eb="17">
-      <t>テイシ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>宝物（仮）</t>
     <rPh sb="0" eb="2">
       <t>タカラモノ</t>
@@ -1068,13 +862,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>固定</t>
-    <rPh sb="0" eb="2">
-      <t>コテイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>リザルト画面の背景です。電気信号を流す予定。電気信号はプログラマーが書くので不要。</t>
     <rPh sb="4" eb="6">
       <t>ガメン</t>
@@ -1131,6 +918,575 @@
     </rPh>
     <rPh sb="2" eb="4">
       <t>カイロ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>無し。フェードが終わる前に書いてある予定。フェードの時間は1sec程度。</t>
+    <rPh sb="0" eb="1">
+      <t>ナ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>オ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>マエ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>ヨテイ</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>ジカン</t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t>テイド</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>無し。メニュー画面の背景の中に表示。上から、げーむ、おぷしょん、あそびかた。移動はメニュー画面表示と同様。</t>
+    <rPh sb="0" eb="1">
+      <t>ナ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ハイケイ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>ナカ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>ウエ</t>
+    </rPh>
+    <rPh sb="38" eb="40">
+      <t>イドウ</t>
+    </rPh>
+    <rPh sb="45" eb="47">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="47" eb="49">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="50" eb="52">
+      <t>ドウヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>プレイヤーの操作により移動。ゆっくり点滅する。＋α決定ボタンを押したら高速点滅。移動の際に慣性をつける。点滅をsin*定数にしてなるべくはっきり写っている時間を増やしたものにする。点滅時間は0.8sec。</t>
+    <rPh sb="6" eb="8">
+      <t>ソウサ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>イドウ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>テンメツ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>ケッテイ</t>
+    </rPh>
+    <rPh sb="31" eb="32">
+      <t>オ</t>
+    </rPh>
+    <rPh sb="35" eb="37">
+      <t>コウソク</t>
+    </rPh>
+    <rPh sb="37" eb="39">
+      <t>テンメツ</t>
+    </rPh>
+    <rPh sb="40" eb="42">
+      <t>イドウ</t>
+    </rPh>
+    <rPh sb="43" eb="44">
+      <t>サイ</t>
+    </rPh>
+    <rPh sb="45" eb="47">
+      <t>カンセイ</t>
+    </rPh>
+    <rPh sb="52" eb="54">
+      <t>テンメツ</t>
+    </rPh>
+    <rPh sb="59" eb="61">
+      <t>テイスウ</t>
+    </rPh>
+    <rPh sb="72" eb="73">
+      <t>ウツ</t>
+    </rPh>
+    <rPh sb="77" eb="79">
+      <t>ジカン</t>
+    </rPh>
+    <rPh sb="80" eb="81">
+      <t>フ</t>
+    </rPh>
+    <rPh sb="90" eb="92">
+      <t>テンメツ</t>
+    </rPh>
+    <rPh sb="92" eb="94">
+      <t>ジカン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>点滅させてください。＋αプレイヤーがボタンを押したら、高速点滅。点滅時間は１ループ0.6sec、高速点滅時間は１ループ0.2sec。</t>
+    <rPh sb="0" eb="2">
+      <t>テンメツ</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>オ</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>コウソク</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>テンメツ</t>
+    </rPh>
+    <rPh sb="32" eb="34">
+      <t>テンメツ</t>
+    </rPh>
+    <rPh sb="34" eb="36">
+      <t>ジカン</t>
+    </rPh>
+    <rPh sb="48" eb="50">
+      <t>コウソク</t>
+    </rPh>
+    <rPh sb="50" eb="52">
+      <t>テンメツ</t>
+    </rPh>
+    <rPh sb="52" eb="54">
+      <t>ジカン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>プレイヤーが選択したところを表示。入力により上下移動。ゆっくり点滅させる。プレイヤー入力後、0.8secで次のシーンへ。</t>
+    <rPh sb="6" eb="8">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>ジョウゲ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>イドウ</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>テンメツ</t>
+    </rPh>
+    <rPh sb="42" eb="45">
+      <t>ニュウリョクゴ</t>
+    </rPh>
+    <rPh sb="53" eb="54">
+      <t>ツギ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>無し。プレイヤーがボタンを押したら画面右端から表示。中央に移動する。プレイヤーが入力したら画面左側画面外に移動。移動開始時間はカーソルの処理が終わり次第(0.8sec)。</t>
+    <rPh sb="0" eb="1">
+      <t>ナ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>オ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>ミギハシ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>チュウオウ</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>イドウ</t>
+    </rPh>
+    <rPh sb="40" eb="42">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="45" eb="47">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="47" eb="49">
+      <t>ヒダリガワ</t>
+    </rPh>
+    <rPh sb="49" eb="51">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="51" eb="52">
+      <t>ガイ</t>
+    </rPh>
+    <rPh sb="53" eb="55">
+      <t>イドウ</t>
+    </rPh>
+    <rPh sb="56" eb="58">
+      <t>イドウ</t>
+    </rPh>
+    <rPh sb="58" eb="60">
+      <t>カイシ</t>
+    </rPh>
+    <rPh sb="60" eb="62">
+      <t>ジカン</t>
+    </rPh>
+    <rPh sb="68" eb="70">
+      <t>ショリ</t>
+    </rPh>
+    <rPh sb="71" eb="72">
+      <t>オ</t>
+    </rPh>
+    <rPh sb="74" eb="76">
+      <t>シダイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>BGでのフェードが終わり次第(1sec)、画面外上部から落下。指定位置で停止</t>
+    <rPh sb="9" eb="10">
+      <t>オ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>シダイ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>ソト</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>ジョウブ</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>ラッカ</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>シテイ</t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t>イチ</t>
+    </rPh>
+    <rPh sb="36" eb="38">
+      <t>テイシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>げーむ、おぷしょん、あそびかたの三種類。＋α輪郭と文字を別々に。</t>
+    <rPh sb="16" eb="19">
+      <t>サンシュルイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ゲーム中に表示したものと同じものを表示。？アニメーション。</t>
+    <rPh sb="3" eb="4">
+      <t>チュウ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>オナ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>画面中央固定。シーンの最初から表示。アニメーション時間は、アニメーションの枚数による。</t>
+    <rPh sb="0" eb="2">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>チュウオウ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>コテイ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>サイショ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>画面中央部固定。シーンの最初から表示。</t>
+    <rPh sb="0" eb="2">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>チュウオウ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ブ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>コテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>擬似３Dでの勝者よりも奥。シーンの最初から表示。アニメーション時間は、アニメーションの枚数による。</t>
+    <rPh sb="0" eb="2">
+      <t>ギジ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ショウシャ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>オク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>WIN,LOSE（文字）(仮)</t>
+    <rPh sb="9" eb="11">
+      <t>モジ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>カリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>フォントにお任せ。</t>
+    <rPh sb="6" eb="7">
+      <t>マカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>スコア表示文字</t>
+    <rPh sb="3" eb="5">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>モジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>細かいスコアの表示。表示のスコアが沢山ある場合はプレイヤー入力でスクロールさせる(かも)。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>表示することを簡単にするものが必要。＋αスクロールできるようにしておいてほしい。</t>
+    <rPh sb="0" eb="2">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>カンタン</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ヒツヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ひらがな、カタカナの五十音表。</t>
+    <rPh sb="10" eb="13">
+      <t>ゴジュウオン</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>ヒョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>固定。</t>
+    <rPh sb="0" eb="2">
+      <t>コテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>固定。勝者アニメーションを二回ループさせたら表示。画面下から延びるように上方向移動。プレイヤー入力で縮み、勝者アニメーションなどが見えるようになる。伸び縮み時間は0.2sec。</t>
+    <rPh sb="0" eb="2">
+      <t>コテイ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ショウシャ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ニカイ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="27" eb="28">
+      <t>シタ</t>
+    </rPh>
+    <rPh sb="30" eb="31">
+      <t>ノ</t>
+    </rPh>
+    <rPh sb="36" eb="37">
+      <t>ウエ</t>
+    </rPh>
+    <rPh sb="37" eb="39">
+      <t>ホウコウ</t>
+    </rPh>
+    <rPh sb="39" eb="41">
+      <t>イドウ</t>
+    </rPh>
+    <rPh sb="47" eb="49">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="50" eb="51">
+      <t>チヂミ</t>
+    </rPh>
+    <rPh sb="53" eb="55">
+      <t>ショウシャ</t>
+    </rPh>
+    <rPh sb="65" eb="66">
+      <t>ミ</t>
+    </rPh>
+    <rPh sb="74" eb="75">
+      <t>ノ</t>
+    </rPh>
+    <rPh sb="76" eb="77">
+      <t>チヂ</t>
+    </rPh>
+    <rPh sb="78" eb="80">
+      <t>ジカン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>もういちど、キャラ選択画面へ、ステージ選択画面へ</t>
+    <rPh sb="9" eb="11">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>無し。リザルトメニュー画面の背景の中に表示。上からもういちど、キャラ選択画面へ、ステージ選択画面へ。移動はリザルトメニュー画面表示と同様。</t>
+    <rPh sb="0" eb="1">
+      <t>ナ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ハイケイ</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>ナカ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>ウエ</t>
+    </rPh>
+    <rPh sb="34" eb="36">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="36" eb="38">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="44" eb="46">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="46" eb="48">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="50" eb="52">
+      <t>イドウ</t>
+    </rPh>
+    <rPh sb="61" eb="63">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="63" eb="65">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="66" eb="68">
+      <t>ドウヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>もういちど、キャラ選択画面へ、ステージ選択画面への三種類。＋α輪郭と文字を別々に。</t>
+    <rPh sb="25" eb="28">
+      <t>サンシュルイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>リザルトメニュー画面背景</t>
+    <rPh sb="8" eb="10">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ハイケイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>画面中央表示。スコア表示にて、すべてのプレイヤーが、スコアを見終わったら表示。次のシーンを表示するまで表示。</t>
+    <rPh sb="0" eb="2">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>チュウオウ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>ミオ</t>
+    </rPh>
+    <rPh sb="36" eb="38">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="39" eb="40">
+      <t>ツギ</t>
+    </rPh>
+    <rPh sb="45" eb="47">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="51" eb="53">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>一枚ペラでOK。＋α輪郭と文字を別々に。</t>
+    <rPh sb="0" eb="2">
+      <t>イチマイ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1332,7 +1688,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1343,19 +1699,19 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1366,16 +1722,31 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1396,19 +1767,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -3751,7 +4110,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="P10" sqref="P10"/>
     </sheetView>
   </sheetViews>
@@ -3765,10 +4124,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:X32"/>
+  <dimension ref="B2:X34"/>
   <sheetViews>
     <sheetView zoomScale="69" zoomScaleNormal="69" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8:I12"/>
+      <selection activeCell="R13" sqref="R13:U17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
@@ -3795,896 +4154,909 @@
       <c r="L2" s="5"/>
       <c r="M2" s="5"/>
       <c r="N2" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="O2" s="5"/>
       <c r="P2" s="5"/>
       <c r="Q2" s="5"/>
       <c r="R2" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="S2" s="5"/>
       <c r="T2" s="5"/>
       <c r="U2" s="5"/>
       <c r="V2" s="5" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="W2" s="5"/>
       <c r="X2" s="5"/>
     </row>
     <row r="3" spans="2:24" x14ac:dyDescent="0.2">
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="6"/>
-      <c r="D3" s="7" t="s">
+      <c r="C3" s="7"/>
+      <c r="D3" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="E3" s="6"/>
+      <c r="F3" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="G3" s="4"/>
+      <c r="H3" s="4"/>
+      <c r="I3" s="4"/>
+      <c r="J3" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="K3" s="6"/>
+      <c r="L3" s="6"/>
+      <c r="M3" s="6"/>
+      <c r="N3" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="O3" s="6"/>
+      <c r="P3" s="6"/>
+      <c r="Q3" s="6"/>
+      <c r="R3" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="S3" s="6"/>
+      <c r="T3" s="6"/>
+      <c r="U3" s="6"/>
+      <c r="V3" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="W3" s="3"/>
+      <c r="X3" s="3"/>
+    </row>
+    <row r="4" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="B4" s="3"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="4"/>
+      <c r="F4" s="4"/>
+      <c r="G4" s="4"/>
+      <c r="H4" s="4"/>
+      <c r="I4" s="4"/>
+      <c r="J4" s="4"/>
+      <c r="K4" s="4"/>
+      <c r="L4" s="4"/>
+      <c r="M4" s="4"/>
+      <c r="N4" s="4"/>
+      <c r="O4" s="4"/>
+      <c r="P4" s="4"/>
+      <c r="Q4" s="4"/>
+      <c r="R4" s="4"/>
+      <c r="S4" s="4"/>
+      <c r="T4" s="4"/>
+      <c r="U4" s="4"/>
+      <c r="V4" s="3"/>
+      <c r="W4" s="3"/>
+      <c r="X4" s="3"/>
+    </row>
+    <row r="5" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="B5" s="3"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="4"/>
+      <c r="E5" s="4"/>
+      <c r="F5" s="4"/>
+      <c r="G5" s="4"/>
+      <c r="H5" s="4"/>
+      <c r="I5" s="4"/>
+      <c r="J5" s="4"/>
+      <c r="K5" s="4"/>
+      <c r="L5" s="4"/>
+      <c r="M5" s="4"/>
+      <c r="N5" s="4"/>
+      <c r="O5" s="4"/>
+      <c r="P5" s="4"/>
+      <c r="Q5" s="4"/>
+      <c r="R5" s="4"/>
+      <c r="S5" s="4"/>
+      <c r="T5" s="4"/>
+      <c r="U5" s="4"/>
+      <c r="V5" s="3"/>
+      <c r="W5" s="3"/>
+      <c r="X5" s="3"/>
+    </row>
+    <row r="6" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="B6" s="3"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="4"/>
+      <c r="E6" s="4"/>
+      <c r="F6" s="4"/>
+      <c r="G6" s="4"/>
+      <c r="H6" s="4"/>
+      <c r="I6" s="4"/>
+      <c r="J6" s="4"/>
+      <c r="K6" s="4"/>
+      <c r="L6" s="4"/>
+      <c r="M6" s="4"/>
+      <c r="N6" s="4"/>
+      <c r="O6" s="4"/>
+      <c r="P6" s="4"/>
+      <c r="Q6" s="4"/>
+      <c r="R6" s="4"/>
+      <c r="S6" s="4"/>
+      <c r="T6" s="4"/>
+      <c r="U6" s="4"/>
+      <c r="V6" s="3"/>
+      <c r="W6" s="3"/>
+      <c r="X6" s="3"/>
+    </row>
+    <row r="7" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="B7" s="3"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="4"/>
+      <c r="F7" s="4"/>
+      <c r="G7" s="4"/>
+      <c r="H7" s="4"/>
+      <c r="I7" s="4"/>
+      <c r="J7" s="4"/>
+      <c r="K7" s="4"/>
+      <c r="L7" s="4"/>
+      <c r="M7" s="4"/>
+      <c r="N7" s="4"/>
+      <c r="O7" s="4"/>
+      <c r="P7" s="4"/>
+      <c r="Q7" s="4"/>
+      <c r="R7" s="4"/>
+      <c r="S7" s="4"/>
+      <c r="T7" s="4"/>
+      <c r="U7" s="4"/>
+      <c r="V7" s="3"/>
+      <c r="W7" s="3"/>
+      <c r="X7" s="3"/>
+    </row>
+    <row r="8" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="B8" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8" s="4"/>
+      <c r="D8" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E8" s="3"/>
+      <c r="F8" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="G8" s="4"/>
+      <c r="H8" s="4"/>
+      <c r="I8" s="4"/>
+      <c r="J8" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="K8" s="4"/>
+      <c r="L8" s="4"/>
+      <c r="M8" s="4"/>
+      <c r="N8" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="O8" s="4"/>
+      <c r="P8" s="4"/>
+      <c r="Q8" s="4"/>
+      <c r="R8" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="S8" s="4"/>
+      <c r="T8" s="4"/>
+      <c r="U8" s="4"/>
+      <c r="V8" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="W8" s="3"/>
+      <c r="X8" s="3"/>
+    </row>
+    <row r="9" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="B9" s="4"/>
+      <c r="C9" s="4"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="4"/>
+      <c r="G9" s="4"/>
+      <c r="H9" s="4"/>
+      <c r="I9" s="4"/>
+      <c r="J9" s="4"/>
+      <c r="K9" s="4"/>
+      <c r="L9" s="4"/>
+      <c r="M9" s="4"/>
+      <c r="N9" s="4"/>
+      <c r="O9" s="4"/>
+      <c r="P9" s="4"/>
+      <c r="Q9" s="4"/>
+      <c r="R9" s="4"/>
+      <c r="S9" s="4"/>
+      <c r="T9" s="4"/>
+      <c r="U9" s="4"/>
+      <c r="V9" s="3"/>
+      <c r="W9" s="3"/>
+      <c r="X9" s="3"/>
+    </row>
+    <row r="10" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="B10" s="4"/>
+      <c r="C10" s="4"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="4"/>
+      <c r="G10" s="4"/>
+      <c r="H10" s="4"/>
+      <c r="I10" s="4"/>
+      <c r="J10" s="4"/>
+      <c r="K10" s="4"/>
+      <c r="L10" s="4"/>
+      <c r="M10" s="4"/>
+      <c r="N10" s="4"/>
+      <c r="O10" s="4"/>
+      <c r="P10" s="4"/>
+      <c r="Q10" s="4"/>
+      <c r="R10" s="4"/>
+      <c r="S10" s="4"/>
+      <c r="T10" s="4"/>
+      <c r="U10" s="4"/>
+      <c r="V10" s="3"/>
+      <c r="W10" s="3"/>
+      <c r="X10" s="3"/>
+    </row>
+    <row r="11" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="B11" s="4"/>
+      <c r="C11" s="4"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="4"/>
+      <c r="G11" s="4"/>
+      <c r="H11" s="4"/>
+      <c r="I11" s="4"/>
+      <c r="J11" s="4"/>
+      <c r="K11" s="4"/>
+      <c r="L11" s="4"/>
+      <c r="M11" s="4"/>
+      <c r="N11" s="4"/>
+      <c r="O11" s="4"/>
+      <c r="P11" s="4"/>
+      <c r="Q11" s="4"/>
+      <c r="R11" s="4"/>
+      <c r="S11" s="4"/>
+      <c r="T11" s="4"/>
+      <c r="U11" s="4"/>
+      <c r="V11" s="3"/>
+      <c r="W11" s="3"/>
+      <c r="X11" s="3"/>
+    </row>
+    <row r="12" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="B12" s="4"/>
+      <c r="C12" s="4"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="4"/>
+      <c r="G12" s="4"/>
+      <c r="H12" s="4"/>
+      <c r="I12" s="4"/>
+      <c r="J12" s="4"/>
+      <c r="K12" s="4"/>
+      <c r="L12" s="4"/>
+      <c r="M12" s="4"/>
+      <c r="N12" s="4"/>
+      <c r="O12" s="4"/>
+      <c r="P12" s="4"/>
+      <c r="Q12" s="4"/>
+      <c r="R12" s="4"/>
+      <c r="S12" s="4"/>
+      <c r="T12" s="4"/>
+      <c r="U12" s="4"/>
+      <c r="V12" s="3"/>
+      <c r="W12" s="3"/>
+      <c r="X12" s="3"/>
+    </row>
+    <row r="13" spans="2:24" ht="13.2" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B13" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C13" s="4"/>
+      <c r="D13" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="E13" s="4"/>
+      <c r="F13" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="G13" s="4"/>
+      <c r="H13" s="4"/>
+      <c r="I13" s="4"/>
+      <c r="J13" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="K13" s="4"/>
+      <c r="L13" s="4"/>
+      <c r="M13" s="4"/>
+      <c r="N13" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="O13" s="4"/>
+      <c r="P13" s="4"/>
+      <c r="Q13" s="4"/>
+      <c r="R13" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="S13" s="3"/>
+      <c r="T13" s="3"/>
+      <c r="U13" s="3"/>
+      <c r="V13" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="W13" s="3"/>
+      <c r="X13" s="3"/>
+    </row>
+    <row r="14" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="B14" s="4"/>
+      <c r="C14" s="4"/>
+      <c r="D14" s="4"/>
+      <c r="E14" s="4"/>
+      <c r="F14" s="4"/>
+      <c r="G14" s="4"/>
+      <c r="H14" s="4"/>
+      <c r="I14" s="4"/>
+      <c r="J14" s="4"/>
+      <c r="K14" s="4"/>
+      <c r="L14" s="4"/>
+      <c r="M14" s="4"/>
+      <c r="N14" s="4"/>
+      <c r="O14" s="4"/>
+      <c r="P14" s="4"/>
+      <c r="Q14" s="4"/>
+      <c r="R14" s="3"/>
+      <c r="S14" s="3"/>
+      <c r="T14" s="3"/>
+      <c r="U14" s="3"/>
+      <c r="V14" s="3"/>
+      <c r="W14" s="3"/>
+      <c r="X14" s="3"/>
+    </row>
+    <row r="15" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="B15" s="4"/>
+      <c r="C15" s="4"/>
+      <c r="D15" s="4"/>
+      <c r="E15" s="4"/>
+      <c r="F15" s="4"/>
+      <c r="G15" s="4"/>
+      <c r="H15" s="4"/>
+      <c r="I15" s="4"/>
+      <c r="J15" s="4"/>
+      <c r="K15" s="4"/>
+      <c r="L15" s="4"/>
+      <c r="M15" s="4"/>
+      <c r="N15" s="4"/>
+      <c r="O15" s="4"/>
+      <c r="P15" s="4"/>
+      <c r="Q15" s="4"/>
+      <c r="R15" s="3"/>
+      <c r="S15" s="3"/>
+      <c r="T15" s="3"/>
+      <c r="U15" s="3"/>
+      <c r="V15" s="3"/>
+      <c r="W15" s="3"/>
+      <c r="X15" s="3"/>
+    </row>
+    <row r="16" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="B16" s="4"/>
+      <c r="C16" s="4"/>
+      <c r="D16" s="4"/>
+      <c r="E16" s="4"/>
+      <c r="F16" s="4"/>
+      <c r="G16" s="4"/>
+      <c r="H16" s="4"/>
+      <c r="I16" s="4"/>
+      <c r="J16" s="4"/>
+      <c r="K16" s="4"/>
+      <c r="L16" s="4"/>
+      <c r="M16" s="4"/>
+      <c r="N16" s="4"/>
+      <c r="O16" s="4"/>
+      <c r="P16" s="4"/>
+      <c r="Q16" s="4"/>
+      <c r="R16" s="3"/>
+      <c r="S16" s="3"/>
+      <c r="T16" s="3"/>
+      <c r="U16" s="3"/>
+      <c r="V16" s="3"/>
+      <c r="W16" s="3"/>
+      <c r="X16" s="3"/>
+    </row>
+    <row r="17" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="B17" s="4"/>
+      <c r="C17" s="4"/>
+      <c r="D17" s="4"/>
+      <c r="E17" s="4"/>
+      <c r="F17" s="4"/>
+      <c r="G17" s="4"/>
+      <c r="H17" s="4"/>
+      <c r="I17" s="4"/>
+      <c r="J17" s="4"/>
+      <c r="K17" s="4"/>
+      <c r="L17" s="4"/>
+      <c r="M17" s="4"/>
+      <c r="N17" s="4"/>
+      <c r="O17" s="4"/>
+      <c r="P17" s="4"/>
+      <c r="Q17" s="4"/>
+      <c r="R17" s="3"/>
+      <c r="S17" s="3"/>
+      <c r="T17" s="3"/>
+      <c r="U17" s="3"/>
+      <c r="V17" s="3"/>
+      <c r="W17" s="3"/>
+      <c r="X17" s="3"/>
+    </row>
+    <row r="18" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="B18" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C18" s="4"/>
+      <c r="D18" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="E3" s="7"/>
-      <c r="F3" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="G3" s="3"/>
-      <c r="H3" s="3"/>
-      <c r="I3" s="3"/>
-      <c r="J3" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="K3" s="7"/>
-      <c r="L3" s="7"/>
-      <c r="M3" s="7"/>
-      <c r="N3" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="O3" s="7"/>
-      <c r="P3" s="7"/>
-      <c r="Q3" s="7"/>
-      <c r="R3" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="S3" s="7"/>
-      <c r="T3" s="7"/>
-      <c r="U3" s="7"/>
-      <c r="V3" s="4" t="s">
+      <c r="E18" s="3"/>
+      <c r="F18" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="G18" s="4"/>
+      <c r="H18" s="4"/>
+      <c r="I18" s="4"/>
+      <c r="J18" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="K18" s="4"/>
+      <c r="L18" s="4"/>
+      <c r="M18" s="4"/>
+      <c r="N18" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="O18" s="4"/>
+      <c r="P18" s="4"/>
+      <c r="Q18" s="4"/>
+      <c r="R18" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="S18" s="3"/>
+      <c r="T18" s="3"/>
+      <c r="U18" s="3"/>
+      <c r="V18" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="W18" s="3"/>
+      <c r="X18" s="3"/>
+    </row>
+    <row r="19" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="B19" s="4"/>
+      <c r="C19" s="4"/>
+      <c r="D19" s="3"/>
+      <c r="E19" s="3"/>
+      <c r="F19" s="4"/>
+      <c r="G19" s="4"/>
+      <c r="H19" s="4"/>
+      <c r="I19" s="4"/>
+      <c r="J19" s="4"/>
+      <c r="K19" s="4"/>
+      <c r="L19" s="4"/>
+      <c r="M19" s="4"/>
+      <c r="N19" s="4"/>
+      <c r="O19" s="4"/>
+      <c r="P19" s="4"/>
+      <c r="Q19" s="4"/>
+      <c r="R19" s="3"/>
+      <c r="S19" s="3"/>
+      <c r="T19" s="3"/>
+      <c r="U19" s="3"/>
+      <c r="V19" s="3"/>
+      <c r="W19" s="3"/>
+      <c r="X19" s="3"/>
+    </row>
+    <row r="20" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="B20" s="4"/>
+      <c r="C20" s="4"/>
+      <c r="D20" s="3"/>
+      <c r="E20" s="3"/>
+      <c r="F20" s="4"/>
+      <c r="G20" s="4"/>
+      <c r="H20" s="4"/>
+      <c r="I20" s="4"/>
+      <c r="J20" s="4"/>
+      <c r="K20" s="4"/>
+      <c r="L20" s="4"/>
+      <c r="M20" s="4"/>
+      <c r="N20" s="4"/>
+      <c r="O20" s="4"/>
+      <c r="P20" s="4"/>
+      <c r="Q20" s="4"/>
+      <c r="R20" s="3"/>
+      <c r="S20" s="3"/>
+      <c r="T20" s="3"/>
+      <c r="U20" s="3"/>
+      <c r="V20" s="3"/>
+      <c r="W20" s="3"/>
+      <c r="X20" s="3"/>
+    </row>
+    <row r="21" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="B21" s="4"/>
+      <c r="C21" s="4"/>
+      <c r="D21" s="3"/>
+      <c r="E21" s="3"/>
+      <c r="F21" s="4"/>
+      <c r="G21" s="4"/>
+      <c r="H21" s="4"/>
+      <c r="I21" s="4"/>
+      <c r="J21" s="4"/>
+      <c r="K21" s="4"/>
+      <c r="L21" s="4"/>
+      <c r="M21" s="4"/>
+      <c r="N21" s="4"/>
+      <c r="O21" s="4"/>
+      <c r="P21" s="4"/>
+      <c r="Q21" s="4"/>
+      <c r="R21" s="3"/>
+      <c r="S21" s="3"/>
+      <c r="T21" s="3"/>
+      <c r="U21" s="3"/>
+      <c r="V21" s="3"/>
+      <c r="W21" s="3"/>
+      <c r="X21" s="3"/>
+    </row>
+    <row r="22" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="B22" s="4"/>
+      <c r="C22" s="4"/>
+      <c r="D22" s="3"/>
+      <c r="E22" s="3"/>
+      <c r="F22" s="4"/>
+      <c r="G22" s="4"/>
+      <c r="H22" s="4"/>
+      <c r="I22" s="4"/>
+      <c r="J22" s="4"/>
+      <c r="K22" s="4"/>
+      <c r="L22" s="4"/>
+      <c r="M22" s="4"/>
+      <c r="N22" s="4"/>
+      <c r="O22" s="4"/>
+      <c r="P22" s="4"/>
+      <c r="Q22" s="4"/>
+      <c r="R22" s="3"/>
+      <c r="S22" s="3"/>
+      <c r="T22" s="3"/>
+      <c r="U22" s="3"/>
+      <c r="V22" s="3"/>
+      <c r="W22" s="3"/>
+      <c r="X22" s="3"/>
+    </row>
+    <row r="23" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="B23" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C23" s="4"/>
+      <c r="D23" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="W3" s="4"/>
-      <c r="X3" s="4"/>
-    </row>
-    <row r="4" spans="2:24" x14ac:dyDescent="0.2">
-      <c r="B4" s="4"/>
-      <c r="C4" s="4"/>
-      <c r="D4" s="3"/>
-      <c r="E4" s="3"/>
-      <c r="F4" s="3"/>
-      <c r="G4" s="3"/>
-      <c r="H4" s="3"/>
-      <c r="I4" s="3"/>
-      <c r="J4" s="3"/>
-      <c r="K4" s="3"/>
-      <c r="L4" s="3"/>
-      <c r="M4" s="3"/>
-      <c r="N4" s="3"/>
-      <c r="O4" s="3"/>
-      <c r="P4" s="3"/>
-      <c r="Q4" s="3"/>
-      <c r="R4" s="3"/>
-      <c r="S4" s="3"/>
-      <c r="T4" s="3"/>
-      <c r="U4" s="3"/>
-      <c r="V4" s="4"/>
-      <c r="W4" s="4"/>
-      <c r="X4" s="4"/>
-    </row>
-    <row r="5" spans="2:24" x14ac:dyDescent="0.2">
-      <c r="B5" s="4"/>
-      <c r="C5" s="4"/>
-      <c r="D5" s="3"/>
-      <c r="E5" s="3"/>
-      <c r="F5" s="3"/>
-      <c r="G5" s="3"/>
-      <c r="H5" s="3"/>
-      <c r="I5" s="3"/>
-      <c r="J5" s="3"/>
-      <c r="K5" s="3"/>
-      <c r="L5" s="3"/>
-      <c r="M5" s="3"/>
-      <c r="N5" s="3"/>
-      <c r="O5" s="3"/>
-      <c r="P5" s="3"/>
-      <c r="Q5" s="3"/>
-      <c r="R5" s="3"/>
-      <c r="S5" s="3"/>
-      <c r="T5" s="3"/>
-      <c r="U5" s="3"/>
-      <c r="V5" s="4"/>
-      <c r="W5" s="4"/>
-      <c r="X5" s="4"/>
-    </row>
-    <row r="6" spans="2:24" x14ac:dyDescent="0.2">
-      <c r="B6" s="4"/>
-      <c r="C6" s="4"/>
-      <c r="D6" s="3"/>
-      <c r="E6" s="3"/>
-      <c r="F6" s="3"/>
-      <c r="G6" s="3"/>
-      <c r="H6" s="3"/>
-      <c r="I6" s="3"/>
-      <c r="J6" s="3"/>
-      <c r="K6" s="3"/>
-      <c r="L6" s="3"/>
-      <c r="M6" s="3"/>
-      <c r="N6" s="3"/>
-      <c r="O6" s="3"/>
-      <c r="P6" s="3"/>
-      <c r="Q6" s="3"/>
-      <c r="R6" s="3"/>
-      <c r="S6" s="3"/>
-      <c r="T6" s="3"/>
-      <c r="U6" s="3"/>
-      <c r="V6" s="4"/>
-      <c r="W6" s="4"/>
-      <c r="X6" s="4"/>
-    </row>
-    <row r="7" spans="2:24" x14ac:dyDescent="0.2">
-      <c r="B7" s="4"/>
-      <c r="C7" s="4"/>
-      <c r="D7" s="3"/>
-      <c r="E7" s="3"/>
-      <c r="F7" s="3"/>
-      <c r="G7" s="3"/>
-      <c r="H7" s="3"/>
-      <c r="I7" s="3"/>
-      <c r="J7" s="3"/>
-      <c r="K7" s="3"/>
-      <c r="L7" s="3"/>
-      <c r="M7" s="3"/>
-      <c r="N7" s="3"/>
-      <c r="O7" s="3"/>
-      <c r="P7" s="3"/>
-      <c r="Q7" s="3"/>
-      <c r="R7" s="3"/>
-      <c r="S7" s="3"/>
-      <c r="T7" s="3"/>
-      <c r="U7" s="3"/>
-      <c r="V7" s="4"/>
-      <c r="W7" s="4"/>
-      <c r="X7" s="4"/>
-    </row>
-    <row r="8" spans="2:24" x14ac:dyDescent="0.2">
-      <c r="B8" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="C8" s="3"/>
-      <c r="D8" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="E8" s="4"/>
-      <c r="F8" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="G8" s="3"/>
-      <c r="H8" s="3"/>
-      <c r="I8" s="3"/>
-      <c r="J8" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="K8" s="3"/>
-      <c r="L8" s="3"/>
-      <c r="M8" s="3"/>
-      <c r="N8" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="O8" s="3"/>
-      <c r="P8" s="3"/>
-      <c r="Q8" s="3"/>
-      <c r="R8" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="S8" s="3"/>
-      <c r="T8" s="3"/>
-      <c r="U8" s="3"/>
-      <c r="V8" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="W8" s="4"/>
-      <c r="X8" s="4"/>
-    </row>
-    <row r="9" spans="2:24" x14ac:dyDescent="0.2">
-      <c r="B9" s="3"/>
-      <c r="C9" s="3"/>
-      <c r="D9" s="4"/>
-      <c r="E9" s="4"/>
-      <c r="F9" s="3"/>
-      <c r="G9" s="3"/>
-      <c r="H9" s="3"/>
-      <c r="I9" s="3"/>
-      <c r="J9" s="3"/>
-      <c r="K9" s="3"/>
-      <c r="L9" s="3"/>
-      <c r="M9" s="3"/>
-      <c r="N9" s="3"/>
-      <c r="O9" s="3"/>
-      <c r="P9" s="3"/>
-      <c r="Q9" s="3"/>
-      <c r="R9" s="3"/>
-      <c r="S9" s="3"/>
-      <c r="T9" s="3"/>
-      <c r="U9" s="3"/>
-      <c r="V9" s="4"/>
-      <c r="W9" s="4"/>
-      <c r="X9" s="4"/>
-    </row>
-    <row r="10" spans="2:24" x14ac:dyDescent="0.2">
-      <c r="B10" s="3"/>
-      <c r="C10" s="3"/>
-      <c r="D10" s="4"/>
-      <c r="E10" s="4"/>
-      <c r="F10" s="3"/>
-      <c r="G10" s="3"/>
-      <c r="H10" s="3"/>
-      <c r="I10" s="3"/>
-      <c r="J10" s="3"/>
-      <c r="K10" s="3"/>
-      <c r="L10" s="3"/>
-      <c r="M10" s="3"/>
-      <c r="N10" s="3"/>
-      <c r="O10" s="3"/>
-      <c r="P10" s="3"/>
-      <c r="Q10" s="3"/>
-      <c r="R10" s="3"/>
-      <c r="S10" s="3"/>
-      <c r="T10" s="3"/>
-      <c r="U10" s="3"/>
-      <c r="V10" s="4"/>
-      <c r="W10" s="4"/>
-      <c r="X10" s="4"/>
-    </row>
-    <row r="11" spans="2:24" x14ac:dyDescent="0.2">
-      <c r="B11" s="3"/>
-      <c r="C11" s="3"/>
-      <c r="D11" s="4"/>
-      <c r="E11" s="4"/>
-      <c r="F11" s="3"/>
-      <c r="G11" s="3"/>
-      <c r="H11" s="3"/>
-      <c r="I11" s="3"/>
-      <c r="J11" s="3"/>
-      <c r="K11" s="3"/>
-      <c r="L11" s="3"/>
-      <c r="M11" s="3"/>
-      <c r="N11" s="3"/>
-      <c r="O11" s="3"/>
-      <c r="P11" s="3"/>
-      <c r="Q11" s="3"/>
-      <c r="R11" s="3"/>
-      <c r="S11" s="3"/>
-      <c r="T11" s="3"/>
-      <c r="U11" s="3"/>
-      <c r="V11" s="4"/>
-      <c r="W11" s="4"/>
-      <c r="X11" s="4"/>
-    </row>
-    <row r="12" spans="2:24" x14ac:dyDescent="0.2">
-      <c r="B12" s="3"/>
-      <c r="C12" s="3"/>
-      <c r="D12" s="4"/>
-      <c r="E12" s="4"/>
-      <c r="F12" s="3"/>
-      <c r="G12" s="3"/>
-      <c r="H12" s="3"/>
-      <c r="I12" s="3"/>
-      <c r="J12" s="3"/>
-      <c r="K12" s="3"/>
-      <c r="L12" s="3"/>
-      <c r="M12" s="3"/>
-      <c r="N12" s="3"/>
-      <c r="O12" s="3"/>
-      <c r="P12" s="3"/>
-      <c r="Q12" s="3"/>
-      <c r="R12" s="3"/>
-      <c r="S12" s="3"/>
-      <c r="T12" s="3"/>
-      <c r="U12" s="3"/>
-      <c r="V12" s="4"/>
-      <c r="W12" s="4"/>
-      <c r="X12" s="4"/>
-    </row>
-    <row r="13" spans="2:24" ht="13.2" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B13" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="C13" s="3"/>
-      <c r="D13" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="E13" s="3"/>
-      <c r="F13" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="G13" s="3"/>
-      <c r="H13" s="3"/>
-      <c r="I13" s="3"/>
-      <c r="J13" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="K13" s="3"/>
-      <c r="L13" s="3"/>
-      <c r="M13" s="3"/>
-      <c r="N13" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="O13" s="3"/>
-      <c r="P13" s="3"/>
-      <c r="Q13" s="3"/>
-      <c r="R13" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="S13" s="4"/>
-      <c r="T13" s="4"/>
-      <c r="U13" s="4"/>
-      <c r="V13" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="W13" s="4"/>
-      <c r="X13" s="4"/>
-    </row>
-    <row r="14" spans="2:24" x14ac:dyDescent="0.2">
-      <c r="B14" s="3"/>
-      <c r="C14" s="3"/>
-      <c r="D14" s="3"/>
-      <c r="E14" s="3"/>
-      <c r="F14" s="3"/>
-      <c r="G14" s="3"/>
-      <c r="H14" s="3"/>
-      <c r="I14" s="3"/>
-      <c r="J14" s="3"/>
-      <c r="K14" s="3"/>
-      <c r="L14" s="3"/>
-      <c r="M14" s="3"/>
-      <c r="N14" s="3"/>
-      <c r="O14" s="3"/>
-      <c r="P14" s="3"/>
-      <c r="Q14" s="3"/>
-      <c r="R14" s="4"/>
-      <c r="S14" s="4"/>
-      <c r="T14" s="4"/>
-      <c r="U14" s="4"/>
-      <c r="V14" s="4"/>
-      <c r="W14" s="4"/>
-      <c r="X14" s="4"/>
-    </row>
-    <row r="15" spans="2:24" x14ac:dyDescent="0.2">
-      <c r="B15" s="3"/>
-      <c r="C15" s="3"/>
-      <c r="D15" s="3"/>
-      <c r="E15" s="3"/>
-      <c r="F15" s="3"/>
-      <c r="G15" s="3"/>
-      <c r="H15" s="3"/>
-      <c r="I15" s="3"/>
-      <c r="J15" s="3"/>
-      <c r="K15" s="3"/>
-      <c r="L15" s="3"/>
-      <c r="M15" s="3"/>
-      <c r="N15" s="3"/>
-      <c r="O15" s="3"/>
-      <c r="P15" s="3"/>
-      <c r="Q15" s="3"/>
-      <c r="R15" s="4"/>
-      <c r="S15" s="4"/>
-      <c r="T15" s="4"/>
-      <c r="U15" s="4"/>
-      <c r="V15" s="4"/>
-      <c r="W15" s="4"/>
-      <c r="X15" s="4"/>
-    </row>
-    <row r="16" spans="2:24" x14ac:dyDescent="0.2">
-      <c r="B16" s="3"/>
-      <c r="C16" s="3"/>
-      <c r="D16" s="3"/>
-      <c r="E16" s="3"/>
-      <c r="F16" s="3"/>
-      <c r="G16" s="3"/>
-      <c r="H16" s="3"/>
-      <c r="I16" s="3"/>
-      <c r="J16" s="3"/>
-      <c r="K16" s="3"/>
-      <c r="L16" s="3"/>
-      <c r="M16" s="3"/>
-      <c r="N16" s="3"/>
-      <c r="O16" s="3"/>
-      <c r="P16" s="3"/>
-      <c r="Q16" s="3"/>
-      <c r="R16" s="4"/>
-      <c r="S16" s="4"/>
-      <c r="T16" s="4"/>
-      <c r="U16" s="4"/>
-      <c r="V16" s="4"/>
-      <c r="W16" s="4"/>
-      <c r="X16" s="4"/>
-    </row>
-    <row r="17" spans="2:24" x14ac:dyDescent="0.2">
-      <c r="B17" s="3"/>
-      <c r="C17" s="3"/>
-      <c r="D17" s="3"/>
-      <c r="E17" s="3"/>
-      <c r="F17" s="3"/>
-      <c r="G17" s="3"/>
-      <c r="H17" s="3"/>
-      <c r="I17" s="3"/>
-      <c r="J17" s="3"/>
-      <c r="K17" s="3"/>
-      <c r="L17" s="3"/>
-      <c r="M17" s="3"/>
-      <c r="N17" s="3"/>
-      <c r="O17" s="3"/>
-      <c r="P17" s="3"/>
-      <c r="Q17" s="3"/>
-      <c r="R17" s="4"/>
-      <c r="S17" s="4"/>
-      <c r="T17" s="4"/>
-      <c r="U17" s="4"/>
-      <c r="V17" s="4"/>
-      <c r="W17" s="4"/>
-      <c r="X17" s="4"/>
-    </row>
-    <row r="18" spans="2:24" x14ac:dyDescent="0.2">
-      <c r="B18" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="C18" s="3"/>
-      <c r="D18" s="4" t="s">
+      <c r="E23" s="4"/>
+      <c r="F23" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="G23" s="4"/>
+      <c r="H23" s="4"/>
+      <c r="I23" s="4"/>
+      <c r="J23" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="K23" s="3"/>
+      <c r="L23" s="3"/>
+      <c r="M23" s="3"/>
+      <c r="N23" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="E18" s="4"/>
-      <c r="F18" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="G18" s="3"/>
-      <c r="H18" s="3"/>
-      <c r="I18" s="3"/>
-      <c r="J18" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="K18" s="3"/>
-      <c r="L18" s="3"/>
-      <c r="M18" s="3"/>
-      <c r="N18" s="3" t="s">
+      <c r="O23" s="3"/>
+      <c r="P23" s="3"/>
+      <c r="Q23" s="3"/>
+      <c r="R23" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="S23" s="4"/>
+      <c r="T23" s="4"/>
+      <c r="U23" s="4"/>
+      <c r="V23" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="W23" s="3"/>
+      <c r="X23" s="3"/>
+    </row>
+    <row r="24" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="B24" s="4"/>
+      <c r="C24" s="4"/>
+      <c r="D24" s="4"/>
+      <c r="E24" s="4"/>
+      <c r="F24" s="4"/>
+      <c r="G24" s="4"/>
+      <c r="H24" s="4"/>
+      <c r="I24" s="4"/>
+      <c r="J24" s="3"/>
+      <c r="K24" s="3"/>
+      <c r="L24" s="3"/>
+      <c r="M24" s="3"/>
+      <c r="N24" s="3"/>
+      <c r="O24" s="3"/>
+      <c r="P24" s="3"/>
+      <c r="Q24" s="3"/>
+      <c r="R24" s="4"/>
+      <c r="S24" s="4"/>
+      <c r="T24" s="4"/>
+      <c r="U24" s="4"/>
+      <c r="V24" s="3"/>
+      <c r="W24" s="3"/>
+      <c r="X24" s="3"/>
+    </row>
+    <row r="25" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="B25" s="4"/>
+      <c r="C25" s="4"/>
+      <c r="D25" s="4"/>
+      <c r="E25" s="4"/>
+      <c r="F25" s="4"/>
+      <c r="G25" s="4"/>
+      <c r="H25" s="4"/>
+      <c r="I25" s="4"/>
+      <c r="J25" s="3"/>
+      <c r="K25" s="3"/>
+      <c r="L25" s="3"/>
+      <c r="M25" s="3"/>
+      <c r="N25" s="3"/>
+      <c r="O25" s="3"/>
+      <c r="P25" s="3"/>
+      <c r="Q25" s="3"/>
+      <c r="R25" s="4"/>
+      <c r="S25" s="4"/>
+      <c r="T25" s="4"/>
+      <c r="U25" s="4"/>
+      <c r="V25" s="3"/>
+      <c r="W25" s="3"/>
+      <c r="X25" s="3"/>
+    </row>
+    <row r="26" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="B26" s="4"/>
+      <c r="C26" s="4"/>
+      <c r="D26" s="4"/>
+      <c r="E26" s="4"/>
+      <c r="F26" s="4"/>
+      <c r="G26" s="4"/>
+      <c r="H26" s="4"/>
+      <c r="I26" s="4"/>
+      <c r="J26" s="3"/>
+      <c r="K26" s="3"/>
+      <c r="L26" s="3"/>
+      <c r="M26" s="3"/>
+      <c r="N26" s="3"/>
+      <c r="O26" s="3"/>
+      <c r="P26" s="3"/>
+      <c r="Q26" s="3"/>
+      <c r="R26" s="4"/>
+      <c r="S26" s="4"/>
+      <c r="T26" s="4"/>
+      <c r="U26" s="4"/>
+      <c r="V26" s="3"/>
+      <c r="W26" s="3"/>
+      <c r="X26" s="3"/>
+    </row>
+    <row r="27" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="B27" s="4"/>
+      <c r="C27" s="4"/>
+      <c r="D27" s="4"/>
+      <c r="E27" s="4"/>
+      <c r="F27" s="4"/>
+      <c r="G27" s="4"/>
+      <c r="H27" s="4"/>
+      <c r="I27" s="4"/>
+      <c r="J27" s="3"/>
+      <c r="K27" s="3"/>
+      <c r="L27" s="3"/>
+      <c r="M27" s="3"/>
+      <c r="N27" s="3"/>
+      <c r="O27" s="3"/>
+      <c r="P27" s="3"/>
+      <c r="Q27" s="3"/>
+      <c r="R27" s="4"/>
+      <c r="S27" s="4"/>
+      <c r="T27" s="4"/>
+      <c r="U27" s="4"/>
+      <c r="V27" s="3"/>
+      <c r="W27" s="3"/>
+      <c r="X27" s="3"/>
+    </row>
+    <row r="28" spans="2:24" ht="13.2" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B28" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="C28" s="15"/>
+      <c r="D28" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="E28" s="26"/>
+      <c r="F28" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="G28" s="9"/>
+      <c r="H28" s="9"/>
+      <c r="I28" s="10"/>
+      <c r="J28" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="K28" s="9"/>
+      <c r="L28" s="9"/>
+      <c r="M28" s="9"/>
+      <c r="N28" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="O28" s="9"/>
+      <c r="P28" s="9"/>
+      <c r="Q28" s="10"/>
+      <c r="R28" s="26" t="s">
+        <v>47</v>
+      </c>
+      <c r="S28" s="26"/>
+      <c r="T28" s="26"/>
+      <c r="U28" s="26"/>
+      <c r="V28" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="O18" s="3"/>
-      <c r="P18" s="3"/>
-      <c r="Q18" s="3"/>
-      <c r="R18" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="S18" s="4"/>
-      <c r="T18" s="4"/>
-      <c r="U18" s="4"/>
-      <c r="V18" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="W18" s="4"/>
-      <c r="X18" s="4"/>
-    </row>
-    <row r="19" spans="2:24" x14ac:dyDescent="0.2">
-      <c r="B19" s="3"/>
-      <c r="C19" s="3"/>
-      <c r="D19" s="4"/>
-      <c r="E19" s="4"/>
-      <c r="F19" s="3"/>
-      <c r="G19" s="3"/>
-      <c r="H19" s="3"/>
-      <c r="I19" s="3"/>
-      <c r="J19" s="3"/>
-      <c r="K19" s="3"/>
-      <c r="L19" s="3"/>
-      <c r="M19" s="3"/>
-      <c r="N19" s="3"/>
-      <c r="O19" s="3"/>
-      <c r="P19" s="3"/>
-      <c r="Q19" s="3"/>
-      <c r="R19" s="4"/>
-      <c r="S19" s="4"/>
-      <c r="T19" s="4"/>
-      <c r="U19" s="4"/>
-      <c r="V19" s="4"/>
-      <c r="W19" s="4"/>
-      <c r="X19" s="4"/>
-    </row>
-    <row r="20" spans="2:24" x14ac:dyDescent="0.2">
-      <c r="B20" s="3"/>
-      <c r="C20" s="3"/>
-      <c r="D20" s="4"/>
-      <c r="E20" s="4"/>
-      <c r="F20" s="3"/>
-      <c r="G20" s="3"/>
-      <c r="H20" s="3"/>
-      <c r="I20" s="3"/>
-      <c r="J20" s="3"/>
-      <c r="K20" s="3"/>
-      <c r="L20" s="3"/>
-      <c r="M20" s="3"/>
-      <c r="N20" s="3"/>
-      <c r="O20" s="3"/>
-      <c r="P20" s="3"/>
-      <c r="Q20" s="3"/>
-      <c r="R20" s="4"/>
-      <c r="S20" s="4"/>
-      <c r="T20" s="4"/>
-      <c r="U20" s="4"/>
-      <c r="V20" s="4"/>
-      <c r="W20" s="4"/>
-      <c r="X20" s="4"/>
-    </row>
-    <row r="21" spans="2:24" x14ac:dyDescent="0.2">
-      <c r="B21" s="3"/>
-      <c r="C21" s="3"/>
-      <c r="D21" s="4"/>
-      <c r="E21" s="4"/>
-      <c r="F21" s="3"/>
-      <c r="G21" s="3"/>
-      <c r="H21" s="3"/>
-      <c r="I21" s="3"/>
-      <c r="J21" s="3"/>
-      <c r="K21" s="3"/>
-      <c r="L21" s="3"/>
-      <c r="M21" s="3"/>
-      <c r="N21" s="3"/>
-      <c r="O21" s="3"/>
-      <c r="P21" s="3"/>
-      <c r="Q21" s="3"/>
-      <c r="R21" s="4"/>
-      <c r="S21" s="4"/>
-      <c r="T21" s="4"/>
-      <c r="U21" s="4"/>
-      <c r="V21" s="4"/>
-      <c r="W21" s="4"/>
-      <c r="X21" s="4"/>
-    </row>
-    <row r="22" spans="2:24" x14ac:dyDescent="0.2">
-      <c r="B22" s="3"/>
-      <c r="C22" s="3"/>
-      <c r="D22" s="4"/>
-      <c r="E22" s="4"/>
-      <c r="F22" s="3"/>
-      <c r="G22" s="3"/>
-      <c r="H22" s="3"/>
-      <c r="I22" s="3"/>
-      <c r="J22" s="3"/>
-      <c r="K22" s="3"/>
-      <c r="L22" s="3"/>
-      <c r="M22" s="3"/>
-      <c r="N22" s="3"/>
-      <c r="O22" s="3"/>
-      <c r="P22" s="3"/>
-      <c r="Q22" s="3"/>
-      <c r="R22" s="4"/>
-      <c r="S22" s="4"/>
-      <c r="T22" s="4"/>
-      <c r="U22" s="4"/>
-      <c r="V22" s="4"/>
-      <c r="W22" s="4"/>
-      <c r="X22" s="4"/>
-    </row>
-    <row r="23" spans="2:24" x14ac:dyDescent="0.2">
-      <c r="B23" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="C23" s="3"/>
-      <c r="D23" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="E23" s="3"/>
-      <c r="F23" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="G23" s="3"/>
-      <c r="H23" s="3"/>
-      <c r="I23" s="3"/>
-      <c r="J23" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="K23" s="4"/>
-      <c r="L23" s="4"/>
-      <c r="M23" s="4"/>
-      <c r="N23" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="O23" s="4"/>
-      <c r="P23" s="4"/>
-      <c r="Q23" s="4"/>
-      <c r="R23" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="S23" s="3"/>
-      <c r="T23" s="3"/>
-      <c r="U23" s="3"/>
-      <c r="V23" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="W23" s="4"/>
-      <c r="X23" s="4"/>
-    </row>
-    <row r="24" spans="2:24" x14ac:dyDescent="0.2">
-      <c r="B24" s="3"/>
-      <c r="C24" s="3"/>
-      <c r="D24" s="3"/>
-      <c r="E24" s="3"/>
-      <c r="F24" s="3"/>
-      <c r="G24" s="3"/>
-      <c r="H24" s="3"/>
-      <c r="I24" s="3"/>
-      <c r="J24" s="4"/>
-      <c r="K24" s="4"/>
-      <c r="L24" s="4"/>
-      <c r="M24" s="4"/>
-      <c r="N24" s="4"/>
-      <c r="O24" s="4"/>
-      <c r="P24" s="4"/>
-      <c r="Q24" s="4"/>
-      <c r="R24" s="3"/>
-      <c r="S24" s="3"/>
-      <c r="T24" s="3"/>
-      <c r="U24" s="3"/>
-      <c r="V24" s="4"/>
-      <c r="W24" s="4"/>
-      <c r="X24" s="4"/>
-    </row>
-    <row r="25" spans="2:24" x14ac:dyDescent="0.2">
-      <c r="B25" s="3"/>
-      <c r="C25" s="3"/>
-      <c r="D25" s="3"/>
-      <c r="E25" s="3"/>
-      <c r="F25" s="3"/>
-      <c r="G25" s="3"/>
-      <c r="H25" s="3"/>
-      <c r="I25" s="3"/>
-      <c r="J25" s="4"/>
-      <c r="K25" s="4"/>
-      <c r="L25" s="4"/>
-      <c r="M25" s="4"/>
-      <c r="N25" s="4"/>
-      <c r="O25" s="4"/>
-      <c r="P25" s="4"/>
-      <c r="Q25" s="4"/>
-      <c r="R25" s="3"/>
-      <c r="S25" s="3"/>
-      <c r="T25" s="3"/>
-      <c r="U25" s="3"/>
-      <c r="V25" s="4"/>
-      <c r="W25" s="4"/>
-      <c r="X25" s="4"/>
-    </row>
-    <row r="26" spans="2:24" x14ac:dyDescent="0.2">
-      <c r="B26" s="3"/>
-      <c r="C26" s="3"/>
-      <c r="D26" s="3"/>
-      <c r="E26" s="3"/>
-      <c r="F26" s="3"/>
-      <c r="G26" s="3"/>
-      <c r="H26" s="3"/>
-      <c r="I26" s="3"/>
-      <c r="J26" s="4"/>
-      <c r="K26" s="4"/>
-      <c r="L26" s="4"/>
-      <c r="M26" s="4"/>
-      <c r="N26" s="4"/>
-      <c r="O26" s="4"/>
-      <c r="P26" s="4"/>
-      <c r="Q26" s="4"/>
-      <c r="R26" s="3"/>
-      <c r="S26" s="3"/>
-      <c r="T26" s="3"/>
-      <c r="U26" s="3"/>
-      <c r="V26" s="4"/>
-      <c r="W26" s="4"/>
-      <c r="X26" s="4"/>
-    </row>
-    <row r="27" spans="2:24" x14ac:dyDescent="0.2">
-      <c r="B27" s="3"/>
-      <c r="C27" s="3"/>
-      <c r="D27" s="3"/>
-      <c r="E27" s="3"/>
-      <c r="F27" s="3"/>
-      <c r="G27" s="3"/>
-      <c r="H27" s="3"/>
-      <c r="I27" s="3"/>
-      <c r="J27" s="4"/>
-      <c r="K27" s="4"/>
-      <c r="L27" s="4"/>
-      <c r="M27" s="4"/>
-      <c r="N27" s="4"/>
-      <c r="O27" s="4"/>
-      <c r="P27" s="4"/>
-      <c r="Q27" s="4"/>
-      <c r="R27" s="3"/>
-      <c r="S27" s="3"/>
-      <c r="T27" s="3"/>
-      <c r="U27" s="3"/>
-      <c r="V27" s="4"/>
-      <c r="W27" s="4"/>
-      <c r="X27" s="4"/>
-    </row>
-    <row r="28" spans="2:24" x14ac:dyDescent="0.2">
-      <c r="B28" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="C28" s="4"/>
-      <c r="D28" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="E28" s="4"/>
-      <c r="F28" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="G28" s="4"/>
-      <c r="H28" s="4"/>
-      <c r="I28" s="4"/>
-      <c r="J28" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="K28" s="3"/>
-      <c r="L28" s="3"/>
-      <c r="M28" s="3"/>
-      <c r="N28" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="O28" s="3"/>
-      <c r="P28" s="3"/>
-      <c r="Q28" s="3"/>
-      <c r="R28" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="S28" s="4"/>
-      <c r="T28" s="4"/>
-      <c r="U28" s="4"/>
-      <c r="V28" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="W28" s="4"/>
-      <c r="X28" s="4"/>
+      <c r="W28" s="26"/>
+      <c r="X28" s="15"/>
     </row>
     <row r="29" spans="2:24" x14ac:dyDescent="0.2">
-      <c r="B29" s="4"/>
-      <c r="C29" s="4"/>
-      <c r="D29" s="4"/>
-      <c r="E29" s="4"/>
-      <c r="F29" s="4"/>
-      <c r="G29" s="4"/>
-      <c r="H29" s="4"/>
-      <c r="I29" s="4"/>
-      <c r="J29" s="3"/>
-      <c r="K29" s="3"/>
-      <c r="L29" s="3"/>
-      <c r="M29" s="3"/>
-      <c r="N29" s="3"/>
-      <c r="O29" s="3"/>
-      <c r="P29" s="3"/>
-      <c r="Q29" s="3"/>
-      <c r="R29" s="4"/>
-      <c r="S29" s="4"/>
-      <c r="T29" s="4"/>
-      <c r="U29" s="4"/>
-      <c r="V29" s="4"/>
-      <c r="W29" s="4"/>
-      <c r="X29" s="4"/>
+      <c r="B29" s="14"/>
+      <c r="C29" s="15"/>
+      <c r="D29" s="26"/>
+      <c r="E29" s="26"/>
+      <c r="F29" s="8"/>
+      <c r="G29" s="9"/>
+      <c r="H29" s="9"/>
+      <c r="I29" s="10"/>
+      <c r="J29" s="9"/>
+      <c r="K29" s="9"/>
+      <c r="L29" s="9"/>
+      <c r="M29" s="9"/>
+      <c r="N29" s="8"/>
+      <c r="O29" s="9"/>
+      <c r="P29" s="9"/>
+      <c r="Q29" s="10"/>
+      <c r="R29" s="26"/>
+      <c r="S29" s="26"/>
+      <c r="T29" s="26"/>
+      <c r="U29" s="26"/>
+      <c r="V29" s="14"/>
+      <c r="W29" s="26"/>
+      <c r="X29" s="15"/>
     </row>
     <row r="30" spans="2:24" x14ac:dyDescent="0.2">
-      <c r="B30" s="4"/>
-      <c r="C30" s="4"/>
-      <c r="D30" s="4"/>
-      <c r="E30" s="4"/>
-      <c r="F30" s="4"/>
-      <c r="G30" s="4"/>
-      <c r="H30" s="4"/>
-      <c r="I30" s="4"/>
-      <c r="J30" s="3"/>
-      <c r="K30" s="3"/>
-      <c r="L30" s="3"/>
-      <c r="M30" s="3"/>
-      <c r="N30" s="3"/>
-      <c r="O30" s="3"/>
-      <c r="P30" s="3"/>
-      <c r="Q30" s="3"/>
-      <c r="R30" s="4"/>
-      <c r="S30" s="4"/>
-      <c r="T30" s="4"/>
-      <c r="U30" s="4"/>
-      <c r="V30" s="4"/>
-      <c r="W30" s="4"/>
-      <c r="X30" s="4"/>
+      <c r="B30" s="14"/>
+      <c r="C30" s="15"/>
+      <c r="D30" s="26"/>
+      <c r="E30" s="26"/>
+      <c r="F30" s="8"/>
+      <c r="G30" s="9"/>
+      <c r="H30" s="9"/>
+      <c r="I30" s="10"/>
+      <c r="J30" s="9"/>
+      <c r="K30" s="9"/>
+      <c r="L30" s="9"/>
+      <c r="M30" s="9"/>
+      <c r="N30" s="8"/>
+      <c r="O30" s="9"/>
+      <c r="P30" s="9"/>
+      <c r="Q30" s="10"/>
+      <c r="R30" s="26"/>
+      <c r="S30" s="26"/>
+      <c r="T30" s="26"/>
+      <c r="U30" s="26"/>
+      <c r="V30" s="14"/>
+      <c r="W30" s="26"/>
+      <c r="X30" s="15"/>
     </row>
     <row r="31" spans="2:24" x14ac:dyDescent="0.2">
-      <c r="B31" s="4"/>
-      <c r="C31" s="4"/>
-      <c r="D31" s="4"/>
-      <c r="E31" s="4"/>
-      <c r="F31" s="4"/>
-      <c r="G31" s="4"/>
-      <c r="H31" s="4"/>
-      <c r="I31" s="4"/>
-      <c r="J31" s="3"/>
-      <c r="K31" s="3"/>
-      <c r="L31" s="3"/>
-      <c r="M31" s="3"/>
-      <c r="N31" s="3"/>
-      <c r="O31" s="3"/>
-      <c r="P31" s="3"/>
-      <c r="Q31" s="3"/>
-      <c r="R31" s="4"/>
-      <c r="S31" s="4"/>
-      <c r="T31" s="4"/>
-      <c r="U31" s="4"/>
-      <c r="V31" s="4"/>
-      <c r="W31" s="4"/>
-      <c r="X31" s="4"/>
+      <c r="B31" s="14"/>
+      <c r="C31" s="15"/>
+      <c r="D31" s="26"/>
+      <c r="E31" s="26"/>
+      <c r="F31" s="8"/>
+      <c r="G31" s="9"/>
+      <c r="H31" s="9"/>
+      <c r="I31" s="10"/>
+      <c r="J31" s="9"/>
+      <c r="K31" s="9"/>
+      <c r="L31" s="9"/>
+      <c r="M31" s="9"/>
+      <c r="N31" s="8"/>
+      <c r="O31" s="9"/>
+      <c r="P31" s="9"/>
+      <c r="Q31" s="10"/>
+      <c r="R31" s="26"/>
+      <c r="S31" s="26"/>
+      <c r="T31" s="26"/>
+      <c r="U31" s="26"/>
+      <c r="V31" s="14"/>
+      <c r="W31" s="26"/>
+      <c r="X31" s="15"/>
     </row>
     <row r="32" spans="2:24" x14ac:dyDescent="0.2">
-      <c r="B32" s="4"/>
-      <c r="C32" s="4"/>
-      <c r="D32" s="4"/>
-      <c r="E32" s="4"/>
-      <c r="F32" s="4"/>
-      <c r="G32" s="4"/>
-      <c r="H32" s="4"/>
-      <c r="I32" s="4"/>
-      <c r="J32" s="3"/>
-      <c r="K32" s="3"/>
-      <c r="L32" s="3"/>
-      <c r="M32" s="3"/>
-      <c r="N32" s="3"/>
-      <c r="O32" s="3"/>
-      <c r="P32" s="3"/>
-      <c r="Q32" s="3"/>
-      <c r="R32" s="4"/>
-      <c r="S32" s="4"/>
-      <c r="T32" s="4"/>
-      <c r="U32" s="4"/>
-      <c r="V32" s="4"/>
-      <c r="W32" s="4"/>
-      <c r="X32" s="4"/>
+      <c r="B32" s="14"/>
+      <c r="C32" s="15"/>
+      <c r="D32" s="26"/>
+      <c r="E32" s="26"/>
+      <c r="F32" s="8"/>
+      <c r="G32" s="9"/>
+      <c r="H32" s="9"/>
+      <c r="I32" s="10"/>
+      <c r="J32" s="9"/>
+      <c r="K32" s="9"/>
+      <c r="L32" s="9"/>
+      <c r="M32" s="9"/>
+      <c r="N32" s="8"/>
+      <c r="O32" s="9"/>
+      <c r="P32" s="9"/>
+      <c r="Q32" s="10"/>
+      <c r="R32" s="26"/>
+      <c r="S32" s="26"/>
+      <c r="T32" s="26"/>
+      <c r="U32" s="26"/>
+      <c r="V32" s="14"/>
+      <c r="W32" s="26"/>
+      <c r="X32" s="15"/>
+    </row>
+    <row r="33" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="B33" s="14"/>
+      <c r="C33" s="15"/>
+      <c r="D33" s="26"/>
+      <c r="E33" s="26"/>
+      <c r="F33" s="8"/>
+      <c r="G33" s="9"/>
+      <c r="H33" s="9"/>
+      <c r="I33" s="10"/>
+      <c r="J33" s="9"/>
+      <c r="K33" s="9"/>
+      <c r="L33" s="9"/>
+      <c r="M33" s="9"/>
+      <c r="N33" s="8"/>
+      <c r="O33" s="9"/>
+      <c r="P33" s="9"/>
+      <c r="Q33" s="10"/>
+      <c r="R33" s="26"/>
+      <c r="S33" s="26"/>
+      <c r="T33" s="26"/>
+      <c r="U33" s="26"/>
+      <c r="V33" s="14"/>
+      <c r="W33" s="26"/>
+      <c r="X33" s="15"/>
+    </row>
+    <row r="34" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="B34" s="14"/>
+      <c r="C34" s="15"/>
+      <c r="D34" s="26"/>
+      <c r="E34" s="26"/>
+      <c r="F34" s="8"/>
+      <c r="G34" s="9"/>
+      <c r="H34" s="9"/>
+      <c r="I34" s="10"/>
+      <c r="J34" s="9"/>
+      <c r="K34" s="9"/>
+      <c r="L34" s="9"/>
+      <c r="M34" s="9"/>
+      <c r="N34" s="8"/>
+      <c r="O34" s="9"/>
+      <c r="P34" s="9"/>
+      <c r="Q34" s="10"/>
+      <c r="R34" s="26"/>
+      <c r="S34" s="26"/>
+      <c r="T34" s="26"/>
+      <c r="U34" s="26"/>
+      <c r="V34" s="14"/>
+      <c r="W34" s="26"/>
+      <c r="X34" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="49">
-    <mergeCell ref="R28:U32"/>
-    <mergeCell ref="V28:X32"/>
-    <mergeCell ref="B28:C32"/>
-    <mergeCell ref="D28:E32"/>
-    <mergeCell ref="F28:I32"/>
-    <mergeCell ref="J28:M32"/>
-    <mergeCell ref="N28:Q32"/>
-    <mergeCell ref="R23:U27"/>
-    <mergeCell ref="V2:X2"/>
-    <mergeCell ref="V3:X7"/>
-    <mergeCell ref="V8:X12"/>
-    <mergeCell ref="V13:X17"/>
-    <mergeCell ref="V18:X22"/>
-    <mergeCell ref="V23:X27"/>
-    <mergeCell ref="R13:U17"/>
-    <mergeCell ref="R18:U22"/>
-    <mergeCell ref="B23:C27"/>
-    <mergeCell ref="D23:E27"/>
-    <mergeCell ref="F23:I27"/>
-    <mergeCell ref="J23:M27"/>
-    <mergeCell ref="N23:Q27"/>
-    <mergeCell ref="B13:C17"/>
-    <mergeCell ref="D13:E17"/>
-    <mergeCell ref="F13:I17"/>
-    <mergeCell ref="J13:M17"/>
-    <mergeCell ref="N13:Q17"/>
-    <mergeCell ref="B18:C22"/>
-    <mergeCell ref="D18:E22"/>
-    <mergeCell ref="F18:I22"/>
-    <mergeCell ref="J18:M22"/>
-    <mergeCell ref="N18:Q22"/>
-    <mergeCell ref="N2:Q2"/>
-    <mergeCell ref="R2:U2"/>
-    <mergeCell ref="N3:Q7"/>
-    <mergeCell ref="R3:U7"/>
-    <mergeCell ref="N8:Q12"/>
-    <mergeCell ref="R8:U12"/>
     <mergeCell ref="B8:C12"/>
     <mergeCell ref="D8:E12"/>
     <mergeCell ref="F8:I12"/>
@@ -4697,6 +5069,43 @@
     <mergeCell ref="D3:E7"/>
     <mergeCell ref="F3:I7"/>
     <mergeCell ref="J3:M7"/>
+    <mergeCell ref="N2:Q2"/>
+    <mergeCell ref="R2:U2"/>
+    <mergeCell ref="N3:Q7"/>
+    <mergeCell ref="R3:U7"/>
+    <mergeCell ref="N8:Q12"/>
+    <mergeCell ref="R8:U12"/>
+    <mergeCell ref="B18:C22"/>
+    <mergeCell ref="D18:E22"/>
+    <mergeCell ref="F18:I22"/>
+    <mergeCell ref="J18:M22"/>
+    <mergeCell ref="N18:Q22"/>
+    <mergeCell ref="B13:C17"/>
+    <mergeCell ref="D13:E17"/>
+    <mergeCell ref="F13:I17"/>
+    <mergeCell ref="J13:M17"/>
+    <mergeCell ref="N13:Q17"/>
+    <mergeCell ref="B23:C27"/>
+    <mergeCell ref="D23:E27"/>
+    <mergeCell ref="F23:I27"/>
+    <mergeCell ref="J23:M27"/>
+    <mergeCell ref="N23:Q27"/>
+    <mergeCell ref="R23:U27"/>
+    <mergeCell ref="V2:X2"/>
+    <mergeCell ref="V3:X7"/>
+    <mergeCell ref="V8:X12"/>
+    <mergeCell ref="V13:X17"/>
+    <mergeCell ref="V18:X22"/>
+    <mergeCell ref="V23:X27"/>
+    <mergeCell ref="R13:U17"/>
+    <mergeCell ref="R18:U22"/>
+    <mergeCell ref="N28:Q34"/>
+    <mergeCell ref="B28:C34"/>
+    <mergeCell ref="D28:E34"/>
+    <mergeCell ref="F28:I34"/>
+    <mergeCell ref="J28:M34"/>
+    <mergeCell ref="R28:U34"/>
+    <mergeCell ref="V28:X34"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4735,54 +5144,54 @@
   <sheetData>
     <row r="1" spans="2:14" ht="13.8" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:14" ht="13.8" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="15" t="s">
+      <c r="B2" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="17"/>
-      <c r="D2" s="16" t="s">
-        <v>50</v>
-      </c>
-      <c r="E2" s="16"/>
-      <c r="F2" s="15" t="s">
+      <c r="C2" s="22"/>
+      <c r="D2" s="21" t="s">
+        <v>45</v>
+      </c>
+      <c r="E2" s="21"/>
+      <c r="F2" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="G2" s="16"/>
-      <c r="H2" s="16"/>
-      <c r="I2" s="17"/>
-      <c r="J2" s="15" t="s">
+      <c r="G2" s="21"/>
+      <c r="H2" s="21"/>
+      <c r="I2" s="22"/>
+      <c r="J2" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="K2" s="16"/>
-      <c r="L2" s="16"/>
-      <c r="M2" s="17"/>
+      <c r="K2" s="21"/>
+      <c r="L2" s="21"/>
+      <c r="M2" s="22"/>
     </row>
     <row r="3" spans="2:14" ht="13.2" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="11" t="s">
+      <c r="B3" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="12"/>
-      <c r="D3" s="11" t="s">
-        <v>49</v>
-      </c>
-      <c r="E3" s="12"/>
+      <c r="C3" s="19"/>
+      <c r="D3" s="18" t="s">
+        <v>44</v>
+      </c>
+      <c r="E3" s="19"/>
       <c r="F3" s="8" t="s">
         <v>6</v>
       </c>
       <c r="G3" s="9"/>
       <c r="H3" s="9"/>
       <c r="I3" s="10"/>
-      <c r="J3" s="18" t="s">
+      <c r="J3" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="K3" s="19"/>
-      <c r="L3" s="19"/>
-      <c r="M3" s="20"/>
+      <c r="K3" s="24"/>
+      <c r="L3" s="24"/>
+      <c r="M3" s="25"/>
     </row>
     <row r="4" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B4" s="13"/>
-      <c r="C4" s="14"/>
-      <c r="D4" s="13"/>
-      <c r="E4" s="14"/>
+      <c r="B4" s="14"/>
+      <c r="C4" s="15"/>
+      <c r="D4" s="14"/>
+      <c r="E4" s="15"/>
       <c r="F4" s="8"/>
       <c r="G4" s="9"/>
       <c r="H4" s="9"/>
@@ -4793,10 +5202,10 @@
       <c r="M4" s="10"/>
     </row>
     <row r="5" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B5" s="13"/>
-      <c r="C5" s="14"/>
-      <c r="D5" s="13"/>
-      <c r="E5" s="14"/>
+      <c r="B5" s="14"/>
+      <c r="C5" s="15"/>
+      <c r="D5" s="14"/>
+      <c r="E5" s="15"/>
       <c r="F5" s="8"/>
       <c r="G5" s="9"/>
       <c r="H5" s="9"/>
@@ -4807,10 +5216,10 @@
       <c r="M5" s="10"/>
     </row>
     <row r="6" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B6" s="13"/>
-      <c r="C6" s="14"/>
-      <c r="D6" s="13"/>
-      <c r="E6" s="14"/>
+      <c r="B6" s="14"/>
+      <c r="C6" s="15"/>
+      <c r="D6" s="14"/>
+      <c r="E6" s="15"/>
       <c r="F6" s="8"/>
       <c r="G6" s="9"/>
       <c r="H6" s="9"/>
@@ -4821,10 +5230,10 @@
       <c r="M6" s="10"/>
     </row>
     <row r="7" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B7" s="13"/>
-      <c r="C7" s="14"/>
-      <c r="D7" s="13"/>
-      <c r="E7" s="14"/>
+      <c r="B7" s="14"/>
+      <c r="C7" s="15"/>
+      <c r="D7" s="14"/>
+      <c r="E7" s="15"/>
       <c r="F7" s="8"/>
       <c r="G7" s="9"/>
       <c r="H7" s="9"/>
@@ -4840,10 +5249,10 @@
         <v>7</v>
       </c>
       <c r="C8" s="10"/>
-      <c r="D8" s="13" t="s">
+      <c r="D8" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="E8" s="14"/>
+      <c r="E8" s="15"/>
       <c r="F8" s="8" t="s">
         <v>12</v>
       </c>
@@ -4860,8 +5269,8 @@
     <row r="9" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B9" s="8"/>
       <c r="C9" s="10"/>
-      <c r="D9" s="13"/>
-      <c r="E9" s="14"/>
+      <c r="D9" s="14"/>
+      <c r="E9" s="15"/>
       <c r="F9" s="8"/>
       <c r="G9" s="9"/>
       <c r="H9" s="9"/>
@@ -4874,8 +5283,8 @@
     <row r="10" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B10" s="8"/>
       <c r="C10" s="10"/>
-      <c r="D10" s="13"/>
-      <c r="E10" s="14"/>
+      <c r="D10" s="14"/>
+      <c r="E10" s="15"/>
       <c r="F10" s="8"/>
       <c r="G10" s="9"/>
       <c r="H10" s="9"/>
@@ -4888,8 +5297,8 @@
     <row r="11" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B11" s="8"/>
       <c r="C11" s="10"/>
-      <c r="D11" s="13"/>
-      <c r="E11" s="14"/>
+      <c r="D11" s="14"/>
+      <c r="E11" s="15"/>
       <c r="F11" s="8"/>
       <c r="G11" s="9"/>
       <c r="H11" s="9"/>
@@ -4902,8 +5311,8 @@
     <row r="12" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B12" s="8"/>
       <c r="C12" s="10"/>
-      <c r="D12" s="13"/>
-      <c r="E12" s="14"/>
+      <c r="D12" s="14"/>
+      <c r="E12" s="15"/>
       <c r="F12" s="8"/>
       <c r="G12" s="9"/>
       <c r="H12" s="9"/>
@@ -4918,10 +5327,10 @@
         <v>9</v>
       </c>
       <c r="C13" s="10"/>
-      <c r="D13" s="13" t="s">
+      <c r="D13" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="E13" s="14"/>
+      <c r="E13" s="15"/>
       <c r="F13" s="8" t="s">
         <v>13</v>
       </c>
@@ -4938,8 +5347,8 @@
     <row r="14" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B14" s="8"/>
       <c r="C14" s="10"/>
-      <c r="D14" s="13"/>
-      <c r="E14" s="14"/>
+      <c r="D14" s="14"/>
+      <c r="E14" s="15"/>
       <c r="F14" s="8"/>
       <c r="G14" s="9"/>
       <c r="H14" s="9"/>
@@ -4952,8 +5361,8 @@
     <row r="15" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B15" s="8"/>
       <c r="C15" s="10"/>
-      <c r="D15" s="13"/>
-      <c r="E15" s="14"/>
+      <c r="D15" s="14"/>
+      <c r="E15" s="15"/>
       <c r="F15" s="8"/>
       <c r="G15" s="9"/>
       <c r="H15" s="9"/>
@@ -4966,8 +5375,8 @@
     <row r="16" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B16" s="8"/>
       <c r="C16" s="10"/>
-      <c r="D16" s="13"/>
-      <c r="E16" s="14"/>
+      <c r="D16" s="14"/>
+      <c r="E16" s="15"/>
       <c r="F16" s="8"/>
       <c r="G16" s="9"/>
       <c r="H16" s="9"/>
@@ -4980,8 +5389,8 @@
     <row r="17" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B17" s="8"/>
       <c r="C17" s="10"/>
-      <c r="D17" s="13"/>
-      <c r="E17" s="14"/>
+      <c r="D17" s="14"/>
+      <c r="E17" s="15"/>
       <c r="F17" s="8"/>
       <c r="G17" s="9"/>
       <c r="H17" s="9"/>
@@ -4992,18 +5401,18 @@
       <c r="M17" s="10"/>
     </row>
     <row r="18" spans="2:13" ht="13.8" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="21"/>
-      <c r="C18" s="23"/>
-      <c r="D18" s="24"/>
-      <c r="E18" s="25"/>
-      <c r="F18" s="21"/>
-      <c r="G18" s="22"/>
-      <c r="H18" s="22"/>
-      <c r="I18" s="23"/>
-      <c r="J18" s="21"/>
-      <c r="K18" s="22"/>
-      <c r="L18" s="22"/>
-      <c r="M18" s="23"/>
+      <c r="B18" s="11"/>
+      <c r="C18" s="13"/>
+      <c r="D18" s="16"/>
+      <c r="E18" s="17"/>
+      <c r="F18" s="11"/>
+      <c r="G18" s="12"/>
+      <c r="H18" s="12"/>
+      <c r="I18" s="13"/>
+      <c r="J18" s="11"/>
+      <c r="K18" s="12"/>
+      <c r="L18" s="12"/>
+      <c r="M18" s="13"/>
     </row>
     <row r="19" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B19" s="1"/>
@@ -5035,6 +5444,14 @@
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="F3:I7"/>
+    <mergeCell ref="B3:C7"/>
+    <mergeCell ref="D3:E7"/>
+    <mergeCell ref="J2:M2"/>
+    <mergeCell ref="J3:M7"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="F2:I2"/>
     <mergeCell ref="J13:M18"/>
     <mergeCell ref="B8:C12"/>
     <mergeCell ref="D8:E12"/>
@@ -5043,14 +5460,6 @@
     <mergeCell ref="B13:C18"/>
     <mergeCell ref="D13:E18"/>
     <mergeCell ref="F13:I18"/>
-    <mergeCell ref="F3:I7"/>
-    <mergeCell ref="B3:C7"/>
-    <mergeCell ref="D3:E7"/>
-    <mergeCell ref="J2:M2"/>
-    <mergeCell ref="J3:M7"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="F2:I2"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5075,10 +5484,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:X32"/>
+  <dimension ref="B2:X42"/>
   <sheetViews>
-    <sheetView zoomScale="92" zoomScaleNormal="92" workbookViewId="0">
-      <selection activeCell="Y25" sqref="Y25"/>
+    <sheetView tabSelected="1" topLeftCell="A8" zoomScale="76" zoomScaleNormal="76" workbookViewId="0">
+      <selection activeCell="V23" sqref="V23:X27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
@@ -5089,7 +5498,7 @@
       </c>
       <c r="C2" s="5"/>
       <c r="D2" s="5" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="E2" s="5"/>
       <c r="F2" s="5" t="s">
@@ -5105,627 +5514,627 @@
       <c r="L2" s="5"/>
       <c r="M2" s="5"/>
       <c r="N2" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="O2" s="5"/>
       <c r="P2" s="5"/>
       <c r="Q2" s="5"/>
       <c r="R2" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="S2" s="5"/>
       <c r="T2" s="5"/>
       <c r="U2" s="5"/>
       <c r="V2" s="5" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="W2" s="5"/>
       <c r="X2" s="5"/>
     </row>
     <row r="3" spans="2:24" x14ac:dyDescent="0.2">
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="C3" s="7"/>
+      <c r="D3" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="E3" s="6"/>
+      <c r="F3" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="G3" s="4"/>
+      <c r="H3" s="4"/>
+      <c r="I3" s="4"/>
+      <c r="J3" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="K3" s="6"/>
+      <c r="L3" s="6"/>
+      <c r="M3" s="6"/>
+      <c r="N3" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="O3" s="6"/>
+      <c r="P3" s="6"/>
+      <c r="Q3" s="6"/>
+      <c r="R3" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="S3" s="6"/>
+      <c r="T3" s="6"/>
+      <c r="U3" s="6"/>
+      <c r="V3" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="W3" s="3"/>
+      <c r="X3" s="3"/>
+    </row>
+    <row r="4" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="B4" s="3"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="4"/>
+      <c r="F4" s="4"/>
+      <c r="G4" s="4"/>
+      <c r="H4" s="4"/>
+      <c r="I4" s="4"/>
+      <c r="J4" s="4"/>
+      <c r="K4" s="4"/>
+      <c r="L4" s="4"/>
+      <c r="M4" s="4"/>
+      <c r="N4" s="4"/>
+      <c r="O4" s="4"/>
+      <c r="P4" s="4"/>
+      <c r="Q4" s="4"/>
+      <c r="R4" s="4"/>
+      <c r="S4" s="4"/>
+      <c r="T4" s="4"/>
+      <c r="U4" s="4"/>
+      <c r="V4" s="3"/>
+      <c r="W4" s="3"/>
+      <c r="X4" s="3"/>
+    </row>
+    <row r="5" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="B5" s="3"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="4"/>
+      <c r="E5" s="4"/>
+      <c r="F5" s="4"/>
+      <c r="G5" s="4"/>
+      <c r="H5" s="4"/>
+      <c r="I5" s="4"/>
+      <c r="J5" s="4"/>
+      <c r="K5" s="4"/>
+      <c r="L5" s="4"/>
+      <c r="M5" s="4"/>
+      <c r="N5" s="4"/>
+      <c r="O5" s="4"/>
+      <c r="P5" s="4"/>
+      <c r="Q5" s="4"/>
+      <c r="R5" s="4"/>
+      <c r="S5" s="4"/>
+      <c r="T5" s="4"/>
+      <c r="U5" s="4"/>
+      <c r="V5" s="3"/>
+      <c r="W5" s="3"/>
+      <c r="X5" s="3"/>
+    </row>
+    <row r="6" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="B6" s="3"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="4"/>
+      <c r="E6" s="4"/>
+      <c r="F6" s="4"/>
+      <c r="G6" s="4"/>
+      <c r="H6" s="4"/>
+      <c r="I6" s="4"/>
+      <c r="J6" s="4"/>
+      <c r="K6" s="4"/>
+      <c r="L6" s="4"/>
+      <c r="M6" s="4"/>
+      <c r="N6" s="4"/>
+      <c r="O6" s="4"/>
+      <c r="P6" s="4"/>
+      <c r="Q6" s="4"/>
+      <c r="R6" s="4"/>
+      <c r="S6" s="4"/>
+      <c r="T6" s="4"/>
+      <c r="U6" s="4"/>
+      <c r="V6" s="3"/>
+      <c r="W6" s="3"/>
+      <c r="X6" s="3"/>
+    </row>
+    <row r="7" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="B7" s="3"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="4"/>
+      <c r="F7" s="4"/>
+      <c r="G7" s="4"/>
+      <c r="H7" s="4"/>
+      <c r="I7" s="4"/>
+      <c r="J7" s="4"/>
+      <c r="K7" s="4"/>
+      <c r="L7" s="4"/>
+      <c r="M7" s="4"/>
+      <c r="N7" s="4"/>
+      <c r="O7" s="4"/>
+      <c r="P7" s="4"/>
+      <c r="Q7" s="4"/>
+      <c r="R7" s="4"/>
+      <c r="S7" s="4"/>
+      <c r="T7" s="4"/>
+      <c r="U7" s="4"/>
+      <c r="V7" s="3"/>
+      <c r="W7" s="3"/>
+      <c r="X7" s="3"/>
+    </row>
+    <row r="8" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="B8" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="C8" s="4"/>
+      <c r="D8" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="E8" s="3"/>
+      <c r="F8" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="G8" s="4"/>
+      <c r="H8" s="4"/>
+      <c r="I8" s="4"/>
+      <c r="J8" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="K8" s="4"/>
+      <c r="L8" s="4"/>
+      <c r="M8" s="4"/>
+      <c r="N8" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="O8" s="4"/>
+      <c r="P8" s="4"/>
+      <c r="Q8" s="4"/>
+      <c r="R8" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="S8" s="4"/>
+      <c r="T8" s="4"/>
+      <c r="U8" s="4"/>
+      <c r="V8" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="W8" s="3"/>
+      <c r="X8" s="3"/>
+    </row>
+    <row r="9" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="B9" s="4"/>
+      <c r="C9" s="4"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="4"/>
+      <c r="G9" s="4"/>
+      <c r="H9" s="4"/>
+      <c r="I9" s="4"/>
+      <c r="J9" s="4"/>
+      <c r="K9" s="4"/>
+      <c r="L9" s="4"/>
+      <c r="M9" s="4"/>
+      <c r="N9" s="4"/>
+      <c r="O9" s="4"/>
+      <c r="P9" s="4"/>
+      <c r="Q9" s="4"/>
+      <c r="R9" s="4"/>
+      <c r="S9" s="4"/>
+      <c r="T9" s="4"/>
+      <c r="U9" s="4"/>
+      <c r="V9" s="3"/>
+      <c r="W9" s="3"/>
+      <c r="X9" s="3"/>
+    </row>
+    <row r="10" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="B10" s="4"/>
+      <c r="C10" s="4"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="4"/>
+      <c r="G10" s="4"/>
+      <c r="H10" s="4"/>
+      <c r="I10" s="4"/>
+      <c r="J10" s="4"/>
+      <c r="K10" s="4"/>
+      <c r="L10" s="4"/>
+      <c r="M10" s="4"/>
+      <c r="N10" s="4"/>
+      <c r="O10" s="4"/>
+      <c r="P10" s="4"/>
+      <c r="Q10" s="4"/>
+      <c r="R10" s="4"/>
+      <c r="S10" s="4"/>
+      <c r="T10" s="4"/>
+      <c r="U10" s="4"/>
+      <c r="V10" s="3"/>
+      <c r="W10" s="3"/>
+      <c r="X10" s="3"/>
+    </row>
+    <row r="11" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="B11" s="4"/>
+      <c r="C11" s="4"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="4"/>
+      <c r="G11" s="4"/>
+      <c r="H11" s="4"/>
+      <c r="I11" s="4"/>
+      <c r="J11" s="4"/>
+      <c r="K11" s="4"/>
+      <c r="L11" s="4"/>
+      <c r="M11" s="4"/>
+      <c r="N11" s="4"/>
+      <c r="O11" s="4"/>
+      <c r="P11" s="4"/>
+      <c r="Q11" s="4"/>
+      <c r="R11" s="4"/>
+      <c r="S11" s="4"/>
+      <c r="T11" s="4"/>
+      <c r="U11" s="4"/>
+      <c r="V11" s="3"/>
+      <c r="W11" s="3"/>
+      <c r="X11" s="3"/>
+    </row>
+    <row r="12" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="B12" s="4"/>
+      <c r="C12" s="4"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="4"/>
+      <c r="G12" s="4"/>
+      <c r="H12" s="4"/>
+      <c r="I12" s="4"/>
+      <c r="J12" s="4"/>
+      <c r="K12" s="4"/>
+      <c r="L12" s="4"/>
+      <c r="M12" s="4"/>
+      <c r="N12" s="4"/>
+      <c r="O12" s="4"/>
+      <c r="P12" s="4"/>
+      <c r="Q12" s="4"/>
+      <c r="R12" s="4"/>
+      <c r="S12" s="4"/>
+      <c r="T12" s="4"/>
+      <c r="U12" s="4"/>
+      <c r="V12" s="3"/>
+      <c r="W12" s="3"/>
+      <c r="X12" s="3"/>
+    </row>
+    <row r="13" spans="2:24" ht="13.2" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B13" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="C13" s="4"/>
+      <c r="D13" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="C3" s="6"/>
-      <c r="D3" s="7" t="s">
+      <c r="E13" s="4"/>
+      <c r="F13" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="G13" s="4"/>
+      <c r="H13" s="4"/>
+      <c r="I13" s="4"/>
+      <c r="J13" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="E3" s="7"/>
-      <c r="F3" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="G3" s="3"/>
-      <c r="H3" s="3"/>
-      <c r="I3" s="3"/>
-      <c r="J3" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="K3" s="7"/>
-      <c r="L3" s="7"/>
-      <c r="M3" s="7"/>
-      <c r="N3" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="O3" s="7"/>
-      <c r="P3" s="7"/>
-      <c r="Q3" s="7"/>
-      <c r="R3" s="7" t="s">
+      <c r="K13" s="4"/>
+      <c r="L13" s="4"/>
+      <c r="M13" s="4"/>
+      <c r="N13" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="S3" s="7"/>
-      <c r="T3" s="7"/>
-      <c r="U3" s="7"/>
-      <c r="V3" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="W3" s="4"/>
-      <c r="X3" s="4"/>
-    </row>
-    <row r="4" spans="2:24" x14ac:dyDescent="0.2">
-      <c r="B4" s="4"/>
-      <c r="C4" s="4"/>
-      <c r="D4" s="3"/>
-      <c r="E4" s="3"/>
-      <c r="F4" s="3"/>
-      <c r="G4" s="3"/>
-      <c r="H4" s="3"/>
-      <c r="I4" s="3"/>
-      <c r="J4" s="3"/>
-      <c r="K4" s="3"/>
-      <c r="L4" s="3"/>
-      <c r="M4" s="3"/>
-      <c r="N4" s="3"/>
-      <c r="O4" s="3"/>
-      <c r="P4" s="3"/>
-      <c r="Q4" s="3"/>
-      <c r="R4" s="3"/>
-      <c r="S4" s="3"/>
-      <c r="T4" s="3"/>
-      <c r="U4" s="3"/>
-      <c r="V4" s="4"/>
-      <c r="W4" s="4"/>
-      <c r="X4" s="4"/>
-    </row>
-    <row r="5" spans="2:24" x14ac:dyDescent="0.2">
-      <c r="B5" s="4"/>
-      <c r="C5" s="4"/>
-      <c r="D5" s="3"/>
-      <c r="E5" s="3"/>
-      <c r="F5" s="3"/>
-      <c r="G5" s="3"/>
-      <c r="H5" s="3"/>
-      <c r="I5" s="3"/>
-      <c r="J5" s="3"/>
-      <c r="K5" s="3"/>
-      <c r="L5" s="3"/>
-      <c r="M5" s="3"/>
-      <c r="N5" s="3"/>
-      <c r="O5" s="3"/>
-      <c r="P5" s="3"/>
-      <c r="Q5" s="3"/>
-      <c r="R5" s="3"/>
-      <c r="S5" s="3"/>
-      <c r="T5" s="3"/>
-      <c r="U5" s="3"/>
-      <c r="V5" s="4"/>
-      <c r="W5" s="4"/>
-      <c r="X5" s="4"/>
-    </row>
-    <row r="6" spans="2:24" x14ac:dyDescent="0.2">
-      <c r="B6" s="4"/>
-      <c r="C6" s="4"/>
-      <c r="D6" s="3"/>
-      <c r="E6" s="3"/>
-      <c r="F6" s="3"/>
-      <c r="G6" s="3"/>
-      <c r="H6" s="3"/>
-      <c r="I6" s="3"/>
-      <c r="J6" s="3"/>
-      <c r="K6" s="3"/>
-      <c r="L6" s="3"/>
-      <c r="M6" s="3"/>
-      <c r="N6" s="3"/>
-      <c r="O6" s="3"/>
-      <c r="P6" s="3"/>
-      <c r="Q6" s="3"/>
-      <c r="R6" s="3"/>
-      <c r="S6" s="3"/>
-      <c r="T6" s="3"/>
-      <c r="U6" s="3"/>
-      <c r="V6" s="4"/>
-      <c r="W6" s="4"/>
-      <c r="X6" s="4"/>
-    </row>
-    <row r="7" spans="2:24" x14ac:dyDescent="0.2">
-      <c r="B7" s="4"/>
-      <c r="C7" s="4"/>
-      <c r="D7" s="3"/>
-      <c r="E7" s="3"/>
-      <c r="F7" s="3"/>
-      <c r="G7" s="3"/>
-      <c r="H7" s="3"/>
-      <c r="I7" s="3"/>
-      <c r="J7" s="3"/>
-      <c r="K7" s="3"/>
-      <c r="L7" s="3"/>
-      <c r="M7" s="3"/>
-      <c r="N7" s="3"/>
-      <c r="O7" s="3"/>
-      <c r="P7" s="3"/>
-      <c r="Q7" s="3"/>
-      <c r="R7" s="3"/>
-      <c r="S7" s="3"/>
-      <c r="T7" s="3"/>
-      <c r="U7" s="3"/>
-      <c r="V7" s="4"/>
-      <c r="W7" s="4"/>
-      <c r="X7" s="4"/>
-    </row>
-    <row r="8" spans="2:24" x14ac:dyDescent="0.2">
-      <c r="B8" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="C8" s="3"/>
-      <c r="D8" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="E8" s="4"/>
-      <c r="F8" s="3" t="s">
+      <c r="O13" s="4"/>
+      <c r="P13" s="4"/>
+      <c r="Q13" s="4"/>
+      <c r="R13" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="S13" s="3"/>
+      <c r="T13" s="3"/>
+      <c r="U13" s="3"/>
+      <c r="V13" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="W13" s="3"/>
+      <c r="X13" s="3"/>
+    </row>
+    <row r="14" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="B14" s="4"/>
+      <c r="C14" s="4"/>
+      <c r="D14" s="4"/>
+      <c r="E14" s="4"/>
+      <c r="F14" s="4"/>
+      <c r="G14" s="4"/>
+      <c r="H14" s="4"/>
+      <c r="I14" s="4"/>
+      <c r="J14" s="4"/>
+      <c r="K14" s="4"/>
+      <c r="L14" s="4"/>
+      <c r="M14" s="4"/>
+      <c r="N14" s="4"/>
+      <c r="O14" s="4"/>
+      <c r="P14" s="4"/>
+      <c r="Q14" s="4"/>
+      <c r="R14" s="3"/>
+      <c r="S14" s="3"/>
+      <c r="T14" s="3"/>
+      <c r="U14" s="3"/>
+      <c r="V14" s="3"/>
+      <c r="W14" s="3"/>
+      <c r="X14" s="3"/>
+    </row>
+    <row r="15" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="B15" s="4"/>
+      <c r="C15" s="4"/>
+      <c r="D15" s="4"/>
+      <c r="E15" s="4"/>
+      <c r="F15" s="4"/>
+      <c r="G15" s="4"/>
+      <c r="H15" s="4"/>
+      <c r="I15" s="4"/>
+      <c r="J15" s="4"/>
+      <c r="K15" s="4"/>
+      <c r="L15" s="4"/>
+      <c r="M15" s="4"/>
+      <c r="N15" s="4"/>
+      <c r="O15" s="4"/>
+      <c r="P15" s="4"/>
+      <c r="Q15" s="4"/>
+      <c r="R15" s="3"/>
+      <c r="S15" s="3"/>
+      <c r="T15" s="3"/>
+      <c r="U15" s="3"/>
+      <c r="V15" s="3"/>
+      <c r="W15" s="3"/>
+      <c r="X15" s="3"/>
+    </row>
+    <row r="16" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="B16" s="4"/>
+      <c r="C16" s="4"/>
+      <c r="D16" s="4"/>
+      <c r="E16" s="4"/>
+      <c r="F16" s="4"/>
+      <c r="G16" s="4"/>
+      <c r="H16" s="4"/>
+      <c r="I16" s="4"/>
+      <c r="J16" s="4"/>
+      <c r="K16" s="4"/>
+      <c r="L16" s="4"/>
+      <c r="M16" s="4"/>
+      <c r="N16" s="4"/>
+      <c r="O16" s="4"/>
+      <c r="P16" s="4"/>
+      <c r="Q16" s="4"/>
+      <c r="R16" s="3"/>
+      <c r="S16" s="3"/>
+      <c r="T16" s="3"/>
+      <c r="U16" s="3"/>
+      <c r="V16" s="3"/>
+      <c r="W16" s="3"/>
+      <c r="X16" s="3"/>
+    </row>
+    <row r="17" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="B17" s="4"/>
+      <c r="C17" s="4"/>
+      <c r="D17" s="4"/>
+      <c r="E17" s="4"/>
+      <c r="F17" s="4"/>
+      <c r="G17" s="4"/>
+      <c r="H17" s="4"/>
+      <c r="I17" s="4"/>
+      <c r="J17" s="4"/>
+      <c r="K17" s="4"/>
+      <c r="L17" s="4"/>
+      <c r="M17" s="4"/>
+      <c r="N17" s="4"/>
+      <c r="O17" s="4"/>
+      <c r="P17" s="4"/>
+      <c r="Q17" s="4"/>
+      <c r="R17" s="3"/>
+      <c r="S17" s="3"/>
+      <c r="T17" s="3"/>
+      <c r="U17" s="3"/>
+      <c r="V17" s="3"/>
+      <c r="W17" s="3"/>
+      <c r="X17" s="3"/>
+    </row>
+    <row r="18" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="B18" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="C18" s="4"/>
+      <c r="D18" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="G8" s="3"/>
-      <c r="H8" s="3"/>
-      <c r="I8" s="3"/>
-      <c r="J8" s="3" t="s">
+      <c r="E18" s="3"/>
+      <c r="F18" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="K8" s="3"/>
-      <c r="L8" s="3"/>
-      <c r="M8" s="3"/>
-      <c r="N8" s="3" t="s">
+      <c r="G18" s="4"/>
+      <c r="H18" s="4"/>
+      <c r="I18" s="4"/>
+      <c r="J18" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="O8" s="3"/>
-      <c r="P8" s="3"/>
-      <c r="Q8" s="3"/>
-      <c r="R8" s="3" t="s">
+      <c r="K18" s="4"/>
+      <c r="L18" s="4"/>
+      <c r="M18" s="4"/>
+      <c r="N18" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="O18" s="4"/>
+      <c r="P18" s="4"/>
+      <c r="Q18" s="4"/>
+      <c r="R18" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="S8" s="3"/>
-      <c r="T8" s="3"/>
-      <c r="U8" s="3"/>
-      <c r="V8" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="W8" s="4"/>
-      <c r="X8" s="4"/>
-    </row>
-    <row r="9" spans="2:24" x14ac:dyDescent="0.2">
-      <c r="B9" s="3"/>
-      <c r="C9" s="3"/>
-      <c r="D9" s="4"/>
-      <c r="E9" s="4"/>
-      <c r="F9" s="3"/>
-      <c r="G9" s="3"/>
-      <c r="H9" s="3"/>
-      <c r="I9" s="3"/>
-      <c r="J9" s="3"/>
-      <c r="K9" s="3"/>
-      <c r="L9" s="3"/>
-      <c r="M9" s="3"/>
-      <c r="N9" s="3"/>
-      <c r="O9" s="3"/>
-      <c r="P9" s="3"/>
-      <c r="Q9" s="3"/>
-      <c r="R9" s="3"/>
-      <c r="S9" s="3"/>
-      <c r="T9" s="3"/>
-      <c r="U9" s="3"/>
-      <c r="V9" s="4"/>
-      <c r="W9" s="4"/>
-      <c r="X9" s="4"/>
-    </row>
-    <row r="10" spans="2:24" x14ac:dyDescent="0.2">
-      <c r="B10" s="3"/>
-      <c r="C10" s="3"/>
-      <c r="D10" s="4"/>
-      <c r="E10" s="4"/>
-      <c r="F10" s="3"/>
-      <c r="G10" s="3"/>
-      <c r="H10" s="3"/>
-      <c r="I10" s="3"/>
-      <c r="J10" s="3"/>
-      <c r="K10" s="3"/>
-      <c r="L10" s="3"/>
-      <c r="M10" s="3"/>
-      <c r="N10" s="3"/>
-      <c r="O10" s="3"/>
-      <c r="P10" s="3"/>
-      <c r="Q10" s="3"/>
-      <c r="R10" s="3"/>
-      <c r="S10" s="3"/>
-      <c r="T10" s="3"/>
-      <c r="U10" s="3"/>
-      <c r="V10" s="4"/>
-      <c r="W10" s="4"/>
-      <c r="X10" s="4"/>
-    </row>
-    <row r="11" spans="2:24" x14ac:dyDescent="0.2">
-      <c r="B11" s="3"/>
-      <c r="C11" s="3"/>
-      <c r="D11" s="4"/>
-      <c r="E11" s="4"/>
-      <c r="F11" s="3"/>
-      <c r="G11" s="3"/>
-      <c r="H11" s="3"/>
-      <c r="I11" s="3"/>
-      <c r="J11" s="3"/>
-      <c r="K11" s="3"/>
-      <c r="L11" s="3"/>
-      <c r="M11" s="3"/>
-      <c r="N11" s="3"/>
-      <c r="O11" s="3"/>
-      <c r="P11" s="3"/>
-      <c r="Q11" s="3"/>
-      <c r="R11" s="3"/>
-      <c r="S11" s="3"/>
-      <c r="T11" s="3"/>
-      <c r="U11" s="3"/>
-      <c r="V11" s="4"/>
-      <c r="W11" s="4"/>
-      <c r="X11" s="4"/>
-    </row>
-    <row r="12" spans="2:24" x14ac:dyDescent="0.2">
-      <c r="B12" s="3"/>
-      <c r="C12" s="3"/>
-      <c r="D12" s="4"/>
-      <c r="E12" s="4"/>
-      <c r="F12" s="3"/>
-      <c r="G12" s="3"/>
-      <c r="H12" s="3"/>
-      <c r="I12" s="3"/>
-      <c r="J12" s="3"/>
-      <c r="K12" s="3"/>
-      <c r="L12" s="3"/>
-      <c r="M12" s="3"/>
-      <c r="N12" s="3"/>
-      <c r="O12" s="3"/>
-      <c r="P12" s="3"/>
-      <c r="Q12" s="3"/>
-      <c r="R12" s="3"/>
-      <c r="S12" s="3"/>
-      <c r="T12" s="3"/>
-      <c r="U12" s="3"/>
-      <c r="V12" s="4"/>
-      <c r="W12" s="4"/>
-      <c r="X12" s="4"/>
-    </row>
-    <row r="13" spans="2:24" ht="13.2" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B13" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="C13" s="3"/>
-      <c r="D13" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="E13" s="3"/>
-      <c r="F13" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="G13" s="3"/>
-      <c r="H13" s="3"/>
-      <c r="I13" s="3"/>
-      <c r="J13" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="K13" s="3"/>
-      <c r="L13" s="3"/>
-      <c r="M13" s="3"/>
-      <c r="N13" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="O13" s="3"/>
-      <c r="P13" s="3"/>
-      <c r="Q13" s="3"/>
-      <c r="R13" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="S13" s="4"/>
-      <c r="T13" s="4"/>
-      <c r="U13" s="4"/>
-      <c r="V13" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="W13" s="4"/>
-      <c r="X13" s="4"/>
-    </row>
-    <row r="14" spans="2:24" x14ac:dyDescent="0.2">
-      <c r="B14" s="3"/>
-      <c r="C14" s="3"/>
-      <c r="D14" s="3"/>
-      <c r="E14" s="3"/>
-      <c r="F14" s="3"/>
-      <c r="G14" s="3"/>
-      <c r="H14" s="3"/>
-      <c r="I14" s="3"/>
-      <c r="J14" s="3"/>
-      <c r="K14" s="3"/>
-      <c r="L14" s="3"/>
-      <c r="M14" s="3"/>
-      <c r="N14" s="3"/>
-      <c r="O14" s="3"/>
-      <c r="P14" s="3"/>
-      <c r="Q14" s="3"/>
-      <c r="R14" s="4"/>
-      <c r="S14" s="4"/>
-      <c r="T14" s="4"/>
-      <c r="U14" s="4"/>
-      <c r="V14" s="4"/>
-      <c r="W14" s="4"/>
-      <c r="X14" s="4"/>
-    </row>
-    <row r="15" spans="2:24" x14ac:dyDescent="0.2">
-      <c r="B15" s="3"/>
-      <c r="C15" s="3"/>
-      <c r="D15" s="3"/>
-      <c r="E15" s="3"/>
-      <c r="F15" s="3"/>
-      <c r="G15" s="3"/>
-      <c r="H15" s="3"/>
-      <c r="I15" s="3"/>
-      <c r="J15" s="3"/>
-      <c r="K15" s="3"/>
-      <c r="L15" s="3"/>
-      <c r="M15" s="3"/>
-      <c r="N15" s="3"/>
-      <c r="O15" s="3"/>
-      <c r="P15" s="3"/>
-      <c r="Q15" s="3"/>
-      <c r="R15" s="4"/>
-      <c r="S15" s="4"/>
-      <c r="T15" s="4"/>
-      <c r="U15" s="4"/>
-      <c r="V15" s="4"/>
-      <c r="W15" s="4"/>
-      <c r="X15" s="4"/>
-    </row>
-    <row r="16" spans="2:24" x14ac:dyDescent="0.2">
-      <c r="B16" s="3"/>
-      <c r="C16" s="3"/>
-      <c r="D16" s="3"/>
-      <c r="E16" s="3"/>
-      <c r="F16" s="3"/>
-      <c r="G16" s="3"/>
-      <c r="H16" s="3"/>
-      <c r="I16" s="3"/>
-      <c r="J16" s="3"/>
-      <c r="K16" s="3"/>
-      <c r="L16" s="3"/>
-      <c r="M16" s="3"/>
-      <c r="N16" s="3"/>
-      <c r="O16" s="3"/>
-      <c r="P16" s="3"/>
-      <c r="Q16" s="3"/>
-      <c r="R16" s="4"/>
-      <c r="S16" s="4"/>
-      <c r="T16" s="4"/>
-      <c r="U16" s="4"/>
-      <c r="V16" s="4"/>
-      <c r="W16" s="4"/>
-      <c r="X16" s="4"/>
-    </row>
-    <row r="17" spans="2:24" x14ac:dyDescent="0.2">
-      <c r="B17" s="3"/>
-      <c r="C17" s="3"/>
-      <c r="D17" s="3"/>
-      <c r="E17" s="3"/>
-      <c r="F17" s="3"/>
-      <c r="G17" s="3"/>
-      <c r="H17" s="3"/>
-      <c r="I17" s="3"/>
-      <c r="J17" s="3"/>
-      <c r="K17" s="3"/>
-      <c r="L17" s="3"/>
-      <c r="M17" s="3"/>
-      <c r="N17" s="3"/>
-      <c r="O17" s="3"/>
-      <c r="P17" s="3"/>
-      <c r="Q17" s="3"/>
-      <c r="R17" s="4"/>
-      <c r="S17" s="4"/>
-      <c r="T17" s="4"/>
-      <c r="U17" s="4"/>
-      <c r="V17" s="4"/>
-      <c r="W17" s="4"/>
-      <c r="X17" s="4"/>
-    </row>
-    <row r="18" spans="2:24" x14ac:dyDescent="0.2">
-      <c r="B18" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="C18" s="3"/>
-      <c r="D18" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="E18" s="4"/>
-      <c r="F18" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="G18" s="3"/>
-      <c r="H18" s="3"/>
-      <c r="I18" s="3"/>
-      <c r="J18" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="K18" s="3"/>
-      <c r="L18" s="3"/>
-      <c r="M18" s="3"/>
-      <c r="N18" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="O18" s="3"/>
-      <c r="P18" s="3"/>
-      <c r="Q18" s="3"/>
-      <c r="R18" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="S18" s="3"/>
-      <c r="T18" s="3"/>
-      <c r="U18" s="3"/>
-      <c r="V18" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="W18" s="4"/>
-      <c r="X18" s="4"/>
+      <c r="S18" s="4"/>
+      <c r="T18" s="4"/>
+      <c r="U18" s="4"/>
+      <c r="V18" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="W18" s="3"/>
+      <c r="X18" s="3"/>
     </row>
     <row r="19" spans="2:24" x14ac:dyDescent="0.2">
-      <c r="B19" s="3"/>
-      <c r="C19" s="3"/>
-      <c r="D19" s="4"/>
-      <c r="E19" s="4"/>
-      <c r="F19" s="3"/>
-      <c r="G19" s="3"/>
-      <c r="H19" s="3"/>
-      <c r="I19" s="3"/>
-      <c r="J19" s="3"/>
-      <c r="K19" s="3"/>
-      <c r="L19" s="3"/>
-      <c r="M19" s="3"/>
-      <c r="N19" s="3"/>
-      <c r="O19" s="3"/>
-      <c r="P19" s="3"/>
-      <c r="Q19" s="3"/>
-      <c r="R19" s="3"/>
-      <c r="S19" s="3"/>
-      <c r="T19" s="3"/>
-      <c r="U19" s="3"/>
-      <c r="V19" s="4"/>
-      <c r="W19" s="4"/>
-      <c r="X19" s="4"/>
+      <c r="B19" s="4"/>
+      <c r="C19" s="4"/>
+      <c r="D19" s="3"/>
+      <c r="E19" s="3"/>
+      <c r="F19" s="4"/>
+      <c r="G19" s="4"/>
+      <c r="H19" s="4"/>
+      <c r="I19" s="4"/>
+      <c r="J19" s="4"/>
+      <c r="K19" s="4"/>
+      <c r="L19" s="4"/>
+      <c r="M19" s="4"/>
+      <c r="N19" s="4"/>
+      <c r="O19" s="4"/>
+      <c r="P19" s="4"/>
+      <c r="Q19" s="4"/>
+      <c r="R19" s="4"/>
+      <c r="S19" s="4"/>
+      <c r="T19" s="4"/>
+      <c r="U19" s="4"/>
+      <c r="V19" s="3"/>
+      <c r="W19" s="3"/>
+      <c r="X19" s="3"/>
     </row>
     <row r="20" spans="2:24" x14ac:dyDescent="0.2">
-      <c r="B20" s="3"/>
-      <c r="C20" s="3"/>
-      <c r="D20" s="4"/>
-      <c r="E20" s="4"/>
-      <c r="F20" s="3"/>
-      <c r="G20" s="3"/>
-      <c r="H20" s="3"/>
-      <c r="I20" s="3"/>
-      <c r="J20" s="3"/>
-      <c r="K20" s="3"/>
-      <c r="L20" s="3"/>
-      <c r="M20" s="3"/>
-      <c r="N20" s="3"/>
-      <c r="O20" s="3"/>
-      <c r="P20" s="3"/>
-      <c r="Q20" s="3"/>
-      <c r="R20" s="3"/>
-      <c r="S20" s="3"/>
-      <c r="T20" s="3"/>
-      <c r="U20" s="3"/>
-      <c r="V20" s="4"/>
-      <c r="W20" s="4"/>
-      <c r="X20" s="4"/>
+      <c r="B20" s="4"/>
+      <c r="C20" s="4"/>
+      <c r="D20" s="3"/>
+      <c r="E20" s="3"/>
+      <c r="F20" s="4"/>
+      <c r="G20" s="4"/>
+      <c r="H20" s="4"/>
+      <c r="I20" s="4"/>
+      <c r="J20" s="4"/>
+      <c r="K20" s="4"/>
+      <c r="L20" s="4"/>
+      <c r="M20" s="4"/>
+      <c r="N20" s="4"/>
+      <c r="O20" s="4"/>
+      <c r="P20" s="4"/>
+      <c r="Q20" s="4"/>
+      <c r="R20" s="4"/>
+      <c r="S20" s="4"/>
+      <c r="T20" s="4"/>
+      <c r="U20" s="4"/>
+      <c r="V20" s="3"/>
+      <c r="W20" s="3"/>
+      <c r="X20" s="3"/>
     </row>
     <row r="21" spans="2:24" x14ac:dyDescent="0.2">
-      <c r="B21" s="3"/>
-      <c r="C21" s="3"/>
-      <c r="D21" s="4"/>
-      <c r="E21" s="4"/>
-      <c r="F21" s="3"/>
-      <c r="G21" s="3"/>
-      <c r="H21" s="3"/>
-      <c r="I21" s="3"/>
-      <c r="J21" s="3"/>
-      <c r="K21" s="3"/>
-      <c r="L21" s="3"/>
-      <c r="M21" s="3"/>
-      <c r="N21" s="3"/>
-      <c r="O21" s="3"/>
-      <c r="P21" s="3"/>
-      <c r="Q21" s="3"/>
-      <c r="R21" s="3"/>
-      <c r="S21" s="3"/>
-      <c r="T21" s="3"/>
-      <c r="U21" s="3"/>
-      <c r="V21" s="4"/>
-      <c r="W21" s="4"/>
-      <c r="X21" s="4"/>
+      <c r="B21" s="4"/>
+      <c r="C21" s="4"/>
+      <c r="D21" s="3"/>
+      <c r="E21" s="3"/>
+      <c r="F21" s="4"/>
+      <c r="G21" s="4"/>
+      <c r="H21" s="4"/>
+      <c r="I21" s="4"/>
+      <c r="J21" s="4"/>
+      <c r="K21" s="4"/>
+      <c r="L21" s="4"/>
+      <c r="M21" s="4"/>
+      <c r="N21" s="4"/>
+      <c r="O21" s="4"/>
+      <c r="P21" s="4"/>
+      <c r="Q21" s="4"/>
+      <c r="R21" s="4"/>
+      <c r="S21" s="4"/>
+      <c r="T21" s="4"/>
+      <c r="U21" s="4"/>
+      <c r="V21" s="3"/>
+      <c r="W21" s="3"/>
+      <c r="X21" s="3"/>
     </row>
     <row r="22" spans="2:24" x14ac:dyDescent="0.2">
-      <c r="B22" s="3"/>
-      <c r="C22" s="3"/>
-      <c r="D22" s="4"/>
-      <c r="E22" s="4"/>
-      <c r="F22" s="3"/>
-      <c r="G22" s="3"/>
-      <c r="H22" s="3"/>
-      <c r="I22" s="3"/>
-      <c r="J22" s="3"/>
-      <c r="K22" s="3"/>
-      <c r="L22" s="3"/>
-      <c r="M22" s="3"/>
-      <c r="N22" s="3"/>
-      <c r="O22" s="3"/>
-      <c r="P22" s="3"/>
-      <c r="Q22" s="3"/>
-      <c r="R22" s="3"/>
-      <c r="S22" s="3"/>
-      <c r="T22" s="3"/>
-      <c r="U22" s="3"/>
-      <c r="V22" s="4"/>
-      <c r="W22" s="4"/>
-      <c r="X22" s="4"/>
+      <c r="B22" s="4"/>
+      <c r="C22" s="4"/>
+      <c r="D22" s="3"/>
+      <c r="E22" s="3"/>
+      <c r="F22" s="4"/>
+      <c r="G22" s="4"/>
+      <c r="H22" s="4"/>
+      <c r="I22" s="4"/>
+      <c r="J22" s="4"/>
+      <c r="K22" s="4"/>
+      <c r="L22" s="4"/>
+      <c r="M22" s="4"/>
+      <c r="N22" s="4"/>
+      <c r="O22" s="4"/>
+      <c r="P22" s="4"/>
+      <c r="Q22" s="4"/>
+      <c r="R22" s="4"/>
+      <c r="S22" s="4"/>
+      <c r="T22" s="4"/>
+      <c r="U22" s="4"/>
+      <c r="V22" s="3"/>
+      <c r="W22" s="3"/>
+      <c r="X22" s="3"/>
     </row>
     <row r="23" spans="2:24" x14ac:dyDescent="0.2">
-      <c r="B23" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="C23" s="3"/>
-      <c r="D23" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="E23" s="3"/>
-      <c r="F23" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="G23" s="3"/>
-      <c r="H23" s="3"/>
-      <c r="I23" s="3"/>
+      <c r="B23" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="C23" s="4"/>
+      <c r="D23" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="E23" s="4"/>
+      <c r="F23" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="G23" s="4"/>
+      <c r="H23" s="4"/>
+      <c r="I23" s="4"/>
       <c r="J23" s="4" t="s">
-        <v>46</v>
+        <v>84</v>
       </c>
       <c r="K23" s="4"/>
       <c r="L23" s="4"/>
       <c r="M23" s="4"/>
       <c r="N23" s="4" t="s">
-        <v>37</v>
+        <v>85</v>
       </c>
       <c r="O23" s="4"/>
       <c r="P23" s="4"/>
       <c r="Q23" s="4"/>
-      <c r="R23" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="S23" s="3"/>
-      <c r="T23" s="3"/>
-      <c r="U23" s="3"/>
-      <c r="V23" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="W23" s="4"/>
-      <c r="X23" s="4"/>
+      <c r="R23" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="S23" s="4"/>
+      <c r="T23" s="4"/>
+      <c r="U23" s="4"/>
+      <c r="V23" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="W23" s="3"/>
+      <c r="X23" s="3"/>
     </row>
     <row r="24" spans="2:24" x14ac:dyDescent="0.2">
-      <c r="B24" s="3"/>
-      <c r="C24" s="3"/>
-      <c r="D24" s="3"/>
-      <c r="E24" s="3"/>
-      <c r="F24" s="3"/>
-      <c r="G24" s="3"/>
-      <c r="H24" s="3"/>
-      <c r="I24" s="3"/>
+      <c r="B24" s="4"/>
+      <c r="C24" s="4"/>
+      <c r="D24" s="4"/>
+      <c r="E24" s="4"/>
+      <c r="F24" s="4"/>
+      <c r="G24" s="4"/>
+      <c r="H24" s="4"/>
+      <c r="I24" s="4"/>
       <c r="J24" s="4"/>
       <c r="K24" s="4"/>
       <c r="L24" s="4"/>
@@ -5734,23 +6143,23 @@
       <c r="O24" s="4"/>
       <c r="P24" s="4"/>
       <c r="Q24" s="4"/>
-      <c r="R24" s="3"/>
-      <c r="S24" s="3"/>
-      <c r="T24" s="3"/>
-      <c r="U24" s="3"/>
-      <c r="V24" s="4"/>
-      <c r="W24" s="4"/>
-      <c r="X24" s="4"/>
+      <c r="R24" s="4"/>
+      <c r="S24" s="4"/>
+      <c r="T24" s="4"/>
+      <c r="U24" s="4"/>
+      <c r="V24" s="3"/>
+      <c r="W24" s="3"/>
+      <c r="X24" s="3"/>
     </row>
     <row r="25" spans="2:24" x14ac:dyDescent="0.2">
-      <c r="B25" s="3"/>
-      <c r="C25" s="3"/>
-      <c r="D25" s="3"/>
-      <c r="E25" s="3"/>
-      <c r="F25" s="3"/>
-      <c r="G25" s="3"/>
-      <c r="H25" s="3"/>
-      <c r="I25" s="3"/>
+      <c r="B25" s="4"/>
+      <c r="C25" s="4"/>
+      <c r="D25" s="4"/>
+      <c r="E25" s="4"/>
+      <c r="F25" s="4"/>
+      <c r="G25" s="4"/>
+      <c r="H25" s="4"/>
+      <c r="I25" s="4"/>
       <c r="J25" s="4"/>
       <c r="K25" s="4"/>
       <c r="L25" s="4"/>
@@ -5759,23 +6168,23 @@
       <c r="O25" s="4"/>
       <c r="P25" s="4"/>
       <c r="Q25" s="4"/>
-      <c r="R25" s="3"/>
-      <c r="S25" s="3"/>
-      <c r="T25" s="3"/>
-      <c r="U25" s="3"/>
-      <c r="V25" s="4"/>
-      <c r="W25" s="4"/>
-      <c r="X25" s="4"/>
+      <c r="R25" s="4"/>
+      <c r="S25" s="4"/>
+      <c r="T25" s="4"/>
+      <c r="U25" s="4"/>
+      <c r="V25" s="3"/>
+      <c r="W25" s="3"/>
+      <c r="X25" s="3"/>
     </row>
     <row r="26" spans="2:24" x14ac:dyDescent="0.2">
-      <c r="B26" s="3"/>
-      <c r="C26" s="3"/>
-      <c r="D26" s="3"/>
-      <c r="E26" s="3"/>
-      <c r="F26" s="3"/>
-      <c r="G26" s="3"/>
-      <c r="H26" s="3"/>
-      <c r="I26" s="3"/>
+      <c r="B26" s="4"/>
+      <c r="C26" s="4"/>
+      <c r="D26" s="4"/>
+      <c r="E26" s="4"/>
+      <c r="F26" s="4"/>
+      <c r="G26" s="4"/>
+      <c r="H26" s="4"/>
+      <c r="I26" s="4"/>
       <c r="J26" s="4"/>
       <c r="K26" s="4"/>
       <c r="L26" s="4"/>
@@ -5784,23 +6193,23 @@
       <c r="O26" s="4"/>
       <c r="P26" s="4"/>
       <c r="Q26" s="4"/>
-      <c r="R26" s="3"/>
-      <c r="S26" s="3"/>
-      <c r="T26" s="3"/>
-      <c r="U26" s="3"/>
-      <c r="V26" s="4"/>
-      <c r="W26" s="4"/>
-      <c r="X26" s="4"/>
+      <c r="R26" s="4"/>
+      <c r="S26" s="4"/>
+      <c r="T26" s="4"/>
+      <c r="U26" s="4"/>
+      <c r="V26" s="3"/>
+      <c r="W26" s="3"/>
+      <c r="X26" s="3"/>
     </row>
     <row r="27" spans="2:24" x14ac:dyDescent="0.2">
-      <c r="B27" s="3"/>
-      <c r="C27" s="3"/>
-      <c r="D27" s="3"/>
-      <c r="E27" s="3"/>
-      <c r="F27" s="3"/>
-      <c r="G27" s="3"/>
-      <c r="H27" s="3"/>
-      <c r="I27" s="3"/>
+      <c r="B27" s="4"/>
+      <c r="C27" s="4"/>
+      <c r="D27" s="4"/>
+      <c r="E27" s="4"/>
+      <c r="F27" s="4"/>
+      <c r="G27" s="4"/>
+      <c r="H27" s="4"/>
+      <c r="I27" s="4"/>
       <c r="J27" s="4"/>
       <c r="K27" s="4"/>
       <c r="L27" s="4"/>
@@ -5809,155 +6218,482 @@
       <c r="O27" s="4"/>
       <c r="P27" s="4"/>
       <c r="Q27" s="4"/>
-      <c r="R27" s="3"/>
-      <c r="S27" s="3"/>
-      <c r="T27" s="3"/>
-      <c r="U27" s="3"/>
-      <c r="V27" s="4"/>
-      <c r="W27" s="4"/>
-      <c r="X27" s="4"/>
+      <c r="R27" s="4"/>
+      <c r="S27" s="4"/>
+      <c r="T27" s="4"/>
+      <c r="U27" s="4"/>
+      <c r="V27" s="3"/>
+      <c r="W27" s="3"/>
+      <c r="X27" s="3"/>
     </row>
     <row r="28" spans="2:24" x14ac:dyDescent="0.2">
-      <c r="B28" s="4" t="s">
+      <c r="B28" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C28" s="4"/>
-      <c r="D28" s="4" t="s">
+      <c r="C28" s="3"/>
+      <c r="D28" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="E28" s="4"/>
-      <c r="F28" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="G28" s="4"/>
-      <c r="H28" s="4"/>
-      <c r="I28" s="4"/>
-      <c r="J28" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="K28" s="3"/>
-      <c r="L28" s="3"/>
-      <c r="M28" s="3"/>
-      <c r="N28" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="O28" s="3"/>
-      <c r="P28" s="3"/>
-      <c r="Q28" s="3"/>
-      <c r="R28" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="S28" s="4"/>
-      <c r="T28" s="4"/>
-      <c r="U28" s="4"/>
-      <c r="V28" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="W28" s="4"/>
-      <c r="X28" s="4"/>
+      <c r="E28" s="3"/>
+      <c r="F28" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="G28" s="3"/>
+      <c r="H28" s="3"/>
+      <c r="I28" s="3"/>
+      <c r="J28" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="K28" s="4"/>
+      <c r="L28" s="4"/>
+      <c r="M28" s="4"/>
+      <c r="N28" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="O28" s="4"/>
+      <c r="P28" s="4"/>
+      <c r="Q28" s="4"/>
+      <c r="R28" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="S28" s="3"/>
+      <c r="T28" s="3"/>
+      <c r="U28" s="3"/>
+      <c r="V28" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="W28" s="3"/>
+      <c r="X28" s="3"/>
     </row>
     <row r="29" spans="2:24" x14ac:dyDescent="0.2">
-      <c r="B29" s="4"/>
-      <c r="C29" s="4"/>
-      <c r="D29" s="4"/>
-      <c r="E29" s="4"/>
-      <c r="F29" s="4"/>
-      <c r="G29" s="4"/>
-      <c r="H29" s="4"/>
-      <c r="I29" s="4"/>
-      <c r="J29" s="3"/>
-      <c r="K29" s="3"/>
-      <c r="L29" s="3"/>
-      <c r="M29" s="3"/>
-      <c r="N29" s="3"/>
-      <c r="O29" s="3"/>
-      <c r="P29" s="3"/>
-      <c r="Q29" s="3"/>
-      <c r="R29" s="4"/>
-      <c r="S29" s="4"/>
-      <c r="T29" s="4"/>
-      <c r="U29" s="4"/>
-      <c r="V29" s="4"/>
-      <c r="W29" s="4"/>
-      <c r="X29" s="4"/>
+      <c r="B29" s="3"/>
+      <c r="C29" s="3"/>
+      <c r="D29" s="3"/>
+      <c r="E29" s="3"/>
+      <c r="F29" s="3"/>
+      <c r="G29" s="3"/>
+      <c r="H29" s="3"/>
+      <c r="I29" s="3"/>
+      <c r="J29" s="4"/>
+      <c r="K29" s="4"/>
+      <c r="L29" s="4"/>
+      <c r="M29" s="4"/>
+      <c r="N29" s="4"/>
+      <c r="O29" s="4"/>
+      <c r="P29" s="4"/>
+      <c r="Q29" s="4"/>
+      <c r="R29" s="3"/>
+      <c r="S29" s="3"/>
+      <c r="T29" s="3"/>
+      <c r="U29" s="3"/>
+      <c r="V29" s="3"/>
+      <c r="W29" s="3"/>
+      <c r="X29" s="3"/>
     </row>
     <row r="30" spans="2:24" x14ac:dyDescent="0.2">
-      <c r="B30" s="4"/>
-      <c r="C30" s="4"/>
-      <c r="D30" s="4"/>
-      <c r="E30" s="4"/>
-      <c r="F30" s="4"/>
-      <c r="G30" s="4"/>
-      <c r="H30" s="4"/>
-      <c r="I30" s="4"/>
-      <c r="J30" s="3"/>
-      <c r="K30" s="3"/>
-      <c r="L30" s="3"/>
-      <c r="M30" s="3"/>
-      <c r="N30" s="3"/>
-      <c r="O30" s="3"/>
-      <c r="P30" s="3"/>
-      <c r="Q30" s="3"/>
-      <c r="R30" s="4"/>
-      <c r="S30" s="4"/>
-      <c r="T30" s="4"/>
-      <c r="U30" s="4"/>
-      <c r="V30" s="4"/>
-      <c r="W30" s="4"/>
-      <c r="X30" s="4"/>
+      <c r="B30" s="3"/>
+      <c r="C30" s="3"/>
+      <c r="D30" s="3"/>
+      <c r="E30" s="3"/>
+      <c r="F30" s="3"/>
+      <c r="G30" s="3"/>
+      <c r="H30" s="3"/>
+      <c r="I30" s="3"/>
+      <c r="J30" s="4"/>
+      <c r="K30" s="4"/>
+      <c r="L30" s="4"/>
+      <c r="M30" s="4"/>
+      <c r="N30" s="4"/>
+      <c r="O30" s="4"/>
+      <c r="P30" s="4"/>
+      <c r="Q30" s="4"/>
+      <c r="R30" s="3"/>
+      <c r="S30" s="3"/>
+      <c r="T30" s="3"/>
+      <c r="U30" s="3"/>
+      <c r="V30" s="3"/>
+      <c r="W30" s="3"/>
+      <c r="X30" s="3"/>
     </row>
     <row r="31" spans="2:24" x14ac:dyDescent="0.2">
-      <c r="B31" s="4"/>
-      <c r="C31" s="4"/>
-      <c r="D31" s="4"/>
-      <c r="E31" s="4"/>
-      <c r="F31" s="4"/>
-      <c r="G31" s="4"/>
-      <c r="H31" s="4"/>
-      <c r="I31" s="4"/>
-      <c r="J31" s="3"/>
-      <c r="K31" s="3"/>
-      <c r="L31" s="3"/>
-      <c r="M31" s="3"/>
-      <c r="N31" s="3"/>
-      <c r="O31" s="3"/>
-      <c r="P31" s="3"/>
-      <c r="Q31" s="3"/>
-      <c r="R31" s="4"/>
-      <c r="S31" s="4"/>
-      <c r="T31" s="4"/>
-      <c r="U31" s="4"/>
-      <c r="V31" s="4"/>
-      <c r="W31" s="4"/>
-      <c r="X31" s="4"/>
+      <c r="B31" s="3"/>
+      <c r="C31" s="3"/>
+      <c r="D31" s="3"/>
+      <c r="E31" s="3"/>
+      <c r="F31" s="3"/>
+      <c r="G31" s="3"/>
+      <c r="H31" s="3"/>
+      <c r="I31" s="3"/>
+      <c r="J31" s="4"/>
+      <c r="K31" s="4"/>
+      <c r="L31" s="4"/>
+      <c r="M31" s="4"/>
+      <c r="N31" s="4"/>
+      <c r="O31" s="4"/>
+      <c r="P31" s="4"/>
+      <c r="Q31" s="4"/>
+      <c r="R31" s="3"/>
+      <c r="S31" s="3"/>
+      <c r="T31" s="3"/>
+      <c r="U31" s="3"/>
+      <c r="V31" s="3"/>
+      <c r="W31" s="3"/>
+      <c r="X31" s="3"/>
     </row>
     <row r="32" spans="2:24" x14ac:dyDescent="0.2">
-      <c r="B32" s="4"/>
-      <c r="C32" s="4"/>
-      <c r="D32" s="4"/>
-      <c r="E32" s="4"/>
-      <c r="F32" s="4"/>
-      <c r="G32" s="4"/>
-      <c r="H32" s="4"/>
-      <c r="I32" s="4"/>
-      <c r="J32" s="3"/>
-      <c r="K32" s="3"/>
-      <c r="L32" s="3"/>
-      <c r="M32" s="3"/>
-      <c r="N32" s="3"/>
-      <c r="O32" s="3"/>
-      <c r="P32" s="3"/>
-      <c r="Q32" s="3"/>
-      <c r="R32" s="4"/>
-      <c r="S32" s="4"/>
-      <c r="T32" s="4"/>
-      <c r="U32" s="4"/>
-      <c r="V32" s="4"/>
-      <c r="W32" s="4"/>
-      <c r="X32" s="4"/>
+      <c r="B32" s="3"/>
+      <c r="C32" s="3"/>
+      <c r="D32" s="3"/>
+      <c r="E32" s="3"/>
+      <c r="F32" s="3"/>
+      <c r="G32" s="3"/>
+      <c r="H32" s="3"/>
+      <c r="I32" s="3"/>
+      <c r="J32" s="4"/>
+      <c r="K32" s="4"/>
+      <c r="L32" s="4"/>
+      <c r="M32" s="4"/>
+      <c r="N32" s="4"/>
+      <c r="O32" s="4"/>
+      <c r="P32" s="4"/>
+      <c r="Q32" s="4"/>
+      <c r="R32" s="3"/>
+      <c r="S32" s="3"/>
+      <c r="T32" s="3"/>
+      <c r="U32" s="3"/>
+      <c r="V32" s="3"/>
+      <c r="W32" s="3"/>
+      <c r="X32" s="3"/>
+    </row>
+    <row r="33" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="B33" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="C33" s="4"/>
+      <c r="D33" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="E33" s="4"/>
+      <c r="F33" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="G33" s="4"/>
+      <c r="H33" s="4"/>
+      <c r="I33" s="4"/>
+      <c r="J33" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="K33" s="3"/>
+      <c r="L33" s="3"/>
+      <c r="M33" s="3"/>
+      <c r="N33" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="O33" s="3"/>
+      <c r="P33" s="3"/>
+      <c r="Q33" s="3"/>
+      <c r="R33" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="S33" s="4"/>
+      <c r="T33" s="4"/>
+      <c r="U33" s="4"/>
+      <c r="V33" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="W33" s="3"/>
+      <c r="X33" s="3"/>
+    </row>
+    <row r="34" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="B34" s="4"/>
+      <c r="C34" s="4"/>
+      <c r="D34" s="4"/>
+      <c r="E34" s="4"/>
+      <c r="F34" s="4"/>
+      <c r="G34" s="4"/>
+      <c r="H34" s="4"/>
+      <c r="I34" s="4"/>
+      <c r="J34" s="3"/>
+      <c r="K34" s="3"/>
+      <c r="L34" s="3"/>
+      <c r="M34" s="3"/>
+      <c r="N34" s="3"/>
+      <c r="O34" s="3"/>
+      <c r="P34" s="3"/>
+      <c r="Q34" s="3"/>
+      <c r="R34" s="4"/>
+      <c r="S34" s="4"/>
+      <c r="T34" s="4"/>
+      <c r="U34" s="4"/>
+      <c r="V34" s="3"/>
+      <c r="W34" s="3"/>
+      <c r="X34" s="3"/>
+    </row>
+    <row r="35" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="B35" s="4"/>
+      <c r="C35" s="4"/>
+      <c r="D35" s="4"/>
+      <c r="E35" s="4"/>
+      <c r="F35" s="4"/>
+      <c r="G35" s="4"/>
+      <c r="H35" s="4"/>
+      <c r="I35" s="4"/>
+      <c r="J35" s="3"/>
+      <c r="K35" s="3"/>
+      <c r="L35" s="3"/>
+      <c r="M35" s="3"/>
+      <c r="N35" s="3"/>
+      <c r="O35" s="3"/>
+      <c r="P35" s="3"/>
+      <c r="Q35" s="3"/>
+      <c r="R35" s="4"/>
+      <c r="S35" s="4"/>
+      <c r="T35" s="4"/>
+      <c r="U35" s="4"/>
+      <c r="V35" s="3"/>
+      <c r="W35" s="3"/>
+      <c r="X35" s="3"/>
+    </row>
+    <row r="36" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="B36" s="4"/>
+      <c r="C36" s="4"/>
+      <c r="D36" s="4"/>
+      <c r="E36" s="4"/>
+      <c r="F36" s="4"/>
+      <c r="G36" s="4"/>
+      <c r="H36" s="4"/>
+      <c r="I36" s="4"/>
+      <c r="J36" s="3"/>
+      <c r="K36" s="3"/>
+      <c r="L36" s="3"/>
+      <c r="M36" s="3"/>
+      <c r="N36" s="3"/>
+      <c r="O36" s="3"/>
+      <c r="P36" s="3"/>
+      <c r="Q36" s="3"/>
+      <c r="R36" s="4"/>
+      <c r="S36" s="4"/>
+      <c r="T36" s="4"/>
+      <c r="U36" s="4"/>
+      <c r="V36" s="3"/>
+      <c r="W36" s="3"/>
+      <c r="X36" s="3"/>
+    </row>
+    <row r="37" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="B37" s="4"/>
+      <c r="C37" s="4"/>
+      <c r="D37" s="4"/>
+      <c r="E37" s="4"/>
+      <c r="F37" s="4"/>
+      <c r="G37" s="4"/>
+      <c r="H37" s="4"/>
+      <c r="I37" s="4"/>
+      <c r="J37" s="3"/>
+      <c r="K37" s="3"/>
+      <c r="L37" s="3"/>
+      <c r="M37" s="3"/>
+      <c r="N37" s="3"/>
+      <c r="O37" s="3"/>
+      <c r="P37" s="3"/>
+      <c r="Q37" s="3"/>
+      <c r="R37" s="4"/>
+      <c r="S37" s="4"/>
+      <c r="T37" s="4"/>
+      <c r="U37" s="4"/>
+      <c r="V37" s="3"/>
+      <c r="W37" s="3"/>
+      <c r="X37" s="3"/>
+    </row>
+    <row r="38" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="B38" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="C38" s="4"/>
+      <c r="D38" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="E38" s="3"/>
+      <c r="F38" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="G38" s="4"/>
+      <c r="H38" s="4"/>
+      <c r="I38" s="4"/>
+      <c r="J38" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="K38" s="4"/>
+      <c r="L38" s="4"/>
+      <c r="M38" s="4"/>
+      <c r="N38" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="O38" s="4"/>
+      <c r="P38" s="4"/>
+      <c r="Q38" s="4"/>
+      <c r="R38" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="S38" s="3"/>
+      <c r="T38" s="3"/>
+      <c r="U38" s="3"/>
+      <c r="V38" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="W38" s="3"/>
+      <c r="X38" s="3"/>
+    </row>
+    <row r="39" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="B39" s="4"/>
+      <c r="C39" s="4"/>
+      <c r="D39" s="3"/>
+      <c r="E39" s="3"/>
+      <c r="F39" s="4"/>
+      <c r="G39" s="4"/>
+      <c r="H39" s="4"/>
+      <c r="I39" s="4"/>
+      <c r="J39" s="4"/>
+      <c r="K39" s="4"/>
+      <c r="L39" s="4"/>
+      <c r="M39" s="4"/>
+      <c r="N39" s="4"/>
+      <c r="O39" s="4"/>
+      <c r="P39" s="4"/>
+      <c r="Q39" s="4"/>
+      <c r="R39" s="3"/>
+      <c r="S39" s="3"/>
+      <c r="T39" s="3"/>
+      <c r="U39" s="3"/>
+      <c r="V39" s="3"/>
+      <c r="W39" s="3"/>
+      <c r="X39" s="3"/>
+    </row>
+    <row r="40" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="B40" s="4"/>
+      <c r="C40" s="4"/>
+      <c r="D40" s="3"/>
+      <c r="E40" s="3"/>
+      <c r="F40" s="4"/>
+      <c r="G40" s="4"/>
+      <c r="H40" s="4"/>
+      <c r="I40" s="4"/>
+      <c r="J40" s="4"/>
+      <c r="K40" s="4"/>
+      <c r="L40" s="4"/>
+      <c r="M40" s="4"/>
+      <c r="N40" s="4"/>
+      <c r="O40" s="4"/>
+      <c r="P40" s="4"/>
+      <c r="Q40" s="4"/>
+      <c r="R40" s="3"/>
+      <c r="S40" s="3"/>
+      <c r="T40" s="3"/>
+      <c r="U40" s="3"/>
+      <c r="V40" s="3"/>
+      <c r="W40" s="3"/>
+      <c r="X40" s="3"/>
+    </row>
+    <row r="41" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="B41" s="4"/>
+      <c r="C41" s="4"/>
+      <c r="D41" s="3"/>
+      <c r="E41" s="3"/>
+      <c r="F41" s="4"/>
+      <c r="G41" s="4"/>
+      <c r="H41" s="4"/>
+      <c r="I41" s="4"/>
+      <c r="J41" s="4"/>
+      <c r="K41" s="4"/>
+      <c r="L41" s="4"/>
+      <c r="M41" s="4"/>
+      <c r="N41" s="4"/>
+      <c r="O41" s="4"/>
+      <c r="P41" s="4"/>
+      <c r="Q41" s="4"/>
+      <c r="R41" s="3"/>
+      <c r="S41" s="3"/>
+      <c r="T41" s="3"/>
+      <c r="U41" s="3"/>
+      <c r="V41" s="3"/>
+      <c r="W41" s="3"/>
+      <c r="X41" s="3"/>
+    </row>
+    <row r="42" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="B42" s="4"/>
+      <c r="C42" s="4"/>
+      <c r="D42" s="3"/>
+      <c r="E42" s="3"/>
+      <c r="F42" s="4"/>
+      <c r="G42" s="4"/>
+      <c r="H42" s="4"/>
+      <c r="I42" s="4"/>
+      <c r="J42" s="4"/>
+      <c r="K42" s="4"/>
+      <c r="L42" s="4"/>
+      <c r="M42" s="4"/>
+      <c r="N42" s="4"/>
+      <c r="O42" s="4"/>
+      <c r="P42" s="4"/>
+      <c r="Q42" s="4"/>
+      <c r="R42" s="3"/>
+      <c r="S42" s="3"/>
+      <c r="T42" s="3"/>
+      <c r="U42" s="3"/>
+      <c r="V42" s="3"/>
+      <c r="W42" s="3"/>
+      <c r="X42" s="3"/>
     </row>
   </sheetData>
-  <mergeCells count="49">
+  <mergeCells count="63">
+    <mergeCell ref="R33:U37"/>
+    <mergeCell ref="V33:X37"/>
+    <mergeCell ref="B38:C42"/>
+    <mergeCell ref="D38:E42"/>
+    <mergeCell ref="F38:I42"/>
+    <mergeCell ref="J38:M42"/>
+    <mergeCell ref="N38:Q42"/>
+    <mergeCell ref="R38:U42"/>
+    <mergeCell ref="V38:X42"/>
+    <mergeCell ref="B33:C37"/>
+    <mergeCell ref="D33:E37"/>
+    <mergeCell ref="F33:I37"/>
+    <mergeCell ref="J33:M37"/>
+    <mergeCell ref="N33:Q37"/>
+    <mergeCell ref="V28:X32"/>
+    <mergeCell ref="B28:C32"/>
+    <mergeCell ref="D28:E32"/>
+    <mergeCell ref="F28:I32"/>
+    <mergeCell ref="J28:M32"/>
+    <mergeCell ref="N28:Q32"/>
+    <mergeCell ref="R28:U32"/>
+    <mergeCell ref="V18:X22"/>
+    <mergeCell ref="B23:C27"/>
+    <mergeCell ref="D23:E27"/>
+    <mergeCell ref="F23:I27"/>
+    <mergeCell ref="J23:M27"/>
+    <mergeCell ref="N23:Q27"/>
+    <mergeCell ref="R23:U27"/>
+    <mergeCell ref="V23:X27"/>
+    <mergeCell ref="B18:C22"/>
+    <mergeCell ref="D18:E22"/>
+    <mergeCell ref="F18:I22"/>
+    <mergeCell ref="J18:M22"/>
+    <mergeCell ref="N18:Q22"/>
+    <mergeCell ref="R18:U22"/>
+    <mergeCell ref="V8:X12"/>
+    <mergeCell ref="B13:C17"/>
+    <mergeCell ref="D13:E17"/>
+    <mergeCell ref="F13:I17"/>
+    <mergeCell ref="J13:M17"/>
+    <mergeCell ref="N13:Q17"/>
+    <mergeCell ref="R13:U17"/>
+    <mergeCell ref="V13:X17"/>
+    <mergeCell ref="B8:C12"/>
+    <mergeCell ref="D8:E12"/>
+    <mergeCell ref="F8:I12"/>
+    <mergeCell ref="J8:M12"/>
+    <mergeCell ref="N8:Q12"/>
+    <mergeCell ref="R8:U12"/>
     <mergeCell ref="V2:X2"/>
     <mergeCell ref="B3:C7"/>
     <mergeCell ref="D3:E7"/>
@@ -5972,41 +6708,6 @@
     <mergeCell ref="J2:M2"/>
     <mergeCell ref="N2:Q2"/>
     <mergeCell ref="R2:U2"/>
-    <mergeCell ref="V8:X12"/>
-    <mergeCell ref="B13:C17"/>
-    <mergeCell ref="D13:E17"/>
-    <mergeCell ref="F13:I17"/>
-    <mergeCell ref="J13:M17"/>
-    <mergeCell ref="N13:Q17"/>
-    <mergeCell ref="R13:U17"/>
-    <mergeCell ref="V13:X17"/>
-    <mergeCell ref="B8:C12"/>
-    <mergeCell ref="D8:E12"/>
-    <mergeCell ref="F8:I12"/>
-    <mergeCell ref="J8:M12"/>
-    <mergeCell ref="N8:Q12"/>
-    <mergeCell ref="R8:U12"/>
-    <mergeCell ref="V18:X22"/>
-    <mergeCell ref="B23:C27"/>
-    <mergeCell ref="D23:E27"/>
-    <mergeCell ref="F23:I27"/>
-    <mergeCell ref="J23:M27"/>
-    <mergeCell ref="N23:Q27"/>
-    <mergeCell ref="R23:U27"/>
-    <mergeCell ref="V23:X27"/>
-    <mergeCell ref="B18:C22"/>
-    <mergeCell ref="D18:E22"/>
-    <mergeCell ref="F18:I22"/>
-    <mergeCell ref="J18:M22"/>
-    <mergeCell ref="N18:Q22"/>
-    <mergeCell ref="R18:U22"/>
-    <mergeCell ref="V28:X32"/>
-    <mergeCell ref="B28:C32"/>
-    <mergeCell ref="D28:E32"/>
-    <mergeCell ref="F28:I32"/>
-    <mergeCell ref="J28:M32"/>
-    <mergeCell ref="N28:Q32"/>
-    <mergeCell ref="R28:U32"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/G18_ゲームフロー.xlsx
+++ b/G18_ゲームフロー.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\雄太\Documents\CaseStudy\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\雄太\Desktop\CaseStady_Image\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8880" firstSheet="1" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8880"/>
   </bookViews>
   <sheets>
     <sheet name="タイトルフロー" sheetId="4" r:id="rId1"/>
@@ -1699,19 +1699,19 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1722,25 +1722,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1767,7 +1755,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1789,6 +1789,66 @@
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>372533</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>541867</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="33" name="角丸四角形 32"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11954933" y="508000"/>
+          <a:ext cx="3217334" cy="897467"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent2">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent4">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent4"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent4"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
@@ -1831,6 +1891,1509 @@
         </a:prstGeom>
       </xdr:spPr>
     </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>486103</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>91966</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>472966</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>105104</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="角丸四角形 2"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8410903" y="10150366"/>
+          <a:ext cx="9130863" cy="1521898"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent2">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent4">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent4"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent4"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>18159</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>102068</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>517927</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>82623</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="フローチャート: 端子 3"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12210159" y="948735"/>
+          <a:ext cx="1109368" cy="319221"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartTerminator">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>初期起動時</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>243840</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>22860</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="184731" cy="264560"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="テキスト ボックス 4"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9387840" y="861060"/>
+          <a:ext cx="184731" cy="264560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>189799</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>85134</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>406401</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>135467</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="フローチャート: 処理 5"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12991399" y="2117134"/>
+          <a:ext cx="826202" cy="219666"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartProcess">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>BG</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>表示</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>593222</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>142211</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>16934</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="フローチャート: 処理 6"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12785222" y="3020878"/>
+          <a:ext cx="1252512" cy="298055"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartProcess">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>タイトル落下歌詞</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>553371</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>115532</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>65691</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>101605</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="9" name="フローチャート: 処理 8"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12745371" y="6211532"/>
+          <a:ext cx="1341120" cy="324740"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartProcess">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>次シーン移行画面</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>301646</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>7626</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>275896</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>26282</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="10" name="フローチャート: 端子 9"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8836046" y="10736586"/>
+          <a:ext cx="1803050" cy="353936"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartTerminator">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>ゲームシーンまで移行</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>159755</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>19449</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>446689</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>39418</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="11" name="フローチャート: 端子 10"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11742155" y="10748409"/>
+          <a:ext cx="2115734" cy="355249"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartTerminator">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>おぷしょん画面に移行</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>329498</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>38101</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>380999</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>39416</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="12" name="フローチャート: 端子 11"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="14959898" y="10767061"/>
+          <a:ext cx="1880301" cy="336595"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartTerminator">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>遊びかた画面に移行</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>198120</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>7620</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="184731" cy="264560"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="13" name="テキスト ボックス 12"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11170920" y="1348740"/>
+          <a:ext cx="184731" cy="264560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>586740</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>15240</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="184731" cy="264560"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="14" name="テキスト ボックス 13"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9121140" y="2026920"/>
+          <a:ext cx="184731" cy="264560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="184731" cy="264560"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="15" name="テキスト ボックス 14"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9334500" y="3726180"/>
+          <a:ext cx="184731" cy="264560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>191668</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>30889</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>397933</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>127583</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="16" name="フローチャート: 判断 15"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12383668" y="5110889"/>
+          <a:ext cx="2035065" cy="435361"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartDecision">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>ボタンを押す</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>183932</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>118242</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>433552</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>39415</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="18" name="フローチャート: 判断 17"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11156732" y="9338442"/>
+          <a:ext cx="3297620" cy="424093"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartDecision">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>選択シーンによって分岐</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>572843</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>82623</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>602900</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>85134</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="19" name="直線矢印コネクタ 18"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="4" idx="2"/>
+          <a:endCxn id="6" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12764843" y="1267956"/>
+          <a:ext cx="639657" cy="849178"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>602900</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>135467</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>278</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>142211</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="20" name="直線矢印コネクタ 19"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="6" idx="2"/>
+          <a:endCxn id="7" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13404500" y="2336800"/>
+          <a:ext cx="6978" cy="684078"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>599601</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>84666</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>279</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>30889</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="21" name="直線矢印コネクタ 20"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="71" idx="2"/>
+          <a:endCxn id="16" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="13401201" y="4148666"/>
+          <a:ext cx="10278" cy="962223"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>599601</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>127583</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>4731</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>115532</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="27" name="直線矢印コネクタ 26"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="16" idx="2"/>
+          <a:endCxn id="9" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13401201" y="5546250"/>
+          <a:ext cx="14730" cy="665282"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>1050</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>39415</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>6570</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>19449</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="29" name="直線矢印コネクタ 28"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="18" idx="2"/>
+          <a:endCxn id="11" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="12802650" y="9762535"/>
+          <a:ext cx="5520" cy="985874"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>590944</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>164225</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>183932</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>7626</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="30" name="直線矢印コネクタ 29"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="18" idx="1"/>
+          <a:endCxn id="10" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="9734944" y="9552065"/>
+          <a:ext cx="1421788" cy="1184521"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>433552</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>164225</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>53076</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>38101</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="31" name="直線矢印コネクタ 30"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="18" idx="3"/>
+          <a:endCxn id="12" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="14454352" y="9552065"/>
+          <a:ext cx="1448324" cy="1214996"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>13138</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>26276</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="853054" cy="325730"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="32" name="テキスト ボックス 31"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8547538" y="10252316"/>
+          <a:ext cx="853054" cy="325730"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400" b="1"/>
+            <a:t>他シーン</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>50799</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="853054" cy="325730"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="35" name="テキスト ボックス 34"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11887200" y="558799"/>
+          <a:ext cx="853054" cy="325730"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400" b="1"/>
+            <a:t>他シーン</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>238292</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>84667</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>253999</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>109716</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="36" name="フローチャート: 端子 35"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13649492" y="931334"/>
+          <a:ext cx="1234907" cy="363715"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartTerminator">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>リザルトシーン</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>602900</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>109716</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>246146</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>85134</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="39" name="直線矢印コネクタ 38"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="36" idx="2"/>
+          <a:endCxn id="6" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="13404500" y="1295049"/>
+          <a:ext cx="862446" cy="822085"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>593223</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>125278</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>16935</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>84666</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="71" name="フローチャート: 処理 70"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12785223" y="3850611"/>
+          <a:ext cx="1252512" cy="298055"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartProcess">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>PUSHENTER</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>表示</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>278</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>279</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>125278</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="78" name="直線矢印コネクタ 77"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="7" idx="2"/>
+          <a:endCxn id="71" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13411478" y="3318933"/>
+          <a:ext cx="1" cy="531678"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>3942</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>101605</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>4731</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>118242</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="82" name="直線矢印コネクタ 81"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="9" idx="2"/>
+          <a:endCxn id="18" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="13415142" y="6536272"/>
+          <a:ext cx="789" cy="863303"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -3798,18 +5361,78 @@
 
 <file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>302172</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>105104</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>512380</xdr:colOff>
+      <xdr:row>69</xdr:row>
+      <xdr:rowOff>118242</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="66" name="角丸四角形 65"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8158655" y="10352690"/>
+          <a:ext cx="8671035" cy="1550276"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent2">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent4">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent4"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent4"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>601980</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>144780</xdr:rowOff>
+      <xdr:rowOff>160020</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
       <xdr:colOff>220980</xdr:colOff>
       <xdr:row>60</xdr:row>
-      <xdr:rowOff>144780</xdr:rowOff>
+      <xdr:rowOff>160020</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3832,7 +5455,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="601980" y="144780"/>
+          <a:off x="601980" y="160020"/>
           <a:ext cx="7543800" cy="10058400"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -3840,6 +5463,1673 @@
         </a:prstGeom>
       </xdr:spPr>
     </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>52026</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>85134</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>551794</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>65689</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="フローチャート: 端子 2"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12138923" y="768306"/>
+          <a:ext cx="1104112" cy="322142"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartTerminator">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>ゲームシーン</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>243840</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>22860</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="184731" cy="264560"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="テキスト ボックス 3"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9309012" y="876826"/>
+          <a:ext cx="184731" cy="264560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>138998</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>85133</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>486104</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>26275</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="フローチャート: 処理 4"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11621550" y="1963857"/>
+          <a:ext cx="2160140" cy="453521"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartProcess">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>各キャラクターアニメーション開始</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>BG</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>表示</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>186821</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>57545</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>420414</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>157656</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="フローチャート: 処理 5"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12273718" y="3302614"/>
+          <a:ext cx="837937" cy="270904"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartProcess">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>スコア表示</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>112199</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>52815</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>472967</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>52551</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="フローチャート: 処理 6"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12199096" y="5518194"/>
+          <a:ext cx="965112" cy="341323"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartProcess">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>スコアを消す</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>553371</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>13927</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>65691</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="9" name="フローチャート: 処理 8"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12035923" y="8382789"/>
+          <a:ext cx="1325354" cy="327660"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartProcess">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>次シーン移行画面</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>551267</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>20763</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>525517</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>39419</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="10" name="フローチャート: 端子 9"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8407750" y="10951522"/>
+          <a:ext cx="1787284" cy="360242"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartTerminator">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>ゲームスタートまで移行</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>186031</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>19449</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>472964</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>39418</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="11" name="フローチャート: 端子 10"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10459893" y="10950208"/>
+          <a:ext cx="2099968" cy="361555"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartTerminator">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>キャラクター選択画面に移行</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>145568</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>24963</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>197068</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>26278</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="12" name="フローチャート: 端子 11"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12836809" y="10955722"/>
+          <a:ext cx="1864535" cy="342901"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartTerminator">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>ステージ選択画面に移行</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>198120</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>7620</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="184731" cy="264560"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="13" name="テキスト ボックス 12"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11170920" y="1348740"/>
+          <a:ext cx="184731" cy="264560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>586740</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>15240</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="184731" cy="264560"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="14" name="テキスト ボックス 13"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9047568" y="2064757"/>
+          <a:ext cx="184731" cy="264560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="184731" cy="264560"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="15" name="テキスト ボックス 14"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9255672" y="3795548"/>
+          <a:ext cx="184731" cy="264560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>174735</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>47822</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>144517</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="16" name="フローチャート: 判断 15"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10448597" y="4317650"/>
+          <a:ext cx="2019300" cy="438281"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartDecision">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>ボタンを押す</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>264597</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>118242</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>354724</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>65690</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="17" name="フローチャート: 判断 16"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11142804" y="6779173"/>
+          <a:ext cx="3111851" cy="459827"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartDecision">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>全員がスコアを消した</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>183932</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>118242</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>433552</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>39415</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="19" name="フローチャート: 判断 18"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11062139" y="9511863"/>
+          <a:ext cx="3271344" cy="433552"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartDecision">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>選択シーンによって分岐</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>604082</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>65689</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>10379</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>85133</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="21" name="直線矢印コネクタ 20"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="3" idx="2"/>
+          <a:endCxn id="5" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12690979" y="1090448"/>
+          <a:ext cx="10641" cy="873409"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>1446</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>26275</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>10379</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>57545</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="25" name="直線矢印コネクタ 24"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="5" idx="2"/>
+          <a:endCxn id="6" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="12692687" y="2417378"/>
+          <a:ext cx="8933" cy="885236"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>580040</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>22204</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>186821</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>47822</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="28" name="直線矢印コネクタ 27"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="6" idx="1"/>
+          <a:endCxn id="16" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="11458247" y="3438066"/>
+          <a:ext cx="815471" cy="879584"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>580040</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>144517</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>112199</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>52684</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="33" name="直線矢印コネクタ 32"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="16" idx="2"/>
+          <a:endCxn id="7" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11458247" y="4755931"/>
+          <a:ext cx="740849" cy="932925"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>594755</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>52551</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>7489</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>118242</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="36" name="直線矢印コネクタ 35"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="7" idx="2"/>
+          <a:endCxn id="17" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12681652" y="5859517"/>
+          <a:ext cx="17078" cy="919656"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>249617</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>65690</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>455882</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>162385</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="43" name="フローチャート: 判断 42"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12940858" y="4335518"/>
+          <a:ext cx="2019300" cy="438281"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartDecision">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>ボタンを押す</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>472967</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>162385</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>50577</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>52684</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="45" name="直線矢印コネクタ 44"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="7" idx="3"/>
+          <a:endCxn id="43" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="13164208" y="4773799"/>
+          <a:ext cx="786300" cy="915057"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>420414</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>22204</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>50577</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>65690</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="48" name="直線矢印コネクタ 47"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="43" idx="0"/>
+          <a:endCxn id="6" idx="3"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="13111655" y="3438066"/>
+          <a:ext cx="838853" cy="897452"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>7359</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>65690</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>7489</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>13927</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="52" name="直線矢印コネクタ 51"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="17" idx="2"/>
+          <a:endCxn id="9" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="12698600" y="7239000"/>
+          <a:ext cx="130" cy="1143789"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>6570</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>7359</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>118242</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="55" name="直線矢印コネクタ 54"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="9" idx="2"/>
+          <a:endCxn id="19" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="12697811" y="8710449"/>
+          <a:ext cx="789" cy="801414"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>27325</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>39415</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>6570</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>19449</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="58" name="直線矢印コネクタ 57"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="19" idx="2"/>
+          <a:endCxn id="11" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="11509877" y="9945415"/>
+          <a:ext cx="1187934" cy="1004793"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>236220</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>164225</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>183932</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>20763</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="61" name="直線矢印コネクタ 60"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="19" idx="1"/>
+          <a:endCxn id="10" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="9301392" y="9728639"/>
+          <a:ext cx="1760747" cy="1222883"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>6570</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>39415</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>473491</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>24963</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="64" name="直線矢印コネクタ 63"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="19" idx="2"/>
+          <a:endCxn id="12" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12697811" y="9945415"/>
+          <a:ext cx="1071266" cy="1010307"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>13138</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>26276</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="853054" cy="325730"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="67" name="テキスト ボックス 66"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8473966" y="10444655"/>
+          <a:ext cx="853054" cy="325730"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400" b="1"/>
+            <a:t>他シーン</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>508175</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>6569</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>210207</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>13138</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="73" name="フローチャート: 端子 72"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="15012451" y="10937328"/>
+          <a:ext cx="1515066" cy="348155"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartTerminator">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>タイトル画面に移行</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>433552</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>164225</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>57018</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>6569</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="75" name="直線矢印コネクタ 74"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="19" idx="3"/>
+          <a:endCxn id="73" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="14333483" y="9728639"/>
+          <a:ext cx="1436501" cy="1208689"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -4110,8 +7400,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="P10" sqref="P10"/>
+    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="45" zoomScaleNormal="45" workbookViewId="0">
+      <selection activeCell="AE31" sqref="AE31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
@@ -4172,709 +7462,709 @@
       <c r="X2" s="5"/>
     </row>
     <row r="3" spans="2:24" x14ac:dyDescent="0.2">
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="7"/>
-      <c r="D3" s="6" t="s">
+      <c r="C3" s="6"/>
+      <c r="D3" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="E3" s="6"/>
-      <c r="F3" s="4" t="s">
+      <c r="E3" s="7"/>
+      <c r="F3" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="G3" s="4"/>
-      <c r="H3" s="4"/>
-      <c r="I3" s="4"/>
-      <c r="J3" s="6" t="s">
+      <c r="G3" s="3"/>
+      <c r="H3" s="3"/>
+      <c r="I3" s="3"/>
+      <c r="J3" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="K3" s="6"/>
-      <c r="L3" s="6"/>
-      <c r="M3" s="6"/>
-      <c r="N3" s="6" t="s">
+      <c r="K3" s="7"/>
+      <c r="L3" s="7"/>
+      <c r="M3" s="7"/>
+      <c r="N3" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="O3" s="6"/>
-      <c r="P3" s="6"/>
-      <c r="Q3" s="6"/>
-      <c r="R3" s="6" t="s">
+      <c r="O3" s="7"/>
+      <c r="P3" s="7"/>
+      <c r="Q3" s="7"/>
+      <c r="R3" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="S3" s="6"/>
-      <c r="T3" s="6"/>
-      <c r="U3" s="6"/>
-      <c r="V3" s="3" t="s">
+      <c r="S3" s="7"/>
+      <c r="T3" s="7"/>
+      <c r="U3" s="7"/>
+      <c r="V3" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="W3" s="3"/>
-      <c r="X3" s="3"/>
+      <c r="W3" s="4"/>
+      <c r="X3" s="4"/>
     </row>
     <row r="4" spans="2:24" x14ac:dyDescent="0.2">
-      <c r="B4" s="3"/>
-      <c r="C4" s="3"/>
-      <c r="D4" s="4"/>
-      <c r="E4" s="4"/>
-      <c r="F4" s="4"/>
-      <c r="G4" s="4"/>
-      <c r="H4" s="4"/>
-      <c r="I4" s="4"/>
-      <c r="J4" s="4"/>
-      <c r="K4" s="4"/>
-      <c r="L4" s="4"/>
-      <c r="M4" s="4"/>
-      <c r="N4" s="4"/>
-      <c r="O4" s="4"/>
-      <c r="P4" s="4"/>
-      <c r="Q4" s="4"/>
-      <c r="R4" s="4"/>
-      <c r="S4" s="4"/>
-      <c r="T4" s="4"/>
-      <c r="U4" s="4"/>
-      <c r="V4" s="3"/>
-      <c r="W4" s="3"/>
-      <c r="X4" s="3"/>
+      <c r="B4" s="4"/>
+      <c r="C4" s="4"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
+      <c r="G4" s="3"/>
+      <c r="H4" s="3"/>
+      <c r="I4" s="3"/>
+      <c r="J4" s="3"/>
+      <c r="K4" s="3"/>
+      <c r="L4" s="3"/>
+      <c r="M4" s="3"/>
+      <c r="N4" s="3"/>
+      <c r="O4" s="3"/>
+      <c r="P4" s="3"/>
+      <c r="Q4" s="3"/>
+      <c r="R4" s="3"/>
+      <c r="S4" s="3"/>
+      <c r="T4" s="3"/>
+      <c r="U4" s="3"/>
+      <c r="V4" s="4"/>
+      <c r="W4" s="4"/>
+      <c r="X4" s="4"/>
     </row>
     <row r="5" spans="2:24" x14ac:dyDescent="0.2">
-      <c r="B5" s="3"/>
-      <c r="C5" s="3"/>
-      <c r="D5" s="4"/>
-      <c r="E5" s="4"/>
-      <c r="F5" s="4"/>
-      <c r="G5" s="4"/>
-      <c r="H5" s="4"/>
-      <c r="I5" s="4"/>
-      <c r="J5" s="4"/>
-      <c r="K5" s="4"/>
-      <c r="L5" s="4"/>
-      <c r="M5" s="4"/>
-      <c r="N5" s="4"/>
-      <c r="O5" s="4"/>
-      <c r="P5" s="4"/>
-      <c r="Q5" s="4"/>
-      <c r="R5" s="4"/>
-      <c r="S5" s="4"/>
-      <c r="T5" s="4"/>
-      <c r="U5" s="4"/>
-      <c r="V5" s="3"/>
-      <c r="W5" s="3"/>
-      <c r="X5" s="3"/>
+      <c r="B5" s="4"/>
+      <c r="C5" s="4"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
+      <c r="G5" s="3"/>
+      <c r="H5" s="3"/>
+      <c r="I5" s="3"/>
+      <c r="J5" s="3"/>
+      <c r="K5" s="3"/>
+      <c r="L5" s="3"/>
+      <c r="M5" s="3"/>
+      <c r="N5" s="3"/>
+      <c r="O5" s="3"/>
+      <c r="P5" s="3"/>
+      <c r="Q5" s="3"/>
+      <c r="R5" s="3"/>
+      <c r="S5" s="3"/>
+      <c r="T5" s="3"/>
+      <c r="U5" s="3"/>
+      <c r="V5" s="4"/>
+      <c r="W5" s="4"/>
+      <c r="X5" s="4"/>
     </row>
     <row r="6" spans="2:24" x14ac:dyDescent="0.2">
-      <c r="B6" s="3"/>
-      <c r="C6" s="3"/>
-      <c r="D6" s="4"/>
-      <c r="E6" s="4"/>
-      <c r="F6" s="4"/>
-      <c r="G6" s="4"/>
-      <c r="H6" s="4"/>
-      <c r="I6" s="4"/>
-      <c r="J6" s="4"/>
-      <c r="K6" s="4"/>
-      <c r="L6" s="4"/>
-      <c r="M6" s="4"/>
-      <c r="N6" s="4"/>
-      <c r="O6" s="4"/>
-      <c r="P6" s="4"/>
-      <c r="Q6" s="4"/>
-      <c r="R6" s="4"/>
-      <c r="S6" s="4"/>
-      <c r="T6" s="4"/>
-      <c r="U6" s="4"/>
-      <c r="V6" s="3"/>
-      <c r="W6" s="3"/>
-      <c r="X6" s="3"/>
+      <c r="B6" s="4"/>
+      <c r="C6" s="4"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
+      <c r="G6" s="3"/>
+      <c r="H6" s="3"/>
+      <c r="I6" s="3"/>
+      <c r="J6" s="3"/>
+      <c r="K6" s="3"/>
+      <c r="L6" s="3"/>
+      <c r="M6" s="3"/>
+      <c r="N6" s="3"/>
+      <c r="O6" s="3"/>
+      <c r="P6" s="3"/>
+      <c r="Q6" s="3"/>
+      <c r="R6" s="3"/>
+      <c r="S6" s="3"/>
+      <c r="T6" s="3"/>
+      <c r="U6" s="3"/>
+      <c r="V6" s="4"/>
+      <c r="W6" s="4"/>
+      <c r="X6" s="4"/>
     </row>
     <row r="7" spans="2:24" x14ac:dyDescent="0.2">
-      <c r="B7" s="3"/>
-      <c r="C7" s="3"/>
-      <c r="D7" s="4"/>
-      <c r="E7" s="4"/>
-      <c r="F7" s="4"/>
-      <c r="G7" s="4"/>
-      <c r="H7" s="4"/>
-      <c r="I7" s="4"/>
-      <c r="J7" s="4"/>
-      <c r="K7" s="4"/>
-      <c r="L7" s="4"/>
-      <c r="M7" s="4"/>
-      <c r="N7" s="4"/>
-      <c r="O7" s="4"/>
-      <c r="P7" s="4"/>
-      <c r="Q7" s="4"/>
-      <c r="R7" s="4"/>
-      <c r="S7" s="4"/>
-      <c r="T7" s="4"/>
-      <c r="U7" s="4"/>
-      <c r="V7" s="3"/>
-      <c r="W7" s="3"/>
-      <c r="X7" s="3"/>
+      <c r="B7" s="4"/>
+      <c r="C7" s="4"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
+      <c r="G7" s="3"/>
+      <c r="H7" s="3"/>
+      <c r="I7" s="3"/>
+      <c r="J7" s="3"/>
+      <c r="K7" s="3"/>
+      <c r="L7" s="3"/>
+      <c r="M7" s="3"/>
+      <c r="N7" s="3"/>
+      <c r="O7" s="3"/>
+      <c r="P7" s="3"/>
+      <c r="Q7" s="3"/>
+      <c r="R7" s="3"/>
+      <c r="S7" s="3"/>
+      <c r="T7" s="3"/>
+      <c r="U7" s="3"/>
+      <c r="V7" s="4"/>
+      <c r="W7" s="4"/>
+      <c r="X7" s="4"/>
     </row>
     <row r="8" spans="2:24" x14ac:dyDescent="0.2">
-      <c r="B8" s="4" t="s">
+      <c r="B8" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C8" s="4"/>
-      <c r="D8" s="3" t="s">
+      <c r="C8" s="3"/>
+      <c r="D8" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="E8" s="3"/>
-      <c r="F8" s="4" t="s">
+      <c r="E8" s="4"/>
+      <c r="F8" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="G8" s="4"/>
-      <c r="H8" s="4"/>
-      <c r="I8" s="4"/>
-      <c r="J8" s="4" t="s">
+      <c r="G8" s="3"/>
+      <c r="H8" s="3"/>
+      <c r="I8" s="3"/>
+      <c r="J8" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="K8" s="4"/>
-      <c r="L8" s="4"/>
-      <c r="M8" s="4"/>
-      <c r="N8" s="4" t="s">
+      <c r="K8" s="3"/>
+      <c r="L8" s="3"/>
+      <c r="M8" s="3"/>
+      <c r="N8" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="O8" s="4"/>
-      <c r="P8" s="4"/>
-      <c r="Q8" s="4"/>
-      <c r="R8" s="4" t="s">
+      <c r="O8" s="3"/>
+      <c r="P8" s="3"/>
+      <c r="Q8" s="3"/>
+      <c r="R8" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="S8" s="4"/>
-      <c r="T8" s="4"/>
-      <c r="U8" s="4"/>
-      <c r="V8" s="3" t="s">
+      <c r="S8" s="3"/>
+      <c r="T8" s="3"/>
+      <c r="U8" s="3"/>
+      <c r="V8" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="W8" s="3"/>
-      <c r="X8" s="3"/>
+      <c r="W8" s="4"/>
+      <c r="X8" s="4"/>
     </row>
     <row r="9" spans="2:24" x14ac:dyDescent="0.2">
-      <c r="B9" s="4"/>
-      <c r="C9" s="4"/>
-      <c r="D9" s="3"/>
-      <c r="E9" s="3"/>
-      <c r="F9" s="4"/>
-      <c r="G9" s="4"/>
-      <c r="H9" s="4"/>
-      <c r="I9" s="4"/>
-      <c r="J9" s="4"/>
-      <c r="K9" s="4"/>
-      <c r="L9" s="4"/>
-      <c r="M9" s="4"/>
-      <c r="N9" s="4"/>
-      <c r="O9" s="4"/>
-      <c r="P9" s="4"/>
-      <c r="Q9" s="4"/>
-      <c r="R9" s="4"/>
-      <c r="S9" s="4"/>
-      <c r="T9" s="4"/>
-      <c r="U9" s="4"/>
-      <c r="V9" s="3"/>
-      <c r="W9" s="3"/>
-      <c r="X9" s="3"/>
+      <c r="B9" s="3"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="4"/>
+      <c r="E9" s="4"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="3"/>
+      <c r="H9" s="3"/>
+      <c r="I9" s="3"/>
+      <c r="J9" s="3"/>
+      <c r="K9" s="3"/>
+      <c r="L9" s="3"/>
+      <c r="M9" s="3"/>
+      <c r="N9" s="3"/>
+      <c r="O9" s="3"/>
+      <c r="P9" s="3"/>
+      <c r="Q9" s="3"/>
+      <c r="R9" s="3"/>
+      <c r="S9" s="3"/>
+      <c r="T9" s="3"/>
+      <c r="U9" s="3"/>
+      <c r="V9" s="4"/>
+      <c r="W9" s="4"/>
+      <c r="X9" s="4"/>
     </row>
     <row r="10" spans="2:24" x14ac:dyDescent="0.2">
-      <c r="B10" s="4"/>
-      <c r="C10" s="4"/>
-      <c r="D10" s="3"/>
-      <c r="E10" s="3"/>
-      <c r="F10" s="4"/>
-      <c r="G10" s="4"/>
-      <c r="H10" s="4"/>
-      <c r="I10" s="4"/>
-      <c r="J10" s="4"/>
-      <c r="K10" s="4"/>
-      <c r="L10" s="4"/>
-      <c r="M10" s="4"/>
-      <c r="N10" s="4"/>
-      <c r="O10" s="4"/>
-      <c r="P10" s="4"/>
-      <c r="Q10" s="4"/>
-      <c r="R10" s="4"/>
-      <c r="S10" s="4"/>
-      <c r="T10" s="4"/>
-      <c r="U10" s="4"/>
-      <c r="V10" s="3"/>
-      <c r="W10" s="3"/>
-      <c r="X10" s="3"/>
+      <c r="B10" s="3"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="4"/>
+      <c r="E10" s="4"/>
+      <c r="F10" s="3"/>
+      <c r="G10" s="3"/>
+      <c r="H10" s="3"/>
+      <c r="I10" s="3"/>
+      <c r="J10" s="3"/>
+      <c r="K10" s="3"/>
+      <c r="L10" s="3"/>
+      <c r="M10" s="3"/>
+      <c r="N10" s="3"/>
+      <c r="O10" s="3"/>
+      <c r="P10" s="3"/>
+      <c r="Q10" s="3"/>
+      <c r="R10" s="3"/>
+      <c r="S10" s="3"/>
+      <c r="T10" s="3"/>
+      <c r="U10" s="3"/>
+      <c r="V10" s="4"/>
+      <c r="W10" s="4"/>
+      <c r="X10" s="4"/>
     </row>
     <row r="11" spans="2:24" x14ac:dyDescent="0.2">
-      <c r="B11" s="4"/>
-      <c r="C11" s="4"/>
-      <c r="D11" s="3"/>
-      <c r="E11" s="3"/>
-      <c r="F11" s="4"/>
-      <c r="G11" s="4"/>
-      <c r="H11" s="4"/>
-      <c r="I11" s="4"/>
-      <c r="J11" s="4"/>
-      <c r="K11" s="4"/>
-      <c r="L11" s="4"/>
-      <c r="M11" s="4"/>
-      <c r="N11" s="4"/>
-      <c r="O11" s="4"/>
-      <c r="P11" s="4"/>
-      <c r="Q11" s="4"/>
-      <c r="R11" s="4"/>
-      <c r="S11" s="4"/>
-      <c r="T11" s="4"/>
-      <c r="U11" s="4"/>
-      <c r="V11" s="3"/>
-      <c r="W11" s="3"/>
-      <c r="X11" s="3"/>
+      <c r="B11" s="3"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="4"/>
+      <c r="E11" s="4"/>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3"/>
+      <c r="H11" s="3"/>
+      <c r="I11" s="3"/>
+      <c r="J11" s="3"/>
+      <c r="K11" s="3"/>
+      <c r="L11" s="3"/>
+      <c r="M11" s="3"/>
+      <c r="N11" s="3"/>
+      <c r="O11" s="3"/>
+      <c r="P11" s="3"/>
+      <c r="Q11" s="3"/>
+      <c r="R11" s="3"/>
+      <c r="S11" s="3"/>
+      <c r="T11" s="3"/>
+      <c r="U11" s="3"/>
+      <c r="V11" s="4"/>
+      <c r="W11" s="4"/>
+      <c r="X11" s="4"/>
     </row>
     <row r="12" spans="2:24" x14ac:dyDescent="0.2">
-      <c r="B12" s="4"/>
-      <c r="C12" s="4"/>
-      <c r="D12" s="3"/>
-      <c r="E12" s="3"/>
-      <c r="F12" s="4"/>
-      <c r="G12" s="4"/>
-      <c r="H12" s="4"/>
-      <c r="I12" s="4"/>
-      <c r="J12" s="4"/>
-      <c r="K12" s="4"/>
-      <c r="L12" s="4"/>
-      <c r="M12" s="4"/>
-      <c r="N12" s="4"/>
-      <c r="O12" s="4"/>
-      <c r="P12" s="4"/>
-      <c r="Q12" s="4"/>
-      <c r="R12" s="4"/>
-      <c r="S12" s="4"/>
-      <c r="T12" s="4"/>
-      <c r="U12" s="4"/>
-      <c r="V12" s="3"/>
-      <c r="W12" s="3"/>
-      <c r="X12" s="3"/>
+      <c r="B12" s="3"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="4"/>
+      <c r="E12" s="4"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3"/>
+      <c r="H12" s="3"/>
+      <c r="I12" s="3"/>
+      <c r="J12" s="3"/>
+      <c r="K12" s="3"/>
+      <c r="L12" s="3"/>
+      <c r="M12" s="3"/>
+      <c r="N12" s="3"/>
+      <c r="O12" s="3"/>
+      <c r="P12" s="3"/>
+      <c r="Q12" s="3"/>
+      <c r="R12" s="3"/>
+      <c r="S12" s="3"/>
+      <c r="T12" s="3"/>
+      <c r="U12" s="3"/>
+      <c r="V12" s="4"/>
+      <c r="W12" s="4"/>
+      <c r="X12" s="4"/>
     </row>
     <row r="13" spans="2:24" ht="13.2" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B13" s="4" t="s">
+      <c r="B13" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="C13" s="4"/>
-      <c r="D13" s="4" t="s">
+      <c r="C13" s="3"/>
+      <c r="D13" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="E13" s="4"/>
-      <c r="F13" s="4" t="s">
+      <c r="E13" s="3"/>
+      <c r="F13" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="G13" s="4"/>
-      <c r="H13" s="4"/>
-      <c r="I13" s="4"/>
-      <c r="J13" s="4" t="s">
+      <c r="G13" s="3"/>
+      <c r="H13" s="3"/>
+      <c r="I13" s="3"/>
+      <c r="J13" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="K13" s="4"/>
-      <c r="L13" s="4"/>
-      <c r="M13" s="4"/>
-      <c r="N13" s="4" t="s">
+      <c r="K13" s="3"/>
+      <c r="L13" s="3"/>
+      <c r="M13" s="3"/>
+      <c r="N13" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="O13" s="4"/>
-      <c r="P13" s="4"/>
-      <c r="Q13" s="4"/>
-      <c r="R13" s="3" t="s">
+      <c r="O13" s="3"/>
+      <c r="P13" s="3"/>
+      <c r="Q13" s="3"/>
+      <c r="R13" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="S13" s="3"/>
-      <c r="T13" s="3"/>
-      <c r="U13" s="3"/>
-      <c r="V13" s="3" t="s">
+      <c r="S13" s="4"/>
+      <c r="T13" s="4"/>
+      <c r="U13" s="4"/>
+      <c r="V13" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="W13" s="3"/>
-      <c r="X13" s="3"/>
+      <c r="W13" s="4"/>
+      <c r="X13" s="4"/>
     </row>
     <row r="14" spans="2:24" x14ac:dyDescent="0.2">
-      <c r="B14" s="4"/>
-      <c r="C14" s="4"/>
-      <c r="D14" s="4"/>
-      <c r="E14" s="4"/>
-      <c r="F14" s="4"/>
-      <c r="G14" s="4"/>
-      <c r="H14" s="4"/>
-      <c r="I14" s="4"/>
-      <c r="J14" s="4"/>
-      <c r="K14" s="4"/>
-      <c r="L14" s="4"/>
-      <c r="M14" s="4"/>
-      <c r="N14" s="4"/>
-      <c r="O14" s="4"/>
-      <c r="P14" s="4"/>
-      <c r="Q14" s="4"/>
-      <c r="R14" s="3"/>
-      <c r="S14" s="3"/>
-      <c r="T14" s="3"/>
-      <c r="U14" s="3"/>
-      <c r="V14" s="3"/>
-      <c r="W14" s="3"/>
-      <c r="X14" s="3"/>
+      <c r="B14" s="3"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3"/>
+      <c r="H14" s="3"/>
+      <c r="I14" s="3"/>
+      <c r="J14" s="3"/>
+      <c r="K14" s="3"/>
+      <c r="L14" s="3"/>
+      <c r="M14" s="3"/>
+      <c r="N14" s="3"/>
+      <c r="O14" s="3"/>
+      <c r="P14" s="3"/>
+      <c r="Q14" s="3"/>
+      <c r="R14" s="4"/>
+      <c r="S14" s="4"/>
+      <c r="T14" s="4"/>
+      <c r="U14" s="4"/>
+      <c r="V14" s="4"/>
+      <c r="W14" s="4"/>
+      <c r="X14" s="4"/>
     </row>
     <row r="15" spans="2:24" x14ac:dyDescent="0.2">
-      <c r="B15" s="4"/>
-      <c r="C15" s="4"/>
-      <c r="D15" s="4"/>
-      <c r="E15" s="4"/>
-      <c r="F15" s="4"/>
-      <c r="G15" s="4"/>
-      <c r="H15" s="4"/>
-      <c r="I15" s="4"/>
-      <c r="J15" s="4"/>
-      <c r="K15" s="4"/>
-      <c r="L15" s="4"/>
-      <c r="M15" s="4"/>
-      <c r="N15" s="4"/>
-      <c r="O15" s="4"/>
-      <c r="P15" s="4"/>
-      <c r="Q15" s="4"/>
-      <c r="R15" s="3"/>
-      <c r="S15" s="3"/>
-      <c r="T15" s="3"/>
-      <c r="U15" s="3"/>
-      <c r="V15" s="3"/>
-      <c r="W15" s="3"/>
-      <c r="X15" s="3"/>
+      <c r="B15" s="3"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3"/>
+      <c r="G15" s="3"/>
+      <c r="H15" s="3"/>
+      <c r="I15" s="3"/>
+      <c r="J15" s="3"/>
+      <c r="K15" s="3"/>
+      <c r="L15" s="3"/>
+      <c r="M15" s="3"/>
+      <c r="N15" s="3"/>
+      <c r="O15" s="3"/>
+      <c r="P15" s="3"/>
+      <c r="Q15" s="3"/>
+      <c r="R15" s="4"/>
+      <c r="S15" s="4"/>
+      <c r="T15" s="4"/>
+      <c r="U15" s="4"/>
+      <c r="V15" s="4"/>
+      <c r="W15" s="4"/>
+      <c r="X15" s="4"/>
     </row>
     <row r="16" spans="2:24" x14ac:dyDescent="0.2">
-      <c r="B16" s="4"/>
-      <c r="C16" s="4"/>
-      <c r="D16" s="4"/>
-      <c r="E16" s="4"/>
-      <c r="F16" s="4"/>
-      <c r="G16" s="4"/>
-      <c r="H16" s="4"/>
-      <c r="I16" s="4"/>
-      <c r="J16" s="4"/>
-      <c r="K16" s="4"/>
-      <c r="L16" s="4"/>
-      <c r="M16" s="4"/>
-      <c r="N16" s="4"/>
-      <c r="O16" s="4"/>
-      <c r="P16" s="4"/>
-      <c r="Q16" s="4"/>
-      <c r="R16" s="3"/>
-      <c r="S16" s="3"/>
-      <c r="T16" s="3"/>
-      <c r="U16" s="3"/>
-      <c r="V16" s="3"/>
-      <c r="W16" s="3"/>
-      <c r="X16" s="3"/>
+      <c r="B16" s="3"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="3"/>
+      <c r="G16" s="3"/>
+      <c r="H16" s="3"/>
+      <c r="I16" s="3"/>
+      <c r="J16" s="3"/>
+      <c r="K16" s="3"/>
+      <c r="L16" s="3"/>
+      <c r="M16" s="3"/>
+      <c r="N16" s="3"/>
+      <c r="O16" s="3"/>
+      <c r="P16" s="3"/>
+      <c r="Q16" s="3"/>
+      <c r="R16" s="4"/>
+      <c r="S16" s="4"/>
+      <c r="T16" s="4"/>
+      <c r="U16" s="4"/>
+      <c r="V16" s="4"/>
+      <c r="W16" s="4"/>
+      <c r="X16" s="4"/>
     </row>
     <row r="17" spans="2:24" x14ac:dyDescent="0.2">
-      <c r="B17" s="4"/>
-      <c r="C17" s="4"/>
-      <c r="D17" s="4"/>
-      <c r="E17" s="4"/>
-      <c r="F17" s="4"/>
-      <c r="G17" s="4"/>
-      <c r="H17" s="4"/>
-      <c r="I17" s="4"/>
-      <c r="J17" s="4"/>
-      <c r="K17" s="4"/>
-      <c r="L17" s="4"/>
-      <c r="M17" s="4"/>
-      <c r="N17" s="4"/>
-      <c r="O17" s="4"/>
-      <c r="P17" s="4"/>
-      <c r="Q17" s="4"/>
-      <c r="R17" s="3"/>
-      <c r="S17" s="3"/>
-      <c r="T17" s="3"/>
-      <c r="U17" s="3"/>
-      <c r="V17" s="3"/>
-      <c r="W17" s="3"/>
-      <c r="X17" s="3"/>
+      <c r="B17" s="3"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="3"/>
+      <c r="G17" s="3"/>
+      <c r="H17" s="3"/>
+      <c r="I17" s="3"/>
+      <c r="J17" s="3"/>
+      <c r="K17" s="3"/>
+      <c r="L17" s="3"/>
+      <c r="M17" s="3"/>
+      <c r="N17" s="3"/>
+      <c r="O17" s="3"/>
+      <c r="P17" s="3"/>
+      <c r="Q17" s="3"/>
+      <c r="R17" s="4"/>
+      <c r="S17" s="4"/>
+      <c r="T17" s="4"/>
+      <c r="U17" s="4"/>
+      <c r="V17" s="4"/>
+      <c r="W17" s="4"/>
+      <c r="X17" s="4"/>
     </row>
     <row r="18" spans="2:24" x14ac:dyDescent="0.2">
-      <c r="B18" s="4" t="s">
+      <c r="B18" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="C18" s="4"/>
-      <c r="D18" s="3" t="s">
+      <c r="C18" s="3"/>
+      <c r="D18" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="E18" s="3"/>
-      <c r="F18" s="4" t="s">
+      <c r="E18" s="4"/>
+      <c r="F18" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="G18" s="4"/>
-      <c r="H18" s="4"/>
-      <c r="I18" s="4"/>
-      <c r="J18" s="4" t="s">
+      <c r="G18" s="3"/>
+      <c r="H18" s="3"/>
+      <c r="I18" s="3"/>
+      <c r="J18" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="K18" s="4"/>
-      <c r="L18" s="4"/>
-      <c r="M18" s="4"/>
-      <c r="N18" s="4" t="s">
+      <c r="K18" s="3"/>
+      <c r="L18" s="3"/>
+      <c r="M18" s="3"/>
+      <c r="N18" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="O18" s="4"/>
-      <c r="P18" s="4"/>
-      <c r="Q18" s="4"/>
-      <c r="R18" s="3" t="s">
+      <c r="O18" s="3"/>
+      <c r="P18" s="3"/>
+      <c r="Q18" s="3"/>
+      <c r="R18" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="S18" s="3"/>
-      <c r="T18" s="3"/>
-      <c r="U18" s="3"/>
-      <c r="V18" s="3" t="s">
+      <c r="S18" s="4"/>
+      <c r="T18" s="4"/>
+      <c r="U18" s="4"/>
+      <c r="V18" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="W18" s="3"/>
-      <c r="X18" s="3"/>
+      <c r="W18" s="4"/>
+      <c r="X18" s="4"/>
     </row>
     <row r="19" spans="2:24" x14ac:dyDescent="0.2">
-      <c r="B19" s="4"/>
-      <c r="C19" s="4"/>
-      <c r="D19" s="3"/>
-      <c r="E19" s="3"/>
-      <c r="F19" s="4"/>
-      <c r="G19" s="4"/>
-      <c r="H19" s="4"/>
-      <c r="I19" s="4"/>
-      <c r="J19" s="4"/>
-      <c r="K19" s="4"/>
-      <c r="L19" s="4"/>
-      <c r="M19" s="4"/>
-      <c r="N19" s="4"/>
-      <c r="O19" s="4"/>
-      <c r="P19" s="4"/>
-      <c r="Q19" s="4"/>
-      <c r="R19" s="3"/>
-      <c r="S19" s="3"/>
-      <c r="T19" s="3"/>
-      <c r="U19" s="3"/>
-      <c r="V19" s="3"/>
-      <c r="W19" s="3"/>
-      <c r="X19" s="3"/>
+      <c r="B19" s="3"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="4"/>
+      <c r="E19" s="4"/>
+      <c r="F19" s="3"/>
+      <c r="G19" s="3"/>
+      <c r="H19" s="3"/>
+      <c r="I19" s="3"/>
+      <c r="J19" s="3"/>
+      <c r="K19" s="3"/>
+      <c r="L19" s="3"/>
+      <c r="M19" s="3"/>
+      <c r="N19" s="3"/>
+      <c r="O19" s="3"/>
+      <c r="P19" s="3"/>
+      <c r="Q19" s="3"/>
+      <c r="R19" s="4"/>
+      <c r="S19" s="4"/>
+      <c r="T19" s="4"/>
+      <c r="U19" s="4"/>
+      <c r="V19" s="4"/>
+      <c r="W19" s="4"/>
+      <c r="X19" s="4"/>
     </row>
     <row r="20" spans="2:24" x14ac:dyDescent="0.2">
-      <c r="B20" s="4"/>
-      <c r="C20" s="4"/>
-      <c r="D20" s="3"/>
-      <c r="E20" s="3"/>
-      <c r="F20" s="4"/>
-      <c r="G20" s="4"/>
-      <c r="H20" s="4"/>
-      <c r="I20" s="4"/>
-      <c r="J20" s="4"/>
-      <c r="K20" s="4"/>
-      <c r="L20" s="4"/>
-      <c r="M20" s="4"/>
-      <c r="N20" s="4"/>
-      <c r="O20" s="4"/>
-      <c r="P20" s="4"/>
-      <c r="Q20" s="4"/>
-      <c r="R20" s="3"/>
-      <c r="S20" s="3"/>
-      <c r="T20" s="3"/>
-      <c r="U20" s="3"/>
-      <c r="V20" s="3"/>
-      <c r="W20" s="3"/>
-      <c r="X20" s="3"/>
+      <c r="B20" s="3"/>
+      <c r="C20" s="3"/>
+      <c r="D20" s="4"/>
+      <c r="E20" s="4"/>
+      <c r="F20" s="3"/>
+      <c r="G20" s="3"/>
+      <c r="H20" s="3"/>
+      <c r="I20" s="3"/>
+      <c r="J20" s="3"/>
+      <c r="K20" s="3"/>
+      <c r="L20" s="3"/>
+      <c r="M20" s="3"/>
+      <c r="N20" s="3"/>
+      <c r="O20" s="3"/>
+      <c r="P20" s="3"/>
+      <c r="Q20" s="3"/>
+      <c r="R20" s="4"/>
+      <c r="S20" s="4"/>
+      <c r="T20" s="4"/>
+      <c r="U20" s="4"/>
+      <c r="V20" s="4"/>
+      <c r="W20" s="4"/>
+      <c r="X20" s="4"/>
     </row>
     <row r="21" spans="2:24" x14ac:dyDescent="0.2">
-      <c r="B21" s="4"/>
-      <c r="C21" s="4"/>
-      <c r="D21" s="3"/>
-      <c r="E21" s="3"/>
-      <c r="F21" s="4"/>
-      <c r="G21" s="4"/>
-      <c r="H21" s="4"/>
-      <c r="I21" s="4"/>
-      <c r="J21" s="4"/>
-      <c r="K21" s="4"/>
-      <c r="L21" s="4"/>
-      <c r="M21" s="4"/>
-      <c r="N21" s="4"/>
-      <c r="O21" s="4"/>
-      <c r="P21" s="4"/>
-      <c r="Q21" s="4"/>
-      <c r="R21" s="3"/>
-      <c r="S21" s="3"/>
-      <c r="T21" s="3"/>
-      <c r="U21" s="3"/>
-      <c r="V21" s="3"/>
-      <c r="W21" s="3"/>
-      <c r="X21" s="3"/>
+      <c r="B21" s="3"/>
+      <c r="C21" s="3"/>
+      <c r="D21" s="4"/>
+      <c r="E21" s="4"/>
+      <c r="F21" s="3"/>
+      <c r="G21" s="3"/>
+      <c r="H21" s="3"/>
+      <c r="I21" s="3"/>
+      <c r="J21" s="3"/>
+      <c r="K21" s="3"/>
+      <c r="L21" s="3"/>
+      <c r="M21" s="3"/>
+      <c r="N21" s="3"/>
+      <c r="O21" s="3"/>
+      <c r="P21" s="3"/>
+      <c r="Q21" s="3"/>
+      <c r="R21" s="4"/>
+      <c r="S21" s="4"/>
+      <c r="T21" s="4"/>
+      <c r="U21" s="4"/>
+      <c r="V21" s="4"/>
+      <c r="W21" s="4"/>
+      <c r="X21" s="4"/>
     </row>
     <row r="22" spans="2:24" x14ac:dyDescent="0.2">
-      <c r="B22" s="4"/>
-      <c r="C22" s="4"/>
-      <c r="D22" s="3"/>
-      <c r="E22" s="3"/>
-      <c r="F22" s="4"/>
-      <c r="G22" s="4"/>
-      <c r="H22" s="4"/>
-      <c r="I22" s="4"/>
-      <c r="J22" s="4"/>
-      <c r="K22" s="4"/>
-      <c r="L22" s="4"/>
-      <c r="M22" s="4"/>
-      <c r="N22" s="4"/>
-      <c r="O22" s="4"/>
-      <c r="P22" s="4"/>
-      <c r="Q22" s="4"/>
-      <c r="R22" s="3"/>
-      <c r="S22" s="3"/>
-      <c r="T22" s="3"/>
-      <c r="U22" s="3"/>
-      <c r="V22" s="3"/>
-      <c r="W22" s="3"/>
-      <c r="X22" s="3"/>
+      <c r="B22" s="3"/>
+      <c r="C22" s="3"/>
+      <c r="D22" s="4"/>
+      <c r="E22" s="4"/>
+      <c r="F22" s="3"/>
+      <c r="G22" s="3"/>
+      <c r="H22" s="3"/>
+      <c r="I22" s="3"/>
+      <c r="J22" s="3"/>
+      <c r="K22" s="3"/>
+      <c r="L22" s="3"/>
+      <c r="M22" s="3"/>
+      <c r="N22" s="3"/>
+      <c r="O22" s="3"/>
+      <c r="P22" s="3"/>
+      <c r="Q22" s="3"/>
+      <c r="R22" s="4"/>
+      <c r="S22" s="4"/>
+      <c r="T22" s="4"/>
+      <c r="U22" s="4"/>
+      <c r="V22" s="4"/>
+      <c r="W22" s="4"/>
+      <c r="X22" s="4"/>
     </row>
     <row r="23" spans="2:24" x14ac:dyDescent="0.2">
-      <c r="B23" s="4" t="s">
+      <c r="B23" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="C23" s="4"/>
-      <c r="D23" s="4" t="s">
+      <c r="C23" s="3"/>
+      <c r="D23" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="E23" s="4"/>
-      <c r="F23" s="4" t="s">
+      <c r="E23" s="3"/>
+      <c r="F23" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="G23" s="4"/>
-      <c r="H23" s="4"/>
-      <c r="I23" s="4"/>
-      <c r="J23" s="3" t="s">
+      <c r="G23" s="3"/>
+      <c r="H23" s="3"/>
+      <c r="I23" s="3"/>
+      <c r="J23" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="K23" s="3"/>
-      <c r="L23" s="3"/>
-      <c r="M23" s="3"/>
-      <c r="N23" s="3" t="s">
+      <c r="K23" s="4"/>
+      <c r="L23" s="4"/>
+      <c r="M23" s="4"/>
+      <c r="N23" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="O23" s="3"/>
-      <c r="P23" s="3"/>
-      <c r="Q23" s="3"/>
-      <c r="R23" s="4" t="s">
+      <c r="O23" s="4"/>
+      <c r="P23" s="4"/>
+      <c r="Q23" s="4"/>
+      <c r="R23" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="S23" s="4"/>
-      <c r="T23" s="4"/>
-      <c r="U23" s="4"/>
-      <c r="V23" s="3" t="s">
+      <c r="S23" s="3"/>
+      <c r="T23" s="3"/>
+      <c r="U23" s="3"/>
+      <c r="V23" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="W23" s="3"/>
-      <c r="X23" s="3"/>
+      <c r="W23" s="4"/>
+      <c r="X23" s="4"/>
     </row>
     <row r="24" spans="2:24" x14ac:dyDescent="0.2">
-      <c r="B24" s="4"/>
-      <c r="C24" s="4"/>
-      <c r="D24" s="4"/>
-      <c r="E24" s="4"/>
-      <c r="F24" s="4"/>
-      <c r="G24" s="4"/>
-      <c r="H24" s="4"/>
-      <c r="I24" s="4"/>
-      <c r="J24" s="3"/>
-      <c r="K24" s="3"/>
-      <c r="L24" s="3"/>
-      <c r="M24" s="3"/>
-      <c r="N24" s="3"/>
-      <c r="O24" s="3"/>
-      <c r="P24" s="3"/>
-      <c r="Q24" s="3"/>
-      <c r="R24" s="4"/>
-      <c r="S24" s="4"/>
-      <c r="T24" s="4"/>
-      <c r="U24" s="4"/>
-      <c r="V24" s="3"/>
-      <c r="W24" s="3"/>
-      <c r="X24" s="3"/>
+      <c r="B24" s="3"/>
+      <c r="C24" s="3"/>
+      <c r="D24" s="3"/>
+      <c r="E24" s="3"/>
+      <c r="F24" s="3"/>
+      <c r="G24" s="3"/>
+      <c r="H24" s="3"/>
+      <c r="I24" s="3"/>
+      <c r="J24" s="4"/>
+      <c r="K24" s="4"/>
+      <c r="L24" s="4"/>
+      <c r="M24" s="4"/>
+      <c r="N24" s="4"/>
+      <c r="O24" s="4"/>
+      <c r="P24" s="4"/>
+      <c r="Q24" s="4"/>
+      <c r="R24" s="3"/>
+      <c r="S24" s="3"/>
+      <c r="T24" s="3"/>
+      <c r="U24" s="3"/>
+      <c r="V24" s="4"/>
+      <c r="W24" s="4"/>
+      <c r="X24" s="4"/>
     </row>
     <row r="25" spans="2:24" x14ac:dyDescent="0.2">
-      <c r="B25" s="4"/>
-      <c r="C25" s="4"/>
-      <c r="D25" s="4"/>
-      <c r="E25" s="4"/>
-      <c r="F25" s="4"/>
-      <c r="G25" s="4"/>
-      <c r="H25" s="4"/>
-      <c r="I25" s="4"/>
-      <c r="J25" s="3"/>
-      <c r="K25" s="3"/>
-      <c r="L25" s="3"/>
-      <c r="M25" s="3"/>
-      <c r="N25" s="3"/>
-      <c r="O25" s="3"/>
-      <c r="P25" s="3"/>
-      <c r="Q25" s="3"/>
-      <c r="R25" s="4"/>
-      <c r="S25" s="4"/>
-      <c r="T25" s="4"/>
-      <c r="U25" s="4"/>
-      <c r="V25" s="3"/>
-      <c r="W25" s="3"/>
-      <c r="X25" s="3"/>
+      <c r="B25" s="3"/>
+      <c r="C25" s="3"/>
+      <c r="D25" s="3"/>
+      <c r="E25" s="3"/>
+      <c r="F25" s="3"/>
+      <c r="G25" s="3"/>
+      <c r="H25" s="3"/>
+      <c r="I25" s="3"/>
+      <c r="J25" s="4"/>
+      <c r="K25" s="4"/>
+      <c r="L25" s="4"/>
+      <c r="M25" s="4"/>
+      <c r="N25" s="4"/>
+      <c r="O25" s="4"/>
+      <c r="P25" s="4"/>
+      <c r="Q25" s="4"/>
+      <c r="R25" s="3"/>
+      <c r="S25" s="3"/>
+      <c r="T25" s="3"/>
+      <c r="U25" s="3"/>
+      <c r="V25" s="4"/>
+      <c r="W25" s="4"/>
+      <c r="X25" s="4"/>
     </row>
     <row r="26" spans="2:24" x14ac:dyDescent="0.2">
-      <c r="B26" s="4"/>
-      <c r="C26" s="4"/>
-      <c r="D26" s="4"/>
-      <c r="E26" s="4"/>
-      <c r="F26" s="4"/>
-      <c r="G26" s="4"/>
-      <c r="H26" s="4"/>
-      <c r="I26" s="4"/>
-      <c r="J26" s="3"/>
-      <c r="K26" s="3"/>
-      <c r="L26" s="3"/>
-      <c r="M26" s="3"/>
-      <c r="N26" s="3"/>
-      <c r="O26" s="3"/>
-      <c r="P26" s="3"/>
-      <c r="Q26" s="3"/>
-      <c r="R26" s="4"/>
-      <c r="S26" s="4"/>
-      <c r="T26" s="4"/>
-      <c r="U26" s="4"/>
-      <c r="V26" s="3"/>
-      <c r="W26" s="3"/>
-      <c r="X26" s="3"/>
+      <c r="B26" s="3"/>
+      <c r="C26" s="3"/>
+      <c r="D26" s="3"/>
+      <c r="E26" s="3"/>
+      <c r="F26" s="3"/>
+      <c r="G26" s="3"/>
+      <c r="H26" s="3"/>
+      <c r="I26" s="3"/>
+      <c r="J26" s="4"/>
+      <c r="K26" s="4"/>
+      <c r="L26" s="4"/>
+      <c r="M26" s="4"/>
+      <c r="N26" s="4"/>
+      <c r="O26" s="4"/>
+      <c r="P26" s="4"/>
+      <c r="Q26" s="4"/>
+      <c r="R26" s="3"/>
+      <c r="S26" s="3"/>
+      <c r="T26" s="3"/>
+      <c r="U26" s="3"/>
+      <c r="V26" s="4"/>
+      <c r="W26" s="4"/>
+      <c r="X26" s="4"/>
     </row>
     <row r="27" spans="2:24" x14ac:dyDescent="0.2">
-      <c r="B27" s="4"/>
-      <c r="C27" s="4"/>
-      <c r="D27" s="4"/>
-      <c r="E27" s="4"/>
-      <c r="F27" s="4"/>
-      <c r="G27" s="4"/>
-      <c r="H27" s="4"/>
-      <c r="I27" s="4"/>
-      <c r="J27" s="3"/>
-      <c r="K27" s="3"/>
-      <c r="L27" s="3"/>
-      <c r="M27" s="3"/>
-      <c r="N27" s="3"/>
-      <c r="O27" s="3"/>
-      <c r="P27" s="3"/>
-      <c r="Q27" s="3"/>
-      <c r="R27" s="4"/>
-      <c r="S27" s="4"/>
-      <c r="T27" s="4"/>
-      <c r="U27" s="4"/>
-      <c r="V27" s="3"/>
-      <c r="W27" s="3"/>
-      <c r="X27" s="3"/>
+      <c r="B27" s="3"/>
+      <c r="C27" s="3"/>
+      <c r="D27" s="3"/>
+      <c r="E27" s="3"/>
+      <c r="F27" s="3"/>
+      <c r="G27" s="3"/>
+      <c r="H27" s="3"/>
+      <c r="I27" s="3"/>
+      <c r="J27" s="4"/>
+      <c r="K27" s="4"/>
+      <c r="L27" s="4"/>
+      <c r="M27" s="4"/>
+      <c r="N27" s="4"/>
+      <c r="O27" s="4"/>
+      <c r="P27" s="4"/>
+      <c r="Q27" s="4"/>
+      <c r="R27" s="3"/>
+      <c r="S27" s="3"/>
+      <c r="T27" s="3"/>
+      <c r="U27" s="3"/>
+      <c r="V27" s="4"/>
+      <c r="W27" s="4"/>
+      <c r="X27" s="4"/>
     </row>
     <row r="28" spans="2:24" ht="13.2" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B28" s="14" t="s">
+      <c r="B28" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="C28" s="15"/>
-      <c r="D28" s="26" t="s">
+      <c r="C28" s="12"/>
+      <c r="D28" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="E28" s="26"/>
+      <c r="E28" s="13"/>
       <c r="F28" s="8" t="s">
         <v>73</v>
       </c>
@@ -4893,23 +8183,23 @@
       <c r="O28" s="9"/>
       <c r="P28" s="9"/>
       <c r="Q28" s="10"/>
-      <c r="R28" s="26" t="s">
+      <c r="R28" s="13" t="s">
         <v>47</v>
       </c>
-      <c r="S28" s="26"/>
-      <c r="T28" s="26"/>
-      <c r="U28" s="26"/>
-      <c r="V28" s="14" t="s">
+      <c r="S28" s="13"/>
+      <c r="T28" s="13"/>
+      <c r="U28" s="13"/>
+      <c r="V28" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="W28" s="26"/>
-      <c r="X28" s="15"/>
+      <c r="W28" s="13"/>
+      <c r="X28" s="12"/>
     </row>
     <row r="29" spans="2:24" x14ac:dyDescent="0.2">
-      <c r="B29" s="14"/>
-      <c r="C29" s="15"/>
-      <c r="D29" s="26"/>
-      <c r="E29" s="26"/>
+      <c r="B29" s="11"/>
+      <c r="C29" s="12"/>
+      <c r="D29" s="13"/>
+      <c r="E29" s="13"/>
       <c r="F29" s="8"/>
       <c r="G29" s="9"/>
       <c r="H29" s="9"/>
@@ -4922,19 +8212,19 @@
       <c r="O29" s="9"/>
       <c r="P29" s="9"/>
       <c r="Q29" s="10"/>
-      <c r="R29" s="26"/>
-      <c r="S29" s="26"/>
-      <c r="T29" s="26"/>
-      <c r="U29" s="26"/>
-      <c r="V29" s="14"/>
-      <c r="W29" s="26"/>
-      <c r="X29" s="15"/>
+      <c r="R29" s="13"/>
+      <c r="S29" s="13"/>
+      <c r="T29" s="13"/>
+      <c r="U29" s="13"/>
+      <c r="V29" s="11"/>
+      <c r="W29" s="13"/>
+      <c r="X29" s="12"/>
     </row>
     <row r="30" spans="2:24" x14ac:dyDescent="0.2">
-      <c r="B30" s="14"/>
-      <c r="C30" s="15"/>
-      <c r="D30" s="26"/>
-      <c r="E30" s="26"/>
+      <c r="B30" s="11"/>
+      <c r="C30" s="12"/>
+      <c r="D30" s="13"/>
+      <c r="E30" s="13"/>
       <c r="F30" s="8"/>
       <c r="G30" s="9"/>
       <c r="H30" s="9"/>
@@ -4947,19 +8237,19 @@
       <c r="O30" s="9"/>
       <c r="P30" s="9"/>
       <c r="Q30" s="10"/>
-      <c r="R30" s="26"/>
-      <c r="S30" s="26"/>
-      <c r="T30" s="26"/>
-      <c r="U30" s="26"/>
-      <c r="V30" s="14"/>
-      <c r="W30" s="26"/>
-      <c r="X30" s="15"/>
+      <c r="R30" s="13"/>
+      <c r="S30" s="13"/>
+      <c r="T30" s="13"/>
+      <c r="U30" s="13"/>
+      <c r="V30" s="11"/>
+      <c r="W30" s="13"/>
+      <c r="X30" s="12"/>
     </row>
     <row r="31" spans="2:24" x14ac:dyDescent="0.2">
-      <c r="B31" s="14"/>
-      <c r="C31" s="15"/>
-      <c r="D31" s="26"/>
-      <c r="E31" s="26"/>
+      <c r="B31" s="11"/>
+      <c r="C31" s="12"/>
+      <c r="D31" s="13"/>
+      <c r="E31" s="13"/>
       <c r="F31" s="8"/>
       <c r="G31" s="9"/>
       <c r="H31" s="9"/>
@@ -4972,19 +8262,19 @@
       <c r="O31" s="9"/>
       <c r="P31" s="9"/>
       <c r="Q31" s="10"/>
-      <c r="R31" s="26"/>
-      <c r="S31" s="26"/>
-      <c r="T31" s="26"/>
-      <c r="U31" s="26"/>
-      <c r="V31" s="14"/>
-      <c r="W31" s="26"/>
-      <c r="X31" s="15"/>
+      <c r="R31" s="13"/>
+      <c r="S31" s="13"/>
+      <c r="T31" s="13"/>
+      <c r="U31" s="13"/>
+      <c r="V31" s="11"/>
+      <c r="W31" s="13"/>
+      <c r="X31" s="12"/>
     </row>
     <row r="32" spans="2:24" x14ac:dyDescent="0.2">
-      <c r="B32" s="14"/>
-      <c r="C32" s="15"/>
-      <c r="D32" s="26"/>
-      <c r="E32" s="26"/>
+      <c r="B32" s="11"/>
+      <c r="C32" s="12"/>
+      <c r="D32" s="13"/>
+      <c r="E32" s="13"/>
       <c r="F32" s="8"/>
       <c r="G32" s="9"/>
       <c r="H32" s="9"/>
@@ -4997,19 +8287,19 @@
       <c r="O32" s="9"/>
       <c r="P32" s="9"/>
       <c r="Q32" s="10"/>
-      <c r="R32" s="26"/>
-      <c r="S32" s="26"/>
-      <c r="T32" s="26"/>
-      <c r="U32" s="26"/>
-      <c r="V32" s="14"/>
-      <c r="W32" s="26"/>
-      <c r="X32" s="15"/>
+      <c r="R32" s="13"/>
+      <c r="S32" s="13"/>
+      <c r="T32" s="13"/>
+      <c r="U32" s="13"/>
+      <c r="V32" s="11"/>
+      <c r="W32" s="13"/>
+      <c r="X32" s="12"/>
     </row>
     <row r="33" spans="2:24" x14ac:dyDescent="0.2">
-      <c r="B33" s="14"/>
-      <c r="C33" s="15"/>
-      <c r="D33" s="26"/>
-      <c r="E33" s="26"/>
+      <c r="B33" s="11"/>
+      <c r="C33" s="12"/>
+      <c r="D33" s="13"/>
+      <c r="E33" s="13"/>
       <c r="F33" s="8"/>
       <c r="G33" s="9"/>
       <c r="H33" s="9"/>
@@ -5022,19 +8312,19 @@
       <c r="O33" s="9"/>
       <c r="P33" s="9"/>
       <c r="Q33" s="10"/>
-      <c r="R33" s="26"/>
-      <c r="S33" s="26"/>
-      <c r="T33" s="26"/>
-      <c r="U33" s="26"/>
-      <c r="V33" s="14"/>
-      <c r="W33" s="26"/>
-      <c r="X33" s="15"/>
+      <c r="R33" s="13"/>
+      <c r="S33" s="13"/>
+      <c r="T33" s="13"/>
+      <c r="U33" s="13"/>
+      <c r="V33" s="11"/>
+      <c r="W33" s="13"/>
+      <c r="X33" s="12"/>
     </row>
     <row r="34" spans="2:24" x14ac:dyDescent="0.2">
-      <c r="B34" s="14"/>
-      <c r="C34" s="15"/>
-      <c r="D34" s="26"/>
-      <c r="E34" s="26"/>
+      <c r="B34" s="11"/>
+      <c r="C34" s="12"/>
+      <c r="D34" s="13"/>
+      <c r="E34" s="13"/>
       <c r="F34" s="8"/>
       <c r="G34" s="9"/>
       <c r="H34" s="9"/>
@@ -5047,16 +8337,53 @@
       <c r="O34" s="9"/>
       <c r="P34" s="9"/>
       <c r="Q34" s="10"/>
-      <c r="R34" s="26"/>
-      <c r="S34" s="26"/>
-      <c r="T34" s="26"/>
-      <c r="U34" s="26"/>
-      <c r="V34" s="14"/>
-      <c r="W34" s="26"/>
-      <c r="X34" s="15"/>
+      <c r="R34" s="13"/>
+      <c r="S34" s="13"/>
+      <c r="T34" s="13"/>
+      <c r="U34" s="13"/>
+      <c r="V34" s="11"/>
+      <c r="W34" s="13"/>
+      <c r="X34" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="49">
+    <mergeCell ref="R28:U34"/>
+    <mergeCell ref="V28:X34"/>
+    <mergeCell ref="N28:Q34"/>
+    <mergeCell ref="B28:C34"/>
+    <mergeCell ref="D28:E34"/>
+    <mergeCell ref="F28:I34"/>
+    <mergeCell ref="J28:M34"/>
+    <mergeCell ref="R23:U27"/>
+    <mergeCell ref="V2:X2"/>
+    <mergeCell ref="V3:X7"/>
+    <mergeCell ref="V8:X12"/>
+    <mergeCell ref="V13:X17"/>
+    <mergeCell ref="V18:X22"/>
+    <mergeCell ref="V23:X27"/>
+    <mergeCell ref="R13:U17"/>
+    <mergeCell ref="R18:U22"/>
+    <mergeCell ref="B23:C27"/>
+    <mergeCell ref="D23:E27"/>
+    <mergeCell ref="F23:I27"/>
+    <mergeCell ref="J23:M27"/>
+    <mergeCell ref="N23:Q27"/>
+    <mergeCell ref="B13:C17"/>
+    <mergeCell ref="D13:E17"/>
+    <mergeCell ref="F13:I17"/>
+    <mergeCell ref="J13:M17"/>
+    <mergeCell ref="N13:Q17"/>
+    <mergeCell ref="B18:C22"/>
+    <mergeCell ref="D18:E22"/>
+    <mergeCell ref="F18:I22"/>
+    <mergeCell ref="J18:M22"/>
+    <mergeCell ref="N18:Q22"/>
+    <mergeCell ref="N2:Q2"/>
+    <mergeCell ref="R2:U2"/>
+    <mergeCell ref="N3:Q7"/>
+    <mergeCell ref="R3:U7"/>
+    <mergeCell ref="N8:Q12"/>
+    <mergeCell ref="R8:U12"/>
     <mergeCell ref="B8:C12"/>
     <mergeCell ref="D8:E12"/>
     <mergeCell ref="F8:I12"/>
@@ -5069,43 +8396,6 @@
     <mergeCell ref="D3:E7"/>
     <mergeCell ref="F3:I7"/>
     <mergeCell ref="J3:M7"/>
-    <mergeCell ref="N2:Q2"/>
-    <mergeCell ref="R2:U2"/>
-    <mergeCell ref="N3:Q7"/>
-    <mergeCell ref="R3:U7"/>
-    <mergeCell ref="N8:Q12"/>
-    <mergeCell ref="R8:U12"/>
-    <mergeCell ref="B18:C22"/>
-    <mergeCell ref="D18:E22"/>
-    <mergeCell ref="F18:I22"/>
-    <mergeCell ref="J18:M22"/>
-    <mergeCell ref="N18:Q22"/>
-    <mergeCell ref="B13:C17"/>
-    <mergeCell ref="D13:E17"/>
-    <mergeCell ref="F13:I17"/>
-    <mergeCell ref="J13:M17"/>
-    <mergeCell ref="N13:Q17"/>
-    <mergeCell ref="B23:C27"/>
-    <mergeCell ref="D23:E27"/>
-    <mergeCell ref="F23:I27"/>
-    <mergeCell ref="J23:M27"/>
-    <mergeCell ref="N23:Q27"/>
-    <mergeCell ref="R23:U27"/>
-    <mergeCell ref="V2:X2"/>
-    <mergeCell ref="V3:X7"/>
-    <mergeCell ref="V8:X12"/>
-    <mergeCell ref="V13:X17"/>
-    <mergeCell ref="V18:X22"/>
-    <mergeCell ref="V23:X27"/>
-    <mergeCell ref="R13:U17"/>
-    <mergeCell ref="R18:U22"/>
-    <mergeCell ref="N28:Q34"/>
-    <mergeCell ref="B28:C34"/>
-    <mergeCell ref="D28:E34"/>
-    <mergeCell ref="F28:I34"/>
-    <mergeCell ref="J28:M34"/>
-    <mergeCell ref="R28:U34"/>
-    <mergeCell ref="V28:X34"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5117,8 +8407,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView topLeftCell="A40" zoomScale="81" zoomScaleNormal="81" workbookViewId="0">
-      <selection activeCell="W40" sqref="W40"/>
+    <sheetView topLeftCell="A61" zoomScale="81" zoomScaleNormal="81" workbookViewId="0">
+      <selection activeCell="S98" sqref="S98"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
@@ -5144,54 +8434,54 @@
   <sheetData>
     <row r="1" spans="2:14" ht="13.8" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:14" ht="13.8" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="20" t="s">
+      <c r="B2" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="22"/>
-      <c r="D2" s="21" t="s">
+      <c r="C2" s="18"/>
+      <c r="D2" s="17" t="s">
         <v>45</v>
       </c>
-      <c r="E2" s="21"/>
-      <c r="F2" s="20" t="s">
+      <c r="E2" s="17"/>
+      <c r="F2" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="G2" s="21"/>
-      <c r="H2" s="21"/>
-      <c r="I2" s="22"/>
-      <c r="J2" s="20" t="s">
+      <c r="G2" s="17"/>
+      <c r="H2" s="17"/>
+      <c r="I2" s="18"/>
+      <c r="J2" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="K2" s="21"/>
-      <c r="L2" s="21"/>
-      <c r="M2" s="22"/>
+      <c r="K2" s="17"/>
+      <c r="L2" s="17"/>
+      <c r="M2" s="18"/>
     </row>
     <row r="3" spans="2:14" ht="13.2" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="18" t="s">
+      <c r="B3" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="19"/>
-      <c r="D3" s="18" t="s">
+      <c r="C3" s="15"/>
+      <c r="D3" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="E3" s="19"/>
+      <c r="E3" s="15"/>
       <c r="F3" s="8" t="s">
         <v>6</v>
       </c>
       <c r="G3" s="9"/>
       <c r="H3" s="9"/>
       <c r="I3" s="10"/>
-      <c r="J3" s="23" t="s">
+      <c r="J3" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="K3" s="24"/>
-      <c r="L3" s="24"/>
-      <c r="M3" s="25"/>
+      <c r="K3" s="20"/>
+      <c r="L3" s="20"/>
+      <c r="M3" s="21"/>
     </row>
     <row r="4" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B4" s="14"/>
-      <c r="C4" s="15"/>
-      <c r="D4" s="14"/>
-      <c r="E4" s="15"/>
+      <c r="B4" s="11"/>
+      <c r="C4" s="12"/>
+      <c r="D4" s="11"/>
+      <c r="E4" s="12"/>
       <c r="F4" s="8"/>
       <c r="G4" s="9"/>
       <c r="H4" s="9"/>
@@ -5202,10 +8492,10 @@
       <c r="M4" s="10"/>
     </row>
     <row r="5" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B5" s="14"/>
-      <c r="C5" s="15"/>
-      <c r="D5" s="14"/>
-      <c r="E5" s="15"/>
+      <c r="B5" s="11"/>
+      <c r="C5" s="12"/>
+      <c r="D5" s="11"/>
+      <c r="E5" s="12"/>
       <c r="F5" s="8"/>
       <c r="G5" s="9"/>
       <c r="H5" s="9"/>
@@ -5216,10 +8506,10 @@
       <c r="M5" s="10"/>
     </row>
     <row r="6" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B6" s="14"/>
-      <c r="C6" s="15"/>
-      <c r="D6" s="14"/>
-      <c r="E6" s="15"/>
+      <c r="B6" s="11"/>
+      <c r="C6" s="12"/>
+      <c r="D6" s="11"/>
+      <c r="E6" s="12"/>
       <c r="F6" s="8"/>
       <c r="G6" s="9"/>
       <c r="H6" s="9"/>
@@ -5230,10 +8520,10 @@
       <c r="M6" s="10"/>
     </row>
     <row r="7" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B7" s="14"/>
-      <c r="C7" s="15"/>
-      <c r="D7" s="14"/>
-      <c r="E7" s="15"/>
+      <c r="B7" s="11"/>
+      <c r="C7" s="12"/>
+      <c r="D7" s="11"/>
+      <c r="E7" s="12"/>
       <c r="F7" s="8"/>
       <c r="G7" s="9"/>
       <c r="H7" s="9"/>
@@ -5249,10 +8539,10 @@
         <v>7</v>
       </c>
       <c r="C8" s="10"/>
-      <c r="D8" s="14" t="s">
+      <c r="D8" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="E8" s="15"/>
+      <c r="E8" s="12"/>
       <c r="F8" s="8" t="s">
         <v>12</v>
       </c>
@@ -5269,8 +8559,8 @@
     <row r="9" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B9" s="8"/>
       <c r="C9" s="10"/>
-      <c r="D9" s="14"/>
-      <c r="E9" s="15"/>
+      <c r="D9" s="11"/>
+      <c r="E9" s="12"/>
       <c r="F9" s="8"/>
       <c r="G9" s="9"/>
       <c r="H9" s="9"/>
@@ -5283,8 +8573,8 @@
     <row r="10" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B10" s="8"/>
       <c r="C10" s="10"/>
-      <c r="D10" s="14"/>
-      <c r="E10" s="15"/>
+      <c r="D10" s="11"/>
+      <c r="E10" s="12"/>
       <c r="F10" s="8"/>
       <c r="G10" s="9"/>
       <c r="H10" s="9"/>
@@ -5297,8 +8587,8 @@
     <row r="11" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B11" s="8"/>
       <c r="C11" s="10"/>
-      <c r="D11" s="14"/>
-      <c r="E11" s="15"/>
+      <c r="D11" s="11"/>
+      <c r="E11" s="12"/>
       <c r="F11" s="8"/>
       <c r="G11" s="9"/>
       <c r="H11" s="9"/>
@@ -5311,8 +8601,8 @@
     <row r="12" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B12" s="8"/>
       <c r="C12" s="10"/>
-      <c r="D12" s="14"/>
-      <c r="E12" s="15"/>
+      <c r="D12" s="11"/>
+      <c r="E12" s="12"/>
       <c r="F12" s="8"/>
       <c r="G12" s="9"/>
       <c r="H12" s="9"/>
@@ -5327,10 +8617,10 @@
         <v>9</v>
       </c>
       <c r="C13" s="10"/>
-      <c r="D13" s="14" t="s">
+      <c r="D13" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="E13" s="15"/>
+      <c r="E13" s="12"/>
       <c r="F13" s="8" t="s">
         <v>13</v>
       </c>
@@ -5347,8 +8637,8 @@
     <row r="14" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B14" s="8"/>
       <c r="C14" s="10"/>
-      <c r="D14" s="14"/>
-      <c r="E14" s="15"/>
+      <c r="D14" s="11"/>
+      <c r="E14" s="12"/>
       <c r="F14" s="8"/>
       <c r="G14" s="9"/>
       <c r="H14" s="9"/>
@@ -5361,8 +8651,8 @@
     <row r="15" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B15" s="8"/>
       <c r="C15" s="10"/>
-      <c r="D15" s="14"/>
-      <c r="E15" s="15"/>
+      <c r="D15" s="11"/>
+      <c r="E15" s="12"/>
       <c r="F15" s="8"/>
       <c r="G15" s="9"/>
       <c r="H15" s="9"/>
@@ -5375,8 +8665,8 @@
     <row r="16" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B16" s="8"/>
       <c r="C16" s="10"/>
-      <c r="D16" s="14"/>
-      <c r="E16" s="15"/>
+      <c r="D16" s="11"/>
+      <c r="E16" s="12"/>
       <c r="F16" s="8"/>
       <c r="G16" s="9"/>
       <c r="H16" s="9"/>
@@ -5389,8 +8679,8 @@
     <row r="17" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B17" s="8"/>
       <c r="C17" s="10"/>
-      <c r="D17" s="14"/>
-      <c r="E17" s="15"/>
+      <c r="D17" s="11"/>
+      <c r="E17" s="12"/>
       <c r="F17" s="8"/>
       <c r="G17" s="9"/>
       <c r="H17" s="9"/>
@@ -5401,18 +8691,18 @@
       <c r="M17" s="10"/>
     </row>
     <row r="18" spans="2:13" ht="13.8" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="11"/>
-      <c r="C18" s="13"/>
-      <c r="D18" s="16"/>
-      <c r="E18" s="17"/>
-      <c r="F18" s="11"/>
-      <c r="G18" s="12"/>
-      <c r="H18" s="12"/>
-      <c r="I18" s="13"/>
-      <c r="J18" s="11"/>
-      <c r="K18" s="12"/>
-      <c r="L18" s="12"/>
-      <c r="M18" s="13"/>
+      <c r="B18" s="22"/>
+      <c r="C18" s="24"/>
+      <c r="D18" s="25"/>
+      <c r="E18" s="26"/>
+      <c r="F18" s="22"/>
+      <c r="G18" s="23"/>
+      <c r="H18" s="23"/>
+      <c r="I18" s="24"/>
+      <c r="J18" s="22"/>
+      <c r="K18" s="23"/>
+      <c r="L18" s="23"/>
+      <c r="M18" s="24"/>
     </row>
     <row r="19" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B19" s="1"/>
@@ -5444,6 +8734,14 @@
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="J13:M18"/>
+    <mergeCell ref="B8:C12"/>
+    <mergeCell ref="D8:E12"/>
+    <mergeCell ref="F8:I12"/>
+    <mergeCell ref="J8:M12"/>
+    <mergeCell ref="B13:C18"/>
+    <mergeCell ref="D13:E18"/>
+    <mergeCell ref="F13:I18"/>
     <mergeCell ref="F3:I7"/>
     <mergeCell ref="B3:C7"/>
     <mergeCell ref="D3:E7"/>
@@ -5452,14 +8750,6 @@
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="D2:E2"/>
     <mergeCell ref="F2:I2"/>
-    <mergeCell ref="J13:M18"/>
-    <mergeCell ref="B8:C12"/>
-    <mergeCell ref="D8:E12"/>
-    <mergeCell ref="F8:I12"/>
-    <mergeCell ref="J8:M12"/>
-    <mergeCell ref="B13:C18"/>
-    <mergeCell ref="D13:E18"/>
-    <mergeCell ref="F13:I18"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5470,8 +8760,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="O17" sqref="O17"/>
+    <sheetView topLeftCell="A38" zoomScale="58" zoomScaleNormal="58" workbookViewId="0">
+      <selection activeCell="Z74" sqref="Z74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
@@ -5486,7 +8776,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:X42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" zoomScale="76" zoomScaleNormal="76" workbookViewId="0">
+    <sheetView topLeftCell="A8" zoomScale="76" zoomScaleNormal="76" workbookViewId="0">
       <selection activeCell="V23" sqref="V23:X27"/>
     </sheetView>
   </sheetViews>
@@ -5532,1119 +8822,1168 @@
       <c r="X2" s="5"/>
     </row>
     <row r="3" spans="2:24" x14ac:dyDescent="0.2">
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="C3" s="7"/>
-      <c r="D3" s="6" t="s">
+      <c r="C3" s="6"/>
+      <c r="D3" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="E3" s="6"/>
-      <c r="F3" s="4" t="s">
+      <c r="E3" s="7"/>
+      <c r="F3" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="G3" s="4"/>
-      <c r="H3" s="4"/>
-      <c r="I3" s="4"/>
-      <c r="J3" s="6" t="s">
+      <c r="G3" s="3"/>
+      <c r="H3" s="3"/>
+      <c r="I3" s="3"/>
+      <c r="J3" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="K3" s="6"/>
-      <c r="L3" s="6"/>
-      <c r="M3" s="6"/>
-      <c r="N3" s="6" t="s">
+      <c r="K3" s="7"/>
+      <c r="L3" s="7"/>
+      <c r="M3" s="7"/>
+      <c r="N3" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="O3" s="6"/>
-      <c r="P3" s="6"/>
-      <c r="Q3" s="6"/>
-      <c r="R3" s="6" t="s">
+      <c r="O3" s="7"/>
+      <c r="P3" s="7"/>
+      <c r="Q3" s="7"/>
+      <c r="R3" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="S3" s="6"/>
-      <c r="T3" s="6"/>
-      <c r="U3" s="6"/>
-      <c r="V3" s="3" t="s">
+      <c r="S3" s="7"/>
+      <c r="T3" s="7"/>
+      <c r="U3" s="7"/>
+      <c r="V3" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="W3" s="3"/>
-      <c r="X3" s="3"/>
+      <c r="W3" s="4"/>
+      <c r="X3" s="4"/>
     </row>
     <row r="4" spans="2:24" x14ac:dyDescent="0.2">
-      <c r="B4" s="3"/>
-      <c r="C4" s="3"/>
-      <c r="D4" s="4"/>
-      <c r="E4" s="4"/>
-      <c r="F4" s="4"/>
-      <c r="G4" s="4"/>
-      <c r="H4" s="4"/>
-      <c r="I4" s="4"/>
-      <c r="J4" s="4"/>
-      <c r="K4" s="4"/>
-      <c r="L4" s="4"/>
-      <c r="M4" s="4"/>
-      <c r="N4" s="4"/>
-      <c r="O4" s="4"/>
-      <c r="P4" s="4"/>
-      <c r="Q4" s="4"/>
-      <c r="R4" s="4"/>
-      <c r="S4" s="4"/>
-      <c r="T4" s="4"/>
-      <c r="U4" s="4"/>
-      <c r="V4" s="3"/>
-      <c r="W4" s="3"/>
-      <c r="X4" s="3"/>
+      <c r="B4" s="4"/>
+      <c r="C4" s="4"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
+      <c r="G4" s="3"/>
+      <c r="H4" s="3"/>
+      <c r="I4" s="3"/>
+      <c r="J4" s="3"/>
+      <c r="K4" s="3"/>
+      <c r="L4" s="3"/>
+      <c r="M4" s="3"/>
+      <c r="N4" s="3"/>
+      <c r="O4" s="3"/>
+      <c r="P4" s="3"/>
+      <c r="Q4" s="3"/>
+      <c r="R4" s="3"/>
+      <c r="S4" s="3"/>
+      <c r="T4" s="3"/>
+      <c r="U4" s="3"/>
+      <c r="V4" s="4"/>
+      <c r="W4" s="4"/>
+      <c r="X4" s="4"/>
     </row>
     <row r="5" spans="2:24" x14ac:dyDescent="0.2">
-      <c r="B5" s="3"/>
-      <c r="C5" s="3"/>
-      <c r="D5" s="4"/>
-      <c r="E5" s="4"/>
-      <c r="F5" s="4"/>
-      <c r="G5" s="4"/>
-      <c r="H5" s="4"/>
-      <c r="I5" s="4"/>
-      <c r="J5" s="4"/>
-      <c r="K5" s="4"/>
-      <c r="L5" s="4"/>
-      <c r="M5" s="4"/>
-      <c r="N5" s="4"/>
-      <c r="O5" s="4"/>
-      <c r="P5" s="4"/>
-      <c r="Q5" s="4"/>
-      <c r="R5" s="4"/>
-      <c r="S5" s="4"/>
-      <c r="T5" s="4"/>
-      <c r="U5" s="4"/>
-      <c r="V5" s="3"/>
-      <c r="W5" s="3"/>
-      <c r="X5" s="3"/>
+      <c r="B5" s="4"/>
+      <c r="C5" s="4"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
+      <c r="G5" s="3"/>
+      <c r="H5" s="3"/>
+      <c r="I5" s="3"/>
+      <c r="J5" s="3"/>
+      <c r="K5" s="3"/>
+      <c r="L5" s="3"/>
+      <c r="M5" s="3"/>
+      <c r="N5" s="3"/>
+      <c r="O5" s="3"/>
+      <c r="P5" s="3"/>
+      <c r="Q5" s="3"/>
+      <c r="R5" s="3"/>
+      <c r="S5" s="3"/>
+      <c r="T5" s="3"/>
+      <c r="U5" s="3"/>
+      <c r="V5" s="4"/>
+      <c r="W5" s="4"/>
+      <c r="X5" s="4"/>
     </row>
     <row r="6" spans="2:24" x14ac:dyDescent="0.2">
-      <c r="B6" s="3"/>
-      <c r="C6" s="3"/>
-      <c r="D6" s="4"/>
-      <c r="E6" s="4"/>
-      <c r="F6" s="4"/>
-      <c r="G6" s="4"/>
-      <c r="H6" s="4"/>
-      <c r="I6" s="4"/>
-      <c r="J6" s="4"/>
-      <c r="K6" s="4"/>
-      <c r="L6" s="4"/>
-      <c r="M6" s="4"/>
-      <c r="N6" s="4"/>
-      <c r="O6" s="4"/>
-      <c r="P6" s="4"/>
-      <c r="Q6" s="4"/>
-      <c r="R6" s="4"/>
-      <c r="S6" s="4"/>
-      <c r="T6" s="4"/>
-      <c r="U6" s="4"/>
-      <c r="V6" s="3"/>
-      <c r="W6" s="3"/>
-      <c r="X6" s="3"/>
+      <c r="B6" s="4"/>
+      <c r="C6" s="4"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
+      <c r="G6" s="3"/>
+      <c r="H6" s="3"/>
+      <c r="I6" s="3"/>
+      <c r="J6" s="3"/>
+      <c r="K6" s="3"/>
+      <c r="L6" s="3"/>
+      <c r="M6" s="3"/>
+      <c r="N6" s="3"/>
+      <c r="O6" s="3"/>
+      <c r="P6" s="3"/>
+      <c r="Q6" s="3"/>
+      <c r="R6" s="3"/>
+      <c r="S6" s="3"/>
+      <c r="T6" s="3"/>
+      <c r="U6" s="3"/>
+      <c r="V6" s="4"/>
+      <c r="W6" s="4"/>
+      <c r="X6" s="4"/>
     </row>
     <row r="7" spans="2:24" x14ac:dyDescent="0.2">
-      <c r="B7" s="3"/>
-      <c r="C7" s="3"/>
-      <c r="D7" s="4"/>
-      <c r="E7" s="4"/>
-      <c r="F7" s="4"/>
-      <c r="G7" s="4"/>
-      <c r="H7" s="4"/>
-      <c r="I7" s="4"/>
-      <c r="J7" s="4"/>
-      <c r="K7" s="4"/>
-      <c r="L7" s="4"/>
-      <c r="M7" s="4"/>
-      <c r="N7" s="4"/>
-      <c r="O7" s="4"/>
-      <c r="P7" s="4"/>
-      <c r="Q7" s="4"/>
-      <c r="R7" s="4"/>
-      <c r="S7" s="4"/>
-      <c r="T7" s="4"/>
-      <c r="U7" s="4"/>
-      <c r="V7" s="3"/>
-      <c r="W7" s="3"/>
-      <c r="X7" s="3"/>
+      <c r="B7" s="4"/>
+      <c r="C7" s="4"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
+      <c r="G7" s="3"/>
+      <c r="H7" s="3"/>
+      <c r="I7" s="3"/>
+      <c r="J7" s="3"/>
+      <c r="K7" s="3"/>
+      <c r="L7" s="3"/>
+      <c r="M7" s="3"/>
+      <c r="N7" s="3"/>
+      <c r="O7" s="3"/>
+      <c r="P7" s="3"/>
+      <c r="Q7" s="3"/>
+      <c r="R7" s="3"/>
+      <c r="S7" s="3"/>
+      <c r="T7" s="3"/>
+      <c r="U7" s="3"/>
+      <c r="V7" s="4"/>
+      <c r="W7" s="4"/>
+      <c r="X7" s="4"/>
     </row>
     <row r="8" spans="2:24" x14ac:dyDescent="0.2">
-      <c r="B8" s="4" t="s">
+      <c r="B8" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="C8" s="4"/>
-      <c r="D8" s="3" t="s">
+      <c r="C8" s="3"/>
+      <c r="D8" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="E8" s="3"/>
-      <c r="F8" s="4" t="s">
+      <c r="E8" s="4"/>
+      <c r="F8" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="G8" s="4"/>
-      <c r="H8" s="4"/>
-      <c r="I8" s="4"/>
-      <c r="J8" s="4" t="s">
+      <c r="G8" s="3"/>
+      <c r="H8" s="3"/>
+      <c r="I8" s="3"/>
+      <c r="J8" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="K8" s="4"/>
-      <c r="L8" s="4"/>
-      <c r="M8" s="4"/>
-      <c r="N8" s="4" t="s">
+      <c r="K8" s="3"/>
+      <c r="L8" s="3"/>
+      <c r="M8" s="3"/>
+      <c r="N8" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="O8" s="4"/>
-      <c r="P8" s="4"/>
-      <c r="Q8" s="4"/>
-      <c r="R8" s="4" t="s">
+      <c r="O8" s="3"/>
+      <c r="P8" s="3"/>
+      <c r="Q8" s="3"/>
+      <c r="R8" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="S8" s="4"/>
-      <c r="T8" s="4"/>
-      <c r="U8" s="4"/>
-      <c r="V8" s="3" t="s">
+      <c r="S8" s="3"/>
+      <c r="T8" s="3"/>
+      <c r="U8" s="3"/>
+      <c r="V8" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="W8" s="3"/>
-      <c r="X8" s="3"/>
+      <c r="W8" s="4"/>
+      <c r="X8" s="4"/>
     </row>
     <row r="9" spans="2:24" x14ac:dyDescent="0.2">
-      <c r="B9" s="4"/>
-      <c r="C9" s="4"/>
-      <c r="D9" s="3"/>
-      <c r="E9" s="3"/>
-      <c r="F9" s="4"/>
-      <c r="G9" s="4"/>
-      <c r="H9" s="4"/>
-      <c r="I9" s="4"/>
-      <c r="J9" s="4"/>
-      <c r="K9" s="4"/>
-      <c r="L9" s="4"/>
-      <c r="M9" s="4"/>
-      <c r="N9" s="4"/>
-      <c r="O9" s="4"/>
-      <c r="P9" s="4"/>
-      <c r="Q9" s="4"/>
-      <c r="R9" s="4"/>
-      <c r="S9" s="4"/>
-      <c r="T9" s="4"/>
-      <c r="U9" s="4"/>
-      <c r="V9" s="3"/>
-      <c r="W9" s="3"/>
-      <c r="X9" s="3"/>
+      <c r="B9" s="3"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="4"/>
+      <c r="E9" s="4"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="3"/>
+      <c r="H9" s="3"/>
+      <c r="I9" s="3"/>
+      <c r="J9" s="3"/>
+      <c r="K9" s="3"/>
+      <c r="L9" s="3"/>
+      <c r="M9" s="3"/>
+      <c r="N9" s="3"/>
+      <c r="O9" s="3"/>
+      <c r="P9" s="3"/>
+      <c r="Q9" s="3"/>
+      <c r="R9" s="3"/>
+      <c r="S9" s="3"/>
+      <c r="T9" s="3"/>
+      <c r="U9" s="3"/>
+      <c r="V9" s="4"/>
+      <c r="W9" s="4"/>
+      <c r="X9" s="4"/>
     </row>
     <row r="10" spans="2:24" x14ac:dyDescent="0.2">
-      <c r="B10" s="4"/>
-      <c r="C10" s="4"/>
-      <c r="D10" s="3"/>
-      <c r="E10" s="3"/>
-      <c r="F10" s="4"/>
-      <c r="G10" s="4"/>
-      <c r="H10" s="4"/>
-      <c r="I10" s="4"/>
-      <c r="J10" s="4"/>
-      <c r="K10" s="4"/>
-      <c r="L10" s="4"/>
-      <c r="M10" s="4"/>
-      <c r="N10" s="4"/>
-      <c r="O10" s="4"/>
-      <c r="P10" s="4"/>
-      <c r="Q10" s="4"/>
-      <c r="R10" s="4"/>
-      <c r="S10" s="4"/>
-      <c r="T10" s="4"/>
-      <c r="U10" s="4"/>
-      <c r="V10" s="3"/>
-      <c r="W10" s="3"/>
-      <c r="X10" s="3"/>
+      <c r="B10" s="3"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="4"/>
+      <c r="E10" s="4"/>
+      <c r="F10" s="3"/>
+      <c r="G10" s="3"/>
+      <c r="H10" s="3"/>
+      <c r="I10" s="3"/>
+      <c r="J10" s="3"/>
+      <c r="K10" s="3"/>
+      <c r="L10" s="3"/>
+      <c r="M10" s="3"/>
+      <c r="N10" s="3"/>
+      <c r="O10" s="3"/>
+      <c r="P10" s="3"/>
+      <c r="Q10" s="3"/>
+      <c r="R10" s="3"/>
+      <c r="S10" s="3"/>
+      <c r="T10" s="3"/>
+      <c r="U10" s="3"/>
+      <c r="V10" s="4"/>
+      <c r="W10" s="4"/>
+      <c r="X10" s="4"/>
     </row>
     <row r="11" spans="2:24" x14ac:dyDescent="0.2">
-      <c r="B11" s="4"/>
-      <c r="C11" s="4"/>
-      <c r="D11" s="3"/>
-      <c r="E11" s="3"/>
-      <c r="F11" s="4"/>
-      <c r="G11" s="4"/>
-      <c r="H11" s="4"/>
-      <c r="I11" s="4"/>
-      <c r="J11" s="4"/>
-      <c r="K11" s="4"/>
-      <c r="L11" s="4"/>
-      <c r="M11" s="4"/>
-      <c r="N11" s="4"/>
-      <c r="O11" s="4"/>
-      <c r="P11" s="4"/>
-      <c r="Q11" s="4"/>
-      <c r="R11" s="4"/>
-      <c r="S11" s="4"/>
-      <c r="T11" s="4"/>
-      <c r="U11" s="4"/>
-      <c r="V11" s="3"/>
-      <c r="W11" s="3"/>
-      <c r="X11" s="3"/>
+      <c r="B11" s="3"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="4"/>
+      <c r="E11" s="4"/>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3"/>
+      <c r="H11" s="3"/>
+      <c r="I11" s="3"/>
+      <c r="J11" s="3"/>
+      <c r="K11" s="3"/>
+      <c r="L11" s="3"/>
+      <c r="M11" s="3"/>
+      <c r="N11" s="3"/>
+      <c r="O11" s="3"/>
+      <c r="P11" s="3"/>
+      <c r="Q11" s="3"/>
+      <c r="R11" s="3"/>
+      <c r="S11" s="3"/>
+      <c r="T11" s="3"/>
+      <c r="U11" s="3"/>
+      <c r="V11" s="4"/>
+      <c r="W11" s="4"/>
+      <c r="X11" s="4"/>
     </row>
     <row r="12" spans="2:24" x14ac:dyDescent="0.2">
-      <c r="B12" s="4"/>
-      <c r="C12" s="4"/>
-      <c r="D12" s="3"/>
-      <c r="E12" s="3"/>
-      <c r="F12" s="4"/>
-      <c r="G12" s="4"/>
-      <c r="H12" s="4"/>
-      <c r="I12" s="4"/>
-      <c r="J12" s="4"/>
-      <c r="K12" s="4"/>
-      <c r="L12" s="4"/>
-      <c r="M12" s="4"/>
-      <c r="N12" s="4"/>
-      <c r="O12" s="4"/>
-      <c r="P12" s="4"/>
-      <c r="Q12" s="4"/>
-      <c r="R12" s="4"/>
-      <c r="S12" s="4"/>
-      <c r="T12" s="4"/>
-      <c r="U12" s="4"/>
-      <c r="V12" s="3"/>
-      <c r="W12" s="3"/>
-      <c r="X12" s="3"/>
+      <c r="B12" s="3"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="4"/>
+      <c r="E12" s="4"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3"/>
+      <c r="H12" s="3"/>
+      <c r="I12" s="3"/>
+      <c r="J12" s="3"/>
+      <c r="K12" s="3"/>
+      <c r="L12" s="3"/>
+      <c r="M12" s="3"/>
+      <c r="N12" s="3"/>
+      <c r="O12" s="3"/>
+      <c r="P12" s="3"/>
+      <c r="Q12" s="3"/>
+      <c r="R12" s="3"/>
+      <c r="S12" s="3"/>
+      <c r="T12" s="3"/>
+      <c r="U12" s="3"/>
+      <c r="V12" s="4"/>
+      <c r="W12" s="4"/>
+      <c r="X12" s="4"/>
     </row>
     <row r="13" spans="2:24" ht="13.2" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B13" s="4" t="s">
+      <c r="B13" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="C13" s="4"/>
-      <c r="D13" s="4" t="s">
+      <c r="C13" s="3"/>
+      <c r="D13" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="E13" s="4"/>
-      <c r="F13" s="4" t="s">
+      <c r="E13" s="3"/>
+      <c r="F13" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="G13" s="4"/>
-      <c r="H13" s="4"/>
-      <c r="I13" s="4"/>
-      <c r="J13" s="4" t="s">
+      <c r="G13" s="3"/>
+      <c r="H13" s="3"/>
+      <c r="I13" s="3"/>
+      <c r="J13" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="K13" s="4"/>
-      <c r="L13" s="4"/>
-      <c r="M13" s="4"/>
-      <c r="N13" s="4" t="s">
+      <c r="K13" s="3"/>
+      <c r="L13" s="3"/>
+      <c r="M13" s="3"/>
+      <c r="N13" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="O13" s="4"/>
-      <c r="P13" s="4"/>
-      <c r="Q13" s="4"/>
-      <c r="R13" s="3" t="s">
+      <c r="O13" s="3"/>
+      <c r="P13" s="3"/>
+      <c r="Q13" s="3"/>
+      <c r="R13" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="S13" s="3"/>
-      <c r="T13" s="3"/>
-      <c r="U13" s="3"/>
-      <c r="V13" s="3" t="s">
+      <c r="S13" s="4"/>
+      <c r="T13" s="4"/>
+      <c r="U13" s="4"/>
+      <c r="V13" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="W13" s="3"/>
-      <c r="X13" s="3"/>
+      <c r="W13" s="4"/>
+      <c r="X13" s="4"/>
     </row>
     <row r="14" spans="2:24" x14ac:dyDescent="0.2">
-      <c r="B14" s="4"/>
-      <c r="C14" s="4"/>
-      <c r="D14" s="4"/>
-      <c r="E14" s="4"/>
-      <c r="F14" s="4"/>
-      <c r="G14" s="4"/>
-      <c r="H14" s="4"/>
-      <c r="I14" s="4"/>
-      <c r="J14" s="4"/>
-      <c r="K14" s="4"/>
-      <c r="L14" s="4"/>
-      <c r="M14" s="4"/>
-      <c r="N14" s="4"/>
-      <c r="O14" s="4"/>
-      <c r="P14" s="4"/>
-      <c r="Q14" s="4"/>
-      <c r="R14" s="3"/>
-      <c r="S14" s="3"/>
-      <c r="T14" s="3"/>
-      <c r="U14" s="3"/>
-      <c r="V14" s="3"/>
-      <c r="W14" s="3"/>
-      <c r="X14" s="3"/>
+      <c r="B14" s="3"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3"/>
+      <c r="H14" s="3"/>
+      <c r="I14" s="3"/>
+      <c r="J14" s="3"/>
+      <c r="K14" s="3"/>
+      <c r="L14" s="3"/>
+      <c r="M14" s="3"/>
+      <c r="N14" s="3"/>
+      <c r="O14" s="3"/>
+      <c r="P14" s="3"/>
+      <c r="Q14" s="3"/>
+      <c r="R14" s="4"/>
+      <c r="S14" s="4"/>
+      <c r="T14" s="4"/>
+      <c r="U14" s="4"/>
+      <c r="V14" s="4"/>
+      <c r="W14" s="4"/>
+      <c r="X14" s="4"/>
     </row>
     <row r="15" spans="2:24" x14ac:dyDescent="0.2">
-      <c r="B15" s="4"/>
-      <c r="C15" s="4"/>
-      <c r="D15" s="4"/>
-      <c r="E15" s="4"/>
-      <c r="F15" s="4"/>
-      <c r="G15" s="4"/>
-      <c r="H15" s="4"/>
-      <c r="I15" s="4"/>
-      <c r="J15" s="4"/>
-      <c r="K15" s="4"/>
-      <c r="L15" s="4"/>
-      <c r="M15" s="4"/>
-      <c r="N15" s="4"/>
-      <c r="O15" s="4"/>
-      <c r="P15" s="4"/>
-      <c r="Q15" s="4"/>
-      <c r="R15" s="3"/>
-      <c r="S15" s="3"/>
-      <c r="T15" s="3"/>
-      <c r="U15" s="3"/>
-      <c r="V15" s="3"/>
-      <c r="W15" s="3"/>
-      <c r="X15" s="3"/>
+      <c r="B15" s="3"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3"/>
+      <c r="G15" s="3"/>
+      <c r="H15" s="3"/>
+      <c r="I15" s="3"/>
+      <c r="J15" s="3"/>
+      <c r="K15" s="3"/>
+      <c r="L15" s="3"/>
+      <c r="M15" s="3"/>
+      <c r="N15" s="3"/>
+      <c r="O15" s="3"/>
+      <c r="P15" s="3"/>
+      <c r="Q15" s="3"/>
+      <c r="R15" s="4"/>
+      <c r="S15" s="4"/>
+      <c r="T15" s="4"/>
+      <c r="U15" s="4"/>
+      <c r="V15" s="4"/>
+      <c r="W15" s="4"/>
+      <c r="X15" s="4"/>
     </row>
     <row r="16" spans="2:24" x14ac:dyDescent="0.2">
-      <c r="B16" s="4"/>
-      <c r="C16" s="4"/>
-      <c r="D16" s="4"/>
-      <c r="E16" s="4"/>
-      <c r="F16" s="4"/>
-      <c r="G16" s="4"/>
-      <c r="H16" s="4"/>
-      <c r="I16" s="4"/>
-      <c r="J16" s="4"/>
-      <c r="K16" s="4"/>
-      <c r="L16" s="4"/>
-      <c r="M16" s="4"/>
-      <c r="N16" s="4"/>
-      <c r="O16" s="4"/>
-      <c r="P16" s="4"/>
-      <c r="Q16" s="4"/>
-      <c r="R16" s="3"/>
-      <c r="S16" s="3"/>
-      <c r="T16" s="3"/>
-      <c r="U16" s="3"/>
-      <c r="V16" s="3"/>
-      <c r="W16" s="3"/>
-      <c r="X16" s="3"/>
+      <c r="B16" s="3"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="3"/>
+      <c r="G16" s="3"/>
+      <c r="H16" s="3"/>
+      <c r="I16" s="3"/>
+      <c r="J16" s="3"/>
+      <c r="K16" s="3"/>
+      <c r="L16" s="3"/>
+      <c r="M16" s="3"/>
+      <c r="N16" s="3"/>
+      <c r="O16" s="3"/>
+      <c r="P16" s="3"/>
+      <c r="Q16" s="3"/>
+      <c r="R16" s="4"/>
+      <c r="S16" s="4"/>
+      <c r="T16" s="4"/>
+      <c r="U16" s="4"/>
+      <c r="V16" s="4"/>
+      <c r="W16" s="4"/>
+      <c r="X16" s="4"/>
     </row>
     <row r="17" spans="2:24" x14ac:dyDescent="0.2">
-      <c r="B17" s="4"/>
-      <c r="C17" s="4"/>
-      <c r="D17" s="4"/>
-      <c r="E17" s="4"/>
-      <c r="F17" s="4"/>
-      <c r="G17" s="4"/>
-      <c r="H17" s="4"/>
-      <c r="I17" s="4"/>
-      <c r="J17" s="4"/>
-      <c r="K17" s="4"/>
-      <c r="L17" s="4"/>
-      <c r="M17" s="4"/>
-      <c r="N17" s="4"/>
-      <c r="O17" s="4"/>
-      <c r="P17" s="4"/>
-      <c r="Q17" s="4"/>
-      <c r="R17" s="3"/>
-      <c r="S17" s="3"/>
-      <c r="T17" s="3"/>
-      <c r="U17" s="3"/>
-      <c r="V17" s="3"/>
-      <c r="W17" s="3"/>
-      <c r="X17" s="3"/>
+      <c r="B17" s="3"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="3"/>
+      <c r="G17" s="3"/>
+      <c r="H17" s="3"/>
+      <c r="I17" s="3"/>
+      <c r="J17" s="3"/>
+      <c r="K17" s="3"/>
+      <c r="L17" s="3"/>
+      <c r="M17" s="3"/>
+      <c r="N17" s="3"/>
+      <c r="O17" s="3"/>
+      <c r="P17" s="3"/>
+      <c r="Q17" s="3"/>
+      <c r="R17" s="4"/>
+      <c r="S17" s="4"/>
+      <c r="T17" s="4"/>
+      <c r="U17" s="4"/>
+      <c r="V17" s="4"/>
+      <c r="W17" s="4"/>
+      <c r="X17" s="4"/>
     </row>
     <row r="18" spans="2:24" x14ac:dyDescent="0.2">
-      <c r="B18" s="4" t="s">
+      <c r="B18" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="C18" s="4"/>
-      <c r="D18" s="3" t="s">
+      <c r="C18" s="3"/>
+      <c r="D18" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="E18" s="3"/>
-      <c r="F18" s="4" t="s">
+      <c r="E18" s="4"/>
+      <c r="F18" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="G18" s="4"/>
-      <c r="H18" s="4"/>
-      <c r="I18" s="4"/>
-      <c r="J18" s="4" t="s">
+      <c r="G18" s="3"/>
+      <c r="H18" s="3"/>
+      <c r="I18" s="3"/>
+      <c r="J18" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="K18" s="4"/>
-      <c r="L18" s="4"/>
-      <c r="M18" s="4"/>
-      <c r="N18" s="4" t="s">
+      <c r="K18" s="3"/>
+      <c r="L18" s="3"/>
+      <c r="M18" s="3"/>
+      <c r="N18" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="O18" s="4"/>
-      <c r="P18" s="4"/>
-      <c r="Q18" s="4"/>
-      <c r="R18" s="4" t="s">
+      <c r="O18" s="3"/>
+      <c r="P18" s="3"/>
+      <c r="Q18" s="3"/>
+      <c r="R18" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="S18" s="4"/>
-      <c r="T18" s="4"/>
-      <c r="U18" s="4"/>
-      <c r="V18" s="3" t="s">
+      <c r="S18" s="3"/>
+      <c r="T18" s="3"/>
+      <c r="U18" s="3"/>
+      <c r="V18" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="W18" s="3"/>
-      <c r="X18" s="3"/>
+      <c r="W18" s="4"/>
+      <c r="X18" s="4"/>
     </row>
     <row r="19" spans="2:24" x14ac:dyDescent="0.2">
-      <c r="B19" s="4"/>
-      <c r="C19" s="4"/>
-      <c r="D19" s="3"/>
-      <c r="E19" s="3"/>
-      <c r="F19" s="4"/>
-      <c r="G19" s="4"/>
-      <c r="H19" s="4"/>
-      <c r="I19" s="4"/>
-      <c r="J19" s="4"/>
-      <c r="K19" s="4"/>
-      <c r="L19" s="4"/>
-      <c r="M19" s="4"/>
-      <c r="N19" s="4"/>
-      <c r="O19" s="4"/>
-      <c r="P19" s="4"/>
-      <c r="Q19" s="4"/>
-      <c r="R19" s="4"/>
-      <c r="S19" s="4"/>
-      <c r="T19" s="4"/>
-      <c r="U19" s="4"/>
-      <c r="V19" s="3"/>
-      <c r="W19" s="3"/>
-      <c r="X19" s="3"/>
+      <c r="B19" s="3"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="4"/>
+      <c r="E19" s="4"/>
+      <c r="F19" s="3"/>
+      <c r="G19" s="3"/>
+      <c r="H19" s="3"/>
+      <c r="I19" s="3"/>
+      <c r="J19" s="3"/>
+      <c r="K19" s="3"/>
+      <c r="L19" s="3"/>
+      <c r="M19" s="3"/>
+      <c r="N19" s="3"/>
+      <c r="O19" s="3"/>
+      <c r="P19" s="3"/>
+      <c r="Q19" s="3"/>
+      <c r="R19" s="3"/>
+      <c r="S19" s="3"/>
+      <c r="T19" s="3"/>
+      <c r="U19" s="3"/>
+      <c r="V19" s="4"/>
+      <c r="W19" s="4"/>
+      <c r="X19" s="4"/>
     </row>
     <row r="20" spans="2:24" x14ac:dyDescent="0.2">
-      <c r="B20" s="4"/>
-      <c r="C20" s="4"/>
-      <c r="D20" s="3"/>
-      <c r="E20" s="3"/>
-      <c r="F20" s="4"/>
-      <c r="G20" s="4"/>
-      <c r="H20" s="4"/>
-      <c r="I20" s="4"/>
-      <c r="J20" s="4"/>
-      <c r="K20" s="4"/>
-      <c r="L20" s="4"/>
-      <c r="M20" s="4"/>
-      <c r="N20" s="4"/>
-      <c r="O20" s="4"/>
-      <c r="P20" s="4"/>
-      <c r="Q20" s="4"/>
-      <c r="R20" s="4"/>
-      <c r="S20" s="4"/>
-      <c r="T20" s="4"/>
-      <c r="U20" s="4"/>
-      <c r="V20" s="3"/>
-      <c r="W20" s="3"/>
-      <c r="X20" s="3"/>
+      <c r="B20" s="3"/>
+      <c r="C20" s="3"/>
+      <c r="D20" s="4"/>
+      <c r="E20" s="4"/>
+      <c r="F20" s="3"/>
+      <c r="G20" s="3"/>
+      <c r="H20" s="3"/>
+      <c r="I20" s="3"/>
+      <c r="J20" s="3"/>
+      <c r="K20" s="3"/>
+      <c r="L20" s="3"/>
+      <c r="M20" s="3"/>
+      <c r="N20" s="3"/>
+      <c r="O20" s="3"/>
+      <c r="P20" s="3"/>
+      <c r="Q20" s="3"/>
+      <c r="R20" s="3"/>
+      <c r="S20" s="3"/>
+      <c r="T20" s="3"/>
+      <c r="U20" s="3"/>
+      <c r="V20" s="4"/>
+      <c r="W20" s="4"/>
+      <c r="X20" s="4"/>
     </row>
     <row r="21" spans="2:24" x14ac:dyDescent="0.2">
-      <c r="B21" s="4"/>
-      <c r="C21" s="4"/>
-      <c r="D21" s="3"/>
-      <c r="E21" s="3"/>
-      <c r="F21" s="4"/>
-      <c r="G21" s="4"/>
-      <c r="H21" s="4"/>
-      <c r="I21" s="4"/>
-      <c r="J21" s="4"/>
-      <c r="K21" s="4"/>
-      <c r="L21" s="4"/>
-      <c r="M21" s="4"/>
-      <c r="N21" s="4"/>
-      <c r="O21" s="4"/>
-      <c r="P21" s="4"/>
-      <c r="Q21" s="4"/>
-      <c r="R21" s="4"/>
-      <c r="S21" s="4"/>
-      <c r="T21" s="4"/>
-      <c r="U21" s="4"/>
-      <c r="V21" s="3"/>
-      <c r="W21" s="3"/>
-      <c r="X21" s="3"/>
+      <c r="B21" s="3"/>
+      <c r="C21" s="3"/>
+      <c r="D21" s="4"/>
+      <c r="E21" s="4"/>
+      <c r="F21" s="3"/>
+      <c r="G21" s="3"/>
+      <c r="H21" s="3"/>
+      <c r="I21" s="3"/>
+      <c r="J21" s="3"/>
+      <c r="K21" s="3"/>
+      <c r="L21" s="3"/>
+      <c r="M21" s="3"/>
+      <c r="N21" s="3"/>
+      <c r="O21" s="3"/>
+      <c r="P21" s="3"/>
+      <c r="Q21" s="3"/>
+      <c r="R21" s="3"/>
+      <c r="S21" s="3"/>
+      <c r="T21" s="3"/>
+      <c r="U21" s="3"/>
+      <c r="V21" s="4"/>
+      <c r="W21" s="4"/>
+      <c r="X21" s="4"/>
     </row>
     <row r="22" spans="2:24" x14ac:dyDescent="0.2">
-      <c r="B22" s="4"/>
-      <c r="C22" s="4"/>
-      <c r="D22" s="3"/>
-      <c r="E22" s="3"/>
-      <c r="F22" s="4"/>
-      <c r="G22" s="4"/>
-      <c r="H22" s="4"/>
-      <c r="I22" s="4"/>
-      <c r="J22" s="4"/>
-      <c r="K22" s="4"/>
-      <c r="L22" s="4"/>
-      <c r="M22" s="4"/>
-      <c r="N22" s="4"/>
-      <c r="O22" s="4"/>
-      <c r="P22" s="4"/>
-      <c r="Q22" s="4"/>
-      <c r="R22" s="4"/>
-      <c r="S22" s="4"/>
-      <c r="T22" s="4"/>
-      <c r="U22" s="4"/>
-      <c r="V22" s="3"/>
-      <c r="W22" s="3"/>
-      <c r="X22" s="3"/>
+      <c r="B22" s="3"/>
+      <c r="C22" s="3"/>
+      <c r="D22" s="4"/>
+      <c r="E22" s="4"/>
+      <c r="F22" s="3"/>
+      <c r="G22" s="3"/>
+      <c r="H22" s="3"/>
+      <c r="I22" s="3"/>
+      <c r="J22" s="3"/>
+      <c r="K22" s="3"/>
+      <c r="L22" s="3"/>
+      <c r="M22" s="3"/>
+      <c r="N22" s="3"/>
+      <c r="O22" s="3"/>
+      <c r="P22" s="3"/>
+      <c r="Q22" s="3"/>
+      <c r="R22" s="3"/>
+      <c r="S22" s="3"/>
+      <c r="T22" s="3"/>
+      <c r="U22" s="3"/>
+      <c r="V22" s="4"/>
+      <c r="W22" s="4"/>
+      <c r="X22" s="4"/>
     </row>
     <row r="23" spans="2:24" x14ac:dyDescent="0.2">
-      <c r="B23" s="4" t="s">
+      <c r="B23" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="C23" s="4"/>
-      <c r="D23" s="4" t="s">
+      <c r="C23" s="3"/>
+      <c r="D23" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="E23" s="4"/>
-      <c r="F23" s="4" t="s">
+      <c r="E23" s="3"/>
+      <c r="F23" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="G23" s="4"/>
-      <c r="H23" s="4"/>
-      <c r="I23" s="4"/>
-      <c r="J23" s="4" t="s">
+      <c r="G23" s="3"/>
+      <c r="H23" s="3"/>
+      <c r="I23" s="3"/>
+      <c r="J23" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="K23" s="4"/>
-      <c r="L23" s="4"/>
-      <c r="M23" s="4"/>
-      <c r="N23" s="4" t="s">
+      <c r="K23" s="3"/>
+      <c r="L23" s="3"/>
+      <c r="M23" s="3"/>
+      <c r="N23" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="O23" s="4"/>
-      <c r="P23" s="4"/>
-      <c r="Q23" s="4"/>
-      <c r="R23" s="4" t="s">
+      <c r="O23" s="3"/>
+      <c r="P23" s="3"/>
+      <c r="Q23" s="3"/>
+      <c r="R23" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="S23" s="4"/>
-      <c r="T23" s="4"/>
-      <c r="U23" s="4"/>
-      <c r="V23" s="3" t="s">
+      <c r="S23" s="3"/>
+      <c r="T23" s="3"/>
+      <c r="U23" s="3"/>
+      <c r="V23" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="W23" s="3"/>
-      <c r="X23" s="3"/>
+      <c r="W23" s="4"/>
+      <c r="X23" s="4"/>
     </row>
     <row r="24" spans="2:24" x14ac:dyDescent="0.2">
-      <c r="B24" s="4"/>
-      <c r="C24" s="4"/>
-      <c r="D24" s="4"/>
-      <c r="E24" s="4"/>
-      <c r="F24" s="4"/>
-      <c r="G24" s="4"/>
-      <c r="H24" s="4"/>
-      <c r="I24" s="4"/>
-      <c r="J24" s="4"/>
-      <c r="K24" s="4"/>
-      <c r="L24" s="4"/>
-      <c r="M24" s="4"/>
-      <c r="N24" s="4"/>
-      <c r="O24" s="4"/>
-      <c r="P24" s="4"/>
-      <c r="Q24" s="4"/>
-      <c r="R24" s="4"/>
-      <c r="S24" s="4"/>
-      <c r="T24" s="4"/>
-      <c r="U24" s="4"/>
-      <c r="V24" s="3"/>
-      <c r="W24" s="3"/>
-      <c r="X24" s="3"/>
+      <c r="B24" s="3"/>
+      <c r="C24" s="3"/>
+      <c r="D24" s="3"/>
+      <c r="E24" s="3"/>
+      <c r="F24" s="3"/>
+      <c r="G24" s="3"/>
+      <c r="H24" s="3"/>
+      <c r="I24" s="3"/>
+      <c r="J24" s="3"/>
+      <c r="K24" s="3"/>
+      <c r="L24" s="3"/>
+      <c r="M24" s="3"/>
+      <c r="N24" s="3"/>
+      <c r="O24" s="3"/>
+      <c r="P24" s="3"/>
+      <c r="Q24" s="3"/>
+      <c r="R24" s="3"/>
+      <c r="S24" s="3"/>
+      <c r="T24" s="3"/>
+      <c r="U24" s="3"/>
+      <c r="V24" s="4"/>
+      <c r="W24" s="4"/>
+      <c r="X24" s="4"/>
     </row>
     <row r="25" spans="2:24" x14ac:dyDescent="0.2">
-      <c r="B25" s="4"/>
-      <c r="C25" s="4"/>
-      <c r="D25" s="4"/>
-      <c r="E25" s="4"/>
-      <c r="F25" s="4"/>
-      <c r="G25" s="4"/>
-      <c r="H25" s="4"/>
-      <c r="I25" s="4"/>
-      <c r="J25" s="4"/>
-      <c r="K25" s="4"/>
-      <c r="L25" s="4"/>
-      <c r="M25" s="4"/>
-      <c r="N25" s="4"/>
-      <c r="O25" s="4"/>
-      <c r="P25" s="4"/>
-      <c r="Q25" s="4"/>
-      <c r="R25" s="4"/>
-      <c r="S25" s="4"/>
-      <c r="T25" s="4"/>
-      <c r="U25" s="4"/>
-      <c r="V25" s="3"/>
-      <c r="W25" s="3"/>
-      <c r="X25" s="3"/>
+      <c r="B25" s="3"/>
+      <c r="C25" s="3"/>
+      <c r="D25" s="3"/>
+      <c r="E25" s="3"/>
+      <c r="F25" s="3"/>
+      <c r="G25" s="3"/>
+      <c r="H25" s="3"/>
+      <c r="I25" s="3"/>
+      <c r="J25" s="3"/>
+      <c r="K25" s="3"/>
+      <c r="L25" s="3"/>
+      <c r="M25" s="3"/>
+      <c r="N25" s="3"/>
+      <c r="O25" s="3"/>
+      <c r="P25" s="3"/>
+      <c r="Q25" s="3"/>
+      <c r="R25" s="3"/>
+      <c r="S25" s="3"/>
+      <c r="T25" s="3"/>
+      <c r="U25" s="3"/>
+      <c r="V25" s="4"/>
+      <c r="W25" s="4"/>
+      <c r="X25" s="4"/>
     </row>
     <row r="26" spans="2:24" x14ac:dyDescent="0.2">
-      <c r="B26" s="4"/>
-      <c r="C26" s="4"/>
-      <c r="D26" s="4"/>
-      <c r="E26" s="4"/>
-      <c r="F26" s="4"/>
-      <c r="G26" s="4"/>
-      <c r="H26" s="4"/>
-      <c r="I26" s="4"/>
-      <c r="J26" s="4"/>
-      <c r="K26" s="4"/>
-      <c r="L26" s="4"/>
-      <c r="M26" s="4"/>
-      <c r="N26" s="4"/>
-      <c r="O26" s="4"/>
-      <c r="P26" s="4"/>
-      <c r="Q26" s="4"/>
-      <c r="R26" s="4"/>
-      <c r="S26" s="4"/>
-      <c r="T26" s="4"/>
-      <c r="U26" s="4"/>
-      <c r="V26" s="3"/>
-      <c r="W26" s="3"/>
-      <c r="X26" s="3"/>
+      <c r="B26" s="3"/>
+      <c r="C26" s="3"/>
+      <c r="D26" s="3"/>
+      <c r="E26" s="3"/>
+      <c r="F26" s="3"/>
+      <c r="G26" s="3"/>
+      <c r="H26" s="3"/>
+      <c r="I26" s="3"/>
+      <c r="J26" s="3"/>
+      <c r="K26" s="3"/>
+      <c r="L26" s="3"/>
+      <c r="M26" s="3"/>
+      <c r="N26" s="3"/>
+      <c r="O26" s="3"/>
+      <c r="P26" s="3"/>
+      <c r="Q26" s="3"/>
+      <c r="R26" s="3"/>
+      <c r="S26" s="3"/>
+      <c r="T26" s="3"/>
+      <c r="U26" s="3"/>
+      <c r="V26" s="4"/>
+      <c r="W26" s="4"/>
+      <c r="X26" s="4"/>
     </row>
     <row r="27" spans="2:24" x14ac:dyDescent="0.2">
-      <c r="B27" s="4"/>
-      <c r="C27" s="4"/>
-      <c r="D27" s="4"/>
-      <c r="E27" s="4"/>
-      <c r="F27" s="4"/>
-      <c r="G27" s="4"/>
-      <c r="H27" s="4"/>
-      <c r="I27" s="4"/>
-      <c r="J27" s="4"/>
-      <c r="K27" s="4"/>
-      <c r="L27" s="4"/>
-      <c r="M27" s="4"/>
-      <c r="N27" s="4"/>
-      <c r="O27" s="4"/>
-      <c r="P27" s="4"/>
-      <c r="Q27" s="4"/>
-      <c r="R27" s="4"/>
-      <c r="S27" s="4"/>
-      <c r="T27" s="4"/>
-      <c r="U27" s="4"/>
-      <c r="V27" s="3"/>
-      <c r="W27" s="3"/>
-      <c r="X27" s="3"/>
+      <c r="B27" s="3"/>
+      <c r="C27" s="3"/>
+      <c r="D27" s="3"/>
+      <c r="E27" s="3"/>
+      <c r="F27" s="3"/>
+      <c r="G27" s="3"/>
+      <c r="H27" s="3"/>
+      <c r="I27" s="3"/>
+      <c r="J27" s="3"/>
+      <c r="K27" s="3"/>
+      <c r="L27" s="3"/>
+      <c r="M27" s="3"/>
+      <c r="N27" s="3"/>
+      <c r="O27" s="3"/>
+      <c r="P27" s="3"/>
+      <c r="Q27" s="3"/>
+      <c r="R27" s="3"/>
+      <c r="S27" s="3"/>
+      <c r="T27" s="3"/>
+      <c r="U27" s="3"/>
+      <c r="V27" s="4"/>
+      <c r="W27" s="4"/>
+      <c r="X27" s="4"/>
     </row>
     <row r="28" spans="2:24" x14ac:dyDescent="0.2">
-      <c r="B28" s="3" t="s">
+      <c r="B28" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="C28" s="3"/>
-      <c r="D28" s="3" t="s">
+      <c r="C28" s="4"/>
+      <c r="D28" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="E28" s="3"/>
-      <c r="F28" s="3" t="s">
+      <c r="E28" s="4"/>
+      <c r="F28" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="G28" s="3"/>
-      <c r="H28" s="3"/>
-      <c r="I28" s="3"/>
-      <c r="J28" s="4" t="s">
+      <c r="G28" s="4"/>
+      <c r="H28" s="4"/>
+      <c r="I28" s="4"/>
+      <c r="J28" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="K28" s="4"/>
-      <c r="L28" s="4"/>
-      <c r="M28" s="4"/>
-      <c r="N28" s="4" t="s">
+      <c r="K28" s="3"/>
+      <c r="L28" s="3"/>
+      <c r="M28" s="3"/>
+      <c r="N28" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="O28" s="4"/>
-      <c r="P28" s="4"/>
-      <c r="Q28" s="4"/>
-      <c r="R28" s="3" t="s">
+      <c r="O28" s="3"/>
+      <c r="P28" s="3"/>
+      <c r="Q28" s="3"/>
+      <c r="R28" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="S28" s="3"/>
-      <c r="T28" s="3"/>
-      <c r="U28" s="3"/>
-      <c r="V28" s="3" t="s">
+      <c r="S28" s="4"/>
+      <c r="T28" s="4"/>
+      <c r="U28" s="4"/>
+      <c r="V28" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="W28" s="3"/>
-      <c r="X28" s="3"/>
+      <c r="W28" s="4"/>
+      <c r="X28" s="4"/>
     </row>
     <row r="29" spans="2:24" x14ac:dyDescent="0.2">
-      <c r="B29" s="3"/>
-      <c r="C29" s="3"/>
-      <c r="D29" s="3"/>
-      <c r="E29" s="3"/>
-      <c r="F29" s="3"/>
-      <c r="G29" s="3"/>
-      <c r="H29" s="3"/>
-      <c r="I29" s="3"/>
-      <c r="J29" s="4"/>
-      <c r="K29" s="4"/>
-      <c r="L29" s="4"/>
-      <c r="M29" s="4"/>
-      <c r="N29" s="4"/>
-      <c r="O29" s="4"/>
-      <c r="P29" s="4"/>
-      <c r="Q29" s="4"/>
-      <c r="R29" s="3"/>
-      <c r="S29" s="3"/>
-      <c r="T29" s="3"/>
-      <c r="U29" s="3"/>
-      <c r="V29" s="3"/>
-      <c r="W29" s="3"/>
-      <c r="X29" s="3"/>
+      <c r="B29" s="4"/>
+      <c r="C29" s="4"/>
+      <c r="D29" s="4"/>
+      <c r="E29" s="4"/>
+      <c r="F29" s="4"/>
+      <c r="G29" s="4"/>
+      <c r="H29" s="4"/>
+      <c r="I29" s="4"/>
+      <c r="J29" s="3"/>
+      <c r="K29" s="3"/>
+      <c r="L29" s="3"/>
+      <c r="M29" s="3"/>
+      <c r="N29" s="3"/>
+      <c r="O29" s="3"/>
+      <c r="P29" s="3"/>
+      <c r="Q29" s="3"/>
+      <c r="R29" s="4"/>
+      <c r="S29" s="4"/>
+      <c r="T29" s="4"/>
+      <c r="U29" s="4"/>
+      <c r="V29" s="4"/>
+      <c r="W29" s="4"/>
+      <c r="X29" s="4"/>
     </row>
     <row r="30" spans="2:24" x14ac:dyDescent="0.2">
-      <c r="B30" s="3"/>
-      <c r="C30" s="3"/>
-      <c r="D30" s="3"/>
-      <c r="E30" s="3"/>
-      <c r="F30" s="3"/>
-      <c r="G30" s="3"/>
-      <c r="H30" s="3"/>
-      <c r="I30" s="3"/>
-      <c r="J30" s="4"/>
-      <c r="K30" s="4"/>
-      <c r="L30" s="4"/>
-      <c r="M30" s="4"/>
-      <c r="N30" s="4"/>
-      <c r="O30" s="4"/>
-      <c r="P30" s="4"/>
-      <c r="Q30" s="4"/>
-      <c r="R30" s="3"/>
-      <c r="S30" s="3"/>
-      <c r="T30" s="3"/>
-      <c r="U30" s="3"/>
-      <c r="V30" s="3"/>
-      <c r="W30" s="3"/>
-      <c r="X30" s="3"/>
+      <c r="B30" s="4"/>
+      <c r="C30" s="4"/>
+      <c r="D30" s="4"/>
+      <c r="E30" s="4"/>
+      <c r="F30" s="4"/>
+      <c r="G30" s="4"/>
+      <c r="H30" s="4"/>
+      <c r="I30" s="4"/>
+      <c r="J30" s="3"/>
+      <c r="K30" s="3"/>
+      <c r="L30" s="3"/>
+      <c r="M30" s="3"/>
+      <c r="N30" s="3"/>
+      <c r="O30" s="3"/>
+      <c r="P30" s="3"/>
+      <c r="Q30" s="3"/>
+      <c r="R30" s="4"/>
+      <c r="S30" s="4"/>
+      <c r="T30" s="4"/>
+      <c r="U30" s="4"/>
+      <c r="V30" s="4"/>
+      <c r="W30" s="4"/>
+      <c r="X30" s="4"/>
     </row>
     <row r="31" spans="2:24" x14ac:dyDescent="0.2">
-      <c r="B31" s="3"/>
-      <c r="C31" s="3"/>
-      <c r="D31" s="3"/>
-      <c r="E31" s="3"/>
-      <c r="F31" s="3"/>
-      <c r="G31" s="3"/>
-      <c r="H31" s="3"/>
-      <c r="I31" s="3"/>
-      <c r="J31" s="4"/>
-      <c r="K31" s="4"/>
-      <c r="L31" s="4"/>
-      <c r="M31" s="4"/>
-      <c r="N31" s="4"/>
-      <c r="O31" s="4"/>
-      <c r="P31" s="4"/>
-      <c r="Q31" s="4"/>
-      <c r="R31" s="3"/>
-      <c r="S31" s="3"/>
-      <c r="T31" s="3"/>
-      <c r="U31" s="3"/>
-      <c r="V31" s="3"/>
-      <c r="W31" s="3"/>
-      <c r="X31" s="3"/>
+      <c r="B31" s="4"/>
+      <c r="C31" s="4"/>
+      <c r="D31" s="4"/>
+      <c r="E31" s="4"/>
+      <c r="F31" s="4"/>
+      <c r="G31" s="4"/>
+      <c r="H31" s="4"/>
+      <c r="I31" s="4"/>
+      <c r="J31" s="3"/>
+      <c r="K31" s="3"/>
+      <c r="L31" s="3"/>
+      <c r="M31" s="3"/>
+      <c r="N31" s="3"/>
+      <c r="O31" s="3"/>
+      <c r="P31" s="3"/>
+      <c r="Q31" s="3"/>
+      <c r="R31" s="4"/>
+      <c r="S31" s="4"/>
+      <c r="T31" s="4"/>
+      <c r="U31" s="4"/>
+      <c r="V31" s="4"/>
+      <c r="W31" s="4"/>
+      <c r="X31" s="4"/>
     </row>
     <row r="32" spans="2:24" x14ac:dyDescent="0.2">
-      <c r="B32" s="3"/>
-      <c r="C32" s="3"/>
-      <c r="D32" s="3"/>
-      <c r="E32" s="3"/>
-      <c r="F32" s="3"/>
-      <c r="G32" s="3"/>
-      <c r="H32" s="3"/>
-      <c r="I32" s="3"/>
-      <c r="J32" s="4"/>
-      <c r="K32" s="4"/>
-      <c r="L32" s="4"/>
-      <c r="M32" s="4"/>
-      <c r="N32" s="4"/>
-      <c r="O32" s="4"/>
-      <c r="P32" s="4"/>
-      <c r="Q32" s="4"/>
-      <c r="R32" s="3"/>
-      <c r="S32" s="3"/>
-      <c r="T32" s="3"/>
-      <c r="U32" s="3"/>
-      <c r="V32" s="3"/>
-      <c r="W32" s="3"/>
-      <c r="X32" s="3"/>
+      <c r="B32" s="4"/>
+      <c r="C32" s="4"/>
+      <c r="D32" s="4"/>
+      <c r="E32" s="4"/>
+      <c r="F32" s="4"/>
+      <c r="G32" s="4"/>
+      <c r="H32" s="4"/>
+      <c r="I32" s="4"/>
+      <c r="J32" s="3"/>
+      <c r="K32" s="3"/>
+      <c r="L32" s="3"/>
+      <c r="M32" s="3"/>
+      <c r="N32" s="3"/>
+      <c r="O32" s="3"/>
+      <c r="P32" s="3"/>
+      <c r="Q32" s="3"/>
+      <c r="R32" s="4"/>
+      <c r="S32" s="4"/>
+      <c r="T32" s="4"/>
+      <c r="U32" s="4"/>
+      <c r="V32" s="4"/>
+      <c r="W32" s="4"/>
+      <c r="X32" s="4"/>
     </row>
     <row r="33" spans="2:24" x14ac:dyDescent="0.2">
-      <c r="B33" s="4" t="s">
+      <c r="B33" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="C33" s="4"/>
-      <c r="D33" s="4" t="s">
+      <c r="C33" s="3"/>
+      <c r="D33" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="E33" s="4"/>
-      <c r="F33" s="4" t="s">
+      <c r="E33" s="3"/>
+      <c r="F33" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="G33" s="4"/>
-      <c r="H33" s="4"/>
-      <c r="I33" s="4"/>
-      <c r="J33" s="3" t="s">
+      <c r="G33" s="3"/>
+      <c r="H33" s="3"/>
+      <c r="I33" s="3"/>
+      <c r="J33" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="K33" s="3"/>
-      <c r="L33" s="3"/>
-      <c r="M33" s="3"/>
-      <c r="N33" s="3" t="s">
+      <c r="K33" s="4"/>
+      <c r="L33" s="4"/>
+      <c r="M33" s="4"/>
+      <c r="N33" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="O33" s="3"/>
-      <c r="P33" s="3"/>
-      <c r="Q33" s="3"/>
-      <c r="R33" s="4" t="s">
+      <c r="O33" s="4"/>
+      <c r="P33" s="4"/>
+      <c r="Q33" s="4"/>
+      <c r="R33" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="S33" s="4"/>
-      <c r="T33" s="4"/>
-      <c r="U33" s="4"/>
-      <c r="V33" s="3" t="s">
+      <c r="S33" s="3"/>
+      <c r="T33" s="3"/>
+      <c r="U33" s="3"/>
+      <c r="V33" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="W33" s="3"/>
-      <c r="X33" s="3"/>
+      <c r="W33" s="4"/>
+      <c r="X33" s="4"/>
     </row>
     <row r="34" spans="2:24" x14ac:dyDescent="0.2">
-      <c r="B34" s="4"/>
-      <c r="C34" s="4"/>
-      <c r="D34" s="4"/>
-      <c r="E34" s="4"/>
-      <c r="F34" s="4"/>
-      <c r="G34" s="4"/>
-      <c r="H34" s="4"/>
-      <c r="I34" s="4"/>
-      <c r="J34" s="3"/>
-      <c r="K34" s="3"/>
-      <c r="L34" s="3"/>
-      <c r="M34" s="3"/>
-      <c r="N34" s="3"/>
-      <c r="O34" s="3"/>
-      <c r="P34" s="3"/>
-      <c r="Q34" s="3"/>
-      <c r="R34" s="4"/>
-      <c r="S34" s="4"/>
-      <c r="T34" s="4"/>
-      <c r="U34" s="4"/>
-      <c r="V34" s="3"/>
-      <c r="W34" s="3"/>
-      <c r="X34" s="3"/>
+      <c r="B34" s="3"/>
+      <c r="C34" s="3"/>
+      <c r="D34" s="3"/>
+      <c r="E34" s="3"/>
+      <c r="F34" s="3"/>
+      <c r="G34" s="3"/>
+      <c r="H34" s="3"/>
+      <c r="I34" s="3"/>
+      <c r="J34" s="4"/>
+      <c r="K34" s="4"/>
+      <c r="L34" s="4"/>
+      <c r="M34" s="4"/>
+      <c r="N34" s="4"/>
+      <c r="O34" s="4"/>
+      <c r="P34" s="4"/>
+      <c r="Q34" s="4"/>
+      <c r="R34" s="3"/>
+      <c r="S34" s="3"/>
+      <c r="T34" s="3"/>
+      <c r="U34" s="3"/>
+      <c r="V34" s="4"/>
+      <c r="W34" s="4"/>
+      <c r="X34" s="4"/>
     </row>
     <row r="35" spans="2:24" x14ac:dyDescent="0.2">
-      <c r="B35" s="4"/>
-      <c r="C35" s="4"/>
-      <c r="D35" s="4"/>
-      <c r="E35" s="4"/>
-      <c r="F35" s="4"/>
-      <c r="G35" s="4"/>
-      <c r="H35" s="4"/>
-      <c r="I35" s="4"/>
-      <c r="J35" s="3"/>
-      <c r="K35" s="3"/>
-      <c r="L35" s="3"/>
-      <c r="M35" s="3"/>
-      <c r="N35" s="3"/>
-      <c r="O35" s="3"/>
-      <c r="P35" s="3"/>
-      <c r="Q35" s="3"/>
-      <c r="R35" s="4"/>
-      <c r="S35" s="4"/>
-      <c r="T35" s="4"/>
-      <c r="U35" s="4"/>
-      <c r="V35" s="3"/>
-      <c r="W35" s="3"/>
-      <c r="X35" s="3"/>
+      <c r="B35" s="3"/>
+      <c r="C35" s="3"/>
+      <c r="D35" s="3"/>
+      <c r="E35" s="3"/>
+      <c r="F35" s="3"/>
+      <c r="G35" s="3"/>
+      <c r="H35" s="3"/>
+      <c r="I35" s="3"/>
+      <c r="J35" s="4"/>
+      <c r="K35" s="4"/>
+      <c r="L35" s="4"/>
+      <c r="M35" s="4"/>
+      <c r="N35" s="4"/>
+      <c r="O35" s="4"/>
+      <c r="P35" s="4"/>
+      <c r="Q35" s="4"/>
+      <c r="R35" s="3"/>
+      <c r="S35" s="3"/>
+      <c r="T35" s="3"/>
+      <c r="U35" s="3"/>
+      <c r="V35" s="4"/>
+      <c r="W35" s="4"/>
+      <c r="X35" s="4"/>
     </row>
     <row r="36" spans="2:24" x14ac:dyDescent="0.2">
-      <c r="B36" s="4"/>
-      <c r="C36" s="4"/>
-      <c r="D36" s="4"/>
-      <c r="E36" s="4"/>
-      <c r="F36" s="4"/>
-      <c r="G36" s="4"/>
-      <c r="H36" s="4"/>
-      <c r="I36" s="4"/>
-      <c r="J36" s="3"/>
-      <c r="K36" s="3"/>
-      <c r="L36" s="3"/>
-      <c r="M36" s="3"/>
-      <c r="N36" s="3"/>
-      <c r="O36" s="3"/>
-      <c r="P36" s="3"/>
-      <c r="Q36" s="3"/>
-      <c r="R36" s="4"/>
-      <c r="S36" s="4"/>
-      <c r="T36" s="4"/>
-      <c r="U36" s="4"/>
-      <c r="V36" s="3"/>
-      <c r="W36" s="3"/>
-      <c r="X36" s="3"/>
+      <c r="B36" s="3"/>
+      <c r="C36" s="3"/>
+      <c r="D36" s="3"/>
+      <c r="E36" s="3"/>
+      <c r="F36" s="3"/>
+      <c r="G36" s="3"/>
+      <c r="H36" s="3"/>
+      <c r="I36" s="3"/>
+      <c r="J36" s="4"/>
+      <c r="K36" s="4"/>
+      <c r="L36" s="4"/>
+      <c r="M36" s="4"/>
+      <c r="N36" s="4"/>
+      <c r="O36" s="4"/>
+      <c r="P36" s="4"/>
+      <c r="Q36" s="4"/>
+      <c r="R36" s="3"/>
+      <c r="S36" s="3"/>
+      <c r="T36" s="3"/>
+      <c r="U36" s="3"/>
+      <c r="V36" s="4"/>
+      <c r="W36" s="4"/>
+      <c r="X36" s="4"/>
     </row>
     <row r="37" spans="2:24" x14ac:dyDescent="0.2">
-      <c r="B37" s="4"/>
-      <c r="C37" s="4"/>
-      <c r="D37" s="4"/>
-      <c r="E37" s="4"/>
-      <c r="F37" s="4"/>
-      <c r="G37" s="4"/>
-      <c r="H37" s="4"/>
-      <c r="I37" s="4"/>
-      <c r="J37" s="3"/>
-      <c r="K37" s="3"/>
-      <c r="L37" s="3"/>
-      <c r="M37" s="3"/>
-      <c r="N37" s="3"/>
-      <c r="O37" s="3"/>
-      <c r="P37" s="3"/>
-      <c r="Q37" s="3"/>
-      <c r="R37" s="4"/>
-      <c r="S37" s="4"/>
-      <c r="T37" s="4"/>
-      <c r="U37" s="4"/>
-      <c r="V37" s="3"/>
-      <c r="W37" s="3"/>
-      <c r="X37" s="3"/>
+      <c r="B37" s="3"/>
+      <c r="C37" s="3"/>
+      <c r="D37" s="3"/>
+      <c r="E37" s="3"/>
+      <c r="F37" s="3"/>
+      <c r="G37" s="3"/>
+      <c r="H37" s="3"/>
+      <c r="I37" s="3"/>
+      <c r="J37" s="4"/>
+      <c r="K37" s="4"/>
+      <c r="L37" s="4"/>
+      <c r="M37" s="4"/>
+      <c r="N37" s="4"/>
+      <c r="O37" s="4"/>
+      <c r="P37" s="4"/>
+      <c r="Q37" s="4"/>
+      <c r="R37" s="3"/>
+      <c r="S37" s="3"/>
+      <c r="T37" s="3"/>
+      <c r="U37" s="3"/>
+      <c r="V37" s="4"/>
+      <c r="W37" s="4"/>
+      <c r="X37" s="4"/>
     </row>
     <row r="38" spans="2:24" x14ac:dyDescent="0.2">
-      <c r="B38" s="4" t="s">
+      <c r="B38" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="C38" s="4"/>
-      <c r="D38" s="3" t="s">
+      <c r="C38" s="3"/>
+      <c r="D38" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="E38" s="3"/>
-      <c r="F38" s="4" t="s">
+      <c r="E38" s="4"/>
+      <c r="F38" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="G38" s="4"/>
-      <c r="H38" s="4"/>
-      <c r="I38" s="4"/>
-      <c r="J38" s="4" t="s">
+      <c r="G38" s="3"/>
+      <c r="H38" s="3"/>
+      <c r="I38" s="3"/>
+      <c r="J38" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="K38" s="4"/>
-      <c r="L38" s="4"/>
-      <c r="M38" s="4"/>
-      <c r="N38" s="4" t="s">
+      <c r="K38" s="3"/>
+      <c r="L38" s="3"/>
+      <c r="M38" s="3"/>
+      <c r="N38" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="O38" s="4"/>
-      <c r="P38" s="4"/>
-      <c r="Q38" s="4"/>
-      <c r="R38" s="3" t="s">
+      <c r="O38" s="3"/>
+      <c r="P38" s="3"/>
+      <c r="Q38" s="3"/>
+      <c r="R38" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="S38" s="3"/>
-      <c r="T38" s="3"/>
-      <c r="U38" s="3"/>
-      <c r="V38" s="3" t="s">
+      <c r="S38" s="4"/>
+      <c r="T38" s="4"/>
+      <c r="U38" s="4"/>
+      <c r="V38" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="W38" s="3"/>
-      <c r="X38" s="3"/>
+      <c r="W38" s="4"/>
+      <c r="X38" s="4"/>
     </row>
     <row r="39" spans="2:24" x14ac:dyDescent="0.2">
-      <c r="B39" s="4"/>
-      <c r="C39" s="4"/>
-      <c r="D39" s="3"/>
-      <c r="E39" s="3"/>
-      <c r="F39" s="4"/>
-      <c r="G39" s="4"/>
-      <c r="H39" s="4"/>
-      <c r="I39" s="4"/>
-      <c r="J39" s="4"/>
-      <c r="K39" s="4"/>
-      <c r="L39" s="4"/>
-      <c r="M39" s="4"/>
-      <c r="N39" s="4"/>
-      <c r="O39" s="4"/>
-      <c r="P39" s="4"/>
-      <c r="Q39" s="4"/>
-      <c r="R39" s="3"/>
-      <c r="S39" s="3"/>
-      <c r="T39" s="3"/>
-      <c r="U39" s="3"/>
-      <c r="V39" s="3"/>
-      <c r="W39" s="3"/>
-      <c r="X39" s="3"/>
+      <c r="B39" s="3"/>
+      <c r="C39" s="3"/>
+      <c r="D39" s="4"/>
+      <c r="E39" s="4"/>
+      <c r="F39" s="3"/>
+      <c r="G39" s="3"/>
+      <c r="H39" s="3"/>
+      <c r="I39" s="3"/>
+      <c r="J39" s="3"/>
+      <c r="K39" s="3"/>
+      <c r="L39" s="3"/>
+      <c r="M39" s="3"/>
+      <c r="N39" s="3"/>
+      <c r="O39" s="3"/>
+      <c r="P39" s="3"/>
+      <c r="Q39" s="3"/>
+      <c r="R39" s="4"/>
+      <c r="S39" s="4"/>
+      <c r="T39" s="4"/>
+      <c r="U39" s="4"/>
+      <c r="V39" s="4"/>
+      <c r="W39" s="4"/>
+      <c r="X39" s="4"/>
     </row>
     <row r="40" spans="2:24" x14ac:dyDescent="0.2">
-      <c r="B40" s="4"/>
-      <c r="C40" s="4"/>
-      <c r="D40" s="3"/>
-      <c r="E40" s="3"/>
-      <c r="F40" s="4"/>
-      <c r="G40" s="4"/>
-      <c r="H40" s="4"/>
-      <c r="I40" s="4"/>
-      <c r="J40" s="4"/>
-      <c r="K40" s="4"/>
-      <c r="L40" s="4"/>
-      <c r="M40" s="4"/>
-      <c r="N40" s="4"/>
-      <c r="O40" s="4"/>
-      <c r="P40" s="4"/>
-      <c r="Q40" s="4"/>
-      <c r="R40" s="3"/>
-      <c r="S40" s="3"/>
-      <c r="T40" s="3"/>
-      <c r="U40" s="3"/>
-      <c r="V40" s="3"/>
-      <c r="W40" s="3"/>
-      <c r="X40" s="3"/>
+      <c r="B40" s="3"/>
+      <c r="C40" s="3"/>
+      <c r="D40" s="4"/>
+      <c r="E40" s="4"/>
+      <c r="F40" s="3"/>
+      <c r="G40" s="3"/>
+      <c r="H40" s="3"/>
+      <c r="I40" s="3"/>
+      <c r="J40" s="3"/>
+      <c r="K40" s="3"/>
+      <c r="L40" s="3"/>
+      <c r="M40" s="3"/>
+      <c r="N40" s="3"/>
+      <c r="O40" s="3"/>
+      <c r="P40" s="3"/>
+      <c r="Q40" s="3"/>
+      <c r="R40" s="4"/>
+      <c r="S40" s="4"/>
+      <c r="T40" s="4"/>
+      <c r="U40" s="4"/>
+      <c r="V40" s="4"/>
+      <c r="W40" s="4"/>
+      <c r="X40" s="4"/>
     </row>
     <row r="41" spans="2:24" x14ac:dyDescent="0.2">
-      <c r="B41" s="4"/>
-      <c r="C41" s="4"/>
-      <c r="D41" s="3"/>
-      <c r="E41" s="3"/>
-      <c r="F41" s="4"/>
-      <c r="G41" s="4"/>
-      <c r="H41" s="4"/>
-      <c r="I41" s="4"/>
-      <c r="J41" s="4"/>
-      <c r="K41" s="4"/>
-      <c r="L41" s="4"/>
-      <c r="M41" s="4"/>
-      <c r="N41" s="4"/>
-      <c r="O41" s="4"/>
-      <c r="P41" s="4"/>
-      <c r="Q41" s="4"/>
-      <c r="R41" s="3"/>
-      <c r="S41" s="3"/>
-      <c r="T41" s="3"/>
-      <c r="U41" s="3"/>
-      <c r="V41" s="3"/>
-      <c r="W41" s="3"/>
-      <c r="X41" s="3"/>
+      <c r="B41" s="3"/>
+      <c r="C41" s="3"/>
+      <c r="D41" s="4"/>
+      <c r="E41" s="4"/>
+      <c r="F41" s="3"/>
+      <c r="G41" s="3"/>
+      <c r="H41" s="3"/>
+      <c r="I41" s="3"/>
+      <c r="J41" s="3"/>
+      <c r="K41" s="3"/>
+      <c r="L41" s="3"/>
+      <c r="M41" s="3"/>
+      <c r="N41" s="3"/>
+      <c r="O41" s="3"/>
+      <c r="P41" s="3"/>
+      <c r="Q41" s="3"/>
+      <c r="R41" s="4"/>
+      <c r="S41" s="4"/>
+      <c r="T41" s="4"/>
+      <c r="U41" s="4"/>
+      <c r="V41" s="4"/>
+      <c r="W41" s="4"/>
+      <c r="X41" s="4"/>
     </row>
     <row r="42" spans="2:24" x14ac:dyDescent="0.2">
-      <c r="B42" s="4"/>
-      <c r="C42" s="4"/>
-      <c r="D42" s="3"/>
-      <c r="E42" s="3"/>
-      <c r="F42" s="4"/>
-      <c r="G42" s="4"/>
-      <c r="H42" s="4"/>
-      <c r="I42" s="4"/>
-      <c r="J42" s="4"/>
-      <c r="K42" s="4"/>
-      <c r="L42" s="4"/>
-      <c r="M42" s="4"/>
-      <c r="N42" s="4"/>
-      <c r="O42" s="4"/>
-      <c r="P42" s="4"/>
-      <c r="Q42" s="4"/>
-      <c r="R42" s="3"/>
-      <c r="S42" s="3"/>
-      <c r="T42" s="3"/>
-      <c r="U42" s="3"/>
-      <c r="V42" s="3"/>
-      <c r="W42" s="3"/>
-      <c r="X42" s="3"/>
+      <c r="B42" s="3"/>
+      <c r="C42" s="3"/>
+      <c r="D42" s="4"/>
+      <c r="E42" s="4"/>
+      <c r="F42" s="3"/>
+      <c r="G42" s="3"/>
+      <c r="H42" s="3"/>
+      <c r="I42" s="3"/>
+      <c r="J42" s="3"/>
+      <c r="K42" s="3"/>
+      <c r="L42" s="3"/>
+      <c r="M42" s="3"/>
+      <c r="N42" s="3"/>
+      <c r="O42" s="3"/>
+      <c r="P42" s="3"/>
+      <c r="Q42" s="3"/>
+      <c r="R42" s="4"/>
+      <c r="S42" s="4"/>
+      <c r="T42" s="4"/>
+      <c r="U42" s="4"/>
+      <c r="V42" s="4"/>
+      <c r="W42" s="4"/>
+      <c r="X42" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="63">
+    <mergeCell ref="V2:X2"/>
+    <mergeCell ref="B3:C7"/>
+    <mergeCell ref="D3:E7"/>
+    <mergeCell ref="F3:I7"/>
+    <mergeCell ref="J3:M7"/>
+    <mergeCell ref="N3:Q7"/>
+    <mergeCell ref="R3:U7"/>
+    <mergeCell ref="V3:X7"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="F2:I2"/>
+    <mergeCell ref="J2:M2"/>
+    <mergeCell ref="N2:Q2"/>
+    <mergeCell ref="R2:U2"/>
+    <mergeCell ref="V8:X12"/>
+    <mergeCell ref="B13:C17"/>
+    <mergeCell ref="D13:E17"/>
+    <mergeCell ref="F13:I17"/>
+    <mergeCell ref="J13:M17"/>
+    <mergeCell ref="N13:Q17"/>
+    <mergeCell ref="R13:U17"/>
+    <mergeCell ref="V13:X17"/>
+    <mergeCell ref="B8:C12"/>
+    <mergeCell ref="D8:E12"/>
+    <mergeCell ref="F8:I12"/>
+    <mergeCell ref="J8:M12"/>
+    <mergeCell ref="N8:Q12"/>
+    <mergeCell ref="R8:U12"/>
+    <mergeCell ref="V18:X22"/>
+    <mergeCell ref="B23:C27"/>
+    <mergeCell ref="D23:E27"/>
+    <mergeCell ref="F23:I27"/>
+    <mergeCell ref="J23:M27"/>
+    <mergeCell ref="N23:Q27"/>
+    <mergeCell ref="R23:U27"/>
+    <mergeCell ref="V23:X27"/>
+    <mergeCell ref="B18:C22"/>
+    <mergeCell ref="D18:E22"/>
+    <mergeCell ref="F18:I22"/>
+    <mergeCell ref="J18:M22"/>
+    <mergeCell ref="N18:Q22"/>
+    <mergeCell ref="R18:U22"/>
+    <mergeCell ref="V28:X32"/>
+    <mergeCell ref="B28:C32"/>
+    <mergeCell ref="D28:E32"/>
+    <mergeCell ref="F28:I32"/>
+    <mergeCell ref="J28:M32"/>
+    <mergeCell ref="N28:Q32"/>
+    <mergeCell ref="R28:U32"/>
     <mergeCell ref="R33:U37"/>
     <mergeCell ref="V33:X37"/>
     <mergeCell ref="B38:C42"/>
@@ -6659,55 +9998,6 @@
     <mergeCell ref="F33:I37"/>
     <mergeCell ref="J33:M37"/>
     <mergeCell ref="N33:Q37"/>
-    <mergeCell ref="V28:X32"/>
-    <mergeCell ref="B28:C32"/>
-    <mergeCell ref="D28:E32"/>
-    <mergeCell ref="F28:I32"/>
-    <mergeCell ref="J28:M32"/>
-    <mergeCell ref="N28:Q32"/>
-    <mergeCell ref="R28:U32"/>
-    <mergeCell ref="V18:X22"/>
-    <mergeCell ref="B23:C27"/>
-    <mergeCell ref="D23:E27"/>
-    <mergeCell ref="F23:I27"/>
-    <mergeCell ref="J23:M27"/>
-    <mergeCell ref="N23:Q27"/>
-    <mergeCell ref="R23:U27"/>
-    <mergeCell ref="V23:X27"/>
-    <mergeCell ref="B18:C22"/>
-    <mergeCell ref="D18:E22"/>
-    <mergeCell ref="F18:I22"/>
-    <mergeCell ref="J18:M22"/>
-    <mergeCell ref="N18:Q22"/>
-    <mergeCell ref="R18:U22"/>
-    <mergeCell ref="V8:X12"/>
-    <mergeCell ref="B13:C17"/>
-    <mergeCell ref="D13:E17"/>
-    <mergeCell ref="F13:I17"/>
-    <mergeCell ref="J13:M17"/>
-    <mergeCell ref="N13:Q17"/>
-    <mergeCell ref="R13:U17"/>
-    <mergeCell ref="V13:X17"/>
-    <mergeCell ref="B8:C12"/>
-    <mergeCell ref="D8:E12"/>
-    <mergeCell ref="F8:I12"/>
-    <mergeCell ref="J8:M12"/>
-    <mergeCell ref="N8:Q12"/>
-    <mergeCell ref="R8:U12"/>
-    <mergeCell ref="V2:X2"/>
-    <mergeCell ref="B3:C7"/>
-    <mergeCell ref="D3:E7"/>
-    <mergeCell ref="F3:I7"/>
-    <mergeCell ref="J3:M7"/>
-    <mergeCell ref="N3:Q7"/>
-    <mergeCell ref="R3:U7"/>
-    <mergeCell ref="V3:X7"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="F2:I2"/>
-    <mergeCell ref="J2:M2"/>
-    <mergeCell ref="N2:Q2"/>
-    <mergeCell ref="R2:U2"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
